--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA6BFAA-3709-FE4E-845C-5742089161BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D3EA3E-3215-8745-8904-4FBCC223E1B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="222">
   <si>
     <t>Author</t>
   </si>
@@ -642,6 +642,63 @@
   </si>
   <si>
     <t>https://doi.org/10.1109/TASE.2016.2526781</t>
+  </si>
+  <si>
+    <t>Research questions</t>
+  </si>
+  <si>
+    <t>RQ1</t>
+  </si>
+  <si>
+    <t>RQ2</t>
+  </si>
+  <si>
+    <t>RQ3</t>
+  </si>
+  <si>
+    <t>EC4</t>
+  </si>
+  <si>
+    <t>EC5</t>
+  </si>
+  <si>
+    <t>Exploration of SOTA. Useful for intro.</t>
+  </si>
+  <si>
+    <t>Backward</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Snowballing iteration</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Vision paper</t>
+  </si>
+  <si>
+    <t>Position paper</t>
+  </si>
+  <si>
+    <t>Reseach report</t>
+  </si>
+  <si>
+    <t>Short paper</t>
+  </si>
+  <si>
+    <t>Mathematical model / prob. Model</t>
+  </si>
+  <si>
+    <t>Cvenue not well identified</t>
+  </si>
+  <si>
+    <t>Survey + discussion</t>
   </si>
 </sst>
 </file>
@@ -712,7 +769,63 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1033,16 +1146,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99048B8C-98B5-C846-BA1E-677FE6633279}">
-  <dimension ref="A1:R1000"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="96" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="102.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.5" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
@@ -1051,12 +1165,12 @@
     <col min="8" max="8" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="17" width="10.83203125" style="1"/>
-    <col min="18" max="18" width="58" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="22" width="10.83203125" style="1"/>
+    <col min="23" max="23" width="58" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1067,8 +1181,19 @@
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="T1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="X1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,16 +1240,37 @@
         <v>10</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="X2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
@@ -1150,18 +1296,51 @@
       <c r="H3" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L3" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="P3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1" t="b">
-        <f>AND(AND(H3:K3),NOT(OR(L3:O3)),NOT(P3))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="b">
+        <f>AND(AND(H3:K3),NOT(OR(L3:Q3)),NOT(R3))</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>94</v>
       </c>
@@ -1187,15 +1366,51 @@
       <c r="H4" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L4" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q4" s="1" t="b">
-        <f>AND(AND(H4:K4),NOT(OR(L4:O4)),NOT(P4))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="b">
+        <f>AND(AND(H4:K4),NOT(OR(L4:Q4)),NOT(R4))</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -1221,15 +1436,51 @@
       <c r="H5" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L5" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q5" s="1" t="b">
-        <f t="shared" ref="Q5:Q52" si="1">AND(AND(H5:K5),NOT(OR(L5:O5)),NOT(P5))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="b">
+        <f>AND(AND(H5:K5),NOT(OR(L5:Q5)),NOT(R5))</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,15 +1506,48 @@
       <c r="H6" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L6" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q6" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="b">
+        <f>AND(AND(H6:K6),NOT(OR(L6:Q6)),NOT(R6))</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
@@ -1289,15 +1573,48 @@
       <c r="H7" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L7" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q7" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="b">
+        <f>AND(AND(H7:K7),NOT(OR(L7:Q7)),NOT(R7))</f>
+        <v>1</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1323,15 +1640,48 @@
       <c r="H8" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L8" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q8" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="b">
+        <f>AND(AND(H8:K8),NOT(OR(L8:Q8)),NOT(R8))</f>
+        <v>1</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1357,15 +1707,51 @@
       <c r="H9" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L9" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q9" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="b">
+        <f>AND(AND(H9:K9),NOT(OR(L9:Q9)),NOT(R9))</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1391,15 +1777,51 @@
       <c r="H10" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L10" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="Q10" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1" t="b">
+        <f>AND(AND(H10:K10),NOT(OR(L10:Q10)),NOT(R10))</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1425,15 +1847,51 @@
       <c r="H11" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L11" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q11" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="b">
+        <f>AND(AND(H11:K11),NOT(OR(L11:Q11)),NOT(R11))</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>101</v>
       </c>
@@ -1459,15 +1917,48 @@
       <c r="H12" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L12" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q12" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1" t="b">
+        <f>AND(AND(H12:K12),NOT(OR(L12:Q12)),NOT(R12))</f>
+        <v>1</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1493,15 +1984,51 @@
       <c r="H13" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L13" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q13" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="b">
+        <f>AND(AND(H13:K13),NOT(OR(L13:Q13)),NOT(R13))</f>
+        <v>1</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1527,15 +2054,48 @@
       <c r="H14" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L14" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q14" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1" t="b">
+        <f>AND(AND(H14:K14),NOT(OR(L14:Q14)),NOT(R14))</f>
+        <v>1</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -1561,15 +2121,48 @@
       <c r="H15" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L15" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q15" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="b">
+        <f>AND(AND(H15:K15),NOT(OR(L15:Q15)),NOT(R15))</f>
+        <v>1</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>105</v>
       </c>
@@ -1595,15 +2188,48 @@
       <c r="H16" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L16" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q16" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="b">
+        <f>AND(AND(H16:K16),NOT(OR(L16:Q16)),NOT(R16))</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1629,15 +2255,48 @@
       <c r="H17" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L17" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="Q17" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="b">
+        <f>AND(AND(H17:K17),NOT(OR(L17:Q17)),NOT(R17))</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>108</v>
       </c>
@@ -1663,15 +2322,48 @@
       <c r="H18" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L18" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q18" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="b">
+        <f>AND(AND(H18:K18),NOT(OR(L18:Q18)),NOT(R18))</f>
+        <v>1</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>110</v>
       </c>
@@ -1697,15 +2389,51 @@
       <c r="H19" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L19" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="Q19" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="b">
+        <f>AND(AND(H19:K19),NOT(OR(L19:Q19)),NOT(R19))</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>112</v>
       </c>
@@ -1731,15 +2459,48 @@
       <c r="H20" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L20" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q20" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1" t="b">
+        <f>AND(AND(H20:K20),NOT(OR(L20:Q20)),NOT(R20))</f>
+        <v>1</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>114</v>
       </c>
@@ -1765,15 +2526,51 @@
       <c r="H21" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L21" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q21" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1" t="b">
+        <f>AND(AND(H21:K21),NOT(OR(L21:Q21)),NOT(R21))</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>117</v>
       </c>
@@ -1799,15 +2596,51 @@
       <c r="H22" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L22" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q22" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1" t="b">
+        <f>AND(AND(H22:K22),NOT(OR(L22:Q22)),NOT(R22))</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>120</v>
       </c>
@@ -1833,15 +2666,51 @@
       <c r="H23" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L23" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q23" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1" t="b">
+        <f>AND(AND(H23:K23),NOT(OR(L23:Q23)),NOT(R23))</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>123</v>
       </c>
@@ -1867,15 +2736,51 @@
       <c r="H24" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L24" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q24" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1" t="b">
+        <f>AND(AND(H24:K24),NOT(OR(L24:Q24)),NOT(R24))</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>126</v>
       </c>
@@ -1901,15 +2806,48 @@
       <c r="H25" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L25" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Q25" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1" t="b">
+        <f>AND(AND(H25:K25),NOT(OR(L25:Q25)),NOT(R25))</f>
+        <v>1</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>129</v>
       </c>
@@ -1938,12 +2876,18 @@
       <c r="L26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q26" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="1" t="b">
+        <f>AND(AND(H26:K26),NOT(OR(L26:Q26)),NOT(R26))</f>
+        <v>1</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>132</v>
       </c>
@@ -1972,12 +2916,18 @@
       <c r="L27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q27" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="1" t="b">
+        <f>AND(AND(H27:K27),NOT(OR(L27:Q27)),NOT(R27))</f>
+        <v>1</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>134</v>
       </c>
@@ -2006,12 +2956,18 @@
       <c r="L28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q28" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S28" s="1" t="b">
+        <f>AND(AND(H28:K28),NOT(OR(L28:Q28)),NOT(R28))</f>
+        <v>1</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>137</v>
       </c>
@@ -2040,12 +2996,18 @@
       <c r="L29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q29" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S29" s="1" t="b">
+        <f>AND(AND(H29:K29),NOT(OR(L29:Q29)),NOT(R29))</f>
+        <v>1</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>140</v>
       </c>
@@ -2074,12 +3036,18 @@
       <c r="L30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q30" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S30" s="1" t="b">
+        <f>AND(AND(H30:K30),NOT(OR(L30:Q30)),NOT(R30))</f>
+        <v>1</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>143</v>
       </c>
@@ -2108,12 +3076,18 @@
       <c r="L31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q31" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S31" s="1" t="b">
+        <f>AND(AND(H31:K31),NOT(OR(L31:Q31)),NOT(R31))</f>
+        <v>1</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>145</v>
       </c>
@@ -2142,12 +3116,18 @@
       <c r="L32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q32" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="1" t="b">
+        <f>AND(AND(H32:K32),NOT(OR(L32:Q32)),NOT(R32))</f>
+        <v>1</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2176,12 +3156,18 @@
       <c r="L33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q33" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="1" t="b">
+        <f>AND(AND(H33:K33),NOT(OR(L33:Q33)),NOT(R33))</f>
+        <v>1</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -2210,12 +3196,18 @@
       <c r="L34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q34" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S34" s="1" t="b">
+        <f>AND(AND(H34:K34),NOT(OR(L34:Q34)),NOT(R34))</f>
+        <v>1</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -2244,12 +3236,18 @@
       <c r="L35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q35" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="1" t="b">
+        <f>AND(AND(H35:K35),NOT(OR(L35:Q35)),NOT(R35))</f>
+        <v>1</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -2278,12 +3276,18 @@
       <c r="L36" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q36" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S36" s="1" t="b">
+        <f>AND(AND(H36:K36),NOT(OR(L36:Q36)),NOT(R36))</f>
+        <v>1</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -2312,12 +3316,18 @@
       <c r="L37" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q37" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S37" s="1" t="b">
+        <f>AND(AND(H37:K37),NOT(OR(L37:Q37)),NOT(R37))</f>
+        <v>1</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -2346,12 +3356,18 @@
       <c r="L38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q38" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S38" s="1" t="b">
+        <f>AND(AND(H38:K38),NOT(OR(L38:Q38)),NOT(R38))</f>
+        <v>1</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -2380,12 +3396,18 @@
       <c r="L39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q39" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S39" s="1" t="b">
+        <f>AND(AND(H39:K39),NOT(OR(L39:Q39)),NOT(R39))</f>
+        <v>1</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -2414,12 +3436,18 @@
       <c r="L40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q40" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S40" s="1" t="b">
+        <f>AND(AND(H40:K40),NOT(OR(L40:Q40)),NOT(R40))</f>
+        <v>1</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -2448,12 +3476,18 @@
       <c r="L41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q41" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S41" s="1" t="b">
+        <f>AND(AND(H41:K41),NOT(OR(L41:Q41)),NOT(R41))</f>
+        <v>1</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
@@ -2482,12 +3516,18 @@
       <c r="L42" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q42" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S42" s="1" t="b">
+        <f>AND(AND(H42:K42),NOT(OR(L42:Q42)),NOT(R42))</f>
+        <v>1</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -2516,12 +3556,18 @@
       <c r="L43" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q43" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S43" s="1" t="b">
+        <f>AND(AND(H43:K43),NOT(OR(L43:Q43)),NOT(R43))</f>
+        <v>1</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
@@ -2550,12 +3596,18 @@
       <c r="L44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q44" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S44" s="1" t="b">
+        <f>AND(AND(H44:K44),NOT(OR(L44:Q44)),NOT(R44))</f>
+        <v>1</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>68</v>
       </c>
@@ -2584,12 +3636,18 @@
       <c r="L45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q45" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S45" s="1" t="b">
+        <f>AND(AND(H45:K45),NOT(OR(L45:Q45)),NOT(R45))</f>
+        <v>1</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>71</v>
       </c>
@@ -2618,12 +3676,18 @@
       <c r="L46" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q46" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S46" s="1" t="b">
+        <f>AND(AND(H46:K46),NOT(OR(L46:Q46)),NOT(R46))</f>
+        <v>1</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>74</v>
       </c>
@@ -2652,12 +3716,18 @@
       <c r="L47" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q47" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S47" s="1" t="b">
+        <f>AND(AND(H47:K47),NOT(OR(L47:Q47)),NOT(R47))</f>
+        <v>1</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>77</v>
       </c>
@@ -2686,12 +3756,18 @@
       <c r="L48" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q48" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S48" s="1" t="b">
+        <f>AND(AND(H48:K48),NOT(OR(L48:Q48)),NOT(R48))</f>
+        <v>1</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
@@ -2720,12 +3796,18 @@
       <c r="L49" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q49" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S49" s="1" t="b">
+        <f>AND(AND(H49:K49),NOT(OR(L49:Q49)),NOT(R49))</f>
+        <v>1</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
@@ -2754,12 +3836,18 @@
       <c r="L50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q50" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S50" s="1" t="b">
+        <f>AND(AND(H50:K50),NOT(OR(L50:Q50)),NOT(R50))</f>
+        <v>1</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
@@ -2788,12 +3876,18 @@
       <c r="L51" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q51" s="1" t="b">
-        <f>AND(AND(H51:K51),NOT(OR(L51:O51)),NOT(P51))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S51" s="1" t="b">
+        <f>AND(AND(H51:K51),NOT(OR(L51:Q51)),NOT(R51))</f>
+        <v>1</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>88</v>
       </c>
@@ -2822,12 +3916,18 @@
       <c r="L52" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q52" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S52" s="1" t="b">
+        <f>AND(AND(H52:K52),NOT(OR(L52:Q52)),NOT(R52))</f>
+        <v>1</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>90</v>
       </c>
@@ -2856,12 +3956,18 @@
       <c r="L53" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q53" s="1" t="b">
-        <f>AND(AND(H53:K53),NOT(OR(L53:O53)),NOT(P53))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S53" s="1" t="b">
+        <f>AND(AND(H53:K53),NOT(OR(L53:Q53)),NOT(R53))</f>
+        <v>1</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H54" s="1" t="b">
         <v>1</v>
       </c>
@@ -2869,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H55" s="1" t="b">
         <v>1</v>
       </c>
@@ -2877,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H56" s="1" t="b">
         <v>1</v>
       </c>
@@ -2885,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H57" s="1" t="b">
         <v>1</v>
       </c>
@@ -2893,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H58" s="1" t="b">
         <v>1</v>
       </c>
@@ -2901,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H59" s="1" t="b">
         <v>1</v>
       </c>
@@ -2909,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H60" s="1" t="b">
         <v>1</v>
       </c>
@@ -2917,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H61" s="1" t="b">
         <v>1</v>
       </c>
@@ -2925,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H62" s="1" t="b">
         <v>1</v>
       </c>
@@ -2933,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H63" s="1" t="b">
         <v>1</v>
       </c>
@@ -2941,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H64" s="1" t="b">
         <v>1</v>
       </c>
@@ -10438,13 +11544,35 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:C53">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>SUMPRODUCT(--EXACT($C$3:$C$53,$C3))&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:Y53">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S53">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:Q53">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:K53">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -10498,6 +11626,7 @@
     <hyperlink ref="F51" r:id="rId48" xr:uid="{30B895FE-BBB9-2849-A613-0A8C97F0625A}"/>
     <hyperlink ref="F52" r:id="rId49" xr:uid="{C6B63B34-F3EA-964C-9D9C-43599091C735}"/>
     <hyperlink ref="F53" r:id="rId50" xr:uid="{C2687535-63E5-3B42-B2A4-C63DCAB713A3}"/>
+    <hyperlink ref="F8" r:id="rId51" xr:uid="{913CC7A1-CBA4-4947-BA8D-F2A9A48700CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D3EA3E-3215-8745-8904-4FBCC223E1B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF02567-AF47-6346-ABE0-497E2CB3656E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
   <sheets>
     <sheet name="DelayedActions" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Uncertainty" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="230">
   <si>
     <t>Author</t>
   </si>
@@ -200,9 +200,6 @@
     <t xml:space="preserve">P.Arcaini, E.Riccobene,and P.Scandurra </t>
   </si>
   <si>
-    <t xml:space="preserve">Modeling and Analyzing MAPE- K Feedback Loops for Self-Adaptation </t>
-  </si>
-  <si>
     <t xml:space="preserve">Gordon S. Blair, Nelly Bencomo, and Robert B. France </t>
   </si>
   <si>
@@ -284,9 +281,6 @@
     <t xml:space="preserve">Gavin Mulligan and Denis Gračanin </t>
   </si>
   <si>
-    <t xml:space="preserve">A comparison of SOAP and REST implementations of a service based interaction independence middleware frame- work </t>
-  </si>
-  <si>
     <t>WSC</t>
   </si>
   <si>
@@ -699,6 +693,36 @@
   </si>
   <si>
     <t>Survey + discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Requirement modeling (!= context/behavioral modeling)</t>
+  </si>
+  <si>
+    <t>Req. Modeling + PhD Disseration</t>
+  </si>
+  <si>
+    <t>Methodology for RE</t>
+  </si>
+  <si>
+    <t>Temporal graph, low level, != model</t>
+  </si>
+  <si>
+    <t>PhD Dissertations</t>
+  </si>
+  <si>
+    <t>Overview of state of the art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modeling and Analyzing MAPE-K Feedback Loops for Self-Adaptation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A comparison of SOAP and REST implementations of a service based interaction independence middleware framework </t>
+  </si>
+  <si>
+    <t>presents an algorithm for tasks schedulling</t>
   </si>
 </sst>
 </file>
@@ -743,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -764,12 +788,115 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -809,22 +936,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1148,9 +1259,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99048B8C-98B5-C846-BA1E-677FE6633279}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="W38" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,27 +1285,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="T1" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="X1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y1" s="2"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="T1" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="X1" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1201,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1210,13 +1324,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
@@ -1228,7 +1342,7 @@
         <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>8</v>
@@ -1240,42 +1354,42 @@
         <v>10</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>TRIM(LOWER(B3))</f>
@@ -1288,7 +1402,7 @@
         <v>2009</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
@@ -1327,38 +1441,38 @@
         <v>0</v>
       </c>
       <c r="S3" s="1" t="b">
-        <f>AND(AND(H3:K3),NOT(OR(L3:Q3)),NOT(R3))</f>
+        <f t="shared" ref="S3:S34" si="0">AND(AND(H3:K3),NOT(OR(L3:Q3)),NOT(R3))</f>
         <v>0</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f t="shared" ref="C4:C53" si="0">TRIM(LOWER(B4))</f>
+        <f t="shared" ref="C4:C53" si="1">TRIM(LOWER(B4))</f>
         <v>self-adaptive systems: a survey of current approaches, research challenges and applications</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E4" s="1">
         <v>2013</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>18</v>
@@ -1397,38 +1511,38 @@
         <v>0</v>
       </c>
       <c r="S4" s="1" t="b">
-        <f>AND(AND(H4:K4),NOT(OR(L4:Q4)),NOT(R4))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>the vision of autonomic computing</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1">
         <v>2003</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
@@ -1467,17 +1581,17 @@
         <v>0</v>
       </c>
       <c r="S5" s="1" t="b">
-        <f>AND(AND(H5:K5),NOT(OR(L5:Q5)),NOT(R5))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1488,7 +1602,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>lotus@ runtime: a tool for runtime monitoring and verification of self-adaptive systems</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1498,7 +1612,7 @@
         <v>2017</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>18</v>
@@ -1537,25 +1651,25 @@
         <v>0</v>
       </c>
       <c r="S6" s="1" t="b">
-        <f>AND(AND(H6:K6),NOT(OR(L6:Q6)),NOT(R6))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>formal verification of dynamic evolution processes of uml models using aspects</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1565,7 +1679,7 @@
         <v>2017</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>18</v>
@@ -1604,14 +1718,14 @@
         <v>0</v>
       </c>
       <c r="S7" s="1" t="b">
-        <f>AND(AND(H7:K7),NOT(OR(L7:Q7)),NOT(R7))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -1622,7 +1736,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>self-explanation in adaptive systems</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1632,7 +1746,7 @@
         <v>2012</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>18</v>
@@ -1671,14 +1785,14 @@
         <v>0</v>
       </c>
       <c r="S8" s="1" t="b">
-        <f>AND(AND(H8:K8),NOT(OR(L8:Q8)),NOT(R8))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -1689,7 +1803,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>integrating run-time observations and design component models for cloud system analysis</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1699,7 +1813,7 @@
         <v>2014</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>18</v>
@@ -1738,17 +1852,17 @@
         <v>0</v>
       </c>
       <c r="S9" s="1" t="b">
-        <f>AND(AND(H9:K9),NOT(OR(L9:Q9)),NOT(R9))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -1759,7 +1873,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>iobserve: integrated observation and modeling techniques to support adaptation and evolution of software systems</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1769,7 +1883,7 @@
         <v>2013</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>18</v>
@@ -1808,17 +1922,17 @@
         <v>0</v>
       </c>
       <c r="S10" s="1" t="b">
-        <f>AND(AND(H10:K10),NOT(OR(L10:Q10)),NOT(R10))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -1829,7 +1943,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>self-adaptive software system monitoring for performance anomaly localization</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1839,7 +1953,7 @@
         <v>2011</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>18</v>
@@ -1878,28 +1992,28 @@
         <v>0</v>
       </c>
       <c r="S11" s="1" t="b">
-        <f>AND(AND(H11:K11),NOT(OR(L11:Q11)),NOT(R11))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>modelling and analysing contextual failures for dependability requirements</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1909,7 +2023,7 @@
         <v>2014</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>18</v>
@@ -1948,14 +2062,14 @@
         <v>0</v>
       </c>
       <c r="S12" s="1" t="b">
-        <f>AND(AND(H12:K12),NOT(OR(L12:Q12)),NOT(R12))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -1966,7 +2080,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>diagnosing unobserved components in self-adaptive systems</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1976,7 +2090,7 @@
         <v>2014</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>18</v>
@@ -2015,17 +2129,17 @@
         <v>0</v>
       </c>
       <c r="S13" s="1" t="b">
-        <f>AND(AND(H13:K13),NOT(OR(L13:Q13)),NOT(R13))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -2036,7 +2150,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>activforms: active formal models for self-adaptation</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2046,7 +2160,7 @@
         <v>2014</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>18</v>
@@ -2085,35 +2199,35 @@
         <v>0</v>
       </c>
       <c r="S14" s="1" t="b">
-        <f>AND(AND(H14:K14),NOT(OR(L14:Q14)),NOT(R14))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>reactive security for smart grids using models@run.time-based simulation and reasoning</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>reactive security for smart grids using models@run.time-based simulation and reasoning</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E15" s="1">
         <v>2014</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>18</v>
@@ -2152,35 +2266,35 @@
         <v>0</v>
       </c>
       <c r="S15" s="1" t="b">
-        <f>AND(AND(H15:K15),NOT(OR(L15:Q15)),NOT(R15))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>generating realistic smart grid communication topologies based on real-data</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>generating realistic smart grid communication topologies based on real-data</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E16" s="1">
         <v>2014</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>18</v>
@@ -2219,14 +2333,14 @@
         <v>0</v>
       </c>
       <c r="S16" s="1" t="b">
-        <f>AND(AND(H16:K16),NOT(OR(L16:Q16)),NOT(R16))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
@@ -2237,7 +2351,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>an architectural blueprint for autonomic computing</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2247,7 +2361,7 @@
         <v>2005</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>18</v>
@@ -2286,35 +2400,35 @@
         <v>0</v>
       </c>
       <c r="S17" s="1" t="b">
-        <f>AND(AND(H17:K17),NOT(OR(L17:Q17)),NOT(R17))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>modeling context information in pervasive computing systems</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1">
         <v>2002</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>18</v>
@@ -2353,35 +2467,35 @@
         <v>0</v>
       </c>
       <c r="S18" s="1" t="b">
-        <f>AND(AND(H18:K18),NOT(OR(L18:Q18)),NOT(R18))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>context-aware sensors and data muffling</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E19" s="1">
         <v>2007</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>18</v>
@@ -2420,38 +2534,38 @@
         <v>0</v>
       </c>
       <c r="S19" s="1" t="b">
-        <f>AND(AND(H19:K19),NOT(OR(L19:Q19)),NOT(R19))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>reasoning at runtime using time-distorted contexts: a models@run.time based approach</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="1">
         <v>2014</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>18</v>
@@ -2490,35 +2604,35 @@
         <v>0</v>
       </c>
       <c r="S20" s="1" t="b">
-        <f>AND(AND(H20:K20),NOT(OR(L20:Q20)),NOT(R20))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>a survey of context modelling and reasoning techniques</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a survey of context modelling and reasoning techniques</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E21" s="1">
         <v>2010</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>18</v>
@@ -2557,38 +2671,38 @@
         <v>0</v>
       </c>
       <c r="S21" s="1" t="b">
-        <f>AND(AND(H21:K21),NOT(OR(L21:Q21)),NOT(R21))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>context aware computing for the internet of things: a survey</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>context aware computing for the internet of things: a survey</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="E22" s="1">
         <v>2014</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>18</v>
@@ -2627,38 +2741,38 @@
         <v>0</v>
       </c>
       <c r="S22" s="1" t="b">
-        <f>AND(AND(H22:K22),NOT(OR(L22:Q22)),NOT(R22))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>on non-functional requirements</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>on non-functional requirements</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="E23" s="1">
         <v>2007</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>18</v>
@@ -2697,38 +2811,38 @@
         <v>0</v>
       </c>
       <c r="S23" s="1" t="b">
-        <f>AND(AND(H23:K23),NOT(OR(L23:Q23)),NOT(R23))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>research directions in requirements engineering</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>research directions in requirements engineering</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E24" s="1">
         <v>2007</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>18</v>
@@ -2767,38 +2881,38 @@
         <v>0</v>
       </c>
       <c r="S24" s="1" t="b">
-        <f>AND(AND(H24:K24),NOT(OR(L24:Q24)),NOT(R24))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>temporal graph algebra</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>temporal graph algebra</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E25" s="1">
         <v>2017</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>18</v>
@@ -2837,35 +2951,35 @@
         <v>0</v>
       </c>
       <c r="S25" s="1" t="b">
-        <f>AND(AND(H25:K25),NOT(OR(L25:Q25)),NOT(R25))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>goal-directed requirements acquisition</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>goal-directed requirements acquisition</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E26" s="1">
         <v>1993</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>18</v>
@@ -2873,39 +2987,72 @@
       <c r="H26" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L26" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S26" s="1" t="b">
-        <f>AND(AND(H26:K26),NOT(OR(L26:Q26)),NOT(R26))</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>modelling strategic relationships for process reengineering</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="1">
         <v>2011</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>18</v>
@@ -2913,39 +3060,69 @@
       <c r="H27" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L27" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S27" s="1" t="b">
-        <f>AND(AND(H27:K27),NOT(OR(L27:Q27)),NOT(R27))</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>tropos: an agent-oriented software development methodology</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>tropos: an agent-oriented software development methodology</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="E28" s="1">
         <v>2004</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>18</v>
@@ -2953,39 +3130,69 @@
       <c r="H28" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L28" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S28" s="1" t="b">
-        <f>AND(AND(H28:K28),NOT(OR(L28:Q28)),NOT(R28))</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>a scenario-driven approach to traceability</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a scenario-driven approach to traceability</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E29" s="1">
         <v>2001</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>18</v>
@@ -2993,39 +3200,66 @@
       <c r="H29" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L29" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S29" s="1" t="b">
-        <f>AND(AND(H29:K29),NOT(OR(L29:Q29)),NOT(R29))</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>stitch: a language for architecture-based self-adaptation</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>stitch: a language for architecture-based self-adaptation</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="E30" s="1">
         <v>2012</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>18</v>
@@ -3033,39 +3267,66 @@
       <c r="H30" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L30" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S30" s="1" t="b">
-        <f>AND(AND(H30:K30),NOT(OR(L30:Q30)),NOT(R30))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>analyzing complex data in motion at scale with temporal graphs</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="1">
         <v>2017</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>18</v>
@@ -3073,39 +3334,69 @@
       <c r="H31" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L31" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S31" s="1" t="b">
-        <f>AND(AND(H31:K31),NOT(OR(L31:Q31)),NOT(R31))</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>enabling model-driven live analytics for cyber-physical systems: the case of smart grids</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="1">
         <v>2016</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>18</v>
@@ -3113,18 +3404,48 @@
       <c r="H32" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L32" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R32" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S32" s="1" t="b">
-        <f>AND(AND(H32:K32),NOT(OR(L32:Q32)),NOT(R32))</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
@@ -3135,7 +3456,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>modeling and analyzing mape-k feedback loops for self-adaptation</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -3145,7 +3466,7 @@
         <v>2015</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>18</v>
@@ -3153,18 +3474,45 @@
       <c r="H33" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L33" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S33" s="1" t="b">
-        <f>AND(AND(H33:K33),NOT(OR(L33:Q33)),NOT(R33))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
@@ -3175,7 +3523,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>runtime monitoring and resolution of probabilistic obstacles to system goals</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3185,7 +3533,7 @@
         <v>2017</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>18</v>
@@ -3193,18 +3541,45 @@
       <c r="H34" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L34" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S34" s="1" t="b">
-        <f>AND(AND(H34:K34),NOT(OR(L34:Q34)),NOT(R34))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
@@ -3215,7 +3590,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>forms: unifying reference model for formal specification of distributed self-adaptive systems</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -3225,7 +3600,7 @@
         <v>2012</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>18</v>
@@ -3233,18 +3608,45 @@
       <c r="H35" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L35" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S35" s="1" t="b">
-        <f>AND(AND(H35:K35),NOT(OR(L35:Q35)),NOT(R35))</f>
+        <f t="shared" ref="S35:S66" si="2">AND(AND(H35:K35),NOT(OR(L35:Q35)),NOT(R35))</f>
         <v>1</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
@@ -3255,7 +3657,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>kieker: a framework for application performance monitoring and dynamic software analysis</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3265,7 +3667,7 @@
         <v>2012</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>18</v>
@@ -3273,18 +3675,45 @@
       <c r="H36" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L36" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S36" s="1" t="b">
-        <f>AND(AND(H36:K36),NOT(OR(L36:Q36)),NOT(R36))</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
@@ -3295,7 +3724,7 @@
         <v>46</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>an architectural blueprint for autonomic computing</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3305,7 +3734,7 @@
         <v>2005</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>18</v>
@@ -3313,18 +3742,45 @@
       <c r="H37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L37" s="1" t="b">
-        <v>0</v>
+      <c r="I37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="S37" s="1" t="b">
-        <f>AND(AND(H37:K37),NOT(OR(L37:Q37)),NOT(R37))</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
@@ -3335,7 +3791,7 @@
         <v>49</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>case-based reasoning: foundational issues, methodological variations, and system approaches</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3345,7 +3801,7 @@
         <v>1994</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>18</v>
@@ -3353,18 +3809,48 @@
       <c r="H38" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L38" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S38" s="1" t="b">
-        <f>AND(AND(H38:K38),NOT(OR(L38:Q38)),NOT(R38))</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
@@ -3375,7 +3861,7 @@
         <v>52</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>a rule-based language for complex event processing and reasoning</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3385,7 +3871,7 @@
         <v>2010</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>18</v>
@@ -3393,18 +3879,45 @@
       <c r="H39" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L39" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S39" s="1" t="b">
-        <f>AND(AND(H39:K39),NOT(OR(L39:Q39)),NOT(R39))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
@@ -3412,11 +3925,11 @@
         <v>54</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>modeling and analyzing mape- k feedback loops for self-adaptation</v>
+        <f t="shared" si="1"/>
+        <v>modeling and analyzing mape-k feedback loops for self-adaptation</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>17</v>
@@ -3425,7 +3938,7 @@
         <v>2015</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>18</v>
@@ -3433,39 +3946,66 @@
       <c r="H40" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L40" s="1" t="b">
-        <v>0</v>
+      <c r="I40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="S40" s="1" t="b">
-        <f>AND(AND(H40:K40),NOT(OR(L40:Q40)),NOT(R40))</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="C41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>models@run.time</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>models@run.time</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E41" s="1">
         <v>2009</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>18</v>
@@ -3473,39 +4013,66 @@
       <c r="H41" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L41" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R41" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S41" s="1" t="b">
-        <f>AND(AND(H41:K41),NOT(OR(L41:Q41)),NOT(R41))</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>strong temporal planning with uncontrollable durations: a state-space approach</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>strong temporal planning with uncontrollable durations: a state-space approach</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E42" s="1">
         <v>2015</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>18</v>
@@ -3513,39 +4080,66 @@
       <c r="H42" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L42" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S42" s="1" t="b">
-        <f>AND(AND(H42:K42),NOT(OR(L42:Q42)),NOT(R42))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>enabling model-driven live analytics for cyber-physical systems: the case of smart grids</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>enabling model-driven live analytics for cyber-physical systems: the case of smart grids</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E43" s="1">
         <v>2016</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>18</v>
@@ -3553,39 +4147,66 @@
       <c r="H43" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L43" s="1" t="b">
-        <v>0</v>
+      <c r="I43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R43" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="S43" s="1" t="b">
-        <f>AND(AND(H43:K43),NOT(OR(L43:Q43)),NOT(R43))</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>analyzing complex data in motion at scale with temporal graphs</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>analyzing complex data in motion at scale with temporal graphs</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E44" s="1">
         <v>2017</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>18</v>
@@ -3593,39 +4214,66 @@
       <c r="H44" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L44" s="1" t="b">
-        <v>0</v>
+      <c r="I44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="S44" s="1" t="b">
-        <f>AND(AND(H44:K44),NOT(OR(L44:Q44)),NOT(R44))</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>a native versioning concept to support historized models at runtime</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a native versioning concept to support historized models at runtime</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E45" s="1">
         <v>2014</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>18</v>
@@ -3633,39 +4281,66 @@
       <c r="H45" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L45" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S45" s="1" t="b">
-        <f>AND(AND(H45:K45),NOT(OR(L45:Q45)),NOT(R45))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>modeling context information in pervasive computing systems</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>modeling context information in pervasive computing systems</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E46" s="1">
         <v>2002</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>18</v>
@@ -3673,39 +4348,66 @@
       <c r="H46" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L46" s="1" t="b">
-        <v>0</v>
+      <c r="I46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R46" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="S46" s="1" t="b">
-        <f>AND(AND(H46:K46),NOT(OR(L46:Q46)),NOT(R46))</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>a performance study on the vm startup time in the cloud</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a performance study on the vm startup time in the cloud</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E47" s="1">
         <v>2012</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>18</v>
@@ -3713,39 +4415,66 @@
       <c r="H47" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L47" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S47" s="1" t="b">
-        <f>AND(AND(H47:K47),NOT(OR(L47:Q47)),NOT(R47))</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="C48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>revealing the mape loop for the autonomic management of cloud infrastructures</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>revealing the mape loop for the autonomic management of cloud infrastructures</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E48" s="1">
         <v>2011</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>18</v>
@@ -3753,39 +4482,66 @@
       <c r="H48" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L48" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S48" s="1" t="b">
-        <f>AND(AND(H48:K48),NOT(OR(L48:Q48)),NOT(R48))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="C49" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>models@run.time to support dynamic adaptation</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E49" s="1">
         <v>2009</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>18</v>
@@ -3793,39 +4549,66 @@
       <c r="H49" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L49" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S49" s="1" t="b">
-        <f>AND(AND(H49:K49),NOT(OR(L49:Q49)),NOT(R49))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>a comparison of soap and rest implementations of a service based interaction independence middleware framework</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>a comparison of soap and rest implementations of a service based interaction independence middleware frame- work</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E50" s="1">
         <v>2009</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>18</v>
@@ -3833,39 +4616,66 @@
       <c r="H50" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L50" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S50" s="1" t="b">
-        <f>AND(AND(H50:K50),NOT(OR(L50:Q50)),NOT(R50))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>statistical characterization of business-critical workloads hosted in cloud datacenters</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>statistical characterization of business-critical workloads hosted in cloud datacenters</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E51" s="1">
         <v>2015</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>18</v>
@@ -3873,29 +4683,56 @@
       <c r="H51" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L51" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S51" s="1" t="b">
-        <f>AND(AND(H51:K51),NOT(OR(L51:Q51)),NOT(R51))</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>dynamico: a reference model for governing control objectives and context relevance in self-adaptive software systems</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -3905,7 +4742,7 @@
         <v>2013</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>18</v>
@@ -3913,39 +4750,66 @@
       <c r="H52" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L52" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S52" s="1" t="b">
-        <f>AND(AND(H52:K52),NOT(OR(L52:Q52)),NOT(R52))</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>temporal task scheduling with constrained service delay for profit maximization in hybrid clouds</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>temporal task scheduling with constrained service delay for profit maximization in hybrid clouds</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E53" s="1">
         <v>2017</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>18</v>
@@ -3953,18 +4817,48 @@
       <c r="H53" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L53" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="M53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="S53" s="1" t="b">
-        <f>AND(AND(H53:K53),NOT(OR(L53:Q53)),NOT(R53))</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
@@ -11551,26 +12445,76 @@
     <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:C53">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>SUMPRODUCT(--EXACT($C$3:$C$53,$C3))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:Y53">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S53">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:Q53">
+  <conditionalFormatting sqref="M3:Q36 M38:Q39 M41:Q42 M45:Q45 M47:Q53">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:K36 I38:K39 I41:K42 I45:K45 I47:K53">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M37:Q37">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:K37">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M40:Q40">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:K40">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:Q43">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:K43">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44:Q44">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:K44">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M46:Q46">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:K53">
+  <conditionalFormatting sqref="I46:K46">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -11644,10 +12588,10 @@
   <sheetData>
     <row r="20" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K20" t="b">
         <f>I20=J20</f>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C21D9E9-E4EE-E740-B1FC-6CB7FEFECC37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3685F8-202E-D547-8E22-1E628D308DF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="512">
   <si>
     <t>Author</t>
   </si>
@@ -668,9 +668,6 @@
     <t>Short paper</t>
   </si>
   <si>
-    <t>Mathematical model / prob. Model</t>
-  </si>
-  <si>
     <t>Survey + discussion</t>
   </si>
   <si>
@@ -704,9 +701,6 @@
     <t>presents an algorithm for tasks schedulling</t>
   </si>
   <si>
-    <t>Paper to read</t>
-  </si>
-  <si>
     <t>Venue not well identified</t>
   </si>
   <si>
@@ -734,14 +728,854 @@
     <t>Total</t>
   </si>
   <si>
-    <t>% read</t>
+    <t>After reading the paper: there is no context/behavior modeling. Remove from selection</t>
+  </si>
+  <si>
+    <t>Removed after reading: nothing about AS</t>
+  </si>
+  <si>
+    <t>A survey of autonomic computing—degrees, models, and applications</t>
+  </si>
+  <si>
+    <t>CSUR</t>
+  </si>
+  <si>
+    <t>.  C.  Huebscher  and  J.  A.  McCann</t>
+  </si>
+  <si>
+    <t>Model Checking</t>
+  </si>
+  <si>
+    <t>Clarke Jr, Edmund M and Grumberg, Orna and Kroening, Daniel and Peled, Doron and Veith, Helmut</t>
+  </si>
+  <si>
+    <t>MIT Press</t>
+  </si>
+  <si>
+    <t>Self-adaptive software needs quantitative verification at runtime</t>
+  </si>
+  <si>
+    <t>Calinescu, Radu and Ghezzi, Carlo and Kwiatkowska, Marta and Mirandola, Raffaela</t>
+  </si>
+  <si>
+    <t>Communications of the ACM</t>
+  </si>
+  <si>
+    <t>Models in software engineering</t>
+  </si>
+  <si>
+    <t>Holger Giese</t>
+  </si>
+  <si>
+    <t>Workshop Models</t>
+  </si>
+  <si>
+    <t>Coma: Conformancemonitoring of java programs by abstract state machine</t>
+  </si>
+  <si>
+    <t>Arcaini, Paolo and Gargantini, Angelo and Riccobene, Elvinia</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>Developing  self-verifying service-based systems</t>
+  </si>
+  <si>
+    <t>R.  Calinescu,  K.  Johnson,  and  Y.  Rafiq</t>
+  </si>
+  <si>
+    <t>ASE</t>
+  </si>
+  <si>
+    <t>Tele assistance: a self-adaptive service-based system examplar</t>
+  </si>
+  <si>
+    <t>.  Weyns  and  R.  Calinescu</t>
+  </si>
+  <si>
+    <t>Qos-aware middleware for web services composition</t>
+  </si>
+  <si>
+    <t>L. Zeng, B. Benatallah, A. H.H. Ngu, M. Dumas, J. Kalagnanam, andH. Chang</t>
+  </si>
+  <si>
+    <t>Trans. SE</t>
+  </si>
+  <si>
+    <t>The  Future  of  Software: Adaptation and Dependability</t>
+  </si>
+  <si>
+    <t>P.  Inverardi  and  M.  Tivoli</t>
+  </si>
+  <si>
+    <t>L.  Pike,  S.  Niller,  and  N.  Wegmann</t>
+  </si>
+  <si>
+    <t>Runtime  Verification  for  Ultra-Critical Systems</t>
+  </si>
+  <si>
+    <t>. Weyns, M. U. Iftikhar, D. G. de la Iglesia, and T. Ahmad</t>
+  </si>
+  <si>
+    <t>C3S2E</t>
+  </si>
+  <si>
+    <t>G.  Tamura,  N.  M.  Villegas,  H.  A.  M ̈uller,  J.  P.  Sousa,  B.  Becker,G.  Karsai,  S.  Mankovskii,  M.  Pezz`e,  W.  Sch ̈afer,  L.  Tahvildariet  al.</t>
+  </si>
+  <si>
+    <t>R. de Lemos, H. Giese, H. A. M ̈uller, M. Shaw, J. Andersson, M. Litoiu,B. Schmerl, G. Tamura, N. M. Villegas, T. Vogel, D. Weyns, L. Baresi,B. Becker, N. Bencomo, Y. Brun, B. Cukic, R. Desmarais, S. Dustdar,G. Engels, K. Geihs, K. M. G ̈oschka, A. Gorla, V. Grassi, P. Inverardi,G.  Karsai,  J.  Kramer,  A.  Lopes,  J.  Magee,  S.  Malek,  S.  Mankovskii,R.  Mirandola,  J.  Mylopoulos,  O.  Nierstrasz,  M.  Pezz`e,  C.  Prehofer,W.  Sch ̈afer,  R.  Schlichting,  D.  B.  Smith,  J.  P.  Sousa,  L.  Tahvildari,K.  Wong,  and  J.  Wuttke</t>
+  </si>
+  <si>
+    <t>M.  Kwiatkowska,  G.  Norman,  and  D.  Parker</t>
+  </si>
+  <si>
+    <t>Probabilistic  SymbolicModel Checking with PRISM: A Hybrid Approach</t>
+  </si>
+  <si>
+    <t>Principles of model checking</t>
+  </si>
+  <si>
+    <t>. Bencomo, A. Bennaceur, P. Grace, G. Blair, and V. Issarn</t>
+  </si>
+  <si>
+    <t>Computing</t>
+  </si>
+  <si>
+    <t>Proactiveself-adaptation   under   uncertainty:   A   probabilistic   model   checking approach</t>
+  </si>
+  <si>
+    <t>ESEC/FSE</t>
+  </si>
+  <si>
+    <t>G.  A.  Moreno,  J.  Cámara,  D.  Garlan,  and  B.  Schmerl</t>
+  </si>
+  <si>
+    <t>. Chen, H. Mao, M. Jaeger, T. D. Nielsen, K. Guldstrand Larsen, and B. Nielsen</t>
+  </si>
+  <si>
+    <t>Learning Markov Models for Stationary System Behaviors</t>
+  </si>
+  <si>
+    <t>A.   Filieri,   C.   Ghezzi,   A.   Leva,   and   M.   Maggio</t>
+  </si>
+  <si>
+    <t>Self-adaptivesoftware   meets   control   theory:   A   preliminary   approach   supportingreliability  requirements</t>
+  </si>
+  <si>
+    <t>J.  Magee  and  J.  Kramer</t>
+  </si>
+  <si>
+    <t>State models and java programs</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>L.  L.  Muniz,  U.  S.  C.  Netto,  and  P.  H.  M.  Maia</t>
+  </si>
+  <si>
+    <t>Tcg  -  a model-based testing tool for functional and statistical testing</t>
+  </si>
+  <si>
+    <t>ICEIS</t>
+  </si>
+  <si>
+    <t>M.  Kwiatkowska,</t>
+  </si>
+  <si>
+    <t>FSE</t>
+  </si>
+  <si>
+    <t>Quantitative  verification:  models  techniques  and tools</t>
+  </si>
+  <si>
+    <t>S.  Maoz,</t>
+  </si>
+  <si>
+    <t>Using  model-based  traces  as  runtime  models</t>
+  </si>
+  <si>
+    <t>E.  Gamma,  R.  Helm,  R.  Johnson,  and  J.  Vlissides</t>
+  </si>
+  <si>
+    <t>Design  Patterns:Elements  of  Reusable  Object-oriented  Software</t>
+  </si>
+  <si>
+    <t>Addison-Wesley Longman Publishing Co</t>
+  </si>
+  <si>
+    <t>.  T.  Eugster,  P.  A.  Felber,  R.  Guerraoui,  and  A.-M.  Kermarrec</t>
+  </si>
+  <si>
+    <t>The many  faces  of  publish/subscribe</t>
+  </si>
+  <si>
+    <t>Dronology: An Incubator for Cyber-Physical System Research</t>
+  </si>
+  <si>
+    <t>Jane Cleland-Huang, Michael Vierhauser, Sean Bayley</t>
+  </si>
+  <si>
+    <t>under submission</t>
+  </si>
+  <si>
+    <t>mRUBiS: an exemplar for model-based architectural self-healing and self-optimization</t>
+  </si>
+  <si>
+    <t>T. Vogel</t>
+  </si>
+  <si>
+    <t>Monitoring CPS at Runtime - A Case Study in the UAV Domain</t>
+  </si>
+  <si>
+    <t>SEAA</t>
+  </si>
+  <si>
+    <t>Vierhauser, Michael and Cleland-Huang, Jane and Bayley, Sean and Krismayer, Thomas and Rabiser, Rick and Grünbacher, Pau</t>
+  </si>
+  <si>
+    <t>Extraction of Probabilistic Behaviour Models Based on Contexts</t>
+  </si>
+  <si>
+    <t>MiSE</t>
+  </si>
+  <si>
+    <t>Duarte, Lucio Mauro and Maia, Paulo Henrique Mendes and Silva, Ana Carolina Sanchotene</t>
+  </si>
+  <si>
+    <t>A Compositional Approach for Reliable Adaptation of Track-based Traffic Control Systems at Runtime</t>
+  </si>
+  <si>
+    <t>Bagheri, Maryam and Sirjani, Marjan and Khamespanah, Ehsan and Movaghar, Ali</t>
+  </si>
+  <si>
+    <t>Reasoning from First Principles for Self-adaptive and Autonomous Systems</t>
+  </si>
+  <si>
+    <t>Wotawa, Franz</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>The role of         models@run.time  in  supporting  on-the-fly  interoperability</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1380584.1380585</t>
+  </si>
+  <si>
+    <t>Self-adaptation through  incremental  generative  model  transformations  at  runtime</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2568225.2568310</t>
+  </si>
+  <si>
+    <t>Didn't find the online version</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2330667.2330686</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/book/10.1007%2F978-3-540-69073-3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-29860-8_17</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ASE.2013.6693145</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/SEAMS.2015.27</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/TSE.2004.11</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-540-95888-8_1</t>
+  </si>
+  <si>
+    <t>ISSSE</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-29860-8_23</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2347583.2347592</t>
+  </si>
+  <si>
+    <t>Towards  practical  runtime  verification  and  validation  of  self-adaptivesoftware  systems</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-35813-5_5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-35813-5_1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10009-004-0140-2</t>
+  </si>
+  <si>
+    <t>STTT</t>
+  </si>
+  <si>
+    <t>International Seminar, Dagstuhl</t>
+  </si>
+  <si>
+    <t>. Baier, J.-P. Katoen et al.</t>
+  </si>
+  <si>
+    <t>https://mitpress.mit.edu/books/principles-model-checking</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00607-012-0224-x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2786805.2786853</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-28891-3_22</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ASE.2011.6100064</t>
+  </si>
+  <si>
+    <t>NFM</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5220/0005398604040411</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1295014.1295018</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/MC.2009.336</t>
+  </si>
+  <si>
+    <t>http://www.uml.org.cn/c%2B%2B/pdf/DesignPatterns.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/857076.857078</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1804.02423</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/3194133.3194161</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/SEAA.2018.00022</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8445455</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1905.06732</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-030-05645-2_15</t>
+  </si>
+  <si>
+    <t>Software Evolution Rules with Condition Constrains to Support Component Type Matching Based on Bigraph</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1142/S0218194018500419</t>
+  </si>
+  <si>
+    <t>Lu, Chao-Ze and Zeng, Guo-Sun and Liu, Wen-Juan</t>
+  </si>
+  <si>
+    <t>IJSEKE</t>
+  </si>
+  <si>
+    <t>Towards a taxonomy of software change</t>
+  </si>
+  <si>
+    <t>J. Buckley, T. Mens, M. Zenger, A. Rashid, and G. Kniesel</t>
+  </si>
+  <si>
+    <t>JSME</t>
+  </si>
+  <si>
+    <t>M. Salehie and L. Tahvildari,</t>
+  </si>
+  <si>
+    <t>B. H. Cheng and others,</t>
+  </si>
+  <si>
+    <t>D. Weyns, M. U. Iftikhar, S. Malek, and J. Andersson</t>
+  </si>
+  <si>
+    <t>Claims and supporting evidence for self-adaptive systems: A literature study</t>
+  </si>
+  <si>
+    <t>R. de Lemos and others,</t>
+  </si>
+  <si>
+    <t>. M. Sadjadi, P. K. McKinley, B. H. C. Cheng, and R. E. K. Stirewalt</t>
+  </si>
+  <si>
+    <t>TRAP/J: Transparent generation of adaptable Java programs</t>
+  </si>
+  <si>
+    <t>CoopIS/DOA/ODBASE</t>
+  </si>
+  <si>
+    <t>R. Pawlak, L. Duchien, G. Florin, and L. Seinturier</t>
+  </si>
+  <si>
+    <t>REFLECTION</t>
+  </si>
+  <si>
+    <t>. Greenwood and L. Blair,</t>
+  </si>
+  <si>
+    <t>TAOSD</t>
+  </si>
+  <si>
+    <t>.-C. David and T. Ledoux,</t>
+  </si>
+  <si>
+    <t>An aspect-oriented approach for developingself-adaptive fractal components</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>A. Charfi, T. Dinkelaker, and M. Mezini</t>
+  </si>
+  <si>
+    <t>ICWS</t>
+  </si>
+  <si>
+    <t>R. Haesevoets, E. Truyen, T. Holvoet, and W. Joosen</t>
+  </si>
+  <si>
+    <t>SOAR</t>
+  </si>
+  <si>
+    <t>. Tallabaci and V. E. S. Souza,</t>
+  </si>
+  <si>
+    <t>Engineering adaptation with Zanshin:an experience report</t>
+  </si>
+  <si>
+    <t>L. Nahabedian, V. Braberman, N. D’Ippolito, S. Honiden, J. Kramer,K. Tei, and S. Uchitel</t>
+  </si>
+  <si>
+    <t>Assured and correct dynamic update of controllers</t>
+  </si>
+  <si>
+    <t>D. Weyns, M. U. Iftikhar, D. G. de la Iglesia, and T. Ahmad</t>
+  </si>
+  <si>
+    <t>. Katz and S. Katz,</t>
+  </si>
+  <si>
+    <t>Modular verification of strongly invasive aspects</t>
+  </si>
+  <si>
+    <t>Languages: From Formal to Natural</t>
+  </si>
+  <si>
+    <t>. Weyns and R. Calinescu,</t>
+  </si>
+  <si>
+    <t>. Kramer and J. Magee,</t>
+  </si>
+  <si>
+    <t>TSE</t>
+  </si>
+  <si>
+    <t>. Vandewoude, P. Ebraert, Y. Berbers, and T. D’Hondt</t>
+  </si>
+  <si>
+    <t>Tranquility:A low disruptive alternative to quiescence for ensuring safe dynamicupdates</t>
+  </si>
+  <si>
+    <t>M. Clavel, F. Durán, S. Eker, P. Lincoln, N. Martí-Oliet, J. Meseguer,and J. F. Quesada</t>
+  </si>
+  <si>
+    <t>Maude: Specification and programming in rewriting logic</t>
+  </si>
+  <si>
+    <t>Theoritical CS</t>
+  </si>
+  <si>
+    <t>R. Bruni, A. Corradini, F. Gadducci, A. Lluch Lafuente, and A. Vandi</t>
+  </si>
+  <si>
+    <t>Modelling  and  analyzing  adaptive  self-assembly  strategies  with Maude</t>
+  </si>
+  <si>
+    <t>Science of CP</t>
+  </si>
+  <si>
+    <t>B.Djoudi, C. Bouanaka, and N. Zeghib</t>
+  </si>
+  <si>
+    <t>Model checking pervasive context-aware systems</t>
+  </si>
+  <si>
+    <t>WETICE</t>
+  </si>
+  <si>
+    <t>Y. Tahara, A. Ohsuga, and S. Honiden</t>
+  </si>
+  <si>
+    <t>FOAL</t>
+  </si>
+  <si>
+    <t>J. Pérez, I. Ramos, J. Jaén, P. Letelier, and E. Navarro,</t>
+  </si>
+  <si>
+    <t>QSIC</t>
+  </si>
+  <si>
+    <t>Aspects at the Right Time</t>
+  </si>
+  <si>
+    <t>. Sánchez, L. Fuentes, A. Jackson, and S. Clarke</t>
+  </si>
+  <si>
+    <t>C. Parra, X. Blanc, A. Cleve, and L. Duchien,</t>
+  </si>
+  <si>
+    <t>Unifying design and runtime software adaptation using aspect models</t>
+  </si>
+  <si>
+    <t>P. Falcarin and G. Alonso,</t>
+  </si>
+  <si>
+    <t>Software architecture evolution throughdynamic AOP</t>
+  </si>
+  <si>
+    <t>EWSA</t>
+  </si>
+  <si>
+    <t>M. B. Dwyer, G. S. Avrunin, and J. C. Corbett,</t>
+  </si>
+  <si>
+    <t>FMSP</t>
+  </si>
+  <si>
+    <t>Patterns in property specifications for finite-state verification</t>
+  </si>
+  <si>
+    <t>The rewriting logic semantics project: A progress report</t>
+  </si>
+  <si>
+    <t>J. Meseguer and G. Ro ̧su</t>
+  </si>
+  <si>
+    <t>. Zhang, H. J. Goldsby, and B. H. C. Cheng</t>
+  </si>
+  <si>
+    <t>Modular verification of dynamically adaptive systems</t>
+  </si>
+  <si>
+    <t>AOSD</t>
+  </si>
+  <si>
+    <t>C. Krupitzer, F. M. Roth, S. Vansyckel, G. Schiele, and C. Becker</t>
+  </si>
+  <si>
+    <t>A survey on engineering approaches for self-adaptive systems</t>
+  </si>
+  <si>
+    <t>D. Weyns, R. Haesevoets, and A. Helleboogh</t>
+  </si>
+  <si>
+    <t>The MACODO organization model for context-driven dynamic agent organizations</t>
+  </si>
+  <si>
+    <t>M. U. Iftikhar and D. Weyns,</t>
+  </si>
+  <si>
+    <t>ActivFORMS: Active formal models for self-adaptation</t>
+  </si>
+  <si>
+    <t>C. Ghezzi and A. M. Sharifloo,</t>
+  </si>
+  <si>
+    <t>Dealing with non-functional re-quirements for adaptive systems via dynamic software product-lines</t>
+  </si>
+  <si>
+    <t>C. Ghezzi, L. S. Pinto, P. Spoletini, and G. Tamburrelli</t>
+  </si>
+  <si>
+    <t>Managing non-functional uncertainty via model-driven adaptivity</t>
+  </si>
+  <si>
+    <t>H. Tajalli, J. Garcia, G. Edwards, and N. Medvidovic</t>
+  </si>
+  <si>
+    <t>PLASMA: Aplan-based layered architecture for software model-driven adaptation</t>
+  </si>
+  <si>
+    <t>A. Filieri and G. Tamburrelli</t>
+  </si>
+  <si>
+    <t>ASAS</t>
+  </si>
+  <si>
+    <t>. Bartels and M. Kleine</t>
+  </si>
+  <si>
+    <t>A CSP-based framework for the specification,verification, and implementation of adaptive system</t>
+  </si>
+  <si>
+    <t>M. Cordy, A. Classen, P. Heymans, A. Legay, and P.-Y. Schobbens</t>
+  </si>
+  <si>
+    <t>Model checking adaptive software with featured transition systems</t>
+  </si>
+  <si>
+    <t>B. Morin, O. Barais, G. Nain, and J.-M. Jezequel</t>
+  </si>
+  <si>
+    <t>Taming dynamicallyadaptive systems using models and aspects</t>
+  </si>
+  <si>
+    <t>C. Disenfeld and S. Katz</t>
+  </si>
+  <si>
+    <t>A closer look at aspect interference andcooperation</t>
+  </si>
+  <si>
+    <t>Specification and verification of event detectors and responses</t>
+  </si>
+  <si>
+    <t>E. Clarke, O. Grumberg, S. Jha, Y. Lu, and H. Veith</t>
+  </si>
+  <si>
+    <t>Counterexample-guided abstraction refinement for symbolic model checking</t>
+  </si>
+  <si>
+    <t>G. Zhang and M. Hölzl,</t>
+  </si>
+  <si>
+    <t>Weaving semantic aspects in HiLA</t>
+  </si>
+  <si>
+    <t>Snowball iterations</t>
+  </si>
+  <si>
+    <t>Frontward</t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
+    <t>% to do</t>
+  </si>
+  <si>
+    <t>Reading process</t>
+  </si>
+  <si>
+    <t>Papers</t>
+  </si>
+  <si>
+    <t>To read</t>
+  </si>
+  <si>
+    <t>% to read</t>
+  </si>
+  <si>
+    <t>Self-adaptive software: Landscape and research challenges</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1516533.1516538</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/smr.319</t>
+  </si>
+  <si>
+    <t>Software engineering for self-adaptive systems: A research roadmap</t>
+  </si>
+  <si>
+    <t>Software engineering for self-adaptive systems: A second research roadmap</t>
+  </si>
+  <si>
+    <t>Software  Engineering  for  Self-Adaptive  Systems: A Second Research Roadmap</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-02161-9_1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/SEAMS.2012.6224395</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-540-30469-2_28</t>
+  </si>
+  <si>
+    <t>JAC: A flexible solution for aspect-oriented programming in Java</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/3-540-45429-2_1</t>
+  </si>
+  <si>
+    <t>A framework for policy driven auto-adaptive systems using dynamic framed aspects</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/11922827_2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/11821946_6</t>
+  </si>
+  <si>
+    <t>A plug-in architecture for self-adaptive web service compositions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ICWS.2009.125</t>
+  </si>
+  <si>
+    <t>Weaving the fabric of the control loop through aspects</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-14412-7_3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/SEAMS.2013.6595496</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/SEAMS.2016.019</t>
+  </si>
+  <si>
+    <t>A survey of formal methods in self-adaptive systems</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-01748-3_9</t>
+  </si>
+  <si>
+    <t>Tele Assistance: A Self-Adaptive Service-Based System Examplar</t>
+  </si>
+  <si>
+    <t>The Evolving Philosopher Problem: Dynamic Change Management</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/32.60317</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/TSE.2007.70733</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0304-3975(01)00359-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-34005-5_7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/WETICE.2014.11</t>
+  </si>
+  <si>
+    <t>Rewriting Logic Model of Compositional Abstraction of Aspect-Oriented Software</t>
+  </si>
+  <si>
+    <t>http://www.cs.ucf.edu/~leavens/FOAL/papers-2010/proceedings.pdf#page=58</t>
+  </si>
+  <si>
+    <t>PRISMA:Towards quality, aspect oriented and dynamic software architectures</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/QSIC.2003.1319086</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-540-77042-8_3</t>
+  </si>
+  <si>
+    <t>JSCIO</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.scico.2010.12.005</t>
+  </si>
+  <si>
+    <t>DAOP-ADL: an architecture description language for dynamic component and aspect-based development</t>
+  </si>
+  <si>
+    <t>GPCE</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-540-39815-8_8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-540-24769-2_5</t>
+  </si>
+  <si>
+    <t>Property specification patterns for finite-state verification</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/298595.298598</t>
+  </si>
+  <si>
+    <t>Dwyer, Matthew B and Avrunin, George S and Corbett, James C</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/302405.302672</t>
+  </si>
+  <si>
+    <t>FCT</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-22953-4_1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1509239.1509262</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.pmcj.2014.09.009</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1867713.1867717</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-35813-5_8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ICSE.2013.6606549</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1858996.1859092</t>
+  </si>
+  <si>
+    <t>Probabilistic verification at runtime for self-adaptive systems</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-36249-1_2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1988008.1988030</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-36249-1_1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ICSE.2009.5070514</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2162049.2162063</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2451436.2451452</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/876638.876643</t>
+  </si>
+  <si>
+    <t>JACM</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2162049.2162080</t>
+  </si>
+  <si>
+    <t>Chen, Bihuan and Peng, Xin and Yu, Yijun and Nuseibeh, Bashar and Zhao, Wenyun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -753,6 +1587,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -775,11 +1616,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -806,12 +1648,494 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1275,10 +2599,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="S42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1291,45 +2615,45 @@
     <col min="6" max="6" width="10.83203125" style="1"/>
     <col min="7" max="7" width="54.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="23" width="10.83203125" style="1"/>
     <col min="24" max="24" width="58" style="1" customWidth="1"/>
     <col min="25" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="N1" s="8" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="N1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="U1" s="8" t="s">
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="U1" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="Y1" s="8" t="s">
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="Y1" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="Z1" s="8"/>
+      <c r="Z1" s="10"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1384,13 +2708,13 @@
         <v>11</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>12</v>
@@ -1611,7 +2935,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1670,16 +2994,16 @@
         <v>17</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -1746,19 +3070,19 @@
         <v>1</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -1825,13 +3149,13 @@
         <v>1</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>204</v>
@@ -2104,6 +3428,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="U12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="Y12" s="1" t="s">
         <v>204</v>
       </c>
@@ -2147,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1" t="b">
         <v>0</v>
@@ -2170,18 +3503,21 @@
       <c r="S13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T13" s="1" t="b">
+      <c r="T13" s="8" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -2219,8 +3555,8 @@
       <c r="K14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L14" s="1" t="b">
-        <v>1</v>
+      <c r="L14" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="M14" s="1" t="b">
         <v>0</v>
@@ -2246,6 +3582,15 @@
       <c r="T14" s="1" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>204</v>
@@ -2317,6 +3662,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="U15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="Y15" s="1" t="s">
         <v>204</v>
       </c>
@@ -2515,6 +3869,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="U18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="Y18" s="1" t="s">
         <v>204</v>
       </c>
@@ -2586,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
@@ -2652,6 +4015,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="U20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="Y20" s="1" t="s">
         <v>204</v>
       </c>
@@ -2723,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
@@ -2857,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
@@ -2990,6 +4362,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="U25" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="Y25" s="1" t="s">
         <v>204</v>
       </c>
@@ -3061,10 +4442,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="X26" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
@@ -3131,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
@@ -3198,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
@@ -3328,6 +4709,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="U30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="Y30" s="1" t="s">
         <v>204</v>
       </c>
@@ -3399,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
@@ -3466,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
@@ -3532,6 +4922,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="U33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="Y33" s="1" t="s">
         <v>204</v>
       </c>
@@ -3602,6 +5001,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="U34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="Y34" s="1" t="s">
         <v>204</v>
       </c>
@@ -3669,8 +5077,17 @@
         <v>0</v>
       </c>
       <c r="T35" s="1" t="b">
-        <f t="shared" ref="T35:T66" si="2">AND(AND(I35:L35),NOT(OR(M35:R35)),NOT(S35))</f>
-        <v>1</v>
+        <f t="shared" ref="T35:T72" si="2">AND(AND(I35:L35),NOT(OR(M35:R35)),NOT(S35))</f>
+        <v>1</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>204</v>
@@ -3871,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
@@ -3937,6 +5354,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="Y39" s="1" t="s">
         <v>204</v>
       </c>
@@ -3952,7 +5378,7 @@
         <v>53</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D40" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4071,6 +5497,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
@@ -4135,6 +5570,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U42" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="Y42" s="1" t="s">
         <v>204</v>
       </c>
@@ -4333,6 +5777,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="Y45" s="1" t="s">
         <v>204</v>
       </c>
@@ -4531,6 +5984,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="Y48" s="1" t="s">
         <v>204</v>
       </c>
@@ -4601,6 +6063,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="Y49" s="1" t="s">
         <v>204</v>
       </c>
@@ -4616,7 +6087,7 @@
         <v>80</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4644,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="1" t="b">
         <v>0</v>
@@ -4669,7 +6140,19 @@
       </c>
       <c r="T50" s="1" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>204</v>
@@ -4870,650 +6353,5115 @@
         <v>0</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f>TRIM(LOWER(C54))</f>
+        <v>the vision of autonomic computing</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2003</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I54" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M54" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="S54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T54" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f>TRIM(LOWER(C55))</f>
+        <v>a survey of autonomic computing—degrees, models, and applications</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I55" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M55" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T55" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f>TRIM(LOWER(C56))</f>
+        <v>self-adaptation through incremental generative model transformations at runtime</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I56" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M56" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T56" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y56" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z56" s="8" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
+        <v>55</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="8" t="str">
+        <f t="shared" ref="D57:D120" si="3">TRIM(LOWER(C57))</f>
+        <v>models@run.time</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2009</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I57" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M57" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="S57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T57" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
+        <v>56</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>model checking</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1999</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I58" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M58" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="S58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T58" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
+        <v>57</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D59" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>self-adaptive software needs quantitative verification at runtime</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I59" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M59" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S59" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T59" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
+        <v>58</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>models in software engineering</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2007</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I60" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M60" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S60" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T60" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
+        <v>59</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>coma: conformancemonitoring of java programs by abstract state machine</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I61" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M61" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S61" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T61" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y61" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z61" s="8" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
+        <v>60</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>developing self-verifying service-based systems</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I62" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M62" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S62" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T62" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
+        <v>61</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>tele assistance: a self-adaptive service-based system examplar</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I63" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M63" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S63" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T63" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A64" s="8">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>qos-aware middleware for web services composition</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I64" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M64" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S64" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T64" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A65" s="8">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>the future of software: adaptation and dependability</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I65" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J65" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M65" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P65" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S65" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T65" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A66" s="8">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>runtime verification for ultra-critical systems</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I66" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M66" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S66" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T66" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A67" s="8">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D67" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>a survey of formal methods in self-adaptive systems</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I67" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M67" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S67" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T67" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A68" s="8">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D68" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>towards practical runtime verification and validation of self-adaptivesoftware systems</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I68" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M68" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S68" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T68" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A69" s="8">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D69" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>software engineering for self-adaptive systems: a second research roadmap</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I69" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M69" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S69" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T69" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A70" s="8">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>probabilistic symbolicmodel checking with prism: a hybrid approach</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I70" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M70" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S70" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T70" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A71" s="8">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D71" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>principles of model checking</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I71" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M71" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S71" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T71" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A72" s="8">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D72" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>the role of models@run.time in supporting on-the-fly interoperability</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I72" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M72" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S72" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T72" s="8" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y72" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z72" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A73" s="8">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>proactiveself-adaptation under uncertainty: a probabilistic model checking approach</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I73" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M73" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S73" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T73" s="8" t="b">
+        <f t="shared" ref="T73:T133" si="4">AND(AND(I73:L73),NOT(OR(M73:R73)),NOT(S73))</f>
+        <v>1</v>
+      </c>
+      <c r="Y73" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z73" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A74" s="8">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D74" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>learning markov models for stationary system behaviors</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I74" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M74" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S74" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T74" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A75" s="8">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D75" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>self-adaptivesoftware meets control theory: a preliminary approach supportingreliability requirements</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I75" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M75" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S75" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T75" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y75" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z75" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A76" s="8">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D76" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>state models and java programs</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1999</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I76" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M76" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S76" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T76" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A77" s="8">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D77" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>tcg - a model-based testing tool for functional and statistical testing</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I77" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M77" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S77" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T77" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A78" s="8">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D78" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>quantitative verification: models techniques and tools</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2007</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I78" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M78" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S78" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T78" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A79" s="8">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D79" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>using model-based traces as runtime models</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F79" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I79" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M79" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S79" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T79" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y79" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z79" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A80" s="8">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D80" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>design patterns:elements of reusable object-oriented software</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1995</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I80" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M80" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S80" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T80" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A81" s="8">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D81" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>the many faces of publish/subscribe</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F81" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I81" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M81" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S81" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T81" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A82" s="8">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D82" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>dronology: an incubator for cyber-physical system research</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F82" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I82" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M82" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S82" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T82" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A83" s="8">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D83" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>mrubis: an exemplar for model-based architectural self-healing and self-optimization</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I83" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M83" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S83" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T83" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A84" s="8">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D84" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>monitoring cps at runtime - a case study in the uav domain</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F84" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I84" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J84" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K84" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M84" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S84" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T84" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A85" s="8">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D85" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>extraction of probabilistic behaviour models based on contexts</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F85" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I85" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M85" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S85" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T85" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y85" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z85" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A86" s="8">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D86" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>a compositional approach for reliable adaptation of track-based traffic control systems at runtime</v>
+      </c>
+      <c r="F86" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I86" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M86" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S86" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T86" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A87" s="8">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D87" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>reasoning from first principles for self-adaptive and autonomous systems</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F87" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I87" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M87" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S87" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T87" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y87" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z87" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A88" s="8">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D88" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>software evolution rules with condition constrains to support component type matching based on bigraph</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I88" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J88" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K88" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M88" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S88" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T88" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y88" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z88" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A89" s="8">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D89" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>towards a taxonomy of software change</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F89" s="1">
+        <v>2005</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I89" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M89" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S89" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T89" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A90" s="8">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D90" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>self-adaptive software: landscape and research challenges</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I90" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J90" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K90" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M90" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P90" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S90" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T90" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A91" s="8">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D91" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>software engineering for self-adaptive systems: a research roadmap</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F91" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I91" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M91" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S91" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T91" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A92" s="8">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D92" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>claims and supporting evidence for self-adaptive systems: a literature study</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I92" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M92" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S92" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T92" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A93" s="8">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D93" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>software engineering for self-adaptive systems: a second research roadmap</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F93" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I93" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M93" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="S93" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T93" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A94" s="8">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D94" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>trap/j: transparent generation of adaptable java programs</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F94" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I94" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M94" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S94" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T94" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y94" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z94" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A95" s="8">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D95" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>jac: a flexible solution for aspect-oriented programming in java</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F95" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I95" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J95" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K95" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M95" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S95" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T95" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y95" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z95" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A96" s="8">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D96" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>a framework for policy driven auto-adaptive systems using dynamic framed aspects</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F96" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I96" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J96" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K96" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M96" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S96" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T96" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y96" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z96" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A97" s="8">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D97" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>an aspect-oriented approach for developingself-adaptive fractal components</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I97" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J97" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K97" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M97" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S97" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T97" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y97" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z97" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A98" s="8">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D98" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>a plug-in architecture for self-adaptive web service compositions</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F98" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I98" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J98" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K98" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L98" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M98" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S98" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T98" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y98" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z98" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A99" s="8">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D99" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>weaving the fabric of the control loop through aspects</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I99" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M99" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S99" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T99" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A100" s="8">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D100" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>engineering adaptation with zanshin:an experience report</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I100" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M100" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S100" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T100" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A101" s="8">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D101" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>assured and correct dynamic update of controllers</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I101" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J101" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K101" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M101" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O101" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P101" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R101" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S101" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T101" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y101" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z101" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A102" s="8">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D102" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>a survey of formal methods in self-adaptive systems</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F102" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I102" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M102" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="S102" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T102" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A103" s="8">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D103" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>modular verification of strongly invasive aspects</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F103" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I103" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M103" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N103" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O103" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P103" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R103" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S103" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T103" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A104" s="8">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D104" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>tele assistance: a self-adaptive service-based system examplar</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I104" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M104" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="S104" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T104" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A105" s="8">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D105" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>the evolving philosopher problem: dynamic change management</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1990</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I105" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J105" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K105" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M105" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N105" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O105" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P105" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R105" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S105" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T105" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y105" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z105" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A106" s="8">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D106" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>tranquility:a low disruptive alternative to quiescence for ensuring safe dynamicupdates</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F106" s="1">
+        <v>2007</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I106" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M106" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S106" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T106" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A107" s="8">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D107" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>maude: specification and programming in rewriting logic</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F107" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I107" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M107" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S107" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T107" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A108" s="8">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D108" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>modelling and analyzing adaptive self-assembly strategies with maude</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F108" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I108" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M108" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N108" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O108" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P108" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R108" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S108" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T108" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y108" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z108" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A109" s="8">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D109" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>model checking pervasive context-aware systems</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I109" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M109" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S109" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T109" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y109" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z109" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A110" s="8">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D110" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>rewriting logic model of compositional abstraction of aspect-oriented software</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F110" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I110" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J110" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K110" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M110" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N110" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O110" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P110" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R110" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S110" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T110" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A111" s="8">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D111" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>prisma:towards quality, aspect oriented and dynamic software architectures</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F111" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I111" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M111" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S111" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T111" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A112" s="8">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D112" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>aspects at the right time</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F112" s="1">
+        <v>2007</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I112" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J112" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K112" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M112" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N112" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O112" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P112" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R112" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S112" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T112" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A113" s="8">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D113" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>unifying design and runtime software adaptation using aspect models</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F113" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I113" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J113" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K113" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M113" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N113" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O113" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P113" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R113" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S113" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T113" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y113" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z113" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A114" s="8">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D114" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>daop-adl: an architecture description language for dynamic component and aspect-based development</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="F114" s="1">
+        <v>2005</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I114" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J114" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K114" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M114" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N114" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O114" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P114" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R114" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S114" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T114" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y114" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z114" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A115" s="8">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D115" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>software architecture evolution throughdynamic aop</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F115" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I115" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M115" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N115" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O115" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P115" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R115" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S115" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T115" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y115" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z115" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A116" s="8">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D116" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>property specification patterns for finite-state verification</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1998</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I116" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J116" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K116" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M116" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S116" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T116" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A117" s="8">
+        <v>115</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D117" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>patterns in property specifications for finite-state verification</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1999</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I117" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J117" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M117" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N117" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O117" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P117" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R117" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S117" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T117" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A118" s="8">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D118" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>the rewriting logic semantics project: a progress report</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F118" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I118" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J118" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K118" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M118" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N118" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O118" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P118" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R118" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S118" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T118" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A119" s="8">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D119" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>modular verification of dynamically adaptive systems</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F119" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I119" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J119" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K119" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M119" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N119" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O119" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P119" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R119" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S119" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T119" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y119" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z119" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A120" s="8">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D120" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>a survey on engineering approaches for self-adaptive systems</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F120" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I120" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J120" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K120" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M120" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N120" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O120" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P120" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R120" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S120" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T120" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A121" s="8">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D121" s="8" t="str">
+        <f t="shared" ref="D121:D133" si="5">TRIM(LOWER(C121))</f>
+        <v>the macodo organization model for context-driven dynamic agent organizations</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F121" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I121" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J121" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K121" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M121" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N121" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O121" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P121" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R121" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S121" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T121" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y121" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z121" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A122" s="8">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D122" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>activforms: active formal models for self-adaptation</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I122" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M122" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="S122" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T122" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A123" s="8">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D123" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>dealing with non-functional re-quirements for adaptive systems via dynamic software product-lines</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I123" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J123" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K123" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M123" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N123" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O123" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P123" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R123" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S123" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T123" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y123" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z123" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A124" s="8">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D124" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>managing non-functional uncertainty via model-driven adaptivity</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F124" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I124" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M124" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N124" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O124" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P124" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R124" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S124" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T124" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y124" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z124" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A125" s="8">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D125" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>plasma: aplan-based layered architecture for software model-driven adaptation</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F125" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I125" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M125" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S125" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T125" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y125" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z125" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A126" s="8">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D126" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>probabilistic verification at runtime for self-adaptive systems</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F126" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I126" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M126" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N126" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O126" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R126" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S126" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T126" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A127" s="8">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D127" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>a csp-based framework for the specification,verification, and implementation of adaptive system</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I127" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J127" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K127" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M127" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N127" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O127" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P127" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R127" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S127" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T127" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y127" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z127" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A128" s="8">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D128" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>model checking adaptive software with featured transition systems</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F128" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I128" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J128" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K128" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M128" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N128" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O128" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P128" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R128" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S128" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T128" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y128" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z128" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A129" s="8">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D129" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>taming dynamicallyadaptive systems using models and aspects</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F129" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I129" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J129" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K129" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M129" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N129" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O129" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P129" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R129" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S129" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T129" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y129" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z129" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A130" s="8">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D130" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>a closer look at aspect interference andcooperation</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F130" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I130" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J130" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K130" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M130" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N130" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O130" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P130" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R130" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S130" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T130" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A131" s="8">
+        <v>129</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D131" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>specification and verification of event detectors and responses</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F131" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I131" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J131" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M131" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N131" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O131" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P131" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R131" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S131" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T131" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A132" s="8">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D132" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>counterexample-guided abstraction refinement for symbolic model checking</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F132" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I132" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J132" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M132" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N132" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O132" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P132" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R132" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S132" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T132" s="8" t="b">
+        <f>AND(AND(I132:L132),NOT(OR(M132:R132)),NOT(S132))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A133" s="8">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D133" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>weaving semantic aspects in hila</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F133" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I133" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J133" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M133" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N133" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O133" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P133" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R133" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S133" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T133" s="8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I134" s="1" t="b">
         <v>1</v>
       </c>
@@ -5521,15 +11469,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I135" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J135" s="8">
+        <f>COUNTBLANK(J107:J133)</f>
+        <v>1</v>
+      </c>
       <c r="M135" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I136" s="1" t="b">
         <v>1</v>
       </c>
@@ -5537,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I137" s="1" t="b">
         <v>1</v>
       </c>
@@ -5545,7 +11497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I138" s="1" t="b">
         <v>1</v>
       </c>
@@ -5553,7 +11505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I139" s="1" t="b">
         <v>1</v>
       </c>
@@ -5561,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I140" s="1" t="b">
         <v>1</v>
       </c>
@@ -5569,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I141" s="1" t="b">
         <v>1</v>
       </c>
@@ -5577,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I142" s="1" t="b">
         <v>1</v>
       </c>
@@ -5585,7 +11537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I143" s="1" t="b">
         <v>1</v>
       </c>
@@ -5593,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I144" s="1" t="b">
         <v>1</v>
       </c>
@@ -12456,78 +18408,78 @@
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Y1:Z1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:D53">
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>SUMPRODUCT(--EXACT($D$3:$D$53,$D3))&gt;1</formula>
+  <conditionalFormatting sqref="C3:D133">
+    <cfRule type="expression" dxfId="31" priority="18">
+      <formula>SUMPRODUCT(--EXACT($D$3:$D$133,$D3))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Z53">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+  <conditionalFormatting sqref="Y1:Z1048576">
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T53">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+  <conditionalFormatting sqref="T3:T133">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:R36 N38:R39 N41:R42 N45:R45 N47:R53">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+  <conditionalFormatting sqref="N3:R133">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:L36 J38:L39 J41:L42 J45:L45 J47:L53">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+  <conditionalFormatting sqref="J3:L133">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37:R37">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:L37">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:R40">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:L40">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43:R43">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43:L43">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:R44">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:L44">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46:R46">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:L46">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12583,6 +18535,79 @@
     <hyperlink ref="G52" r:id="rId49" xr:uid="{C6B63B34-F3EA-964C-9D9C-43599091C735}"/>
     <hyperlink ref="G53" r:id="rId50" xr:uid="{C2687535-63E5-3B42-B2A4-C63DCAB713A3}"/>
     <hyperlink ref="G8" r:id="rId51" xr:uid="{913CC7A1-CBA4-4947-BA8D-F2A9A48700CB}"/>
+    <hyperlink ref="G55" r:id="rId52" xr:uid="{B3D1CE58-D7F4-4947-9F8E-AE041B6D6C41}"/>
+    <hyperlink ref="G56" r:id="rId53" xr:uid="{2295FB78-22A2-6947-8761-134C1C53C0EC}"/>
+    <hyperlink ref="G59" r:id="rId54" xr:uid="{9BC19380-B1E1-DF4F-ABFD-278C1E60B350}"/>
+    <hyperlink ref="G60" r:id="rId55" xr:uid="{85E4B8C6-CDD4-3A46-88AE-B81EC71DB3E9}"/>
+    <hyperlink ref="G61" r:id="rId56" xr:uid="{141283D4-06FD-7145-B111-7B124997F9D7}"/>
+    <hyperlink ref="G62" r:id="rId57" xr:uid="{2C0D6D9F-D56D-2C40-A04E-7428ED3252E1}"/>
+    <hyperlink ref="G63" r:id="rId58" xr:uid="{B09A6988-B413-EE45-9066-5B7D43667F92}"/>
+    <hyperlink ref="G64" r:id="rId59" xr:uid="{FE1D8E49-39EB-4D44-A810-5ACC55E91533}"/>
+    <hyperlink ref="G65" r:id="rId60" xr:uid="{7578056B-8754-6B49-A18E-5DA469A31CB4}"/>
+    <hyperlink ref="G66" r:id="rId61" xr:uid="{69752BC0-18A1-A84D-AE3C-741202EFE47C}"/>
+    <hyperlink ref="G67" r:id="rId62" xr:uid="{FEFE2EC3-DC7A-EB4D-A9BC-C0137FD1A013}"/>
+    <hyperlink ref="G68" r:id="rId63" xr:uid="{EC395FF2-77C3-2342-BDF4-BECA8C5E60D8}"/>
+    <hyperlink ref="G69" r:id="rId64" xr:uid="{05991552-F1DE-8E43-8338-24202ED2445B}"/>
+    <hyperlink ref="G70" r:id="rId65" xr:uid="{7A52634A-3A05-5D40-920D-5763776C4D4B}"/>
+    <hyperlink ref="G71" r:id="rId66" xr:uid="{55F038BC-E884-1B42-8590-57B67E81B8B6}"/>
+    <hyperlink ref="G72" r:id="rId67" xr:uid="{BAA40E0B-90D3-8040-AD68-E87C84939656}"/>
+    <hyperlink ref="G73" r:id="rId68" xr:uid="{B0861487-BACC-CE45-9B7D-813DFE1BF56E}"/>
+    <hyperlink ref="G74" r:id="rId69" xr:uid="{D9941040-D0AC-C443-89B0-D570C1427518}"/>
+    <hyperlink ref="G75" r:id="rId70" xr:uid="{E731D2EF-059E-2148-B4F3-1C8A5A92B6B7}"/>
+    <hyperlink ref="G77" r:id="rId71" xr:uid="{5C3055F1-9AE4-9D41-8997-75F80DCE3FD5}"/>
+    <hyperlink ref="G78" r:id="rId72" xr:uid="{7F1EE37A-5BE1-4843-A9F7-FFF02DEE5809}"/>
+    <hyperlink ref="G79" r:id="rId73" xr:uid="{760D9FB8-292D-BE4A-9417-D3C4E3D4D850}"/>
+    <hyperlink ref="G80" r:id="rId74" xr:uid="{DBAF359B-DB97-C843-9859-938E76FD17AC}"/>
+    <hyperlink ref="G81" r:id="rId75" xr:uid="{6F84D736-50CA-1946-BA49-52CD75953573}"/>
+    <hyperlink ref="G82" r:id="rId76" xr:uid="{66D498B9-5250-F447-8624-CFFC0DC22AE5}"/>
+    <hyperlink ref="G83" r:id="rId77" xr:uid="{46A9A0BA-B453-8245-AC38-9F65600B5C9D}"/>
+    <hyperlink ref="G84" r:id="rId78" xr:uid="{AA36AF1C-C35C-454A-AAF4-69805C7CDFE3}"/>
+    <hyperlink ref="G85" r:id="rId79" xr:uid="{C97F86A3-ED70-F545-9CB9-052B6D23284F}"/>
+    <hyperlink ref="G86" r:id="rId80" xr:uid="{FD0A50DB-CCF2-5C47-85CE-23163C14C4DB}"/>
+    <hyperlink ref="G87" r:id="rId81" xr:uid="{644EFBD5-786A-F743-A24F-208F129D05E3}"/>
+    <hyperlink ref="G88" r:id="rId82" xr:uid="{112400D7-EB5D-8F4D-B62C-53187FDEEE21}"/>
+    <hyperlink ref="G90" r:id="rId83" xr:uid="{15A63AD1-B109-B440-9E03-39FE195202AC}"/>
+    <hyperlink ref="G89" r:id="rId84" xr:uid="{86536C6D-6F3E-1D4B-AD9F-8A6F0E6DB584}"/>
+    <hyperlink ref="G91" r:id="rId85" xr:uid="{96079568-C81C-434C-BE47-746CF80C4626}"/>
+    <hyperlink ref="G92" r:id="rId86" xr:uid="{08B75C72-122A-9441-9A8D-BAA2EF4CF806}"/>
+    <hyperlink ref="G93" r:id="rId87" xr:uid="{68422786-7E38-B642-81D8-3FEE04D56367}"/>
+    <hyperlink ref="G94" r:id="rId88" xr:uid="{5A4923A1-6163-2B40-8740-EFE913BC9CB5}"/>
+    <hyperlink ref="G95" r:id="rId89" xr:uid="{8401FBC0-153A-C941-A814-D0A782F2B11F}"/>
+    <hyperlink ref="G96" r:id="rId90" xr:uid="{ECA3A1F3-25E9-D441-B7A3-B1F489568E14}"/>
+    <hyperlink ref="G97" r:id="rId91" xr:uid="{C39A5FBB-520A-C843-9111-FFC518FE5148}"/>
+    <hyperlink ref="G98" r:id="rId92" xr:uid="{C9743122-A8D2-E84B-AFFA-DD0FEB3DA2E5}"/>
+    <hyperlink ref="G99" r:id="rId93" xr:uid="{9FA2D19B-2F69-1E49-A330-8927B735C613}"/>
+    <hyperlink ref="G100" r:id="rId94" xr:uid="{E9D04930-C5B5-EF4D-B7D2-4D74FA0E7974}"/>
+    <hyperlink ref="G101" r:id="rId95" xr:uid="{83868898-F7BB-B243-8185-CF6631055C91}"/>
+    <hyperlink ref="G103" r:id="rId96" xr:uid="{52B78F40-E12D-1048-A049-388F18C59AA4}"/>
+    <hyperlink ref="G105" r:id="rId97" xr:uid="{15F619FF-4BC0-1F46-92FE-C0D6AA6BB18C}"/>
+    <hyperlink ref="G106" r:id="rId98" xr:uid="{88A926C8-E0B7-3F41-81CB-8E21113CC2F1}"/>
+    <hyperlink ref="G107" r:id="rId99" xr:uid="{72722817-BD16-0F45-9FCF-09324FA6B00E}"/>
+    <hyperlink ref="G108" r:id="rId100" xr:uid="{65AC6271-96FB-D546-8436-0460BDE889E2}"/>
+    <hyperlink ref="G109" r:id="rId101" xr:uid="{6921F9F9-92A3-8146-BA97-2C66F45E8549}"/>
+    <hyperlink ref="G110" r:id="rId102" location="page=58" xr:uid="{DFFF61DE-84BF-9546-A79B-146F7B9E3CDB}"/>
+    <hyperlink ref="G111" r:id="rId103" xr:uid="{CCA9BF81-7D7F-3048-9C8B-3CC08656ACB2}"/>
+    <hyperlink ref="G112" r:id="rId104" xr:uid="{F44895CB-A5BD-4E4C-99CC-94E4E7D5EDE6}"/>
+    <hyperlink ref="G113" r:id="rId105" xr:uid="{E5F26B38-12BF-BD4B-A658-2EB6FAC6D5EA}"/>
+    <hyperlink ref="G114" r:id="rId106" xr:uid="{C955B837-A3F9-4A43-A03F-944260AE9DA1}"/>
+    <hyperlink ref="G115" r:id="rId107" xr:uid="{85D9ED2C-3783-634D-9A7E-71A5B740D370}"/>
+    <hyperlink ref="G116" r:id="rId108" xr:uid="{16B8032A-D1BD-2840-BB11-7398218DB7F4}"/>
+    <hyperlink ref="G117" r:id="rId109" xr:uid="{3F280EB7-A250-2349-B08C-BC3F2297A395}"/>
+    <hyperlink ref="G118" r:id="rId110" xr:uid="{ED4804A0-26D0-A34A-8933-C6CD838EC6B0}"/>
+    <hyperlink ref="G119" r:id="rId111" xr:uid="{AC2C04DE-2239-9440-94DD-0CD4258FEE07}"/>
+    <hyperlink ref="G120" r:id="rId112" xr:uid="{1208193B-E500-EF48-A1C5-555802FA79F8}"/>
+    <hyperlink ref="G121" r:id="rId113" xr:uid="{85DEF209-4885-BD41-9A47-DBF8FCFFA7BB}"/>
+    <hyperlink ref="G123" r:id="rId114" xr:uid="{C46DD28E-CBC3-1E49-AF1F-A7249D9F32D5}"/>
+    <hyperlink ref="G124" r:id="rId115" xr:uid="{6CAB0193-D95A-744D-A331-7D6824EEB11F}"/>
+    <hyperlink ref="G125" r:id="rId116" xr:uid="{ABBECE45-F879-7440-9FFD-6229B9484787}"/>
+    <hyperlink ref="G126" r:id="rId117" xr:uid="{076C00D8-BD6A-BD40-9E17-77C58152DD81}"/>
+    <hyperlink ref="G127" r:id="rId118" xr:uid="{DCBDD99D-9977-104E-86D2-7C201DF17B7D}"/>
+    <hyperlink ref="G128" r:id="rId119" xr:uid="{D05E50BF-9480-BE47-99DC-4821DD1BE558}"/>
+    <hyperlink ref="G129" r:id="rId120" xr:uid="{2A15AEF5-EF05-2949-91F9-59914BF6DC93}"/>
+    <hyperlink ref="G130" r:id="rId121" xr:uid="{BE2F156F-C642-E147-B65C-1A6955EB8283}"/>
+    <hyperlink ref="G131" r:id="rId122" xr:uid="{5CBD29E9-6B19-5548-A088-CB4BBB3C508D}"/>
+    <hyperlink ref="G132" r:id="rId123" xr:uid="{61C1DAF8-0498-1C49-8DA2-E573C36C3844}"/>
+    <hyperlink ref="G133" r:id="rId124" xr:uid="{7B8EE9A8-92D9-7C48-9021-63D9DD48F27A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12590,10 +18615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D355B78-5BCF-554A-9017-B869E2724526}">
-  <dimension ref="C4:D6"/>
+  <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12601,34 +18626,98 @@
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D4">
-        <f>COUNTIF(DelayedActions!T3:T53,"TRUE")-COUNTA(DelayedActions!U3:U53)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>232</v>
+        <v>447</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF(DelayedActions!T3:T133,"TRUE")-COUNTA(DelayedActions!U3:U133)</f>
+        <v>27</v>
       </c>
       <c r="D5">
-        <f>COUNTIF(DelayedActions!T3:T53,"TRUE")</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6">
-        <f>(D5-D4)*100/D5</f>
-        <v>14.285714285714286</v>
+        <f>COUNTIF(DelayedActions!T3:T133,"TRUE")</f>
+        <v>48</v>
+      </c>
+      <c r="E5" s="14">
+        <f>C5/D5</f>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="14"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIF(DelayedActions!Y:Y,"NO")</f>
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <f>COUNTA(DelayedActions!Y:Y)-2</f>
+        <v>48</v>
+      </c>
+      <c r="E10" s="14">
+        <f>C10/D10</f>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIF(DelayedActions!Z:Z,"NO")</f>
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <f>COUNTA(DelayedActions!Y:Y)-2</f>
+        <v>48</v>
+      </c>
+      <c r="E11" s="14">
+        <f>C11/D11</f>
+        <v>0.95833333333333337</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D5 D10:D11">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>NOT(AND($D$5=$D$10,$D$5=$D$11))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3685F8-202E-D547-8E22-1E628D308DF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37622D89-9EA2-E740-97EA-C03021D3AB7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
   <sheets>
     <sheet name="DelayedActions" sheetId="1" r:id="rId1"/>
@@ -770,9 +770,6 @@
     <t>Workshop Models</t>
   </si>
   <si>
-    <t>Coma: Conformancemonitoring of java programs by abstract state machine</t>
-  </si>
-  <si>
     <t>Arcaini, Paolo and Gargantini, Angelo and Riccobene, Elvinia</t>
   </si>
   <si>
@@ -842,9 +839,6 @@
     <t>Computing</t>
   </si>
   <si>
-    <t>Proactiveself-adaptation   under   uncertainty:   A   probabilistic   model   checking approach</t>
-  </si>
-  <si>
     <t>ESEC/FSE</t>
   </si>
   <si>
@@ -860,9 +854,6 @@
     <t>A.   Filieri,   C.   Ghezzi,   A.   Leva,   and   M.   Maggio</t>
   </si>
   <si>
-    <t>Self-adaptivesoftware   meets   control   theory:   A   preliminary   approach   supportingreliability  requirements</t>
-  </si>
-  <si>
     <t>J.  Magee  and  J.  Kramer</t>
   </si>
   <si>
@@ -1334,9 +1325,6 @@
     <t>B. Morin, O. Barais, G. Nain, and J.-M. Jezequel</t>
   </si>
   <si>
-    <t>Taming dynamicallyadaptive systems using models and aspects</t>
-  </si>
-  <si>
     <t>C. Disenfeld and S. Katz</t>
   </si>
   <si>
@@ -1569,6 +1557,18 @@
   </si>
   <si>
     <t>Chen, Bihuan and Peng, Xin and Yu, Yijun and Nuseibeh, Bashar and Zhao, Wenyun</t>
+  </si>
+  <si>
+    <t>Coma: Conformance monitoring of java programs by abstract state machine</t>
+  </si>
+  <si>
+    <t>Proactive self-adaptation   under   uncertainty:   A   probabilistic   model   checking approach</t>
+  </si>
+  <si>
+    <t>Self-adaptive software   meets   control   theory:   A   preliminary   approach   supporting reliability  requirements</t>
+  </si>
+  <si>
+    <t>Taming dynamically adaptive systems using models and aspects</t>
   </si>
 </sst>
 </file>
@@ -2599,10 +2599,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="S42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="Q73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomRight" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3000,10 +3000,10 @@
         <v>229</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -3079,10 +3079,10 @@
         <v>229</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -6414,7 +6414,7 @@
         <v>2008</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>229</v>
@@ -6462,10 +6462,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D56" s="1" t="str">
         <f>TRIM(LOWER(C56))</f>
@@ -6478,7 +6478,7 @@
         <v>2014</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>229</v>
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.2">
@@ -6631,7 +6631,7 @@
         <v>2012</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>229</v>
@@ -6695,7 +6695,7 @@
         <v>2007</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>229</v>
@@ -6743,23 +6743,23 @@
         <v>59</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>245</v>
+        <v>508</v>
       </c>
       <c r="D61" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>coma: conformancemonitoring of java programs by abstract state machine</v>
+        <v>coma: conformance monitoring of java programs by abstract state machine</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F61" s="1">
         <v>2012</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>229</v>
@@ -6813,23 +6813,23 @@
         <v>60</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D62" s="8" t="str">
         <f t="shared" si="3"/>
         <v>developing self-verifying service-based systems</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F62" s="1">
         <v>2013</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>229</v>
@@ -6877,10 +6877,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D63" s="8" t="str">
         <f t="shared" si="3"/>
@@ -6893,7 +6893,7 @@
         <v>2015</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>229</v>
@@ -6941,23 +6941,23 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D64" s="8" t="str">
         <f t="shared" si="3"/>
         <v>qos-aware middleware for web services composition</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F64" s="1">
         <v>2004</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>229</v>
@@ -7005,23 +7005,23 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D65" s="8" t="str">
         <f t="shared" si="3"/>
         <v>the future of software: adaptation and dependability</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F65" s="1">
         <v>2008</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>229</v>
@@ -7069,23 +7069,23 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="D66" s="8" t="str">
         <f t="shared" si="3"/>
         <v>runtime verification for ultra-critical systems</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F66" s="1">
         <v>2012</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>229</v>
@@ -7133,23 +7133,23 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D67" s="8" t="str">
         <f t="shared" si="3"/>
         <v>a survey of formal methods in self-adaptive systems</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F67" s="1">
         <v>2012</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>229</v>
@@ -7197,10 +7197,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D68" s="8" t="str">
         <f t="shared" si="3"/>
@@ -7213,7 +7213,7 @@
         <v>2013</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>229</v>
@@ -7261,23 +7261,23 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D69" s="8" t="str">
         <f t="shared" si="3"/>
         <v>software engineering for self-adaptive systems: a second research roadmap</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F69" s="1">
         <v>2013</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>229</v>
@@ -7325,23 +7325,23 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="D70" s="8" t="str">
         <f t="shared" si="3"/>
         <v>probabilistic symbolicmodel checking with prism: a hybrid approach</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F70" s="1">
         <v>2002</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>229</v>
@@ -7389,10 +7389,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D71" s="8" t="str">
         <f t="shared" si="3"/>
@@ -7405,7 +7405,7 @@
         <v>2008</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>229</v>
@@ -7453,23 +7453,23 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D72" s="8" t="str">
         <f t="shared" si="3"/>
         <v>the role of models@run.time in supporting on-the-fly interoperability</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F72" s="1">
         <v>2013</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>229</v>
@@ -7523,23 +7523,23 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>269</v>
+        <v>509</v>
       </c>
       <c r="D73" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>proactiveself-adaptation under uncertainty: a probabilistic model checking approach</v>
+        <v>proactive self-adaptation under uncertainty: a probabilistic model checking approach</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F73" s="1">
         <v>2015</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>229</v>
@@ -7593,23 +7593,23 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D74" s="8" t="str">
         <f t="shared" si="3"/>
         <v>learning markov models for stationary system behaviors</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F74" s="1">
         <v>2012</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>229</v>
@@ -7657,23 +7657,23 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>275</v>
+        <v>510</v>
       </c>
       <c r="D75" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>self-adaptivesoftware meets control theory: a preliminary approach supportingreliability requirements</v>
+        <v>self-adaptive software meets control theory: a preliminary approach supporting reliability requirements</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F75" s="1">
         <v>2011</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>229</v>
@@ -7727,17 +7727,17 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D76" s="8" t="str">
         <f t="shared" si="3"/>
         <v>state models and java programs</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F76" s="1">
         <v>1999</v>
@@ -7785,23 +7785,23 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D77" s="8" t="str">
         <f t="shared" si="3"/>
         <v>tcg - a model-based testing tool for functional and statistical testing</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F77" s="1">
         <v>2015</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>229</v>
@@ -7849,23 +7849,23 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D78" s="8" t="str">
         <f t="shared" si="3"/>
         <v>quantitative verification: models techniques and tools</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F78" s="1">
         <v>2007</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>229</v>
@@ -7913,10 +7913,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D79" s="8" t="str">
         <f t="shared" si="3"/>
@@ -7929,7 +7929,7 @@
         <v>2009</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>229</v>
@@ -7983,23 +7983,23 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D80" s="8" t="str">
         <f t="shared" si="3"/>
         <v>design patterns:elements of reusable object-oriented software</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F80" s="1">
         <v>1995</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>229</v>
@@ -8047,10 +8047,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D81" s="8" t="str">
         <f t="shared" si="3"/>
@@ -8063,7 +8063,7 @@
         <v>2003</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>229</v>
@@ -8111,23 +8111,23 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D82" s="8" t="str">
         <f t="shared" si="3"/>
         <v>dronology: an incubator for cyber-physical system research</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F82" s="1">
         <v>2018</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H82" s="8" t="s">
         <v>229</v>
@@ -8175,10 +8175,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D83" s="8" t="str">
         <f t="shared" si="3"/>
@@ -8191,7 +8191,7 @@
         <v>2018</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>229</v>
@@ -8239,23 +8239,23 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D84" s="8" t="str">
         <f t="shared" si="3"/>
         <v>monitoring cps at runtime - a case study in the uav domain</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F84" s="1">
         <v>2018</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>229</v>
@@ -8303,23 +8303,23 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D85" s="8" t="str">
         <f t="shared" si="3"/>
         <v>extraction of probabilistic behaviour models based on contexts</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F85" s="1">
         <v>2018</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>229</v>
@@ -8373,10 +8373,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D86" s="8" t="str">
         <f t="shared" si="3"/>
@@ -8386,7 +8386,7 @@
         <v>2019</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>229</v>
@@ -8434,23 +8434,23 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D87" s="8" t="str">
         <f t="shared" si="3"/>
         <v>reasoning from first principles for self-adaptive and autonomous systems</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F87" s="1">
         <v>2019</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>229</v>
@@ -8504,23 +8504,23 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D88" s="8" t="str">
         <f t="shared" si="3"/>
         <v>software evolution rules with condition constrains to support component type matching based on bigraph</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F88" s="1">
         <v>2018</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>229</v>
@@ -8574,23 +8574,23 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D89" s="8" t="str">
         <f t="shared" si="3"/>
         <v>towards a taxonomy of software change</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F89" s="1">
         <v>2005</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>229</v>
@@ -8638,10 +8638,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D90" s="8" t="str">
         <f t="shared" si="3"/>
@@ -8654,7 +8654,7 @@
         <v>2009</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H90" s="8" t="s">
         <v>229</v>
@@ -8702,23 +8702,23 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D91" s="8" t="str">
         <f t="shared" si="3"/>
         <v>software engineering for self-adaptive systems: a research roadmap</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F91" s="1">
         <v>2009</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H91" s="8" t="s">
         <v>229</v>
@@ -8766,10 +8766,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D92" s="8" t="str">
         <f t="shared" si="3"/>
@@ -8782,7 +8782,7 @@
         <v>2012</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>229</v>
@@ -8830,23 +8830,23 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D93" s="8" t="str">
         <f t="shared" si="3"/>
         <v>software engineering for self-adaptive systems: a second research roadmap</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F93" s="1">
         <v>2013</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H93" s="8" t="s">
         <v>229</v>
@@ -8870,23 +8870,23 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D94" s="8" t="str">
         <f t="shared" si="3"/>
         <v>trap/j: transparent generation of adaptable java programs</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F94" s="1">
         <v>2004</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>229</v>
@@ -8940,23 +8940,23 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D95" s="8" t="str">
         <f t="shared" si="3"/>
         <v>jac: a flexible solution for aspect-oriented programming in java</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F95" s="1">
         <v>2001</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H95" s="8" t="s">
         <v>229</v>
@@ -9010,23 +9010,23 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D96" s="8" t="str">
         <f t="shared" si="3"/>
         <v>a framework for policy driven auto-adaptive systems using dynamic framed aspects</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F96" s="1">
         <v>2006</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H96" s="8" t="s">
         <v>229</v>
@@ -9080,23 +9080,23 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D97" s="8" t="str">
         <f t="shared" si="3"/>
         <v>an aspect-oriented approach for developingself-adaptive fractal components</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F97" s="1">
         <v>2006</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H97" s="8" t="s">
         <v>229</v>
@@ -9150,23 +9150,23 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D98" s="8" t="str">
         <f t="shared" si="3"/>
         <v>a plug-in architecture for self-adaptive web service compositions</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F98" s="1">
         <v>2009</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H98" s="8" t="s">
         <v>229</v>
@@ -9220,23 +9220,23 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D99" s="8" t="str">
         <f t="shared" si="3"/>
         <v>weaving the fabric of the control loop through aspects</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F99" s="1">
         <v>2010</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>229</v>
@@ -9284,10 +9284,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D100" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9300,7 +9300,7 @@
         <v>2013</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H100" s="8" t="s">
         <v>229</v>
@@ -9348,10 +9348,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D101" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9364,7 +9364,7 @@
         <v>2016</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H101" s="8" t="s">
         <v>229</v>
@@ -9418,17 +9418,17 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D102" s="8" t="str">
         <f t="shared" si="3"/>
         <v>a survey of formal methods in self-adaptive systems</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F102" s="1">
         <v>2012</v>
@@ -9455,23 +9455,23 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D103" s="8" t="str">
         <f t="shared" si="3"/>
         <v>modular verification of strongly invasive aspects</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F103" s="1">
         <v>2009</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H103" s="8" t="s">
         <v>229</v>
@@ -9519,10 +9519,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D104" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9556,23 +9556,23 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D105" s="8" t="str">
         <f t="shared" si="3"/>
         <v>the evolving philosopher problem: dynamic change management</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F105" s="1">
         <v>1990</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H105" s="8" t="s">
         <v>229</v>
@@ -9626,23 +9626,23 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D106" s="8" t="str">
         <f t="shared" si="3"/>
         <v>tranquility:a low disruptive alternative to quiescence for ensuring safe dynamicupdates</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F106" s="1">
         <v>2007</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H106" s="8" t="s">
         <v>229</v>
@@ -9690,23 +9690,23 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D107" s="8" t="str">
         <f t="shared" si="3"/>
         <v>maude: specification and programming in rewriting logic</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F107" s="1">
         <v>2002</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H107" s="8" t="s">
         <v>229</v>
@@ -9754,23 +9754,23 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D108" s="8" t="str">
         <f t="shared" si="3"/>
         <v>modelling and analyzing adaptive self-assembly strategies with maude</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F108" s="1">
         <v>2015</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H108" s="8" t="s">
         <v>229</v>
@@ -9824,23 +9824,23 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D109" s="8" t="str">
         <f t="shared" si="3"/>
         <v>model checking pervasive context-aware systems</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F109" s="1">
         <v>2014</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H109" s="8" t="s">
         <v>229</v>
@@ -9894,23 +9894,23 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D110" s="8" t="str">
         <f t="shared" si="3"/>
         <v>rewriting logic model of compositional abstraction of aspect-oriented software</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F110" s="1">
         <v>2010</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H110" s="8" t="s">
         <v>229</v>
@@ -9958,23 +9958,23 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D111" s="8" t="str">
         <f t="shared" si="3"/>
         <v>prisma:towards quality, aspect oriented and dynamic software architectures</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F111" s="1">
         <v>2003</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H111" s="8" t="s">
         <v>229</v>
@@ -10022,23 +10022,23 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D112" s="8" t="str">
         <f t="shared" si="3"/>
         <v>aspects at the right time</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F112" s="1">
         <v>2007</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H112" s="8" t="s">
         <v>229</v>
@@ -10086,23 +10086,23 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D113" s="8" t="str">
         <f t="shared" si="3"/>
         <v>unifying design and runtime software adaptation using aspect models</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F113" s="1">
         <v>2011</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H113" s="8" t="s">
         <v>229</v>
@@ -10156,23 +10156,23 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D114" s="8" t="str">
         <f t="shared" si="3"/>
         <v>daop-adl: an architecture description language for dynamic component and aspect-based development</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F114" s="1">
         <v>2005</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H114" s="8" t="s">
         <v>229</v>
@@ -10226,23 +10226,23 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D115" s="8" t="str">
         <f t="shared" si="3"/>
         <v>software architecture evolution throughdynamic aop</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F115" s="1">
         <v>2004</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H115" s="8" t="s">
         <v>229</v>
@@ -10296,23 +10296,23 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D116" s="8" t="str">
         <f t="shared" si="3"/>
         <v>property specification patterns for finite-state verification</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F116" s="1">
         <v>1998</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H116" s="8" t="s">
         <v>229</v>
@@ -10360,10 +10360,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D117" s="8" t="str">
         <f t="shared" si="3"/>
@@ -10376,7 +10376,7 @@
         <v>1999</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H117" s="8" t="s">
         <v>229</v>
@@ -10424,23 +10424,23 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D118" s="8" t="str">
         <f t="shared" si="3"/>
         <v>the rewriting logic semantics project: a progress report</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F118" s="1">
         <v>2011</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H118" s="8" t="s">
         <v>229</v>
@@ -10488,23 +10488,23 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D119" s="8" t="str">
         <f t="shared" si="3"/>
         <v>modular verification of dynamically adaptive systems</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F119" s="1">
         <v>2009</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H119" s="8" t="s">
         <v>229</v>
@@ -10558,10 +10558,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D120" s="8" t="str">
         <f t="shared" si="3"/>
@@ -10574,7 +10574,7 @@
         <v>2015</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H120" s="8" t="s">
         <v>229</v>
@@ -10622,10 +10622,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D121" s="8" t="str">
         <f t="shared" ref="D121:D133" si="5">TRIM(LOWER(C121))</f>
@@ -10638,7 +10638,7 @@
         <v>2010</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H121" s="8" t="s">
         <v>229</v>
@@ -10692,10 +10692,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D122" s="8" t="str">
         <f t="shared" si="5"/>
@@ -10729,10 +10729,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D123" s="8" t="str">
         <f t="shared" si="5"/>
@@ -10745,7 +10745,7 @@
         <v>2013</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H123" s="8" t="s">
         <v>229</v>
@@ -10799,10 +10799,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D124" s="8" t="str">
         <f t="shared" si="5"/>
@@ -10815,7 +10815,7 @@
         <v>2013</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H124" s="8" t="s">
         <v>229</v>
@@ -10869,23 +10869,23 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D125" s="8" t="str">
         <f t="shared" si="5"/>
         <v>plasma: aplan-based layered architecture for software model-driven adaptation</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F125" s="1">
         <v>2010</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H125" s="8" t="s">
         <v>229</v>
@@ -10939,23 +10939,23 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D126" s="8" t="str">
         <f t="shared" si="5"/>
         <v>probabilistic verification at runtime for self-adaptive systems</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F126" s="1">
         <v>2013</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H126" s="8" t="s">
         <v>229</v>
@@ -11003,10 +11003,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D127" s="8" t="str">
         <f t="shared" si="5"/>
@@ -11019,7 +11019,7 @@
         <v>2011</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H127" s="8" t="s">
         <v>229</v>
@@ -11073,23 +11073,23 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D128" s="8" t="str">
         <f t="shared" si="5"/>
         <v>model checking adaptive software with featured transition systems</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F128" s="1">
         <v>2013</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>229</v>
@@ -11143,14 +11143,14 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>433</v>
+        <v>511</v>
       </c>
       <c r="D129" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>taming dynamicallyadaptive systems using models and aspects</v>
+        <v>taming dynamically adaptive systems using models and aspects</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>136</v>
@@ -11159,7 +11159,7 @@
         <v>2009</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H129" s="8" t="s">
         <v>229</v>
@@ -11213,23 +11213,23 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D130" s="8" t="str">
         <f t="shared" si="5"/>
         <v>a closer look at aspect interference andcooperation</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F130" s="1">
         <v>2012</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H130" s="8" t="s">
         <v>229</v>
@@ -11277,20 +11277,20 @@
         <v>129</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D131" s="8" t="str">
         <f t="shared" si="5"/>
         <v>specification and verification of event detectors and responses</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F131" s="1">
         <v>2013</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>229</v>
@@ -11338,23 +11338,23 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D132" s="8" t="str">
         <f t="shared" si="5"/>
         <v>counterexample-guided abstraction refinement for symbolic model checking</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F132" s="1">
         <v>2003</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H132" s="8" t="s">
         <v>229</v>
@@ -11402,23 +11402,23 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D133" s="8" t="str">
         <f t="shared" si="5"/>
         <v>weaving semantic aspects in hila</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F133" s="1">
         <v>2012</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H133" s="8" t="s">
         <v>229</v>
@@ -18628,23 +18628,23 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D4" t="s">
         <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C5">
         <f>COUNTIF(DelayedActions!T3:T133,"TRUE")-COUNTA(DelayedActions!U3:U133)</f>
@@ -18664,18 +18664,18 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D9" t="s">
         <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -18697,7 +18697,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C11">
         <f>COUNTIF(DelayedActions!Z:Z,"NO")</f>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37622D89-9EA2-E740-97EA-C03021D3AB7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB18D541-AFB6-E64F-9407-D4E1432A8E8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
+    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
   <sheets>
     <sheet name="DelayedActions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="628">
   <si>
     <t>Author</t>
   </si>
@@ -1238,9 +1238,6 @@
     <t>P. Falcarin and G. Alonso,</t>
   </si>
   <si>
-    <t>Software architecture evolution throughdynamic AOP</t>
-  </si>
-  <si>
     <t>EWSA</t>
   </si>
   <si>
@@ -1337,9 +1334,6 @@
     <t>E. Clarke, O. Grumberg, S. Jha, Y. Lu, and H. Veith</t>
   </si>
   <si>
-    <t>Counterexample-guided abstraction refinement for symbolic model checking</t>
-  </si>
-  <si>
     <t>G. Zhang and M. Hölzl,</t>
   </si>
   <si>
@@ -1569,6 +1563,360 @@
   </si>
   <si>
     <t>Taming dynamically adaptive systems using models and aspects</t>
+  </si>
+  <si>
+    <t>No context or behaviour modelling approach, architecture representation (component level)</t>
+  </si>
+  <si>
+    <t>Define an approach to enable adaptability in a Java program, nothing about the model part of adaptation process</t>
+  </si>
+  <si>
+    <t>Software architecture evolution through dynamic AOP</t>
+  </si>
+  <si>
+    <t>Counter example-guided abstraction refinement for symbolic model checking</t>
+  </si>
+  <si>
+    <t>Trust in automation: Part I. Theoretical issues in the study of trust and human intervention in automated systems</t>
+  </si>
+  <si>
+    <t>BM Muir</t>
+  </si>
+  <si>
+    <t>Ergonomics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00140139408964957</t>
+  </si>
+  <si>
+    <t>Using kbs ideas in image processing - a casestudy in human computer interaction</t>
+  </si>
+  <si>
+    <t>AC Gillies, A Hart</t>
+  </si>
+  <si>
+    <t>Annual Technical Conference of the British Computer Society Specialist Group on Expert Systems</t>
+  </si>
+  <si>
+    <t>Requirements-aware systems: A research agenda for re for self-adaptive systems</t>
+  </si>
+  <si>
+    <t>Sawyer, P., Bencomo, N., Whittle, J., Letier, E., &amp; Finkelstein, A.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/RE.2010.21</t>
+  </si>
+  <si>
+    <t>A requirements monitoring framework for enterprise systems</t>
+  </si>
+  <si>
+    <t>WN Robinson</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00766-005-0016-3</t>
+  </si>
+  <si>
+    <t>. Fickas and M. Feather</t>
+  </si>
+  <si>
+    <t>Requirements monitoring in dynamic environments</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ISRE.1995.512555</t>
+  </si>
+  <si>
+    <t>.  Grace,  D.  Hughes,  B.  Porter,  G.  Blair,  G.  Coulson,  and  F.  Taiani</t>
+  </si>
+  <si>
+    <t>Experiences  with  open  overlays:  A  middleware  approach  to  network heterogeneity</t>
+  </si>
+  <si>
+    <t>EuroSys</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1352592.1352606</t>
+  </si>
+  <si>
+    <t>G.  Coulson,  G.  Blair,  P.  Grace,  A.  Joolia,  K.  Lee,  J.  Ueyama,  andT.  Sivaharan</t>
+  </si>
+  <si>
+    <t>A  generic  component  model  for  building  systems  soft-ware</t>
+  </si>
+  <si>
+    <t>TOCS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1328671.1328672</t>
+  </si>
+  <si>
+    <t>.  Garlan,  S.-W.  Cheng,  A.-C.  Huang,  B.  Schmerl,  and  P.  Steenkiste</t>
+  </si>
+  <si>
+    <t>Rainbow:  Architecture-based  self-adaptation  with  reusable  infrastruc-ture</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/MC.2004.175</t>
+  </si>
+  <si>
+    <t>. C. Georgas, A. van der Hoek, and R. N. Taylor</t>
+  </si>
+  <si>
+    <t>Using architectural models  at  runtime  to  manage  and  visualize  the  adaptation  process</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/MC.2009.335</t>
+  </si>
+  <si>
+    <t>.  Bencomo,  J.  Whittle,  P.  Sawyer,  A.  Finkelstein,  and  E.  Letier</t>
+  </si>
+  <si>
+    <t>Requirements    reflection:    requirements    as    runtime    entities</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1810295.1810329</t>
+  </si>
+  <si>
+    <t>.  E.  S.  Souza,  A.  Lapouchnian,  W.  N.  Robinson,  and  J.  Mylopoulos</t>
+  </si>
+  <si>
+    <t>Awareness requirements for adaptive systems</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1988008.1988018</t>
+  </si>
+  <si>
+    <t>.  Welsh,  P.  Sawyer,  and  N.  Bencomo</t>
+  </si>
+  <si>
+    <t>Towards  requirements  aware systems:  Run-time  resolution  of  design-time  assumptions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ASE.2011.6100125</t>
+  </si>
+  <si>
+    <t>.  Welsh  and  P.  Sawyer,</t>
+  </si>
+  <si>
+    <t>Requirements  tracing  to  support  change  in dynamically adaptive systems</t>
+  </si>
+  <si>
+    <t>REFSQ</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-02050-6_6</t>
+  </si>
+  <si>
+    <t>L.  Chung,  B.  A.  Nixon,  E.  Yu,  and  J.  Mylopoulos</t>
+  </si>
+  <si>
+    <t>Non-Functional Requirements in Software Engineering</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/gp/book/9780792386667</t>
+  </si>
+  <si>
+    <t>Towards  modeling  and  reasoning  support  for  early-phase  requirements  engineering</t>
+  </si>
+  <si>
+    <t>E.  S.  K.  Yu,</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ISRE.1997.566873</t>
+  </si>
+  <si>
+    <t>.  Welsh  and  P.  Sawyer</t>
+  </si>
+  <si>
+    <t>Understanding  the  scope  of  uncertainty  in dynamically adaptive systems</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-14192-8_2</t>
+  </si>
+  <si>
+    <t>.  Whittle,  P.  Sawyer,  N.  Bencomo,  B.  H.  C.  Cheng,  and  J.-M.  Bruel</t>
+  </si>
+  <si>
+    <t>Relax:  a  language  to  address  uncertainty  in  self-adaptive  systems requirement</t>
+  </si>
+  <si>
+    <t>. Andersson, R. Lemos, S. Malek, and D. Weyns</t>
+  </si>
+  <si>
+    <t>Modeling dimensions of  self-adaptive  software  systems</t>
+  </si>
+  <si>
+    <t>SE for SAS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-02161-9_2</t>
+  </si>
+  <si>
+    <t>H.  J.  Goldsby,  P.  Sawyer,  N.  Bencomo,  D.  Hughes,  and  B.  H.  Cheng</t>
+  </si>
+  <si>
+    <t>Goal-based  modeling  of  dynamically  adaptive  system  requirements</t>
+  </si>
+  <si>
+    <t>ECBS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ECBS.2008.22</t>
+  </si>
+  <si>
+    <t>B. Y. Lim, A. K. Dey, and D. Avrahami,</t>
+  </si>
+  <si>
+    <t>Why and why not explanations improve  the   intelligibility  of   context-aware  intelligent   systems</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1518701.1519023</t>
+  </si>
+  <si>
+    <t>.  Hughes,  P.  Greenwood,  G.  Coulson,  G.  Blair,  F.  Pappenberger,P.  Smith,  and  K.  Beven</t>
+  </si>
+  <si>
+    <t>MDC</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/WOWMOM.2006.49</t>
+  </si>
+  <si>
+    <t>Gridstix:  Supporting  flood  prediction  using embedded   hardware   and   next   generation   grid   middleware</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00766-010-0101-0</t>
+  </si>
+  <si>
+    <t>.  Duggan  and  F.  Bent</t>
+  </si>
+  <si>
+    <t>Explaining  type  inference</t>
+  </si>
+  <si>
+    <t>Sc. Of Comp. Prog.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0167-6423(95)00007-0</t>
+  </si>
+  <si>
+    <t>. Van Baalen, P. Robinson, M. Lowry, and T. Pressburge</t>
+  </si>
+  <si>
+    <t>Explaining synthesized  software</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ASE.1998.732661</t>
+  </si>
+  <si>
+    <t>.  Huang,  X.  Huang,  A.  Fiedler,  and  A.  Fiedler</t>
+  </si>
+  <si>
+    <t>Proof  verbalization as an application of nlg</t>
+  </si>
+  <si>
+    <t>IJCAI</t>
+  </si>
+  <si>
+    <t>http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.53.8564&amp;rep=rep1&amp;type=pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.   Bundy, </t>
+  </si>
+  <si>
+    <t>Automated   theorem   provers:   a   practical   tool   for   theworking    mathematician?</t>
+  </si>
+  <si>
+    <t>Annals of Mathematics and AI</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1007/s10472-011-9248-8</t>
+  </si>
+  <si>
+    <t>M.  Golan  and  D.  R.  Hanson</t>
+  </si>
+  <si>
+    <t>Duel  -  a  very  high-level  debugging language</t>
+  </si>
+  <si>
+    <t>USENIX Winter</t>
+  </si>
+  <si>
+    <t>http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.42.7636&amp;rep=rep1&amp;type=pdf</t>
+  </si>
+  <si>
+    <t>J.Yang,M.L.Soffa,L.Selavo,andK.Whitehouse</t>
+  </si>
+  <si>
+    <t>Clairvoyant:   a   comprehensive   source-level   debugger   for   wirelesssensor  networks</t>
+  </si>
+  <si>
+    <t>SenSys</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1322263.1322282</t>
+  </si>
+  <si>
+    <t>. E. Silva Souza, A. Lapouchnian, W. N. Robinson, and J. Mylopoulos</t>
+  </si>
+  <si>
+    <t>Awareness  requirements  for  adaptive  systems</t>
+  </si>
+  <si>
+    <t>L. Baresi, L. Pasquale, and P. Spoletini</t>
+  </si>
+  <si>
+    <t>Fuzzy goals for requirements-driven adaptation</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/RE.2010.25</t>
+  </si>
+  <si>
+    <t>H. Nakagawa, A. Ohsuga, and S. Honiden</t>
+  </si>
+  <si>
+    <t>Constructing self-adaptive systems  using  a  kaos  model</t>
+  </si>
+  <si>
+    <t>SASOW</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/SASOW.2008.35</t>
+  </si>
+  <si>
+    <t>. Dardenne, A. van Lamsweerde, and S. Fickas</t>
+  </si>
+  <si>
+    <t>Goal-directed requirements  acquisition</t>
+  </si>
+  <si>
+    <t>M. M. Lehman and M. M. x Ramil,</t>
+  </si>
+  <si>
+    <t>Software evolution  background, theory, practice</t>
+  </si>
+  <si>
+    <t>Inf. Proc. Letters</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0020-0190(03)00382-X</t>
+  </si>
+  <si>
+    <t>N. Anquetil, B. Grammel, I. Galvao , J. Noppen, S. Shakil , H. Arboleda,A.  Rashid,  and  A.  Garcia</t>
+  </si>
+  <si>
+    <t>Traceability  for  model  driven,  software product line engineering</t>
+  </si>
+  <si>
+    <t>ECMDA</t>
+  </si>
+  <si>
+    <t>http://citeseerx.ist.psu.edu/viewdoc/summary?doi=10.1.1.482.6770</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1969,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1659,13 +2007,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1813,466 +2170,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2599,10 +2496,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="Q73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="R132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C129" sqref="C129"/>
+      <selection pane="bottomRight" activeCell="U157" sqref="U157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2624,27 +2521,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="N1" s="10" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="N1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="U1" s="10" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="U1" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="Y1" s="10" t="s">
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="Y1" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="Z1" s="10"/>
+      <c r="Z1" s="17"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -3158,7 +3055,7 @@
         <v>229</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>204</v>
@@ -3507,15 +3404,6 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="X13" s="1" t="s">
         <v>231</v>
       </c>
@@ -6142,15 +6030,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U50" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="X50" s="1" t="s">
         <v>232</v>
       </c>
@@ -6462,7 +6341,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>307</v>
@@ -6520,6 +6399,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="Y56" s="8" t="s">
         <v>204</v>
       </c>
@@ -6746,7 +6634,7 @@
         <v>245</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D61" s="8" t="str">
         <f t="shared" si="3"/>
@@ -6801,6 +6689,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U61" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="Y61" s="8" t="s">
         <v>204</v>
       </c>
@@ -7136,7 +7033,7 @@
         <v>259</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D67" s="8" t="str">
         <f t="shared" si="3"/>
@@ -7264,7 +7161,7 @@
         <v>262</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D69" s="8" t="str">
         <f t="shared" si="3"/>
@@ -7511,6 +7408,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U72" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="Y72" s="1" t="s">
         <v>204</v>
       </c>
@@ -7526,7 +7432,7 @@
         <v>269</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D73" s="8" t="str">
         <f t="shared" si="3"/>
@@ -7578,8 +7484,17 @@
         <v>0</v>
       </c>
       <c r="T73" s="8" t="b">
-        <f t="shared" ref="T73:T133" si="4">AND(AND(I73:L73),NOT(OR(M73:R73)),NOT(S73))</f>
-        <v>1</v>
+        <f t="shared" ref="T73:T136" si="4">AND(AND(I73:L73),NOT(OR(M73:R73)),NOT(S73))</f>
+        <v>1</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="Y73" s="8" t="s">
         <v>204</v>
@@ -7660,7 +7575,7 @@
         <v>272</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D75" s="8" t="str">
         <f t="shared" si="3"/>
@@ -7715,6 +7630,15 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="U75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="Y75" s="8" t="s">
         <v>204</v>
       </c>
@@ -7971,6 +7895,15 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="U79" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="Y79" s="8" t="s">
         <v>204</v>
       </c>
@@ -8361,6 +8294,15 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="U85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V85" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W85" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="Y85" s="8" t="s">
         <v>204</v>
       </c>
@@ -8465,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87" s="1" t="b">
         <v>0</v>
@@ -8490,7 +8432,7 @@
       </c>
       <c r="T87" s="8" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y87" s="8" t="s">
         <v>204</v>
@@ -8535,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M88" s="1" t="b">
         <v>0</v>
@@ -8560,7 +8502,10 @@
       </c>
       <c r="T88" s="8" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>510</v>
       </c>
       <c r="Y88" s="8" t="s">
         <v>204</v>
@@ -8590,7 +8535,7 @@
         <v>2005</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>229</v>
@@ -8641,7 +8586,7 @@
         <v>351</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D90" s="8" t="str">
         <f t="shared" si="3"/>
@@ -8654,7 +8599,7 @@
         <v>2009</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H90" s="8" t="s">
         <v>229</v>
@@ -8705,7 +8650,7 @@
         <v>352</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D91" s="8" t="str">
         <f t="shared" si="3"/>
@@ -8718,7 +8663,7 @@
         <v>2009</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H91" s="8" t="s">
         <v>229</v>
@@ -8782,7 +8727,7 @@
         <v>2012</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>229</v>
@@ -8833,7 +8778,7 @@
         <v>355</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D93" s="8" t="str">
         <f t="shared" si="3"/>
@@ -8886,7 +8831,7 @@
         <v>2004</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>229</v>
@@ -8901,7 +8846,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94" s="1" t="b">
         <v>0</v>
@@ -8926,7 +8871,10 @@
       </c>
       <c r="T94" s="8" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="Y94" s="1" t="s">
         <v>204</v>
@@ -8943,7 +8891,7 @@
         <v>359</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D95" s="8" t="str">
         <f t="shared" si="3"/>
@@ -8956,7 +8904,7 @@
         <v>2001</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H95" s="8" t="s">
         <v>229</v>
@@ -8971,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M95" s="1" t="b">
         <v>0</v>
@@ -8996,7 +8944,7 @@
       </c>
       <c r="T95" s="8" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y95" s="8" t="s">
         <v>204</v>
@@ -9013,7 +8961,7 @@
         <v>361</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D96" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9026,7 +8974,7 @@
         <v>2006</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H96" s="8" t="s">
         <v>229</v>
@@ -9067,6 +9015,15 @@
       <c r="T96" s="8" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U96" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V96" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W96" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="Y96" s="8" t="s">
         <v>204</v>
@@ -9096,7 +9053,7 @@
         <v>2006</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H97" s="8" t="s">
         <v>229</v>
@@ -9137,6 +9094,15 @@
       <c r="T97" s="8" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U97" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V97" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W97" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="Y97" s="8" t="s">
         <v>204</v>
@@ -9153,7 +9119,7 @@
         <v>366</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D98" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9166,7 +9132,7 @@
         <v>2009</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H98" s="8" t="s">
         <v>229</v>
@@ -9207,6 +9173,15 @@
       <c r="T98" s="8" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U98" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V98" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W98" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="Y98" s="8" t="s">
         <v>204</v>
@@ -9223,7 +9198,7 @@
         <v>368</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D99" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9236,7 +9211,7 @@
         <v>2010</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>229</v>
@@ -9300,7 +9275,7 @@
         <v>2013</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H100" s="8" t="s">
         <v>229</v>
@@ -9364,7 +9339,7 @@
         <v>2016</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H101" s="8" t="s">
         <v>229</v>
@@ -9379,7 +9354,7 @@
         <v>1</v>
       </c>
       <c r="L101" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101" s="1" t="b">
         <v>0</v>
@@ -9404,7 +9379,7 @@
       </c>
       <c r="T101" s="8" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y101" s="8" t="s">
         <v>204</v>
@@ -9421,7 +9396,7 @@
         <v>374</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D102" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9471,7 +9446,7 @@
         <v>2009</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H103" s="8" t="s">
         <v>229</v>
@@ -9522,7 +9497,7 @@
         <v>378</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D104" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9559,7 +9534,7 @@
         <v>379</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D105" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9572,7 +9547,7 @@
         <v>1990</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H105" s="8" t="s">
         <v>229</v>
@@ -9613,6 +9588,15 @@
       <c r="T105" s="8" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V105" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W105" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="Y105" s="8" t="s">
         <v>204</v>
@@ -9642,7 +9626,7 @@
         <v>2007</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H106" s="8" t="s">
         <v>229</v>
@@ -9706,7 +9690,7 @@
         <v>2002</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H107" s="8" t="s">
         <v>229</v>
@@ -9770,7 +9754,7 @@
         <v>2015</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H108" s="8" t="s">
         <v>229</v>
@@ -9808,9 +9792,18 @@
       <c r="S108" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T108" s="8" t="b">
+      <c r="T108" s="10" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U108" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V108" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W108" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="Y108" s="8" t="s">
         <v>204</v>
@@ -9840,7 +9833,7 @@
         <v>2014</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H109" s="8" t="s">
         <v>229</v>
@@ -9878,9 +9871,18 @@
       <c r="S109" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T109" s="8" t="b">
+      <c r="T109" s="10" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U109" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V109" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W109" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="Y109" s="8" t="s">
         <v>204</v>
@@ -9897,7 +9899,7 @@
         <v>392</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D110" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9910,7 +9912,7 @@
         <v>2010</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H110" s="8" t="s">
         <v>229</v>
@@ -9948,7 +9950,7 @@
       <c r="S110" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T110" s="8" t="b">
+      <c r="T110" s="10" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9961,7 +9963,7 @@
         <v>394</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D111" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9974,7 +9976,7 @@
         <v>2003</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H111" s="8" t="s">
         <v>229</v>
@@ -10012,7 +10014,7 @@
       <c r="S111" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T111" s="8" t="b">
+      <c r="T111" s="10" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10038,7 +10040,7 @@
         <v>2007</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H112" s="8" t="s">
         <v>229</v>
@@ -10076,7 +10078,7 @@
       <c r="S112" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T112" s="8" t="b">
+      <c r="T112" s="10" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10096,13 +10098,13 @@
         <v>unifying design and runtime software adaptation using aspect models</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F113" s="1">
         <v>2011</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H113" s="8" t="s">
         <v>229</v>
@@ -10140,9 +10142,18 @@
       <c r="S113" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T113" s="8" t="b">
+      <c r="T113" s="10" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V113" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W113" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="Y113" s="8" t="s">
         <v>204</v>
@@ -10156,23 +10167,23 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D114" s="8" t="str">
         <f t="shared" si="3"/>
         <v>daop-adl: an architecture description language for dynamic component and aspect-based development</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F114" s="1">
         <v>2005</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H114" s="8" t="s">
         <v>229</v>
@@ -10210,9 +10221,18 @@
       <c r="S114" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T114" s="8" t="b">
+      <c r="T114" s="10" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U114" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V114" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W114" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="Y114" s="8" t="s">
         <v>204</v>
@@ -10229,20 +10249,20 @@
         <v>400</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>401</v>
+        <v>512</v>
       </c>
       <c r="D115" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>software architecture evolution throughdynamic aop</v>
+        <v>software architecture evolution through dynamic aop</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F115" s="1">
         <v>2004</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H115" s="8" t="s">
         <v>229</v>
@@ -10280,9 +10300,18 @@
       <c r="S115" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T115" s="8" t="b">
+      <c r="T115" s="10" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U115" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V115" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W115" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="Y115" s="8" t="s">
         <v>204</v>
@@ -10296,23 +10325,23 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D116" s="8" t="str">
         <f t="shared" si="3"/>
         <v>property specification patterns for finite-state verification</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F116" s="1">
         <v>1998</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H116" s="8" t="s">
         <v>229</v>
@@ -10350,7 +10379,7 @@
       <c r="S116" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T116" s="8" t="b">
+      <c r="T116" s="10" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10360,10 +10389,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D117" s="8" t="str">
         <f t="shared" si="3"/>
@@ -10376,7 +10405,7 @@
         <v>1999</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H117" s="8" t="s">
         <v>229</v>
@@ -10414,7 +10443,7 @@
       <c r="S117" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T117" s="8" t="b">
+      <c r="T117" s="10" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10424,23 +10453,23 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D118" s="8" t="str">
         <f t="shared" si="3"/>
         <v>the rewriting logic semantics project: a progress report</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F118" s="1">
         <v>2011</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H118" s="8" t="s">
         <v>229</v>
@@ -10478,7 +10507,7 @@
       <c r="S118" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T118" s="8" t="b">
+      <c r="T118" s="10" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10488,23 +10517,23 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="D119" s="8" t="str">
         <f t="shared" si="3"/>
         <v>modular verification of dynamically adaptive systems</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F119" s="1">
         <v>2009</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H119" s="8" t="s">
         <v>229</v>
@@ -10542,9 +10571,18 @@
       <c r="S119" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T119" s="8" t="b">
+      <c r="T119" s="10" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W119" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="Y119" s="8" t="s">
         <v>204</v>
@@ -10558,10 +10596,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="D120" s="8" t="str">
         <f t="shared" si="3"/>
@@ -10574,7 +10612,7 @@
         <v>2015</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H120" s="8" t="s">
         <v>229</v>
@@ -10612,7 +10650,7 @@
       <c r="S120" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T120" s="8" t="b">
+      <c r="T120" s="10" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10622,13 +10660,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="D121" s="8" t="str">
-        <f t="shared" ref="D121:D133" si="5">TRIM(LOWER(C121))</f>
+        <f t="shared" ref="D121:D166" si="5">TRIM(LOWER(C121))</f>
         <v>the macodo organization model for context-driven dynamic agent organizations</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -10638,7 +10676,7 @@
         <v>2010</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H121" s="8" t="s">
         <v>229</v>
@@ -10676,9 +10714,18 @@
       <c r="S121" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T121" s="8" t="b">
+      <c r="T121" s="10" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U121" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V121" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W121" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="Y121" s="8" t="s">
         <v>204</v>
@@ -10692,10 +10739,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="D122" s="8" t="str">
         <f t="shared" si="5"/>
@@ -10719,7 +10766,7 @@
       <c r="S122" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="T122" s="8" t="b">
+      <c r="T122" s="10" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10729,10 +10776,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="D123" s="8" t="str">
         <f t="shared" si="5"/>
@@ -10745,7 +10792,7 @@
         <v>2013</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H123" s="8" t="s">
         <v>229</v>
@@ -10783,9 +10830,18 @@
       <c r="S123" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T123" s="8" t="b">
+      <c r="T123" s="10" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U123" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W123" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="Y123" s="8" t="s">
         <v>204</v>
@@ -10799,10 +10855,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="D124" s="8" t="str">
         <f t="shared" si="5"/>
@@ -10815,7 +10871,7 @@
         <v>2013</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H124" s="8" t="s">
         <v>229</v>
@@ -10853,9 +10909,18 @@
       <c r="S124" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T124" s="8" t="b">
+      <c r="T124" s="10" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U124" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W124" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="Y124" s="8" t="s">
         <v>204</v>
@@ -10869,10 +10934,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="D125" s="8" t="str">
         <f t="shared" si="5"/>
@@ -10885,7 +10950,7 @@
         <v>2010</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H125" s="8" t="s">
         <v>229</v>
@@ -10923,9 +10988,18 @@
       <c r="S125" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T125" s="8" t="b">
+      <c r="T125" s="10" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U125" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W125" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="Y125" s="8" t="s">
         <v>204</v>
@@ -10939,23 +11013,23 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D126" s="8" t="str">
         <f t="shared" si="5"/>
         <v>probabilistic verification at runtime for self-adaptive systems</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F126" s="1">
         <v>2013</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H126" s="8" t="s">
         <v>229</v>
@@ -10993,7 +11067,7 @@
       <c r="S126" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T126" s="8" t="b">
+      <c r="T126" s="10" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11003,10 +11077,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="D127" s="8" t="str">
         <f t="shared" si="5"/>
@@ -11019,7 +11093,7 @@
         <v>2011</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H127" s="8" t="s">
         <v>229</v>
@@ -11057,9 +11131,18 @@
       <c r="S127" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T127" s="8" t="b">
+      <c r="T127" s="10" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U127" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W127" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="Y127" s="8" t="s">
         <v>204</v>
@@ -11073,23 +11156,23 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="D128" s="8" t="str">
         <f t="shared" si="5"/>
         <v>model checking adaptive software with featured transition systems</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F128" s="1">
         <v>2013</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>229</v>
@@ -11127,9 +11210,18 @@
       <c r="S128" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T128" s="8" t="b">
+      <c r="T128" s="10" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U128" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V128" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W128" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="Y128" s="8" t="s">
         <v>204</v>
@@ -11143,10 +11235,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D129" s="8" t="str">
         <f t="shared" si="5"/>
@@ -11159,7 +11251,7 @@
         <v>2009</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H129" s="8" t="s">
         <v>229</v>
@@ -11197,9 +11289,18 @@
       <c r="S129" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="T129" s="8" t="b">
+      <c r="T129" s="10" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+      <c r="U129" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V129" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W129" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="Y129" s="8" t="s">
         <v>204</v>
@@ -11213,23 +11314,23 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="D130" s="8" t="str">
         <f t="shared" si="5"/>
         <v>a closer look at aspect interference andcooperation</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F130" s="1">
         <v>2012</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H130" s="8" t="s">
         <v>229</v>
@@ -11277,20 +11378,20 @@
         <v>129</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D131" s="8" t="str">
         <f t="shared" si="5"/>
         <v>specification and verification of event detectors and responses</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F131" s="1">
         <v>2013</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>229</v>
@@ -11338,23 +11439,23 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>434</v>
+        <v>513</v>
       </c>
       <c r="D132" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>counterexample-guided abstraction refinement for symbolic model checking</v>
+        <v>counter example-guided abstraction refinement for symbolic model checking</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F132" s="1">
         <v>2003</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H132" s="8" t="s">
         <v>229</v>
@@ -11402,23 +11503,23 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D133" s="8" t="str">
         <f t="shared" si="5"/>
         <v>weaving semantic aspects in hila</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F133" s="1">
         <v>2012</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H133" s="8" t="s">
         <v>229</v>
@@ -11462,274 +11563,2043 @@
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A134" s="15">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D134" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>trust in automation: part i. theoretical issues in the study of trust and human intervention in automated systems</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F134" s="1">
+        <v>2007</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I134" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J134" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K134" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M134" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N134" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O134" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P134" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R134" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S134" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T134" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A135" s="15">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D135" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>using kbs ideas in image processing - a casestudy in human computer interaction</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1988</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I135" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J135" s="8">
-        <f>COUNTBLANK(J107:J133)</f>
-        <v>1</v>
+      <c r="J135" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K135" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M135" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="T135" s="15" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A136" s="15">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D136" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>requirements-aware systems: a research agenda for re for self-adaptive systems</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F136" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I136" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J136" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K136" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M136" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N136" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O136" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P136" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R136" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S136" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T136" s="15" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A137" s="15">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="D137" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>a requirements monitoring framework for enterprise systems</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F137" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I137" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J137" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K137" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M137" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N137" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O137" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P137" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R137" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S137" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T137" s="15" t="b">
+        <f t="shared" ref="T137:T166" si="6">AND(AND(I137:L137),NOT(OR(M137:R137)),NOT(S137))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A138" s="15">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D138" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>requirements monitoring in dynamic environments</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1995</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I138" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J138" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K138" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M138" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N138" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O138" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P138" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R138" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S138" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T138" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A139" s="15">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D139" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>experiences with open overlays: a middleware approach to network heterogeneity</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F139" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I139" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J139" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K139" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M139" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N139" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O139" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P139" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R139" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S139" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T139" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A140" s="15">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D140" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>a generic component model for building systems soft-ware</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F140" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I140" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J140" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K140" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M140" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N140" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O140" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P140" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R140" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S140" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T140" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A141" s="15">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D141" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>rainbow: architecture-based self-adaptation with reusable infrastruc-ture</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F141" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I141" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J141" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K141" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M141" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N141" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O141" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P141" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R141" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S141" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T141" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A142" s="15">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D142" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>using architectural models at runtime to manage and visualize the adaptation process</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F142" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I142" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J142" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K142" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M142" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N142" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O142" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P142" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R142" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S142" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T142" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A143" s="15">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D143" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>requirements reflection: requirements as runtime entities</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F143" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I143" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J143" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K143" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M143" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N143" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O143" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P143" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R143" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S143" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T143" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A144" s="15">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D144" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>awareness requirements for adaptive systems</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I144" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J144" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K144" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M144" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N144" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O144" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P144" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R144" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S144" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T144" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A145" s="15">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D145" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>towards requirements aware systems: run-time resolution of design-time assumptions</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F145" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I145" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J145" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K145" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M145" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N145" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O145" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P145" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R145" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S145" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T145" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A146" s="15">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D146" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>requirements tracing to support change in dynamically adaptive systems</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F146" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I146" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J146" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K146" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M146" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N146" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O146" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P146" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R146" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S146" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T146" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A147" s="15">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D147" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>non-functional requirements in software engineering</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1999</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I147" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J147" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K147" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M147" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N147" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O147" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P147" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R147" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S147" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T147" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A148" s="15">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D148" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>towards modeling and reasoning support for early-phase requirements engineering</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1997</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I148" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J148" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K148" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M148" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N148" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O148" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P148" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R148" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S148" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T148" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A149" s="15">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D149" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>understanding the scope of uncertainty in dynamically adaptive systems</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F149" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I149" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J149" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K149" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M149" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N149" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O149" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P149" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R149" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S149" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T149" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A150" s="15">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D150" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>relax: a language to address uncertainty in self-adaptive systems requirement</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F150" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I150" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J150" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K150" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M150" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N150" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O150" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P150" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R150" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S150" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T150" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A151" s="15">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D151" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>modeling dimensions of self-adaptive software systems</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F151" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I151" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J151" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K151" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M151" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N151" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O151" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P151" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R151" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S151" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T151" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A152" s="15">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D152" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>goal-based modeling of dynamically adaptive system requirements</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F152" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I152" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J152" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K152" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M152" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N152" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O152" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P152" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R152" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S152" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T152" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A153" s="15">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D153" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>why and why not explanations improve the intelligibility of context-aware intelligent systems</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F153" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I153" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J153" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K153" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M153" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N153" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O153" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P153" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q153" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R153" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S153" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T153" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A154" s="15">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D154" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>gridstix: supporting flood prediction using embedded hardware and next generation grid middleware</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F154" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I154" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J154" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K154" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M154" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N154" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O154" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P154" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q154" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R154" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S154" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T154" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A155" s="15">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D155" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>explaining type inference</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1995</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I155" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J155" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K155" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M155" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N155" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O155" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P155" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q155" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R155" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S155" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T155" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A156" s="15">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D156" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>explaining synthesized software</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1998</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I156" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J156" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K156" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M156" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N156" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O156" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P156" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R156" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S156" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T156" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A157" s="15">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D157" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>proof verbalization as an application of nlg</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F157" s="1">
+        <v>1997</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I157" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J157" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K157" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M157" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N157" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O157" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P157" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q157" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R157" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S157" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T157" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A158" s="15">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D158" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>automated theorem provers: a practical tool for theworking mathematician?</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F158" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I158" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J158" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K158" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M158" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N158" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O158" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P158" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R158" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S158" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T158" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A159" s="15">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D159" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>duel - a very high-level debugging language</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F159" s="1">
+        <v>1993</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I159" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J159" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K159" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M159" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N159" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O159" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P159" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R159" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S159" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T159" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A160" s="15">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D160" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>clairvoyant: a comprehensive source-level debugger for wirelesssensor networks</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F160" s="1">
+        <v>2007</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I160" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J160" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K160" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M160" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N160" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O160" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P160" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R160" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S160" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T160" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A161" s="15">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D161" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>awareness requirements for adaptive systems</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F161" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I161" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M161" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="S161" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T161" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A162" s="15">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D162" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>fuzzy goals for requirements-driven adaptation</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F162" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I162" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J162" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K162" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M162" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N162" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O162" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P162" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R162" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S162" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T162" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A163" s="15">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D163" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>constructing self-adaptive systems using a kaos model</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F163" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I163" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J163" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K163" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M163" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N163" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O163" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P163" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R163" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S163" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T163" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A164" s="15">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D164" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>goal-directed requirements acquisition</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F164" s="16">
+        <v>1993</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="I164" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M164" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="S164" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T164" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A165" s="15">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D165" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>software evolution background, theory, practice</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F165" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I165" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J165" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K165" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M165" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N165" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O165" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P165" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q165" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R165" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S165" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T165" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A166" s="15">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D166" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>traceability for model driven, software product line engineering</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F166" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I166" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J166" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K166" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M166" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N166" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O166" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P166" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R166" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S166" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T166" s="15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I167" s="1" t="b">
         <v>1</v>
       </c>
@@ -11737,7 +13607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I168" s="1" t="b">
         <v>1</v>
       </c>
@@ -11745,7 +13615,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C169" s="1">
+        <f>COUNTBLANK(C157:C166)</f>
+        <v>0</v>
+      </c>
       <c r="I169" s="1" t="b">
         <v>1</v>
       </c>
@@ -11753,7 +13627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I170" s="1" t="b">
         <v>1</v>
       </c>
@@ -11761,7 +13635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I171" s="1" t="b">
         <v>1</v>
       </c>
@@ -11769,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I172" s="1" t="b">
         <v>1</v>
       </c>
@@ -11777,7 +13651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I173" s="1" t="b">
         <v>1</v>
       </c>
@@ -11785,7 +13659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I174" s="1" t="b">
         <v>1</v>
       </c>
@@ -11793,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I175" s="1" t="b">
         <v>1</v>
       </c>
@@ -11801,7 +13675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I176" s="1" t="b">
         <v>1</v>
       </c>
@@ -18408,79 +20282,79 @@
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Y1:Z1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:D133">
-    <cfRule type="expression" dxfId="31" priority="18">
-      <formula>SUMPRODUCT(--EXACT($D$3:$D$133,$D3))&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Z1048576">
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T133">
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+  <conditionalFormatting sqref="T3:T166">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:R133">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:L133">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37:R37">
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:L37">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:R40">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:L40">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43:R43">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43:L43">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:R44">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:L44">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46:R46">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:L46">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:D166">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>SUMPRODUCT(--EXACT($D$3:$D$166,$D3))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -18608,6 +20482,38 @@
     <hyperlink ref="G131" r:id="rId122" xr:uid="{5CBD29E9-6B19-5548-A088-CB4BBB3C508D}"/>
     <hyperlink ref="G132" r:id="rId123" xr:uid="{61C1DAF8-0498-1C49-8DA2-E573C36C3844}"/>
     <hyperlink ref="G133" r:id="rId124" xr:uid="{7B8EE9A8-92D9-7C48-9021-63D9DD48F27A}"/>
+    <hyperlink ref="G134" r:id="rId125" xr:uid="{6A5CFE5E-4B47-6941-B746-10BA00126165}"/>
+    <hyperlink ref="G136" r:id="rId126" xr:uid="{A3564C10-B19F-3244-B5B6-F770C519B2D4}"/>
+    <hyperlink ref="G137" r:id="rId127" xr:uid="{BD1AF946-44EF-E641-9366-4821CE84C707}"/>
+    <hyperlink ref="G138" r:id="rId128" xr:uid="{B5130765-B00D-ED4F-B3EB-B3305CD871A7}"/>
+    <hyperlink ref="G139" r:id="rId129" xr:uid="{FB3C2456-26D9-C64F-8684-DF7C3204264D}"/>
+    <hyperlink ref="G140" r:id="rId130" xr:uid="{E10612DC-D85A-8B4A-8090-77A01A9B71DB}"/>
+    <hyperlink ref="G141" r:id="rId131" xr:uid="{807F2766-0490-7D48-8B15-2D321E63778B}"/>
+    <hyperlink ref="G142" r:id="rId132" xr:uid="{30842986-86EE-BE48-8434-2B73A9E8A5E9}"/>
+    <hyperlink ref="G143" r:id="rId133" xr:uid="{6A9CFDB1-D7C0-3B49-81B2-DE3FA761D845}"/>
+    <hyperlink ref="G144" r:id="rId134" xr:uid="{C28A8CF6-427C-0048-AB06-9525909F6217}"/>
+    <hyperlink ref="G145" r:id="rId135" xr:uid="{B0575757-A383-D743-B442-8EC38D28621D}"/>
+    <hyperlink ref="G146" r:id="rId136" xr:uid="{E47BEB23-DBB9-6042-B0FE-C077713EE633}"/>
+    <hyperlink ref="G147" r:id="rId137" xr:uid="{4D9874D8-87BF-214B-9BBF-F84B79A32A9E}"/>
+    <hyperlink ref="G148" r:id="rId138" xr:uid="{BE7F5421-87D1-1C49-B078-75B20B2817CE}"/>
+    <hyperlink ref="G149" r:id="rId139" xr:uid="{6D48DED1-B7CC-6E4E-B6EC-2F853BB0FCEB}"/>
+    <hyperlink ref="G151" r:id="rId140" xr:uid="{30C22E79-E796-DE48-9855-BBA9320F51F5}"/>
+    <hyperlink ref="G152" r:id="rId141" xr:uid="{193E33A8-CB10-BC49-B9BC-6DE0395DDB0E}"/>
+    <hyperlink ref="G153" r:id="rId142" xr:uid="{CF995FF2-72D8-784E-9798-D65D60C8F6B5}"/>
+    <hyperlink ref="G154" r:id="rId143" xr:uid="{F89E1812-DDBB-264D-89E3-6908DA0D37D7}"/>
+    <hyperlink ref="G150" r:id="rId144" xr:uid="{F0072D3E-8958-DC4A-8B29-0BC018CF2A6C}"/>
+    <hyperlink ref="G155" r:id="rId145" xr:uid="{5FE9D4A5-AE54-A444-80CA-3720AFE9D9AC}"/>
+    <hyperlink ref="G156" r:id="rId146" xr:uid="{29CEC0B9-3CCB-5A4C-A03E-9807E95CCF5D}"/>
+    <hyperlink ref="G157" r:id="rId147" xr:uid="{CAEEFA94-4AE3-414C-B0C4-073D8F6C0844}"/>
+    <hyperlink ref="G158" r:id="rId148" xr:uid="{2A07941B-B53C-0B40-8AAD-FA67B49A6B50}"/>
+    <hyperlink ref="G159" r:id="rId149" xr:uid="{6257B0E7-A273-884E-9A69-CAF0B6E838D9}"/>
+    <hyperlink ref="G160" r:id="rId150" xr:uid="{2157C10F-45FA-5541-8C36-BFA80D351D09}"/>
+    <hyperlink ref="G161" r:id="rId151" xr:uid="{2905F966-72E1-3A4D-9EE3-07011C85C0F2}"/>
+    <hyperlink ref="G162" r:id="rId152" xr:uid="{12EE20F9-5CCB-B94A-9B80-D114BF45863E}"/>
+    <hyperlink ref="G163" r:id="rId153" xr:uid="{E203633C-0A52-C04E-958B-D50B05FDF0A7}"/>
+    <hyperlink ref="G164" r:id="rId154" xr:uid="{3C5C0FE5-D8FA-084E-BB9A-75F2D04122FD}"/>
+    <hyperlink ref="G165" r:id="rId155" xr:uid="{95DE4570-0126-4141-A171-C982B0EE70D2}"/>
+    <hyperlink ref="G166" r:id="rId156" xr:uid="{299B5585-7106-A948-8322-4749F757F45B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18618,7 +20524,7 @@
   <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18628,35 +20534,35 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D4" t="s">
         <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C5">
-        <f>COUNTIF(DelayedActions!T3:T133,"TRUE")-COUNTA(DelayedActions!U3:U133)</f>
-        <v>27</v>
+        <f>COUNTIF(DelayedActions!T3:T164,"TRUE")-COUNTA(DelayedActions!U3:U164)</f>
+        <v>7</v>
       </c>
       <c r="D5">
-        <f>COUNTIF(DelayedActions!T3:T133,"TRUE")</f>
-        <v>48</v>
+        <f>COUNTIF(DelayedActions!T3:T164,"TRUE")</f>
+        <v>50</v>
       </c>
       <c r="E5" s="14">
         <f>C5/D5</f>
-        <v>0.5625</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -18664,18 +20570,18 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D9" t="s">
         <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -18684,7 +20590,7 @@
       </c>
       <c r="C10">
         <f>COUNTIF(DelayedActions!Y:Y,"NO")</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <f>COUNTA(DelayedActions!Y:Y)-2</f>
@@ -18692,12 +20598,12 @@
       </c>
       <c r="E10" s="14">
         <f>C10/D10</f>
-        <v>0.95833333333333337</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C11">
         <f>COUNTIF(DelayedActions!Z:Z,"NO")</f>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB18D541-AFB6-E64F-9407-D4E1432A8E8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBF6AC1-7337-4546-8383-46E28ADA654B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="627">
   <si>
     <t>Author</t>
   </si>
@@ -1659,9 +1659,6 @@
   </si>
   <si>
     <t>. C. Georgas, A. van der Hoek, and R. N. Taylor</t>
-  </si>
-  <si>
-    <t>Using architectural models  at  runtime  to  manage  and  visualize  the  adaptation  process</t>
   </si>
   <si>
     <t>https://doi.org/10.1109/MC.2009.335</t>
@@ -2022,7 +2019,147 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2170,6 +2307,166 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2496,10 +2793,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="R132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U157" sqref="U157"/>
+      <selection pane="bottomRight" activeCell="P92" sqref="P92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12057,12 +12354,9 @@
       <c r="B142" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="D142" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>using architectural models at runtime to manage and visualize the adaptation process</v>
+        <v/>
       </c>
       <c r="E142" s="9" t="s">
         <v>55</v>
@@ -12071,7 +12365,7 @@
         <v>2009</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>229</v>
@@ -12119,10 +12413,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="D143" s="15" t="str">
         <f t="shared" si="5"/>
@@ -12135,7 +12429,7 @@
         <v>2010</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>229</v>
@@ -12183,10 +12477,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="D144" s="15" t="str">
         <f t="shared" si="5"/>
@@ -12199,7 +12493,7 @@
         <v>2011</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>229</v>
@@ -12247,10 +12541,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="D145" s="15" t="str">
         <f t="shared" si="5"/>
@@ -12263,7 +12557,7 @@
         <v>2011</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>229</v>
@@ -12311,23 +12605,23 @@
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="D146" s="15" t="str">
         <f t="shared" si="5"/>
         <v>requirements tracing to support change in dynamically adaptive systems</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F146" s="1">
         <v>2009</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>229</v>
@@ -12375,23 +12669,23 @@
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="D147" s="15" t="str">
         <f t="shared" si="5"/>
         <v>non-functional requirements in software engineering</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F147" s="1">
         <v>1999</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>229</v>
@@ -12439,10 +12733,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D148" s="15" t="str">
         <f t="shared" si="5"/>
@@ -12455,7 +12749,7 @@
         <v>1997</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>229</v>
@@ -12503,23 +12797,23 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="D149" s="15" t="str">
         <f t="shared" si="5"/>
         <v>understanding the scope of uncertainty in dynamically adaptive systems</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F149" s="1">
         <v>2010</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>229</v>
@@ -12567,10 +12861,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="D150" s="15" t="str">
         <f t="shared" si="5"/>
@@ -12583,7 +12877,7 @@
         <v>2010</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>229</v>
@@ -12631,23 +12925,23 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="D151" s="15" t="str">
         <f t="shared" si="5"/>
         <v>modeling dimensions of self-adaptive software systems</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F151" s="1">
         <v>2009</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>229</v>
@@ -12695,23 +12989,23 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="D152" s="15" t="str">
         <f t="shared" si="5"/>
         <v>goal-based modeling of dynamically adaptive system requirements</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F152" s="1">
         <v>2008</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>229</v>
@@ -12759,23 +13053,23 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="D153" s="15" t="str">
         <f t="shared" si="5"/>
         <v>why and why not explanations improve the intelligibility of context-aware intelligent systems</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F153" s="1">
         <v>2009</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>229</v>
@@ -12823,23 +13117,23 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D154" s="15" t="str">
         <f t="shared" si="5"/>
         <v>gridstix: supporting flood prediction using embedded hardware and next generation grid middleware</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F154" s="1">
         <v>2006</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>229</v>
@@ -12887,23 +13181,23 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="D155" s="15" t="str">
         <f t="shared" si="5"/>
         <v>explaining type inference</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F155" s="1">
         <v>1995</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>229</v>
@@ -12951,10 +13245,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="D156" s="15" t="str">
         <f t="shared" si="5"/>
@@ -12967,7 +13261,7 @@
         <v>1998</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>229</v>
@@ -13015,23 +13309,23 @@
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="D157" s="15" t="str">
         <f t="shared" si="5"/>
         <v>proof verbalization as an application of nlg</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F157" s="1">
         <v>1997</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>229</v>
@@ -13079,23 +13373,23 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="D158" s="15" t="str">
         <f t="shared" si="5"/>
         <v>automated theorem provers: a practical tool for theworking mathematician?</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F158" s="1">
         <v>2011</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>229</v>
@@ -13143,23 +13437,23 @@
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="D159" s="15" t="str">
         <f t="shared" si="5"/>
         <v>duel - a very high-level debugging language</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F159" s="1">
         <v>1993</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>229</v>
@@ -13207,23 +13501,23 @@
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="D160" s="15" t="str">
         <f t="shared" si="5"/>
         <v>clairvoyant: a comprehensive source-level debugger for wirelesssensor networks</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F160" s="1">
         <v>2007</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>229</v>
@@ -13271,10 +13565,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="D161" s="15" t="str">
         <f t="shared" si="5"/>
@@ -13287,7 +13581,7 @@
         <v>2011</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>229</v>
@@ -13311,10 +13605,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="D162" s="15" t="str">
         <f t="shared" si="5"/>
@@ -13327,7 +13621,7 @@
         <v>2010</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>229</v>
@@ -13375,23 +13669,23 @@
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="D163" s="15" t="str">
         <f t="shared" si="5"/>
         <v>constructing self-adaptive systems using a kaos model</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F163" s="1">
         <v>2008</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>229</v>
@@ -13439,10 +13733,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="D164" s="15" t="str">
         <f t="shared" si="5"/>
@@ -13476,23 +13770,23 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="D165" s="15" t="str">
         <f t="shared" si="5"/>
         <v>software evolution background, theory, practice</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F165" s="1">
         <v>2003</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>229</v>
@@ -13540,23 +13834,23 @@
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="D166" s="15" t="str">
         <f t="shared" si="5"/>
         <v>traceability for model driven, software product line engineering</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F166" s="1">
         <v>2008</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>229</v>
@@ -13616,10 +13910,6 @@
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C169" s="1">
-        <f>COUNTBLANK(C157:C166)</f>
-        <v>0</v>
-      </c>
       <c r="I169" s="1" t="b">
         <v>1</v>
       </c>
@@ -20283,77 +20573,77 @@
     <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:Z1048576">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T166">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:R133">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+  <conditionalFormatting sqref="N3:S166">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:L133">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+  <conditionalFormatting sqref="J3:L166">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37:R37">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:L37">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:R40">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:L40">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43:R43">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43:L43">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:R44">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:L44">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46:R46">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:L46">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D166">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>SUMPRODUCT(--EXACT($D$3:$D$166,$D3))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20620,7 +20910,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5 D10:D11">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="45" priority="1">
       <formula>NOT(AND($D$5=$D$10,$D$5=$D$11))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBF6AC1-7337-4546-8383-46E28ADA654B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF10151-6260-4446-A19E-37A388EEBB05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="629">
   <si>
     <t>Author</t>
   </si>
@@ -1914,6 +1914,12 @@
   </si>
   <si>
     <t>http://citeseerx.ist.psu.edu/viewdoc/summary?doi=10.1.1.482.6770</t>
+  </si>
+  <si>
+    <t>Using architectural models to manage and visualize runtime adaptation</t>
+  </si>
+  <si>
+    <t>About requirement modeling</t>
   </si>
 </sst>
 </file>
@@ -2793,10 +2799,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P92" sqref="P92"/>
+      <selection pane="bottomRight" activeCell="L164" sqref="L164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12218,6 +12224,15 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="U139" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V139" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W139" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="15">
@@ -12346,6 +12361,15 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="U141" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V141" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W141" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="15">
@@ -12354,12 +12378,15 @@
       <c r="B142" s="1" t="s">
         <v>541</v>
       </c>
+      <c r="C142" s="1" t="s">
+        <v>627</v>
+      </c>
       <c r="D142" s="15" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>using architectural models to manage and visualize runtime adaptation</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F142" s="1">
         <v>2009</v>
@@ -12406,6 +12433,15 @@
       <c r="T142" s="15" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
+      </c>
+      <c r="U142" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V142" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W142" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.2">
@@ -12536,7 +12572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="15">
         <v>143</v>
       </c>
@@ -12600,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="15">
         <v>144</v>
       </c>
@@ -12664,7 +12700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="15">
         <v>145</v>
       </c>
@@ -12728,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="15">
         <v>146</v>
       </c>
@@ -12792,7 +12828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="15">
         <v>147</v>
       </c>
@@ -12828,7 +12864,7 @@
         <v>1</v>
       </c>
       <c r="L149" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M149" s="1" t="b">
         <v>0</v>
@@ -12853,10 +12889,13 @@
       </c>
       <c r="T149" s="15" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X149" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="15">
         <v>148</v>
       </c>
@@ -12920,7 +12959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="15">
         <v>149</v>
       </c>
@@ -12956,7 +12995,7 @@
         <v>1</v>
       </c>
       <c r="L151" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M151" s="1" t="b">
         <v>0</v>
@@ -12981,10 +13020,10 @@
       </c>
       <c r="T151" s="15" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="15">
         <v>150</v>
       </c>
@@ -13048,7 +13087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="15">
         <v>151</v>
       </c>
@@ -13112,7 +13151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="15">
         <v>152</v>
       </c>
@@ -13176,7 +13215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="15">
         <v>153</v>
       </c>
@@ -13240,7 +13279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="15">
         <v>154</v>
       </c>
@@ -13304,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="15">
         <v>155</v>
       </c>
@@ -13368,7 +13407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="15">
         <v>156</v>
       </c>
@@ -13432,7 +13471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="15">
         <v>157</v>
       </c>
@@ -13496,7 +13535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="15">
         <v>158</v>
       </c>
@@ -13560,7 +13599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" s="15">
         <v>159</v>
       </c>
@@ -13600,7 +13639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" s="15">
         <v>160</v>
       </c>
@@ -13663,8 +13702,17 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U162" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V162" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W162" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" s="15">
         <v>161</v>
       </c>
@@ -13700,7 +13748,7 @@
         <v>1</v>
       </c>
       <c r="L163" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M163" s="1" t="b">
         <v>0</v>
@@ -13725,10 +13773,10 @@
       </c>
       <c r="T163" s="15" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" s="15">
         <v>162</v>
       </c>
@@ -13765,7 +13813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" s="15">
         <v>163</v>
       </c>
@@ -13829,7 +13877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" s="15">
         <v>164</v>
       </c>
@@ -13893,7 +13941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I167" s="1" t="b">
         <v>1</v>
       </c>
@@ -13901,7 +13949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I168" s="1" t="b">
         <v>1</v>
       </c>
@@ -13909,7 +13957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I169" s="1" t="b">
         <v>1</v>
       </c>
@@ -13917,7 +13965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I170" s="1" t="b">
         <v>1</v>
       </c>
@@ -13925,7 +13973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I171" s="1" t="b">
         <v>1</v>
       </c>
@@ -13933,7 +13981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I172" s="1" t="b">
         <v>1</v>
       </c>
@@ -13941,7 +13989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I173" s="1" t="b">
         <v>1</v>
       </c>
@@ -13949,7 +13997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I174" s="1" t="b">
         <v>1</v>
       </c>
@@ -13957,7 +14005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I175" s="1" t="b">
         <v>1</v>
       </c>
@@ -13965,7 +14013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I176" s="1" t="b">
         <v>1</v>
       </c>
@@ -20844,15 +20892,15 @@
       </c>
       <c r="C5">
         <f>COUNTIF(DelayedActions!T3:T164,"TRUE")-COUNTA(DelayedActions!U3:U164)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f>COUNTIF(DelayedActions!T3:T164,"TRUE")</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="14">
         <f>C5/D5</f>
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF10151-6260-4446-A19E-37A388EEBB05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D53801-B8CD-324D-9916-39BA37885CF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="758">
   <si>
     <t>Author</t>
   </si>
@@ -1920,6 +1920,393 @@
   </si>
   <si>
     <t>About requirement modeling</t>
+  </si>
+  <si>
+    <t>S.M. Amin and B.F. Wollenberg</t>
+  </si>
+  <si>
+    <t>Toward a smart grid: power delivery for the 21st century</t>
+  </si>
+  <si>
+    <t>Power and Energy Magazine</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/MPAE.2005.1507024</t>
+  </si>
+  <si>
+    <t>A.  Barth,  B.  I.  P.  Rubinstein,  M.  Sundararajan,  J.  C.  Mitchell,  D.  X.  Song,and  P.  L.  Bartlett</t>
+  </si>
+  <si>
+    <t>A  learning-based  approach  to  reactive  security</t>
+  </si>
+  <si>
+    <t>TDSC</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/TDSC.2011.42</t>
+  </si>
+  <si>
+    <t>Todd Baumeister</t>
+  </si>
+  <si>
+    <t>Literature Review on Smart Grid Cyber Security</t>
+  </si>
+  <si>
+    <t>Univ. of Hawai</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/0ea0/4b2c12945f486c7967699f00433a8a98a1f1.pdf</t>
+  </si>
+  <si>
+    <t>R.  Berthier,  W.H.  Sanders,  and  H.  Khurana</t>
+  </si>
+  <si>
+    <t>Intrusion  detection  for  advanced metering  infrastructures:  Requirements  and  architectural  directions</t>
+  </si>
+  <si>
+    <t>GridComm</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/SMARTGRID.2010.5622068</t>
+  </si>
+  <si>
+    <t>Robin Berthier and William H. Sanders</t>
+  </si>
+  <si>
+    <t>Specification-based intrusion detection for advanced metering infrastructure</t>
+  </si>
+  <si>
+    <t>PRDC</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/PRDC.2011.30</t>
+  </si>
+  <si>
+    <t>G. Blair, N. Bencomo, and R.B. France</t>
+  </si>
+  <si>
+    <t>S.  Bruno,  S.  Lamonaca,  M.L.  Scala,  G.  Rotondo,  and  U.  Stecch</t>
+  </si>
+  <si>
+    <t>Load  control through smart-metering on distribution networks</t>
+  </si>
+  <si>
+    <t>PowerTech</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/PTC.2009.5282256</t>
+  </si>
+  <si>
+    <t>J. C. Cepeda, D.O. Ramirez, and D.G. Colome.</t>
+  </si>
+  <si>
+    <t>Probabilistic-based overload estimation  for  real-time  smart  grid  vulnerability  assessment</t>
+  </si>
+  <si>
+    <t>T D-LA</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/TDC-LA.2012.6319111</t>
+  </si>
+  <si>
+    <t>Axel Cleeremans, David Servan-Schreiber, and James L McClelland</t>
+  </si>
+  <si>
+    <t>Finite state automata and simple recurrent networks</t>
+  </si>
+  <si>
+    <t>Neural computation</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1162/neco.1989.1.3.372</t>
+  </si>
+  <si>
+    <t>S. Deilami, A.S. Masoum, P.S. Moses, and M. A S Masoum</t>
+  </si>
+  <si>
+    <t>Real-time coordination of  plug-in  electric  vehicle  charging  in  smart  grids  to  minimize  power  losses  and improve voltage profile</t>
+  </si>
+  <si>
+    <t>TSG</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/TSG.2011.2159816</t>
+  </si>
+  <si>
+    <t>ECMA International</t>
+  </si>
+  <si>
+    <t>Standard ECMA-262 - ECMAScript Language Specification</t>
+  </si>
+  <si>
+    <t>https://www.ecma-international.org/publications/standards/Ecma-262.htm</t>
+  </si>
+  <si>
+    <t>C. Efthymiou and G. Kalogridis</t>
+  </si>
+  <si>
+    <t>Smart grid privacy via anonymization of smart metering data</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/SMARTGRID.2010.5622050</t>
+  </si>
+  <si>
+    <t>G. N. Ericsson</t>
+  </si>
+  <si>
+    <t>Cyber Security and Power System Communication–Essential Parts of a Smart Grid Infrastructure</t>
+  </si>
+  <si>
+    <t>TPWRD</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/TPWRD.2010.2046654</t>
+  </si>
+  <si>
+    <t>Xi Fang, Satyajayant Misra, Guoliang Xue, and Dejun Yang</t>
+  </si>
+  <si>
+    <t>Smart grid—the new and  improved  power  grid:  A  survey</t>
+  </si>
+  <si>
+    <t>SURV</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/SURV.2011.101911.00087</t>
+  </si>
+  <si>
+    <t>H.  Farhangi</t>
+  </si>
+  <si>
+    <t>The  path  of  the  smart  grid</t>
+  </si>
+  <si>
+    <t>MPE</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/MPE.2009.934876</t>
+  </si>
+  <si>
+    <t>F. Fouquet, G. Nain, B. Morin, E. Daubert, O. Barais, N. Plouzeau, and J. Jzquel</t>
+  </si>
+  <si>
+    <t>An eclipse modelling framework alternative to meet the models@runtime requirements</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-33666-9_7</t>
+  </si>
+  <si>
+    <t>M. Fowler</t>
+  </si>
+  <si>
+    <t>Domain Specific Languages</t>
+  </si>
+  <si>
+    <t>Addison-Wesley Prof</t>
+  </si>
+  <si>
+    <t>https://www.martinfowler.com/books/dsl.html</t>
+  </si>
+  <si>
+    <t>T.  Godfrey,  S.  Mullen,  R.C.  Dugan,  C.  Rodine,  D.W.  Griffith,  and  N.  Golmie</t>
+  </si>
+  <si>
+    <t>Modeling smart grid applications with co-simulation</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/SMARTGRID.2010.5622057</t>
+  </si>
+  <si>
+    <t>James Gosling, Bill Joy, Guy Steele, Gilad Bracha, and Alex Buckley.</t>
+  </si>
+  <si>
+    <t>The  JavaLanguage Specification</t>
+  </si>
+  <si>
+    <t>Robert Graglia.</t>
+  </si>
+  <si>
+    <t>Smart grid luxembourg,</t>
+  </si>
+  <si>
+    <t>Christophe Guille and George Gross</t>
+  </si>
+  <si>
+    <t>A conceptual framework for the vehicle-to-grid (V2G) implementation</t>
+  </si>
+  <si>
+    <t>Energy Policy</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.enpol.2009.05.053</t>
+  </si>
+  <si>
+    <t>Stuart Kent.</t>
+  </si>
+  <si>
+    <t>Model driven engineering</t>
+  </si>
+  <si>
+    <t>IFM</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/3-540-47884-1_16</t>
+  </si>
+  <si>
+    <t>Himanshu Khurana, Mark Hadley, Ning Lu, and Deborah A. Frincke</t>
+  </si>
+  <si>
+    <t>Smart-grid security issues</t>
+  </si>
+  <si>
+    <t>MSP</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/MSP.2010.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D. Kundur, Xianyong Feng, Shan Liu, T. Zourntos, and K.L. Butler-Purry</t>
+  </si>
+  <si>
+    <t>Towards a framework for cyber attack impact analysis of the electric smart grid</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/SMARTGRID.2010.5622049</t>
+  </si>
+  <si>
+    <t>Gang Lu, D. De, and Wen-Zhan Song</t>
+  </si>
+  <si>
+    <t>Smartgridlab: A laboratory-based smartgrid testbed</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/SMARTGRID.2010.5622034</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patrick McDaniel and Stephen McLaughlin</t>
+  </si>
+  <si>
+    <t>Security and privacy challenges in the smart grid</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/MSP.2009.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B. Morin, O. Barais, J. Jezequel, F. Fleurey, and A. Solberg.</t>
+  </si>
+  <si>
+    <t>Models@run.time to support dynamic adaptation</t>
+  </si>
+  <si>
+    <t>Brice Morin, Olivier Barais, Gregory Nain, and Jean-Marc Jezequel</t>
+  </si>
+  <si>
+    <t>Pierre-Alain Muller, Franck Fleurey, and Jean-Marc Jézéquel</t>
+  </si>
+  <si>
+    <t>Weaving executability into object-oriented meta-languages</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/11557432_19</t>
+  </si>
+  <si>
+    <t>Jeff  Rothenberg,  Lawrence  E.  Widman,  Kenneth  A.  Loparo,  and  Norman  R.Nielsen</t>
+  </si>
+  <si>
+    <t>The nature of modeling</t>
+  </si>
+  <si>
+    <t>http://www.jeffrothenberg.org/Prof/Pubs/Modeling/the-nature-of-modeling.pdf</t>
+  </si>
+  <si>
+    <t>Brent R. Rowe and Michael P. Gallaher</t>
+  </si>
+  <si>
+    <t>Private sector cyber security investment:An empirical analysis</t>
+  </si>
+  <si>
+    <t>WEIS</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/a188/0f3fc72ab11f5eca24fa6970eb2a8ab69c4f.pdf</t>
+  </si>
+  <si>
+    <t>Fred  B  Schneider</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implementing  fault-tolerant  services  using  the  state  machineapproach: A tutorial</t>
+  </si>
+  <si>
+    <t>http://blough.ece.gatech.edu/8813/schneider_state_machine.pdf</t>
+  </si>
+  <si>
+    <t>Haleh Vafaie and Ibrahim F. Imam. I.</t>
+  </si>
+  <si>
+    <t>Feature selection methods: Genetic algorithms vs greedy-like search</t>
+  </si>
+  <si>
+    <t>Fuzzy and Intelligent Control Systems</t>
+  </si>
+  <si>
+    <t>http://citeseerx.ist.psu.edu/viewdoc/summary?doi=10.1.1.48.8452</t>
+  </si>
+  <si>
+    <t>D.P. Varodayan and G.X. Gao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Redundant metering for integrity with information-theoretic confidentiality</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/SMARTGRID.2010.5622065</t>
+  </si>
+  <si>
+    <t>Werner Vogels</t>
+  </si>
+  <si>
+    <t>Eventually consistent</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1466443.1466448</t>
+  </si>
+  <si>
+    <t>R. W. Wolf.</t>
+  </si>
+  <si>
+    <t>Stochastic modeling and the theory of queues</t>
+  </si>
+  <si>
+    <t>Printice Hall</t>
+  </si>
+  <si>
+    <t>https://www.pearson.com/us/higher-education/program/Wolff-Stochastic-Modeling-and-the-Theory-of-Queues/PGM81278.html</t>
+  </si>
+  <si>
+    <t>Fangming Zhao, Yoshikazu Hanatani, Yuichi Komano, Ben Smyth, Satoshi Ito, andToru Kambayashi</t>
+  </si>
+  <si>
+    <t>Secure authenticated key exchange with revocation for smartgrid</t>
+  </si>
+  <si>
+    <t>ISGT</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ISGT.2012.6175530</t>
+  </si>
+  <si>
+    <t>F. Fouquet, B. Morin, F. Fleurey, O. Barais, N. Plouzeau, and J.-M. Jezequel</t>
+  </si>
+  <si>
+    <t>A dynamic component model for cyber physical systems</t>
+  </si>
+  <si>
+    <t>CBSE</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2304736.2304759</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2412,307 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2799,10 +3486,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="R187" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L164" sqref="L164"/>
+      <selection pane="bottomRight" activeCell="U205" sqref="U205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10969,7 +11656,7 @@
         <v>413</v>
       </c>
       <c r="D121" s="8" t="str">
-        <f t="shared" ref="D121:D166" si="5">TRIM(LOWER(C121))</f>
+        <f t="shared" ref="D121:D184" si="5">TRIM(LOWER(C121))</f>
         <v>the macodo organization model for context-driven dynamic agent organizations</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -12093,7 +12780,7 @@
         <v>0</v>
       </c>
       <c r="T137" s="15" t="b">
-        <f t="shared" ref="T137:T166" si="6">AND(AND(I137:L137),NOT(OR(M137:R137)),NOT(S137))</f>
+        <f t="shared" ref="T137:T200" si="6">AND(AND(I137:L137),NOT(OR(M137:R137)),NOT(S137))</f>
         <v>0</v>
       </c>
     </row>
@@ -13799,6 +14486,9 @@
       <c r="G164" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="H164" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I164" s="1" t="b">
         <v>1</v>
       </c>
@@ -13839,8 +14529,8 @@
       <c r="H165" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I165" s="1" t="b">
-        <v>1</v>
+      <c r="I165" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="J165" s="1" t="b">
         <v>1</v>
@@ -13903,8 +14593,8 @@
       <c r="H166" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I166" s="1" t="b">
-        <v>1</v>
+      <c r="I166" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="J166" s="1" t="b">
         <v>1</v>
@@ -13942,310 +14632,2318 @@
       </c>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A167" s="16">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D167" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>toward a smart grid: power delivery for the 21st century</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="F167" s="1">
+        <v>2005</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I167" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J167" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K167" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M167" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N167" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O167" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P167" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R167" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S167" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T167" s="16" t="b">
+        <f>AND(AND(I167:L167),NOT(OR(M167:R167)),NOT(S167))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A168" s="16">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D168" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>a learning-based approach to reactive security</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F168" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H168" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I168" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J168" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K168" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M168" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N168" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O168" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P168" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R168" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S168" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T168" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A169" s="16">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="D169" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>literature review on smart grid cyber security</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F169" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="H169" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I169" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J169" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K169" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M169" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N169" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O169" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P169" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q169" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R169" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S169" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T169" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A170" s="16">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D170" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>intrusion detection for advanced metering infrastructures: requirements and architectural directions</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F170" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="H170" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I170" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J170" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K170" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M170" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N170" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O170" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P170" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q170" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R170" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S170" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T170" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A171" s="16">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D171" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>specification-based intrusion detection for advanced metering infrastructure</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F171" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="H171" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I171" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J171" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K171" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M171" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N171" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O171" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P171" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R171" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S171" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T171" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A172" s="16">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D172" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>models@run.time</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F172" s="1">
+        <v>2009</v>
+      </c>
+      <c r="H172" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I172" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M172" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="S172" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T172" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A173" s="16">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D173" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>load control through smart-metering on distribution networks</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F173" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="H173" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I173" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J173" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K173" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M173" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N173" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O173" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P173" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R173" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S173" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T173" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A174" s="16">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D174" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>probabilistic-based overload estimation for real-time smart grid vulnerability assessment</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F174" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="H174" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I174" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J174" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K174" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M174" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N174" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O174" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P174" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R174" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S174" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T174" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A175" s="16">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D175" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>finite state automata and simple recurrent networks</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F175" s="1">
+        <v>1989</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="H175" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I175" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J175" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K175" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M175" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N175" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O175" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P175" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R175" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S175" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T175" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A176" s="16">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D176" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>real-time coordination of plug-in electric vehicle charging in smart grids to minimize power losses and improve voltage profile</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F176" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="H176" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I176" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J176" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K176" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M176" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N176" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O176" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P176" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q176" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R176" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S176" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T176" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A177" s="16">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D177" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>standard ecma-262 - ecmascript language specification</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="H177" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I177" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J177" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K177" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M177" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N177" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O177" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P177" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q177" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R177" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S177" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T177" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A178" s="16">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D178" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>smart grid privacy via anonymization of smart metering data</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F178" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="H178" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I178" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J178" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K178" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M178" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N178" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O178" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P178" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R178" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S178" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T178" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A179" s="16">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D179" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>cyber security and power system communication–essential parts of a smart grid infrastructure</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F179" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="H179" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I179" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J179" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K179" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M179" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N179" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O179" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P179" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q179" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R179" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S179" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T179" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A180" s="16">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D180" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>smart grid—the new and improved power grid: a survey</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F180" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="H180" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I180" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J180" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K180" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M180" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N180" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O180" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P180" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q180" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R180" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S180" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T180" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A181" s="16">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D181" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>the path of the smart grid</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F181" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="H181" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I181" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J181" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K181" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M181" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N181" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O181" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P181" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R181" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S181" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T181" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A182" s="16">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D182" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>an eclipse modelling framework alternative to meet the models@runtime requirements</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F182" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="H182" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I182" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J182" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K182" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M182" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N182" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O182" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P182" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R182" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S182" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T182" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A183" s="16">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D183" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>domain specific languages</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F183" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="H183" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I183" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J183" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K183" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M183" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N183" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O183" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P183" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R183" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S183" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T183" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A184" s="16">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D184" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>modeling smart grid applications with co-simulation</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F184" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="H184" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I184" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J184" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K184" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M184" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N184" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O184" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P184" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q184" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R184" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S184" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T184" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A185" s="16">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D185" s="16" t="str">
+        <f t="shared" ref="D185:D204" si="7">TRIM(LOWER(C185))</f>
+        <v>the javalanguage specification</v>
+      </c>
+      <c r="F185" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H185" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I185" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J185" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K185" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M185" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N185" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O185" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P185" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R185" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S185" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T185" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A186" s="16">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D186" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>smart grid luxembourg,</v>
+      </c>
+      <c r="F186" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H186" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I186" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J186" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K186" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M186" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="T186" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A187" s="16">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D187" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>a conceptual framework for the vehicle-to-grid (v2g) implementation</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F187" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="H187" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I187" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J187" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K187" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L187" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M187" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N187" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O187" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P187" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R187" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S187" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T187" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A188" s="16">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D188" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>model driven engineering</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F188" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="H188" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I188" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J188" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K188" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M188" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N188" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O188" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P188" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R188" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S188" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T188" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A189" s="16">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D189" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>smart-grid security issues</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F189" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="H189" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I189" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J189" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K189" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M189" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N189" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O189" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P189" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R189" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S189" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T189" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A190" s="16">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D190" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>towards a framework for cyber attack impact analysis of the electric smart grid</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F190" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="H190" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I190" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J190" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K190" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L190" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M190" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N190" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P190" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q190" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R190" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S190" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T190" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A191" s="16">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D191" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>smartgridlab: a laboratory-based smartgrid testbed</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F191" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="H191" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I191" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J191" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K191" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L191" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M191" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N191" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O191" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P191" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q191" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R191" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S191" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T191" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A192" s="16">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D192" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>security and privacy challenges in the smart grid</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F192" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="H192" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I192" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J192" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K192" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L192" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M192" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N192" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P192" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q192" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R192" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S192" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T192" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A193" s="16">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="D193" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>models@run.time to support dynamic adaptation</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H193" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I193" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M193" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="S193" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T193" s="16" t="b">
+        <f>AND(AND(I193:L193),NOT(OR(M193:R193)),NOT(S193))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A194" s="16">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D194" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>taming dynamically adaptive systems using models and aspects</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H194" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I194" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M194" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="S194" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T194" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A195" s="16">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D195" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>weaving executability into object-oriented meta-languages</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F195" s="1">
+        <v>2005</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H195" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I195" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J195" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K195" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L195" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M195" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N195" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O195" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P195" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q195" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R195" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S195" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T195" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A196" s="16">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D196" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>the nature of modeling</v>
+      </c>
+      <c r="F196" s="1">
+        <v>1989</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="H196" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I196" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J196" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K196" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L196" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M196" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N196" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O196" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P196" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q196" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R196" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S196" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T196" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A197" s="16">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D197" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>private sector cyber security investment:an empirical analysis</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F197" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="H197" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I197" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J197" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K197" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M197" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N197" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O197" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P197" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q197" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R197" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S197" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T197" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A198" s="16">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D198" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>implementing fault-tolerant services using the state machineapproach: a tutorial</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F198" s="1">
+        <v>1990</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="H198" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I198" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J198" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K198" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M198" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N198" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O198" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P198" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q198" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R198" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S198" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T198" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A199" s="16">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D199" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>feature selection methods: genetic algorithms vs greedy-like search</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F199" s="1">
+        <v>1994</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="H199" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I199" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J199" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K199" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M199" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N199" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O199" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P199" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q199" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R199" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S199" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T199" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A200" s="16">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D200" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>redundant metering for integrity with information-theoretic confidentiality</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F200" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="H200" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I200" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J200" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K200" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M200" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N200" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O200" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P200" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q200" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R200" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S200" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T200" s="16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A201" s="16">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D201" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>eventually consistent</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F201" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="H201" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I201" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J201" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K201" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M201" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N201" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O201" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P201" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q201" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R201" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S201" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T201" s="16" t="b">
+        <f t="shared" ref="T201:T204" si="8">AND(AND(I201:L201),NOT(OR(M201:R201)),NOT(S201))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A202" s="16">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D202" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>stochastic modeling and the theory of queues</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>748</v>
+      </c>
+      <c r="F202" s="1">
+        <v>1989</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="H202" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I202" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J202" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K202" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M202" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N202" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O202" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P202" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q202" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R202" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S202" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T202" s="16" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A203" s="16">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D203" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>secure authenticated key exchange with revocation for smartgrid</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F203" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="H203" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I203" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J203" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K203" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M203" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N203" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O203" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P203" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q203" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R203" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S203" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T203" s="16" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D204" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>a dynamic component model for cyber physical systems</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F204" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I204" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J204" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K204" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M204" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N204" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O204" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P204" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R204" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S204" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T204" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U204" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V204" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W204" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I205" s="1" t="b">
         <v>1</v>
       </c>
@@ -14253,7 +16951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I206" s="1" t="b">
         <v>1</v>
       </c>
@@ -14261,7 +16959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I207" s="1" t="b">
         <v>1</v>
       </c>
@@ -14269,7 +16967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I208" s="1" t="b">
         <v>1</v>
       </c>
@@ -20625,17 +23323,17 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T166">
+  <conditionalFormatting sqref="T3:T204">
     <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:S166">
+  <conditionalFormatting sqref="N3:S204">
     <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:L166">
+  <conditionalFormatting sqref="J3:L204">
     <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -20690,9 +23388,9 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D166">
+  <conditionalFormatting sqref="C3:D204">
     <cfRule type="expression" dxfId="15" priority="1">
-      <formula>SUMPRODUCT(--EXACT($D$3:$D$166,$D3))&gt;1</formula>
+      <formula>SUMPRODUCT(--EXACT($D$3:$D$204,$D3))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -20852,6 +23550,39 @@
     <hyperlink ref="G164" r:id="rId154" xr:uid="{3C5C0FE5-D8FA-084E-BB9A-75F2D04122FD}"/>
     <hyperlink ref="G165" r:id="rId155" xr:uid="{95DE4570-0126-4141-A171-C982B0EE70D2}"/>
     <hyperlink ref="G166" r:id="rId156" xr:uid="{299B5585-7106-A948-8322-4749F757F45B}"/>
+    <hyperlink ref="G167" r:id="rId157" xr:uid="{88769C4E-1203-4D46-BE86-E17E5CB99A8F}"/>
+    <hyperlink ref="G168" r:id="rId158" xr:uid="{5909AA4F-5729-E64A-8D70-44E0A1C66CEC}"/>
+    <hyperlink ref="G169" r:id="rId159" xr:uid="{C69EDCBF-460F-424D-956B-4ED2C76589A7}"/>
+    <hyperlink ref="G170" r:id="rId160" xr:uid="{BD34559D-0616-9947-9053-00092B8747BF}"/>
+    <hyperlink ref="G171" r:id="rId161" xr:uid="{7707089C-4D90-FB4A-A6BF-DD4EDD7FC195}"/>
+    <hyperlink ref="G173" r:id="rId162" xr:uid="{CC01181A-B1D4-1C46-84B6-ACA3A0A0ADAA}"/>
+    <hyperlink ref="G174" r:id="rId163" xr:uid="{AC04F98F-A654-DB41-8C4A-515AFE769B4D}"/>
+    <hyperlink ref="G175" r:id="rId164" xr:uid="{2D842C04-BDAD-C54F-B280-6FABDCF8B427}"/>
+    <hyperlink ref="G176" r:id="rId165" xr:uid="{BB0C27E4-42EE-6741-B594-AC70D025C3CF}"/>
+    <hyperlink ref="G177" r:id="rId166" xr:uid="{79D665DF-F6EC-6E4A-9C2F-FD1CCF8D8658}"/>
+    <hyperlink ref="G178" r:id="rId167" xr:uid="{4D71D231-5542-F844-A042-C15254D32811}"/>
+    <hyperlink ref="G179" r:id="rId168" xr:uid="{BCE9B0EE-640D-BE4B-9975-0F367C9CA7EA}"/>
+    <hyperlink ref="G180" r:id="rId169" xr:uid="{9A9A86BC-72FA-0249-A938-D7D48AFCD3D9}"/>
+    <hyperlink ref="G181" r:id="rId170" xr:uid="{F3FC9FE6-B9A1-3C48-B4A4-9E19D96E9E73}"/>
+    <hyperlink ref="G182" r:id="rId171" xr:uid="{9D1072F4-9348-5040-9865-A40708DF55AA}"/>
+    <hyperlink ref="G183" r:id="rId172" xr:uid="{5979AF86-4CA7-7446-8A77-2F875FB2C9F2}"/>
+    <hyperlink ref="G184" r:id="rId173" xr:uid="{74239260-7CA0-F846-99D5-54F7A754617F}"/>
+    <hyperlink ref="G187" r:id="rId174" xr:uid="{B40C412A-63CD-7A4A-B75E-8EB1B24B3E2F}"/>
+    <hyperlink ref="G188" r:id="rId175" xr:uid="{B8213C4E-585F-1348-9A71-640ED5B98EF3}"/>
+    <hyperlink ref="G189" r:id="rId176" xr:uid="{E1BEDBC4-CAE9-C14F-8E5C-5FBCF3F9DC2C}"/>
+    <hyperlink ref="G190" r:id="rId177" xr:uid="{79B6CEF6-0168-4145-98F5-D64D4D7FFF7D}"/>
+    <hyperlink ref="G191" r:id="rId178" xr:uid="{C970F340-F561-154A-94FE-BF5D4D1C050D}"/>
+    <hyperlink ref="G192" r:id="rId179" xr:uid="{09B8D2DE-AA82-9C41-9ADA-4987AC205742}"/>
+    <hyperlink ref="G195" r:id="rId180" xr:uid="{79990421-8E30-1843-BDBA-26E01704E53C}"/>
+    <hyperlink ref="G196" r:id="rId181" xr:uid="{54BA4A58-9C42-7649-B44B-6422F09AB8AF}"/>
+    <hyperlink ref="G197" r:id="rId182" xr:uid="{EBFE9195-ED41-FF44-864C-351FB205C399}"/>
+    <hyperlink ref="G198" r:id="rId183" xr:uid="{787938B4-E4FB-0042-B89E-8557AE648C1E}"/>
+    <hyperlink ref="G199" r:id="rId184" xr:uid="{546DE3E7-4B64-C642-852C-18AE40403883}"/>
+    <hyperlink ref="G200" r:id="rId185" xr:uid="{06CABD11-28AE-374B-B58F-066B999083D4}"/>
+    <hyperlink ref="G201" r:id="rId186" xr:uid="{CF99BFF1-2873-A947-A1D2-FE00FD9542D4}"/>
+    <hyperlink ref="G202" r:id="rId187" xr:uid="{E0868F80-955C-AA41-B488-175EA052A39F}"/>
+    <hyperlink ref="G203" r:id="rId188" xr:uid="{D0990CE9-64FD-2F4B-9D5D-F5AF1A41F1F4}"/>
+    <hyperlink ref="G204" r:id="rId189" xr:uid="{27283F5B-60E4-A34B-B769-2C0A512422B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20862,7 +23593,7 @@
   <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20891,12 +23622,12 @@
         <v>440</v>
       </c>
       <c r="C5">
-        <f>COUNTIF(DelayedActions!T3:T164,"TRUE")-COUNTA(DelayedActions!U3:U164)</f>
+        <f>COUNTIF(DelayedActions!T3:T204,"TRUE")-COUNTA(DelayedActions!U3:U204)</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>COUNTIF(DelayedActions!T3:T164,"TRUE")</f>
-        <v>47</v>
+        <f>COUNTIF(DelayedActions!T3:T204,"TRUE")</f>
+        <v>48</v>
       </c>
       <c r="E5" s="14">
         <f>C5/D5</f>
@@ -20958,7 +23689,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5 D10:D11">
-    <cfRule type="expression" dxfId="45" priority="1">
+    <cfRule type="expression" dxfId="75" priority="1">
       <formula>NOT(AND($D$5=$D$10,$D$5=$D$11))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D53801-B8CD-324D-9916-39BA37885CF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB826B2-06A2-934F-91B9-659D2502B011}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
+    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
   <sheets>
     <sheet name="DelayedActions" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="ProgressDA" sheetId="3" r:id="rId2"/>
     <sheet name="Uncertainty" sheetId="2" r:id="rId3"/>
+    <sheet name="ProgressDuC" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="758">
   <si>
     <t>Author</t>
   </si>
@@ -2359,7 +2360,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2406,133 +2407,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2695,46 +2579,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2850,316 +2694,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3485,11 +3019,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99048B8C-98B5-C846-BA1E-677FE6633279}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="R187" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U205" sqref="U205"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3511,27 +3045,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="N1" s="17" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="N1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="U1" s="17" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="U1" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="Y1" s="17" t="s">
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="Y1" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="Z1" s="17"/>
+      <c r="Z1" s="18"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -23319,77 +22853,77 @@
     <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:Z1048576">
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T204">
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:S204">
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:L204">
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37:R37">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:L37">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:R40">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:L40">
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43:R43">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43:L43">
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:R44">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:L44">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46:R46">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:L46">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D204">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>SUMPRODUCT(--EXACT($D$3:$D$204,$D3))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23593,7 +23127,7 @@
   <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23689,7 +23223,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5 D10:D11">
-    <cfRule type="expression" dxfId="75" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>NOT(AND($D$5=$D$10,$D$5=$D$11))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23699,12 +23233,2527 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7501BA-1B5B-254E-92CB-F30CCA26173E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z245"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="11.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z1" s="18"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f>TRIM(LOWER(C3))</f>
+        <v/>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="b">
+        <f>AND(AND(I3:L3),NOT(OR(M3:R3)),NOT(S3))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D43" si="0">TRIM(LOWER(C4))</f>
+        <v/>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="M86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I87" t="b">
+        <v>1</v>
+      </c>
+      <c r="M87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="M88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="M89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I91" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="M92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="M93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="M94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="M95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="M96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="M97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
+      <c r="M98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="M100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="M101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="M102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="M104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="M105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="M106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="M108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="M109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="M110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="M111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="M112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+      <c r="M113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="M114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="M115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="M116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="M117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="M118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="M119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="M120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="M121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="M122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="M123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="M124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="M125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="M126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="M127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="M128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="M129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="M130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="M131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="M132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="M133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="M134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="M135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="M136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="M137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="M138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="M139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="M140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="M141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="M142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="M143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="M144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="M145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="M146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="M147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I148" t="b">
+        <v>1</v>
+      </c>
+      <c r="M148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I149" t="b">
+        <v>1</v>
+      </c>
+      <c r="M149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="M150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+      <c r="M151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+      <c r="M152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I153" t="b">
+        <v>1</v>
+      </c>
+      <c r="M153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I154" t="b">
+        <v>1</v>
+      </c>
+      <c r="M154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="M155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="M156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+      <c r="M157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+      <c r="M158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="M159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="M160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="M161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="M162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="M163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I164" t="b">
+        <v>1</v>
+      </c>
+      <c r="M164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I165" t="b">
+        <v>1</v>
+      </c>
+      <c r="M165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I166" t="b">
+        <v>1</v>
+      </c>
+      <c r="M166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I167" t="b">
+        <v>1</v>
+      </c>
+      <c r="M167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I168" t="b">
+        <v>1</v>
+      </c>
+      <c r="M168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="M169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="M170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="M171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="M172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="M173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="M174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="M175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="M176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="M177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="M178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="M179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="M180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="M181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="M182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="M183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="M184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="M185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="M186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I187" t="b">
+        <v>1</v>
+      </c>
+      <c r="M187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="M188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="M189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+      <c r="M190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I191" t="b">
+        <v>1</v>
+      </c>
+      <c r="M191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I192" t="b">
+        <v>1</v>
+      </c>
+      <c r="M192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+      <c r="M193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+      <c r="M194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+      <c r="M195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I196" t="b">
+        <v>1</v>
+      </c>
+      <c r="M196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="M197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="M198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="M199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="M200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="M201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="M202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="M203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="M204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="M205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="M206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="M207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="M208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I209" t="b">
+        <v>1</v>
+      </c>
+      <c r="M209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="M210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="M211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="M212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="M213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="M214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="M215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="M216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="M217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="M218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="M219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="M220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="M221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="M222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="M223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="M224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="M225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I226" t="b">
+        <v>1</v>
+      </c>
+      <c r="M226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="M227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="M228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="M229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="M230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="M231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="M232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="M233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="M234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="M235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="M236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="M237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="M238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="M239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="M240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+      <c r="M241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I242" t="b">
+        <v>1</v>
+      </c>
+      <c r="M242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I243" t="b">
+        <v>1</v>
+      </c>
+      <c r="M243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I244" t="b">
+        <v>1</v>
+      </c>
+      <c r="M244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I245" t="b">
+        <v>1</v>
+      </c>
+      <c r="M245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="Y1:Z2">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:D43">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>SUMPRODUCT(--EXACT($D$3:$D$43,$D3))&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:L43">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:S43">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T43">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0618E008-3FD7-DF4B-B9A4-14231511785C}">
+  <dimension ref="B3:E11"/>
+  <sheetViews>
+    <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF(Uncertainty!T3:T43,"TRUE")-COUNTA(Uncertainty!U3:U43)</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIF(Uncertainty!T3:T43,"TRUE")</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <f>C5/D5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="14"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIF(Uncertainty!Y:Y,"NO")</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>COUNTA(Uncertainty!Y:Y)-2</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="14" t="e">
+        <f>C10/D10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIF(Uncertainty!Z:Z,"NO")</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>COUNTA(Uncertainty!Y:Y)-2</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="14" t="e">
+        <f>C11/D11</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D5 D10:D11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>NOT(AND($D$5=$D$10,$D$5=$D$11))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB826B2-06A2-934F-91B9-659D2502B011}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13E4B9E-701B-914D-A254-71513259EA96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="906">
   <si>
     <t>Author</t>
   </si>
@@ -2308,6 +2308,450 @@
   </si>
   <si>
     <t>https://doi.org/10.1145/2304736.2304759</t>
+  </si>
+  <si>
+    <t>Loli Burgueño, Manuel F. Bertoa, Nathalie Moreno, and Antonio Vallecillo</t>
+  </si>
+  <si>
+    <t>Expressing confidence in models and in model transformation elements</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/3239372.3239394</t>
+  </si>
+  <si>
+    <t>Michäel Baudin, Anne Dutfoy, Bertrand Iooss, and Anne-Laure Popelin</t>
+  </si>
+  <si>
+    <t>Openturns: An industrial software for uncertainty quantification in simulation</t>
+  </si>
+  <si>
+    <t>Handbook of U-Quant.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-319-12385-1_64</t>
+  </si>
+  <si>
+    <t>Johannes Borgström, Andrew D. Gordon, Michael Greenberg, James Margetson, and Jurgen Van Gael</t>
+  </si>
+  <si>
+    <t>Measure transformer semantics for bayesian machine learning</t>
+  </si>
+  <si>
+    <t>LMCS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2168/LMCS-9(3:11)2013</t>
+  </si>
+  <si>
+    <t>George E. P. Box, J. Stuart Hunter, and William G. Hunter</t>
+  </si>
+  <si>
+    <t>Statistics for Experiments: Design, Innovation, and Discovery</t>
+  </si>
+  <si>
+    <t>Wiley-Interscience</t>
+  </si>
+  <si>
+    <t>https://www.wiley.com/en-us/Statistics+for+Experimenters%3A+Design%2C+Innovation%2C+and+Discovery%2C+2nd+Edition-p-9780471718130</t>
+  </si>
+  <si>
+    <t>Manuel F. Bertoa, Nathalie Moreno, Gala Barquero, Loli Burgueño, Javier Troya, and Antonio Vallecillo</t>
+  </si>
+  <si>
+    <t>Expressing measurement uncertainty in OCL/UML datatypes</t>
+  </si>
+  <si>
+    <t>ECMFA</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-319-92997-2_4</t>
+  </si>
+  <si>
+    <t>James Bornholt, Todd Mytkowicz, and Kathryn S. McKinley</t>
+  </si>
+  <si>
+    <t>ASPLOS</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1145/2541940.2541958</t>
+  </si>
+  <si>
+    <t>Uncertain&lt;T&gt;: a first-order type for uncertain data</t>
+  </si>
+  <si>
+    <t>James Bornholt</t>
+  </si>
+  <si>
+    <t>Abstractions and techniques for programming with uncertain data</t>
+  </si>
+  <si>
+    <t>Australian Univ.</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/edd6/dd2d77624dd826f137d9962b9f506089d7d4.pdf</t>
+  </si>
+  <si>
+    <t>Bob Carpenter, Andrew Gelman, Matthew D. Hoffman, Daniel Lee, Ben Goodrich, Michael Betancourt, Marcus Brubaker, Jiqiang Guo, Peter Li, and Allen Riddell</t>
+  </si>
+  <si>
+    <t>Stan : A probabilistic programming language</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.18637/jss.v076.i01</t>
+  </si>
+  <si>
+    <t>Thomas Degueule</t>
+  </si>
+  <si>
+    <t>Composition and Interoperability for External Domain-Specific Language Engineering</t>
+  </si>
+  <si>
+    <t>Univ. Rennes</t>
+  </si>
+  <si>
+    <t>https://www.theses.fr/2016REN1S093.pdf</t>
+  </si>
+  <si>
+    <t>Arthur P Dempster</t>
+  </si>
+  <si>
+    <t>A generalization of bayesian inference</t>
+  </si>
+  <si>
+    <t>JRSS</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1111/j.2517-6161.1968.tb00722.x</t>
+  </si>
+  <si>
+    <t>Romina Eramo, Alfonso Pierantonio, and Gianni Rosa</t>
+  </si>
+  <si>
+    <t>Uncertainty in bidirectional transformations</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1145/2593770.2593772</t>
+  </si>
+  <si>
+    <t>Michalis Famelis, Rick Salay, and Marsha Chechik</t>
+  </si>
+  <si>
+    <t>Partial models: Towards modeling and reasoning with uncertainty</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1109/ICSE.2012.6227159</t>
+  </si>
+  <si>
+    <t>Michalis Famelis and Marsha Chechik</t>
+  </si>
+  <si>
+    <t>Managing design-time uncertainty</t>
+  </si>
+  <si>
+    <t>SoSyM</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1007/s10270-017-0594-9</t>
+  </si>
+  <si>
+    <t>Vahid Garousi</t>
+  </si>
+  <si>
+    <t>Traffic-aware stress testing of distributed real-time systems based on UML models in the presence of time uncertainty</t>
+  </si>
+  <si>
+    <t>ICST</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1109/ICST.2008.7</t>
+  </si>
+  <si>
+    <t>Andrew D. Gordon, Thomas A. Henzinger, Aditya V. Nori, and Sriram K. Rajamani</t>
+  </si>
+  <si>
+    <t>Probabilistic programming</t>
+  </si>
+  <si>
+    <t>FOSE</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1145/2593882.2593900</t>
+  </si>
+  <si>
+    <t>Israel M. Gelfand and Georgi E. Shilov</t>
+  </si>
+  <si>
+    <t>Generalized Functions</t>
+  </si>
+  <si>
+    <t>American Mathematical Society</t>
+  </si>
+  <si>
+    <t>https://bookstore.ams.org/chel-377-h/</t>
+  </si>
+  <si>
+    <t>Thomas Hartmann, Assaad Moawad, Franc ̧ois Fouquet, Yves Reckinger, Jacques Klein, and Yves Le Traon</t>
+  </si>
+  <si>
+    <t>Near real-time electric load approximation in low voltage cables of smart grids with models@run.time</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1145/2851613.2853125</t>
+  </si>
+  <si>
+    <t>David Harel and Bernhard Rumpe</t>
+  </si>
+  <si>
+    <t>Meaningful modeling: What’s the semantics of “semantics”?</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1109/MC.2004.172</t>
+  </si>
+  <si>
+    <t>Jean-Marc Jézéquel, Benoît Combemale, Olivier Barais, Martin Monperrus, and François Fouquet</t>
+  </si>
+  <si>
+    <t>Mashup of metalanguages and its implementation in the kermeta language workbench</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1007/s10270-013-0354-4</t>
+  </si>
+  <si>
+    <t>Eric O. LEBIGOT</t>
+  </si>
+  <si>
+    <t>Uncertainties: a python package for calculations with uncertainties</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/uncertainties/</t>
+  </si>
+  <si>
+    <t>François Lagarde, Huáscar Espinoza, François Terrier, and Sébastien Gérard</t>
+  </si>
+  <si>
+    <t>Improving uml profile design practices by leveraging conceptual domain models</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1145/1321631.1321705</t>
+  </si>
+  <si>
+    <t>Heiner Lasi, Peter Fettke, Hans-Georg Kemper, Thomas Feld, and Michael Hoffmann</t>
+  </si>
+  <si>
+    <t>Industry 4.0</t>
+  </si>
+  <si>
+    <t>Bus. &amp; Info. Syst. Eng.</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1007/s12599-014-0334-4</t>
+  </si>
+  <si>
+    <t>Gaoqi Liang, Steven R Weller, Junhua Zhao, Fengji Luo, and Zhao Yang Dong</t>
+  </si>
+  <si>
+    <t>The 2015 ukraine blackout: Implications for false data injection attacks</t>
+  </si>
+  <si>
+    <t>TPWRS</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1109/TPWRS.2016.2631891</t>
+  </si>
+  <si>
+    <t>Erik Meijer and Peter Drayton</t>
+  </si>
+  <si>
+    <t>Static typing where possible , dynamic typing when needed : The end of the cold war between programming languages</t>
+  </si>
+  <si>
+    <t>OOPSLA</t>
+  </si>
+  <si>
+    <t>JCfGi Metrology</t>
+  </si>
+  <si>
+    <t>Evaluation of measurement data - guide to the ex- pression of uncertainty in measurement</t>
+  </si>
+  <si>
+    <t>BIPM</t>
+  </si>
+  <si>
+    <t>https://www.bipm.org/utils/common/documents/jcgm/JCGM_100_2008_E.pdf</t>
+  </si>
+  <si>
+    <t>Alexander M. Mood, Franklin A. Graybill, and Duane C. Boes</t>
+  </si>
+  <si>
+    <t>Introduction to the Theory of Statistics</t>
+  </si>
+  <si>
+    <t>McGraw Hill</t>
+  </si>
+  <si>
+    <t>http://www.e-booksdirectory.com/details.php?ebook=3627</t>
+  </si>
+  <si>
+    <t>Peter D. Mosses</t>
+  </si>
+  <si>
+    <t>The varieties of programming language semantics</t>
+  </si>
+  <si>
+    <t>PSI</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1007/3-540-45575-2_18</t>
+  </si>
+  <si>
+    <t>T. Minka, J.M. Winn, J.P. Guiver, Y. Zaykov, D. Fabian, and J. Bron- skill</t>
+  </si>
+  <si>
+    <t>Infer.net</t>
+  </si>
+  <si>
+    <t>https://dotnet.github.io/infer/</t>
+  </si>
+  <si>
+    <t>Tanja Mayerhofer, Manuel Wimmer, and Antonio Vallecillo</t>
+  </si>
+  <si>
+    <t>Adding uncertainty and units to quantity types in software models</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2997364.2997376</t>
+  </si>
+  <si>
+    <t>Benjamin C. Pierce</t>
+  </si>
+  <si>
+    <t>Types and programming languages</t>
+  </si>
+  <si>
+    <t>https://www.cis.upenn.edu/~bcpierce/tapl/</t>
+  </si>
+  <si>
+    <t>Glenn Shafer</t>
+  </si>
+  <si>
+    <t>A mathematical theory of evidence</t>
+  </si>
+  <si>
+    <t>Princeton university press</t>
+  </si>
+  <si>
+    <t>http://www.glennshafer.com/books/amte.html</t>
+  </si>
+  <si>
+    <t>John Salvatier, Thomas V. Wiecki, and Christopher Fonnesbeck</t>
+  </si>
+  <si>
+    <t>Probabilistic programming in python using pymc3</t>
+  </si>
+  <si>
+    <t>PeerJ</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.7717/peerj-cs.55</t>
+  </si>
+  <si>
+    <t>Chafiq Titouna, Makhlouf Aliouat, and Abdelhak Mourad Gúeroui</t>
+  </si>
+  <si>
+    <t>FDS: fault detection scheme for wireless sensor networks</t>
+  </si>
+  <si>
+    <t>WPC</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1007/s11277-015-2944-7</t>
+  </si>
+  <si>
+    <t>Antonio Vallecillo, Carmen Morcillo, and Priscill Orue</t>
+  </si>
+  <si>
+    <t>Expressing measurement uncertainty in software models</t>
+  </si>
+  <si>
+    <t>QUATIC</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1109/QUATIC.2016.013</t>
+  </si>
+  <si>
+    <t>Christian Walck</t>
+  </si>
+  <si>
+    <t>Hand-book on statistical distributions for experimentalists</t>
+  </si>
+  <si>
+    <t>Univ. Stockholm</t>
+  </si>
+  <si>
+    <t>http://inspirehep.net/record/1389910/files/suf9601.pdf</t>
+  </si>
+  <si>
+    <t>Danny Weyns</t>
+  </si>
+  <si>
+    <t>Software engineering of self-adaptive systems</t>
+  </si>
+  <si>
+    <t>Hand-book of SE</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-030-00262-6_11</t>
+  </si>
+  <si>
+    <t>Jon Whittle, Peter Sawyer, Nelly Bencomo, Betty H. C. Cheng, and Jean-Michel Bruel</t>
+  </si>
+  <si>
+    <t>RELAX: incorporating uncertainty into the speci- fication of self-adaptive systems</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1109/RE.2009.36</t>
+  </si>
+  <si>
+    <t>RELAX: a language to address uncertainty in self- adaptive systems requirement</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1007/s00766-010-0101-0</t>
+  </si>
+  <si>
+    <t>Lotfi A. Zadeh</t>
+  </si>
+  <si>
+    <t>Fuzzy logic</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1109/2.53</t>
+  </si>
+  <si>
+    <t>Lotfi A Zadeh</t>
+  </si>
+  <si>
+    <t>Fuzzy sets</t>
+  </si>
+  <si>
+    <t>World Sc.</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1142/9789814261302_0001</t>
+  </si>
+  <si>
+    <t>Man Zhang, Shaukat Ali, Tao Yue, Roland Norgren, and Oscar Okariz</t>
+  </si>
+  <si>
+    <t>Uncertainty-wise cyber-physical system test modeling</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1007/s10270-017-0609-6</t>
   </si>
 </sst>
 </file>
@@ -2408,7 +2852,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2416,27 +2860,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2504,6 +2928,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3020,7 +3454,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
@@ -3045,27 +3479,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="N1" s="18" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="N1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="U1" s="18" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="U1" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="Y1" s="18" t="s">
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="Y1" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="Z1" s="18"/>
+      <c r="Z1" s="17"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -22853,77 +23287,77 @@
     <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:Z1048576">
-    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T204">
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:S204">
-    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:L204">
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37:R37">
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:L37">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:R40">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:L40">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43:R43">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43:L43">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:R44">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:L44">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46:R46">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:L46">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D204">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>SUMPRODUCT(--EXACT($D$3:$D$204,$D3))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23223,7 +23657,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5 D10:D11">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>NOT(AND($D$5=$D$10,$D$5=$D$11))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23236,36 +23670,34 @@
   <dimension ref="A1:Z245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="S12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="Y43" sqref="Y43:Z43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="17" style="9" customWidth="1"/>
+    <col min="3" max="3" width="66" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="9"/>
+    <col min="7" max="7" width="40.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="9"/>
+    <col min="9" max="9" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="10.83203125" style="9"/>
+    <col min="13" max="13" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
       <c r="J1" s="18" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
-      <c r="M1" s="17"/>
       <c r="N1" s="18" t="s">
         <v>14</v>
       </c>
@@ -23273,2346 +23705,4430 @@
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
       <c r="U1" s="18" t="s">
         <v>198</v>
       </c>
       <c r="V1" s="18"/>
       <c r="W1" s="18"/>
-      <c r="X1" s="17"/>
       <c r="Y1" s="18" t="s">
         <v>205</v>
       </c>
       <c r="Z1" s="18"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="X2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Y2" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="Z2" s="9" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="str">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D3" s="9" t="str">
         <f>TRIM(LOWER(C3))</f>
-        <v/>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" t="b">
+        <v>expressing confidence in models and in model transformation elements</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2013</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="9" t="b">
         <f>AND(AND(I3:L3),NOT(OR(M3:R3)),NOT(S3))</f>
         <v>1</v>
       </c>
+      <c r="Y3" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" t="str">
+      <c r="B4" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="D4" s="9" t="str">
         <f t="shared" ref="D4:D43" si="0">TRIM(LOWER(C4))</f>
-        <v/>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
+        <v>openturns: an industrial software for uncertainty quantification in simulation</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2017</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="9" t="b">
+        <f t="shared" ref="T4:T42" si="1">AND(AND(I4:L4),NOT(OR(M4:R4)),NOT(S4))</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" t="str">
+      <c r="B5" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="D5" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
+        <v>measure transformer semantics for bayesian machine learning</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2013</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" t="str">
+      <c r="B6" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="D6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="b">
+        <v>statistics for experiments: design, innovation, and discovery</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2005</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" t="str">
+      <c r="B7" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="D7" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="b">
-        <v>0</v>
+        <v>expressing measurement uncertainty in ocl/uml datatypes</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2018</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="D8" t="str">
+      <c r="B8" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="D8" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="b">
-        <v>0</v>
+        <v>uncertain&lt;t&gt;: a first-order type for uncertain data</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2014</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="D9" t="str">
+      <c r="B9" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D9" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="b">
+        <v>abstractions and techniques for programming with uncertain data</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2013</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="D10" t="str">
+      <c r="B10" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="D10" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" t="b">
-        <v>0</v>
+        <v>stan : a probabilistic programming language</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2017</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="D11" t="str">
+      <c r="B11" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="D11" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" t="b">
+        <v>composition and interoperability for external domain-specific language engineering</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2016</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="D12" t="str">
+      <c r="B12" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="D12" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" t="b">
+        <v>a generalization of bayesian inference</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1968</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="D13" t="str">
+      <c r="B13" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D13" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" t="b">
-        <v>0</v>
+        <v>uncertainty in bidirectional transformations</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2014</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="D14" t="str">
+      <c r="B14" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="D14" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" t="b">
-        <v>0</v>
+        <v>partial models: towards modeling and reasoning with uncertainty</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2012</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="D15" t="str">
+      <c r="B15" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="D15" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" t="b">
-        <v>0</v>
+        <v>managing design-time uncertainty</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2017</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="D16" t="str">
+      <c r="B16" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="D16" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17">
+        <v>traffic-aware stress testing of distributed real-time systems based on uml models in the presence of time uncertainty</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2008</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z16" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="D17" t="str">
+      <c r="B17" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="D17" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18">
+        <v>probabilistic programming</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2014</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z17" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="D18" t="str">
+      <c r="B18" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D18" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19">
+        <v>generalized functions</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1964</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D19" t="str">
+      <c r="I18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="D19" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20">
+        <v>near real-time electric load approximation in low voltage cables of smart grids with models@run.time</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2016</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="D20" t="str">
+      <c r="B20" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="D20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21">
+        <v>meaningful modeling: what’s the semantics of “semantics”?</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="9">
+        <v>2004</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>824</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="D21" t="str">
+      <c r="B21" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="D21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22">
+        <v>mashup of metalanguages and its implementation in the kermeta language workbench</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2015</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="D22" t="str">
+      <c r="B22" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="D22" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23">
+        <v>uncertainties: a python package for calculations with uncertainties</v>
+      </c>
+      <c r="F22" s="9">
+        <v>2018</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="D23" t="str">
+      <c r="B23" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="D23" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24">
+        <v>improving uml profile design practices by leveraging conceptual domain models</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2017</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="D24" t="str">
+      <c r="B24" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25">
+        <v>industry 4.0</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="F24" s="9">
+        <v>2014</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="D25" t="str">
+      <c r="B25" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26">
+        <v>the 2015 ukraine blackout: implications for false data injection attacks</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="F25" s="9">
+        <v>2017</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="D26" t="str">
+      <c r="B26" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="D26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27">
+        <v>static typing where possible , dynamic typing when needed : the end of the cold war between programming languages</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2004</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="D27" t="str">
+      <c r="B27" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="D27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28">
+        <v>evaluation of measurement data - guide to the ex- pression of uncertainty in measurement</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="F27" s="9">
+        <v>2008</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="D28" t="str">
+      <c r="B28" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="D28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29">
+        <v>introduction to the theory of statistics</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1963</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" s="9" t="b">
+        <f>AND(AND(I28:L28),NOT(OR(M28:R28)),NOT(S28))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="D29" t="str">
+      <c r="B29" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="D29" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30">
+        <v>the varieties of programming language semantics</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="F29" s="9">
+        <v>2001</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="D30" t="str">
+      <c r="B30" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="D30" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="M30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31">
+        <v>infer.net</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2018</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="D31" t="str">
+      <c r="B31" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="D31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="M31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32">
+        <v>adding uncertainty and units to quantity types in software models</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2016</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z31" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="D32" t="str">
+      <c r="B32" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="D32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="M32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33">
+        <v>types and programming languages</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2002</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T32" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="D33" t="str">
+      <c r="B33" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="D33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="M33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34">
+        <v>a mathematical theory of evidence</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1976</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="D34" t="str">
+      <c r="B34" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D34" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="M34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35">
+        <v>probabilistic programming in python using pymc3</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2016</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y34" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z34" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="D35" t="str">
+      <c r="B35" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="D35" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="M35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36">
+        <v>fds: fault detection scheme for wireless sensor networks</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="F35" s="9">
+        <v>2016</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="D36" t="str">
+      <c r="B36" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="D36" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="M36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37">
+        <v>expressing measurement uncertainty in software models</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="F36" s="9">
+        <v>2016</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T36" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y36" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z36" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="D37" t="str">
+      <c r="B37" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="D37" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="M37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38">
+        <v>hand-book on statistical distributions for experimentalists</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1996</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T37" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="D38" t="str">
+      <c r="B38" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="D38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="M38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39">
+        <v>software engineering of self-adaptive systems</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="F38" s="9">
+        <v>2019</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>890</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T38" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="D39" t="str">
+      <c r="B39" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="M39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40">
+        <v>relax: incorporating uncertainty into the speci- fication of self-adaptive systems</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="9">
+        <v>2009</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>893</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T39" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y39" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z39" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="D40" t="str">
+      <c r="B40" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="D40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="M40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41">
+        <v>relax: a language to address uncertainty in self- adaptive systems requirement</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="9">
+        <v>2010</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T40" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y40" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z40" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="D41" t="str">
+      <c r="B41" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="D41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="M41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42">
+        <v>fuzzy logic</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1988</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T41" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="D42" t="str">
+      <c r="B42" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="D42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="M42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43">
+        <v>fuzzy sets</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1996</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T42" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="D43" t="str">
+      <c r="B43" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="D43" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="M43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="M44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="M45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="M46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="M47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="M48" t="b">
+        <v>uncertainty-wise cyber-physical system test modeling</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="F43" s="9">
+        <v>2017</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T43" s="9" t="b">
+        <f>AND(AND(I43:L43),NOT(OR(M43:R43)),NOT(S43))</f>
+        <v>1</v>
+      </c>
+      <c r="Y43" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z43" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C45" s="9">
+        <f>COUNTBLANK(C3:C43)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="M49" t="b">
+      <c r="I49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="M50" t="b">
+      <c r="I50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="M51" t="b">
+      <c r="I51" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="M52" t="b">
+      <c r="I52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="M53" t="b">
+      <c r="I53" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="M54" t="b">
+      <c r="I54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="M55" t="b">
+      <c r="I55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="M56" t="b">
+      <c r="I56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="M57" t="b">
+      <c r="I57" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="M58" t="b">
+      <c r="I58" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="M59" t="b">
+      <c r="I59" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="M60" t="b">
+      <c r="I60" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="M61" t="b">
+      <c r="I61" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="M62" t="b">
+      <c r="I62" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="M63" t="b">
+      <c r="I63" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="M64" t="b">
+      <c r="I64" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="M65" t="b">
+      <c r="I65" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="M66" t="b">
+      <c r="I66" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="M67" t="b">
+      <c r="I67" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="M68" t="b">
+      <c r="I68" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="M69" t="b">
+      <c r="I69" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M69" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M70" t="b">
+      <c r="I70" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="M71" t="b">
+      <c r="I71" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I72" t="b">
-        <v>1</v>
-      </c>
-      <c r="M72" t="b">
+      <c r="I72" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
-      <c r="M73" t="b">
+      <c r="I73" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I74" t="b">
-        <v>1</v>
-      </c>
-      <c r="M74" t="b">
+      <c r="I74" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="M75" t="b">
+      <c r="I75" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="M76" t="b">
+      <c r="I76" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="M77" t="b">
+      <c r="I77" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="M78" t="b">
+      <c r="I78" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="M79" t="b">
+      <c r="I79" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="M80" t="b">
+      <c r="I80" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="M81" t="b">
+      <c r="I81" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="M82" t="b">
+      <c r="I82" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="M83" t="b">
+      <c r="I83" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="M84" t="b">
+      <c r="I84" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="M85" t="b">
+      <c r="I85" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="M86" t="b">
+      <c r="I86" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M86" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I87" t="b">
-        <v>1</v>
-      </c>
-      <c r="M87" t="b">
+      <c r="I87" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M87" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="M88" t="b">
+      <c r="I88" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M88" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="M89" t="b">
+      <c r="I89" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M89" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="M90" t="b">
+      <c r="I90" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I91" t="b">
-        <v>1</v>
-      </c>
-      <c r="M91" t="b">
+      <c r="I91" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I92" t="b">
-        <v>1</v>
-      </c>
-      <c r="M92" t="b">
+      <c r="I92" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M92" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I93" t="b">
-        <v>1</v>
-      </c>
-      <c r="M93" t="b">
+      <c r="I93" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M93" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="M94" t="b">
+      <c r="I94" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M94" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="M95" t="b">
+      <c r="I95" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M95" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="M96" t="b">
+      <c r="I96" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M96" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I97" t="b">
-        <v>1</v>
-      </c>
-      <c r="M97" t="b">
+      <c r="I97" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M97" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I98" t="b">
-        <v>1</v>
-      </c>
-      <c r="M98" t="b">
+      <c r="I98" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M98" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="M99" t="b">
+      <c r="I99" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I100" t="b">
-        <v>1</v>
-      </c>
-      <c r="M100" t="b">
+      <c r="I100" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M100" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="M101" t="b">
+      <c r="I101" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M101" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="M102" t="b">
+      <c r="I102" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M102" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I103" t="b">
-        <v>1</v>
-      </c>
-      <c r="M103" t="b">
+      <c r="I103" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="M104" t="b">
+      <c r="I104" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M104" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="M105" t="b">
+      <c r="I105" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M105" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="M106" t="b">
+      <c r="I106" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M106" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="M107" t="b">
+      <c r="I107" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M107" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="M108" t="b">
+      <c r="I108" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M108" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="M109" t="b">
+      <c r="I109" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M109" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="M110" t="b">
+      <c r="I110" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M110" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="M111" t="b">
+      <c r="I111" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M111" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="M112" t="b">
+      <c r="I112" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M112" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I113" t="b">
-        <v>1</v>
-      </c>
-      <c r="M113" t="b">
+      <c r="I113" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M113" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I114" t="b">
-        <v>1</v>
-      </c>
-      <c r="M114" t="b">
+      <c r="I114" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M114" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="M115" t="b">
+      <c r="I115" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M115" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="M116" t="b">
+      <c r="I116" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M116" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="M117" t="b">
+      <c r="I117" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M117" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="M118" t="b">
+      <c r="I118" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M118" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="M119" t="b">
+      <c r="I119" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M119" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="M120" t="b">
+      <c r="I120" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M120" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="M121" t="b">
+      <c r="I121" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M121" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="M122" t="b">
+      <c r="I122" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M122" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="M123" t="b">
+      <c r="I123" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M123" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="M124" t="b">
+      <c r="I124" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M124" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="M125" t="b">
+      <c r="I125" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M125" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="M126" t="b">
+      <c r="I126" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M126" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="M127" t="b">
+      <c r="I127" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M127" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="M128" t="b">
+      <c r="I128" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M128" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="M129" t="b">
+      <c r="I129" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M129" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="M130" t="b">
+      <c r="I130" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M130" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="M131" t="b">
+      <c r="I131" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M131" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="M132" t="b">
+      <c r="I132" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M132" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="M133" t="b">
+      <c r="I133" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M133" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="M134" t="b">
+      <c r="I134" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M134" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="M135" t="b">
+      <c r="I135" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M135" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="M136" t="b">
+      <c r="I136" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M136" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="M137" t="b">
+      <c r="I137" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M137" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="M138" t="b">
+      <c r="I138" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M138" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="M139" t="b">
+      <c r="I139" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M139" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="M140" t="b">
+      <c r="I140" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M140" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="M141" t="b">
+      <c r="I141" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M141" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="M142" t="b">
+      <c r="I142" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M142" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="M143" t="b">
+      <c r="I143" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M143" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="M144" t="b">
+      <c r="I144" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M144" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="M145" t="b">
+      <c r="I145" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M145" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="M146" t="b">
+      <c r="I146" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M146" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="M147" t="b">
+      <c r="I147" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M147" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I148" t="b">
-        <v>1</v>
-      </c>
-      <c r="M148" t="b">
+      <c r="I148" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M148" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I149" t="b">
-        <v>1</v>
-      </c>
-      <c r="M149" t="b">
+      <c r="I149" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M149" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I150" t="b">
-        <v>1</v>
-      </c>
-      <c r="M150" t="b">
+      <c r="I150" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M150" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I151" t="b">
-        <v>1</v>
-      </c>
-      <c r="M151" t="b">
+      <c r="I151" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M151" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I152" t="b">
-        <v>1</v>
-      </c>
-      <c r="M152" t="b">
+      <c r="I152" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M152" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I153" t="b">
-        <v>1</v>
-      </c>
-      <c r="M153" t="b">
+      <c r="I153" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M153" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I154" t="b">
-        <v>1</v>
-      </c>
-      <c r="M154" t="b">
+      <c r="I154" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M154" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I155" t="b">
-        <v>1</v>
-      </c>
-      <c r="M155" t="b">
+      <c r="I155" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M155" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I156" t="b">
-        <v>1</v>
-      </c>
-      <c r="M156" t="b">
+      <c r="I156" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M156" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I157" t="b">
-        <v>1</v>
-      </c>
-      <c r="M157" t="b">
+      <c r="I157" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M157" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I158" t="b">
-        <v>1</v>
-      </c>
-      <c r="M158" t="b">
+      <c r="I158" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M158" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I159" t="b">
-        <v>1</v>
-      </c>
-      <c r="M159" t="b">
+      <c r="I159" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M159" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I160" t="b">
-        <v>1</v>
-      </c>
-      <c r="M160" t="b">
+      <c r="I160" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M160" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="M161" t="b">
+      <c r="I161" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M161" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="M162" t="b">
+      <c r="I162" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M162" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I163" t="b">
-        <v>1</v>
-      </c>
-      <c r="M163" t="b">
+      <c r="I163" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M163" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I164" t="b">
-        <v>1</v>
-      </c>
-      <c r="M164" t="b">
+      <c r="I164" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M164" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I165" t="b">
-        <v>1</v>
-      </c>
-      <c r="M165" t="b">
+      <c r="I165" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M165" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I166" t="b">
-        <v>1</v>
-      </c>
-      <c r="M166" t="b">
+      <c r="I166" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M166" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I167" t="b">
-        <v>1</v>
-      </c>
-      <c r="M167" t="b">
+      <c r="I167" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M167" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I168" t="b">
-        <v>1</v>
-      </c>
-      <c r="M168" t="b">
+      <c r="I168" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M168" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I169" t="b">
-        <v>1</v>
-      </c>
-      <c r="M169" t="b">
+      <c r="I169" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M169" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="M170" t="b">
+      <c r="I170" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M170" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="M171" t="b">
+      <c r="I171" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M171" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="M172" t="b">
+      <c r="I172" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M172" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I173" t="b">
-        <v>1</v>
-      </c>
-      <c r="M173" t="b">
+      <c r="I173" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M173" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="M174" t="b">
+      <c r="I174" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M174" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="M175" t="b">
+      <c r="I175" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M175" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="M176" t="b">
+      <c r="I176" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M176" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="M177" t="b">
+      <c r="I177" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M177" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="M178" t="b">
+      <c r="I178" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M178" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="M179" t="b">
+      <c r="I179" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M179" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="M180" t="b">
+      <c r="I180" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M180" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="M181" t="b">
+      <c r="I181" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M181" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="M182" t="b">
+      <c r="I182" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M182" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="M183" t="b">
+      <c r="I183" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M183" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="M184" t="b">
+      <c r="I184" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M184" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="M185" t="b">
+      <c r="I185" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M185" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="M186" t="b">
+      <c r="I186" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M186" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I187" t="b">
-        <v>1</v>
-      </c>
-      <c r="M187" t="b">
+      <c r="I187" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M187" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="M188" t="b">
+      <c r="I188" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M188" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="M189" t="b">
+      <c r="I189" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M189" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I190" t="b">
-        <v>1</v>
-      </c>
-      <c r="M190" t="b">
+      <c r="I190" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M190" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I191" t="b">
-        <v>1</v>
-      </c>
-      <c r="M191" t="b">
+      <c r="I191" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M191" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I192" t="b">
-        <v>1</v>
-      </c>
-      <c r="M192" t="b">
+      <c r="I192" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M192" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I193" t="b">
-        <v>1</v>
-      </c>
-      <c r="M193" t="b">
+      <c r="I193" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M193" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I194" t="b">
-        <v>1</v>
-      </c>
-      <c r="M194" t="b">
+      <c r="I194" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M194" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I195" t="b">
-        <v>1</v>
-      </c>
-      <c r="M195" t="b">
+      <c r="I195" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M195" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I196" t="b">
-        <v>1</v>
-      </c>
-      <c r="M196" t="b">
+      <c r="I196" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M196" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="M197" t="b">
+      <c r="I197" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M197" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="M198" t="b">
+      <c r="I198" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M198" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="M199" t="b">
+      <c r="I199" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M199" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="M200" t="b">
+      <c r="I200" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M200" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="M201" t="b">
+      <c r="I201" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M201" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="M202" t="b">
+      <c r="I202" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M202" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="M203" t="b">
+      <c r="I203" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M203" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="M204" t="b">
+      <c r="I204" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M204" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="M205" t="b">
+      <c r="I205" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M205" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="M206" t="b">
+      <c r="I206" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M206" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="M207" t="b">
+      <c r="I207" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M207" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="M208" t="b">
+      <c r="I208" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M208" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I209" t="b">
-        <v>1</v>
-      </c>
-      <c r="M209" t="b">
+      <c r="I209" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M209" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="M210" t="b">
+      <c r="I210" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M210" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="M211" t="b">
+      <c r="I211" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M211" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="M212" t="b">
+      <c r="I212" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M212" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="M213" t="b">
+      <c r="I213" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M213" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="M214" t="b">
+      <c r="I214" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M214" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="M215" t="b">
+      <c r="I215" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M215" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="M216" t="b">
+      <c r="I216" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M216" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="M217" t="b">
+      <c r="I217" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M217" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="M218" t="b">
+      <c r="I218" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M218" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="M219" t="b">
+      <c r="I219" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M219" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="M220" t="b">
+      <c r="I220" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M220" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="M221" t="b">
+      <c r="I221" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M221" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="M222" t="b">
+      <c r="I222" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M222" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="M223" t="b">
+      <c r="I223" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M223" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="M224" t="b">
+      <c r="I224" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M224" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="M225" t="b">
+      <c r="I225" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M225" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I226" t="b">
-        <v>1</v>
-      </c>
-      <c r="M226" t="b">
+      <c r="I226" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M226" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="M227" t="b">
+      <c r="I227" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M227" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="M228" t="b">
+      <c r="I228" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M228" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="M229" t="b">
+      <c r="I229" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M229" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="M230" t="b">
+      <c r="I230" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M230" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="M231" t="b">
+      <c r="I231" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M231" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="M232" t="b">
+      <c r="I232" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M232" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="M233" t="b">
+      <c r="I233" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M233" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="M234" t="b">
+      <c r="I234" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M234" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="M235" t="b">
+      <c r="I235" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M235" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="M236" t="b">
+      <c r="I236" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M236" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="M237" t="b">
+      <c r="I237" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M237" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="M238" t="b">
+      <c r="I238" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M238" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="M239" t="b">
+      <c r="I239" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M239" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="M240" t="b">
+      <c r="I240" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M240" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I241" t="b">
-        <v>1</v>
-      </c>
-      <c r="M241" t="b">
+      <c r="I241" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M241" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I242" t="b">
-        <v>1</v>
-      </c>
-      <c r="M242" t="b">
+      <c r="I242" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M242" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I243" t="b">
-        <v>1</v>
-      </c>
-      <c r="M243" t="b">
+      <c r="I243" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M243" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I244" t="b">
-        <v>1</v>
-      </c>
-      <c r="M244" t="b">
+      <c r="I244" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M244" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I245" t="b">
-        <v>1</v>
-      </c>
-      <c r="M245" t="b">
+      <c r="I245" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M245" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -25624,30 +28140,102 @@
     <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:Z2">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D43">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>SUMPRODUCT(--EXACT($D$3:$D$43,$D3))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:L43">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+  <conditionalFormatting sqref="J3:L14 J18:L43">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:S43">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+  <conditionalFormatting sqref="N3:S14 N18:S43">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T43">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J15:L15">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:S15">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:L16">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:S16">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:L17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17:S17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{60DE4090-D918-6945-B3F7-DCC25A8DB3D2}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{1EC0F0AC-E34F-EE4D-AD00-A93DC063DDE8}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{09F1D1A8-4695-6F48-AEB5-9F08519DE49D}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{40BE2A7C-B4D6-7F49-B352-80206D3F8E6F}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{62DC9903-0975-9542-9669-DA238C02BBBE}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{7E035B08-FDDA-864C-A301-36D13FCFC465}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{88874EED-09E0-A649-B497-3B5C463AB41C}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{3AD101E0-9F38-5B48-A2E3-07F7BF8A3A2A}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{F137C435-C827-A84F-89D6-C361F3630A28}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{109E3020-B4BD-5948-B653-CD0B90DC25D2}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{66B074FF-ADB4-ED45-9D3E-52EB38E2F5D3}"/>
+    <hyperlink ref="G14" r:id="rId12" xr:uid="{0B93E643-69BB-364F-A30F-2F460FA77275}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{58C551EC-0E0D-A94F-8283-DC884D852A37}"/>
+    <hyperlink ref="G16" r:id="rId14" xr:uid="{6B025D3D-C900-934B-9C0D-4A83D2DE13D1}"/>
+    <hyperlink ref="G17" r:id="rId15" xr:uid="{0846FD38-037A-8C4C-9495-A90E1B40FF3C}"/>
+    <hyperlink ref="G18" r:id="rId16" xr:uid="{9C2AFE20-4511-5F47-89DB-CBAFD512AA62}"/>
+    <hyperlink ref="G19" r:id="rId17" xr:uid="{C5A009BE-6153-FA4B-8CFF-9A37167403D4}"/>
+    <hyperlink ref="G20" r:id="rId18" xr:uid="{3F8FFDC4-5977-A347-A145-6AAC5145F42F}"/>
+    <hyperlink ref="G21" r:id="rId19" xr:uid="{573D0596-5B1A-434B-8266-A22929BABB0C}"/>
+    <hyperlink ref="G22" r:id="rId20" xr:uid="{557A74D8-4B46-A741-A3A6-904C43C427C1}"/>
+    <hyperlink ref="G23" r:id="rId21" xr:uid="{2F966F50-6D22-1249-B8C4-99BD8CA6AABC}"/>
+    <hyperlink ref="G24" r:id="rId22" xr:uid="{1A3D4370-3D21-F248-9A04-B8B359AC28D4}"/>
+    <hyperlink ref="G25" r:id="rId23" xr:uid="{2D2B1230-4A81-7942-A188-A88544FDFB0C}"/>
+    <hyperlink ref="G27" r:id="rId24" xr:uid="{DA2895D9-DACB-244E-B50D-F8C1340945B7}"/>
+    <hyperlink ref="G28" r:id="rId25" xr:uid="{4F89E23A-12A3-C043-B03D-FD2FED2C6D19}"/>
+    <hyperlink ref="G29" r:id="rId26" xr:uid="{1D71AFB7-A731-B445-ABD9-10992ACA5A1E}"/>
+    <hyperlink ref="G30" r:id="rId27" xr:uid="{B2FF4ECB-ABDA-A54A-8609-E8C49B42AF16}"/>
+    <hyperlink ref="G31" r:id="rId28" xr:uid="{24F12DC1-72C0-E349-8541-4DD1B4A2BAB8}"/>
+    <hyperlink ref="G32" r:id="rId29" xr:uid="{80C14213-E0F5-B848-BF80-191BA23E6756}"/>
+    <hyperlink ref="G33" r:id="rId30" xr:uid="{1D4E5D5F-15E0-E84C-B9B8-8778139E0F5C}"/>
+    <hyperlink ref="G34" r:id="rId31" xr:uid="{FF782E67-A07A-CD44-8B7A-63AAB3E0B7C9}"/>
+    <hyperlink ref="G35" r:id="rId32" xr:uid="{EF695EED-C2C7-6B46-9865-316C8E91AB72}"/>
+    <hyperlink ref="G36" r:id="rId33" xr:uid="{0C70795D-AB60-B74D-8DC8-31324C0E6D37}"/>
+    <hyperlink ref="G37" r:id="rId34" xr:uid="{F0097467-E1A8-7343-92CB-FAAC9B4C69D5}"/>
+    <hyperlink ref="G38" r:id="rId35" xr:uid="{F65D71F5-ABA8-8345-8755-588D1544A3F1}"/>
+    <hyperlink ref="G39" r:id="rId36" xr:uid="{33BF64E0-795E-6347-A1E4-3C5531E84566}"/>
+    <hyperlink ref="G40" r:id="rId37" xr:uid="{3BFFDA6A-517D-2A47-9EA9-8EFA19FF4DF8}"/>
+    <hyperlink ref="G41" r:id="rId38" xr:uid="{0C2FA369-4394-3149-9C00-A278006443FA}"/>
+    <hyperlink ref="G42" r:id="rId39" xr:uid="{6B333994-4C98-C944-ACBD-C3950019ADD2}"/>
+    <hyperlink ref="G43" r:id="rId40" xr:uid="{64407681-0CF8-DC46-A81E-DFF54009181A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25657,7 +28245,7 @@
   <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25684,11 +28272,11 @@
       </c>
       <c r="C5">
         <f>COUNTIF(Uncertainty!T3:T43,"TRUE")-COUNTA(Uncertainty!U3:U43)</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <f>COUNTIF(Uncertainty!T3:T43,"TRUE")</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E5" s="14">
         <f>C5/D5</f>
@@ -25720,15 +28308,15 @@
       </c>
       <c r="C10">
         <f>COUNTIF(Uncertainty!Y:Y,"NO")</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <f>COUNTA(Uncertainty!Y:Y)-2</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="14" t="e">
+        <v>17</v>
+      </c>
+      <c r="E10" s="14">
         <f>C10/D10</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -25737,20 +28325,20 @@
       </c>
       <c r="C11">
         <f>COUNTIF(Uncertainty!Z:Z,"NO")</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <f>COUNTA(Uncertainty!Y:Y)-2</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="14" t="e">
+        <v>17</v>
+      </c>
+      <c r="E11" s="14">
         <f>C11/D11</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5 D10:D11">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>NOT(AND($D$5=$D$10,$D$5=$D$11))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13E4B9E-701B-914D-A254-71513259EA96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA86970F-E9A4-3F47-86C1-21B81C2936FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="1231">
   <si>
     <t>Author</t>
   </si>
@@ -2574,9 +2574,6 @@
     <t>JCfGi Metrology</t>
   </si>
   <si>
-    <t>Evaluation of measurement data - guide to the ex- pression of uncertainty in measurement</t>
-  </si>
-  <si>
     <t>BIPM</t>
   </si>
   <si>
@@ -2712,9 +2709,6 @@
     <t>Jon Whittle, Peter Sawyer, Nelly Bencomo, Betty H. C. Cheng, and Jean-Michel Bruel</t>
   </si>
   <si>
-    <t>RELAX: incorporating uncertainty into the speci- fication of self-adaptive systems</t>
-  </si>
-  <si>
     <t>http://dx.doi.org/10.1109/RE.2009.36</t>
   </si>
   <si>
@@ -2752,6 +2746,987 @@
   </si>
   <si>
     <t>http://dx.doi.org/10.1007/s10270-017-0609-6</t>
+  </si>
+  <si>
+    <t>RELAX: incorporating uncertainty into the specification of self-adaptive systems</t>
+  </si>
+  <si>
+    <t>America, P.</t>
+  </si>
+  <si>
+    <t>Inheritance and subtyping in a parallel object-oriented language</t>
+  </si>
+  <si>
+    <t>ECOOP</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/3-540-47891-4_22</t>
+  </si>
+  <si>
+    <t>Bertoa, M.F., Moreno, N., Barquero, G., Burguenño, L., Troya, J., Vallecillo, A.</t>
+  </si>
+  <si>
+    <t>Uncertain OCL Datatypes</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>http://atenea.lcc.uma.es/projects/UncertainOCLTypes.html</t>
+  </si>
+  <si>
+    <t>Broy, M.</t>
+  </si>
+  <si>
+    <t>Challenges in modeling Cyber-Physical Systems</t>
+  </si>
+  <si>
+    <t>ISPN</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2461381.2461385</t>
+  </si>
+  <si>
+    <t>Büttner, F., Gogolla, M.</t>
+  </si>
+  <si>
+    <t>On OCL-based imperative languages</t>
+  </si>
+  <si>
+    <t>Sci. Comput. Program.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.scico.2013.10.003</t>
+  </si>
+  <si>
+    <t>Eramo, R., Pierantonio, A., Rosa, G.</t>
+  </si>
+  <si>
+    <t>Managing uncertainty in bidirectional model transformations</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2814251.2814259</t>
+  </si>
+  <si>
+    <t>Esfahani, N., Malek, S.</t>
+  </si>
+  <si>
+    <t>Uncertainty in self-adaptive software systems</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-35813-5_9</t>
+  </si>
+  <si>
+    <t>Famelis, M., Salay, R., Chechik, M.</t>
+  </si>
+  <si>
+    <t>Garlan,D.</t>
+  </si>
+  <si>
+    <t>Software Engineering in an Uncertain World</t>
+  </si>
+  <si>
+    <t>FoSER</t>
+  </si>
+  <si>
+    <t>http://acme.able.cs.cmu.edu/pubs/uploads/pdf/foser057-garlan.pdf</t>
+  </si>
+  <si>
+    <t>Gogolla, M., Bu ̈ttner, F., Richters, M.</t>
+  </si>
+  <si>
+    <t>USE: A UML-based specification environment for validating UML and OCL</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.scico.2007.01.013</t>
+  </si>
+  <si>
+    <t>Gogolla, M., Hilken, F.</t>
+  </si>
+  <si>
+    <t>Model Validation and Verification Options in a Contemporary UML and OCL Analysis Tool</t>
+  </si>
+  <si>
+    <t>MODELLIERUNG</t>
+  </si>
+  <si>
+    <t>https://dl.gi.de/handle/20.500.12116/825</t>
+  </si>
+  <si>
+    <t>Hall, B.D.</t>
+  </si>
+  <si>
+    <t>Component interfaces that support measurement uncertainty</t>
+  </si>
+  <si>
+    <t>Compt. Std &amp; Int.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.csi.2005.07.009</t>
+  </si>
+  <si>
+    <t>JCGM 100:2008</t>
+  </si>
+  <si>
+    <t>Evaluation of measurement data - guide to the expression of uncertainty in measurement</t>
+  </si>
+  <si>
+    <t>Evaluation of measurement data - Guide to the expression of uncertainty in measurement</t>
+  </si>
+  <si>
+    <t>JCGM 101:2008</t>
+  </si>
+  <si>
+    <t>Evaluation of measurement data – Supplement 1 to the “Guide to the expression of uncertainty in measurement” – Propagation of distributions using a Monte Carlo method</t>
+  </si>
+  <si>
+    <t>http://www.bipm.org/utils/common/documents/jcgm/JCGM_101_2008_E.pdf</t>
+  </si>
+  <si>
+    <t>Jiménez-Ramírez, A., Weber, B., Barba, I., del Valle, C.</t>
+  </si>
+  <si>
+    <t>Generating optimized configurable business process models in scenarios subject to uncertainty</t>
+  </si>
+  <si>
+    <t>Info. &amp; Soft. Tech</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.infsof.2014.06.006</t>
+  </si>
+  <si>
+    <t>Kosko, B.</t>
+  </si>
+  <si>
+    <t>Fuzziness vs. Probability</t>
+  </si>
+  <si>
+    <t>JGS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/03081079008935108</t>
+  </si>
+  <si>
+    <t>Lee, E.A.</t>
+  </si>
+  <si>
+    <t>Cyber Physical Systems: Design Challenges</t>
+  </si>
+  <si>
+    <t>ISORC</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ISORC.2008.25</t>
+  </si>
+  <si>
+    <t>Liskov, B.H., Wing, J.M.</t>
+  </si>
+  <si>
+    <t>A behavioral notion of subtyping</t>
+  </si>
+  <si>
+    <t>TPLS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/197320.197383</t>
+  </si>
+  <si>
+    <t>Littlewood, B., Neil, M., Ostrolenk, G.</t>
+  </si>
+  <si>
+    <t>The role of models in managing the un- certainty of software-intensive systems</t>
+  </si>
+  <si>
+    <t>RESS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0951-8320(95)00073-B</t>
+  </si>
+  <si>
+    <t>Mayerhofer, T., Wimmer, M., Burgueño, L., Vallecillo, A.</t>
+  </si>
+  <si>
+    <t>Specifying quantities in software models</t>
+  </si>
+  <si>
+    <t>Tech. Report</t>
+  </si>
+  <si>
+    <t>http://atenea.lcc.uma.es/index.php/Main_Page/Resources/DataUncertainty</t>
+  </si>
+  <si>
+    <t>Object Management Group</t>
+  </si>
+  <si>
+    <t>Object Constraint Language (OCL) Specification</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>https://www.omg.org/spec/OCL</t>
+  </si>
+  <si>
+    <t>https://www.omg.org/omgmarte/</t>
+  </si>
+  <si>
+    <t>UML Profile for MARTE: Modeling and Analysis of Real-Time Embedded Systems</t>
+  </si>
+  <si>
+    <t>Unified Modeling Language (UML) Specification</t>
+  </si>
+  <si>
+    <t>https://www.omg.org/spec/UML</t>
+  </si>
+  <si>
+    <t>OMG Systems Modeling Language (SysML)</t>
+  </si>
+  <si>
+    <t>Structured Metrics Metamodel (SMM) Specification</t>
+  </si>
+  <si>
+    <t>https://www.omg.org/spec/SMM</t>
+  </si>
+  <si>
+    <t>https://www.omg.org/spec/SysML</t>
+  </si>
+  <si>
+    <t>Salay, R., Chechik, M., Horkoff, J., Sandro, A.</t>
+  </si>
+  <si>
+    <t>Managing requirements uncertainty with partial models</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00766-013-0170-y</t>
+  </si>
+  <si>
+    <t>Selic, B.</t>
+  </si>
+  <si>
+    <t>Beyond Mere Logic – A Vision of Modeling Languages for the 21st Century</t>
+  </si>
+  <si>
+    <t>MODELSWARD</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=7483719</t>
+  </si>
+  <si>
+    <t>Vallecillo, A., Morcillo, C., Orue, P.</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>List of uncertainty propagation software</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_uncertainty_propagation_software</t>
+  </si>
+  <si>
+    <t>Wolf, M.</t>
+  </si>
+  <si>
+    <t>A Modeling Language for Measurement Uncertainty Evaluation</t>
+  </si>
+  <si>
+    <t>ETH Zurich</t>
+  </si>
+  <si>
+    <t>https://www.research-collection.ethz.ch/bitstream/handle/20.500.11850/151598/eth-595-02.pdf?sequence=2</t>
+  </si>
+  <si>
+    <t>Zhang, M., Ali, S., Yue, T., Norgren, R., Okariz, O.</t>
+  </si>
+  <si>
+    <t>Zhang, M., Selic, B., Ali, S., Yue, T., Okariz, O., Norgren, R.</t>
+  </si>
+  <si>
+    <t>Understanding uncertainty in cyber-physical systems: A conceptual model</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-319-42061-5_16</t>
+  </si>
+  <si>
+    <t>JCGM 200:2008</t>
+  </si>
+  <si>
+    <t>International Vocabulary of Metrology – Basic and general con- cepts and associated terms (VIM)</t>
+  </si>
+  <si>
+    <t>http://www.bipm.org/utils/common/documents/jcgm/JCGM_200_2012.pdf</t>
+  </si>
+  <si>
+    <t>D. Barbara, H. Garcia-Molina, and D. Porter</t>
+  </si>
+  <si>
+    <t>The management of probabilistic data</t>
+  </si>
+  <si>
+    <t>TKDE</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/69.166990</t>
+  </si>
+  <si>
+    <t>O. Benjelloun, A. D. Sarma, A. Halevy, and J. Widom</t>
+  </si>
+  <si>
+    <t>ULDBs: Databases with uncertainty and lineage</t>
+  </si>
+  <si>
+    <t>VLDB</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/citation.cfm?id=1164209</t>
+  </si>
+  <si>
+    <t>E. R. Berlekamp, J. H. Conway, and R. K. Guy</t>
+  </si>
+  <si>
+    <t>Winning Ways for Your Mathematical Plays</t>
+  </si>
+  <si>
+    <t>Taylor &amp; Francis</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1201/9780429487309</t>
+  </si>
+  <si>
+    <t>S. Bhat, A. Agarwal, R. Vuduc, and A. Gray</t>
+  </si>
+  <si>
+    <t>A type theory for probability density functions</t>
+  </si>
+  <si>
+    <t>POPL</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2103656.2103721</t>
+  </si>
+  <si>
+    <t>C. M. Bishop</t>
+  </si>
+  <si>
+    <t>Pattern Recognition and Machine Learning</t>
+  </si>
+  <si>
+    <t>http://cds.cern.ch/record/998831/files/9780387310732_TOC.pdf</t>
+  </si>
+  <si>
+    <t>J. Borgstro ̈m, A. D. Gordon, M. Greenberg, J. Margetson, and J. Van Gael</t>
+  </si>
+  <si>
+    <t>Measure transformer semantics for Bayesian machine learning</t>
+  </si>
+  <si>
+    <t>ESOP</t>
+  </si>
+  <si>
+    <t>J. Bornholt</t>
+  </si>
+  <si>
+    <t>G. E. P. Box and M. E. Muller</t>
+  </si>
+  <si>
+    <t>A note on the generation of random normal deviates</t>
+  </si>
+  <si>
+    <t>Annals of Maths. Stats.</t>
+  </si>
+  <si>
+    <t>https://projecteuclid.org/euclid.aoms/1177706645</t>
+  </si>
+  <si>
+    <t>M. Carbin, S. Misailovic, and M. C. Rinard</t>
+  </si>
+  <si>
+    <t>Verifying quantitative reliability of programs that execute on unreliable hardware</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2509136.2509546</t>
+  </si>
+  <si>
+    <t>A. T. Chaganty, A. V. Nori, and S. K. Rajamani</t>
+  </si>
+  <si>
+    <t>Efficiently sampling probabilistic programs via program analysis</t>
+  </si>
+  <si>
+    <t>AISTATS</t>
+  </si>
+  <si>
+    <t>http://proceedings.mlr.press/v31/chaganty13a.pdf</t>
+  </si>
+  <si>
+    <t>N. Dalvi and D. Suciu</t>
+  </si>
+  <si>
+    <t>Management of probabilistic data: Foundations and challenges</t>
+  </si>
+  <si>
+    <t>PODS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1265530.1265531</t>
+  </si>
+  <si>
+    <t>H. Esmaeilzadeh, A. Sampson, L. Ceze, and D. Burger</t>
+  </si>
+  <si>
+    <t>Neural acceleration for general-purpose approximate programs</t>
+  </si>
+  <si>
+    <t>MICRO</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/MICRO.2012.48</t>
+  </si>
+  <si>
+    <t>W. R. Gilks, A. Thomas, and D. J. Spiegelhalter</t>
+  </si>
+  <si>
+    <t>A language and program for complex Bayesian modelling</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2307/2348941</t>
+  </si>
+  <si>
+    <t>M. Giry</t>
+  </si>
+  <si>
+    <t>A categorical approach to probability theory</t>
+  </si>
+  <si>
+    <t>Lect. Notes. In Maths</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BFb0092872</t>
+  </si>
+  <si>
+    <t>N. D. Goodman, V. K. Mansinghka, D. M. Roy, K. Bonawitz, and J. B. Tenenbaum</t>
+  </si>
+  <si>
+    <t>Church: A language for generative models</t>
+  </si>
+  <si>
+    <t>UAI</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1206.3255</t>
+  </si>
+  <si>
+    <t>S. Jaroszewicz and M. Korze´n</t>
+  </si>
+  <si>
+    <t>Arithmetic operations on independent random variables: A numerical approach</t>
+  </si>
+  <si>
+    <t>SIAM</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1137/110839680</t>
+  </si>
+  <si>
+    <t>C. Jennison and B. W. Turnbull</t>
+  </si>
+  <si>
+    <t>Group sequential methods with applications to clinical trials</t>
+  </si>
+  <si>
+    <t>Chapman &amp; Hall</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1201/9780367805326</t>
+  </si>
+  <si>
+    <t>A. Kumar, F. Niu, and C. Re ́. Hazy</t>
+  </si>
+  <si>
+    <t>Making it Easier to Build and Maintain Big-data Analytics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2428556.2428570</t>
+  </si>
+  <si>
+    <t>R. E. Moore</t>
+  </si>
+  <si>
+    <t>Interval analysis</t>
+  </si>
+  <si>
+    <t>Prentice-Hall</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/4016/99bcab0b683f4ec32cb00542909520aa79bf.pdf</t>
+  </si>
+  <si>
+    <t>R. M. Neal</t>
+  </si>
+  <si>
+    <t>Bayesian learning for neural networks</t>
+  </si>
+  <si>
+    <t>Univ. Toronto</t>
+  </si>
+  <si>
+    <t>http://www.db.toronto.edu/~radford/ftp/thesis.pdf</t>
+  </si>
+  <si>
+    <t>P. Newson and J. Krumm</t>
+  </si>
+  <si>
+    <t>Hidden Markov map matching through noise and sparseness</t>
+  </si>
+  <si>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1653771.1653818</t>
+  </si>
+  <si>
+    <t>A. Papoulis and S. U. Pillai</t>
+  </si>
+  <si>
+    <t>Probability, random variables, and stochastic processes</t>
+  </si>
+  <si>
+    <t>S. Park, F. Pfenning, and S. Thrun</t>
+  </si>
+  <si>
+    <t>A probabilistic language based on sampling functions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1452044.1452048</t>
+  </si>
+  <si>
+    <t>A. Pfeffer</t>
+  </si>
+  <si>
+    <t>IBAL: a probabilistic rational programming language</t>
+  </si>
+  <si>
+    <t>http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.29.1299&amp;rep=rep1&amp;type=pdf</t>
+  </si>
+  <si>
+    <t>N. Ramsey and A. Pfeffer</t>
+  </si>
+  <si>
+    <t>Stochastic lambda calculus and monads of probability distributions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/503272.503288</t>
+  </si>
+  <si>
+    <t>A. Sampson, W. Dietl, E. Fortuna, D. Gnanapragasam, L. Ceze, and D. Grossman</t>
+  </si>
+  <si>
+    <t>EnerJ: Approximate data types for safe and general low-power computation</t>
+  </si>
+  <si>
+    <t>PLDI</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1993498.1993518</t>
+  </si>
+  <si>
+    <t>S. Sankaranarayanan, A. Chakarov, and S. Gulwani</t>
+  </si>
+  <si>
+    <t>Static analysis for probabilistic programs: inferring whole program properties from finitely many paths</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2491956.2462179</t>
+  </si>
+  <si>
+    <t>J. Schwarz, J. Mankoff, and S. E. Hudson</t>
+  </si>
+  <si>
+    <t>Monte Carlo methods for managing interactive state, action and feedback under uncertainty</t>
+  </si>
+  <si>
+    <t>UIST</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2047196.2047227</t>
+  </si>
+  <si>
+    <t>R. Thompson</t>
+  </si>
+  <si>
+    <t>Global positioning system: the mathematics of GPS receivers</t>
+  </si>
+  <si>
+    <t>Maths. Mag.</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/pdf/10.1080/0025570X.1998.11996650</t>
+  </si>
+  <si>
+    <t>S. Thrun</t>
+  </si>
+  <si>
+    <t>Towards programming tools for robots that integrate probabilistic computation and learning</t>
+  </si>
+  <si>
+    <t>ICRA</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ROBOT.2000.844075</t>
+  </si>
+  <si>
+    <t>F. Topsøe</t>
+  </si>
+  <si>
+    <t>On the Glivenko-Cantelli theorem</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BF01111419</t>
+  </si>
+  <si>
+    <t>A. Wald</t>
+  </si>
+  <si>
+    <t>Sequential Tests of Statistical Hypotheses</t>
+  </si>
+  <si>
+    <t>JSTOR</t>
+  </si>
+  <si>
+    <t>Betancourt M</t>
+  </si>
+  <si>
+    <t>Identifying the Optimal Integration Time in Hamiltonian Monte Carlo</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1601.00225</t>
+  </si>
+  <si>
+    <t>Carpenter B, Hoffman MD, Brubaker M, Lee D, Li P, Betancourt M</t>
+  </si>
+  <si>
+    <t>The Stan Math Library: Reverse-Mode Automatic Differentiation in C++</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1509.07164</t>
+  </si>
+  <si>
+    <t>Chacon S</t>
+  </si>
+  <si>
+    <t>Pro Git</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1007/978-1-4302-1834-0</t>
+  </si>
+  <si>
+    <t>Cohen SD, Hindmarsh AC</t>
+  </si>
+  <si>
+    <t>CVODE, A Stiff/Nonstiff ODE Solver in C</t>
+  </si>
+  <si>
+    <t>Comp. in Physics.</t>
+  </si>
+  <si>
+    <t>https://aip.scitation.org/doi/pdf/10.1063/1.4822377</t>
+  </si>
+  <si>
+    <t>Driessen V</t>
+  </si>
+  <si>
+    <t>A Successful Git Branching Model</t>
+  </si>
+  <si>
+    <t>http://nvie.com/posts/a-successful-git-branching-model/</t>
+  </si>
+  <si>
+    <t>Duane AD, Kennedy A, Pendleton B, Roweth D</t>
+  </si>
+  <si>
+    <t>Hybrid Monte Carlo</t>
+  </si>
+  <si>
+    <t>Physics Letters</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1016/0370-2693(87)91197-x</t>
+  </si>
+  <si>
+    <t>Efron B</t>
+  </si>
+  <si>
+    <t>Large-Scale Inference: Empirical Bayes Methods for Estimation, Testing, and Prediction</t>
+  </si>
+  <si>
+    <t>Gelman A, Carlin JB, Stern HS, Dunson DB, Vehtari A, Rubin DB</t>
+  </si>
+  <si>
+    <t>Bayesian Data Analysis</t>
+  </si>
+  <si>
+    <t>Chapman &amp; Hall/CRC</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1201/b16018</t>
+  </si>
+  <si>
+    <t>Gelman A, Hill J, Yajima M</t>
+  </si>
+  <si>
+    <t>Why We (Usually) Don’t Have to Worry about Multiple Comparisons</t>
+  </si>
+  <si>
+    <t>JREE</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1080/19345747.2011.618213</t>
+  </si>
+  <si>
+    <t>Gelman A, Rubin DB</t>
+  </si>
+  <si>
+    <t>Inference from Iterative Simulation Using Multiple Sequences</t>
+  </si>
+  <si>
+    <t>Stats. Scie.</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1214/ss/1177011136</t>
+  </si>
+  <si>
+    <t>Geyer CJ</t>
+  </si>
+  <si>
+    <t>Introduction to Markov Chain Monte Carlo</t>
+  </si>
+  <si>
+    <t>Hand. Of Mak. Chain MC</t>
+  </si>
+  <si>
+    <t>https://www.taylorfrancis.com/books/e/9780429138508/chapters/10.1201/b10905-6</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>googletest: Google C++ Testing Framework</t>
+  </si>
+  <si>
+    <t>http://code.google.com/p/googletest/</t>
+  </si>
+  <si>
+    <t>http://eigen.tuxfamily.org</t>
+  </si>
+  <si>
+    <t>Eigen, Version 3</t>
+  </si>
+  <si>
+    <t>Guennebaud G, Jacob B, et al.</t>
+  </si>
+  <si>
+    <t>Hindmarsh AC, Brown PN, Grant KE, Lee SL, Serban R, Shumaker DE, Woodward CS</t>
+  </si>
+  <si>
+    <t>SUNDIALS: Suite of Nonlinear and Differential/Algebraic Equation Solvers</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1145/1089014.1089020</t>
+  </si>
+  <si>
+    <t>TOMS</t>
+  </si>
+  <si>
+    <t>Hoffman MD, Gelman A</t>
+  </si>
+  <si>
+    <t>The No-U-Turn Sampler: Adaptively Setting Path Lengths in Hamiltonian Monte Carlo</t>
+  </si>
+  <si>
+    <t>JMLR</t>
+  </si>
+  <si>
+    <t>http://www.jmlr.org/papers/volume15/hoffman14a/hoffman14a.pdf</t>
+  </si>
+  <si>
+    <t>Lunn D, Jackson C, Best N, Thomas A, Spiegelhalter DJ</t>
+  </si>
+  <si>
+    <t>The BUGS Book – A Practical Introduction to Bayesian Analysis</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1201/b13613</t>
+  </si>
+  <si>
+    <t>Lunn D, Spiegelhalter DJ, Thomas A, Best N</t>
+  </si>
+  <si>
+    <t>The BUGS Project: Evolution, Critique, and Future Directions</t>
+  </si>
+  <si>
+    <t>Stats. In Med.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/sim.3680</t>
+  </si>
+  <si>
+    <t>Lunn D, Thomas A, Best NG, Spiegelhalter DJ</t>
+  </si>
+  <si>
+    <t>WinBUGS – A Bayesian Modelling Framework: Concepts, Structure, and Extensibility</t>
+  </si>
+  <si>
+    <t>Stats. In Comp.</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1023/a:1008929526011</t>
+  </si>
+  <si>
+    <t>Metropolis N, Rosenbluth AW, Rosenbluth MN, Teller AH, Teller E</t>
+  </si>
+  <si>
+    <t>Equation of State Calculations by Fast Computing Machines</t>
+  </si>
+  <si>
+    <t>JCP</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1063/1.1699114</t>
+  </si>
+  <si>
+    <t>Mittelbach F, Goossens M, Braams J, Carlisle D, Rowley C</t>
+  </si>
+  <si>
+    <t>The LATEX Companion. Tools and Techniques for Computer Typesetting</t>
+  </si>
+  <si>
+    <t>Addison-Wesley</t>
+  </si>
+  <si>
+    <t>Neal R</t>
+  </si>
+  <si>
+    <t>MCMC Using Hamiltonian Dynamics.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1206.1901.pdf):</t>
+  </si>
+  <si>
+    <t>Neal RM</t>
+  </si>
+  <si>
+    <t>An Improved Acceptance Procedure for the Hybrid Monte Carlo Algo- rithm</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1006/jcph.1994.1054</t>
+  </si>
+  <si>
+    <t>Slice Sampling</t>
+  </si>
+  <si>
+    <t>Annals of Stats</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1214/aos/1056562461</t>
+  </si>
+  <si>
+    <t>Nocedal J, Wright SJ</t>
+  </si>
+  <si>
+    <t>Numerical Optimization</t>
+  </si>
+  <si>
+    <t>Springer-Verlag</t>
+  </si>
+  <si>
+    <t>Plummer M</t>
+  </si>
+  <si>
+    <t>JAGS: A Program for Analysis of Bayesian Graphical Models Using Gibbs Sampling</t>
+  </si>
+  <si>
+    <t>DSC</t>
+  </si>
+  <si>
+    <t>http://www.ci.tuwien.ac.at/Conferences/DSC-2003/</t>
+  </si>
+  <si>
+    <t>Plummer M, Best N, Cowles K, Vines K</t>
+  </si>
+  <si>
+    <t>code: Convergence Diagnosis and Out- put Analysis for MCMC</t>
+  </si>
+  <si>
+    <t>R News</t>
+  </si>
+  <si>
+    <t>http://oro.open.ac.uk/22547/</t>
+  </si>
+  <si>
+    <t>R Core Team</t>
+  </si>
+  <si>
+    <t>R: A Language and Environment for Statistical Computing</t>
+  </si>
+  <si>
+    <t>R Foundation</t>
+  </si>
+  <si>
+    <t>https://www.R-project.org/</t>
+  </si>
+  <si>
+    <t>Schäling B</t>
+  </si>
+  <si>
+    <t>The Boost C++ Libraries</t>
+  </si>
+  <si>
+    <t>XML Press</t>
+  </si>
+  <si>
+    <t>http://www.boost.org/</t>
+  </si>
+  <si>
+    <t>Smart JF</t>
+  </si>
+  <si>
+    <t>Jenkins: The Definitive Guide</t>
+  </si>
+  <si>
+    <t>O'Relly</t>
+  </si>
+  <si>
+    <t>https://www.oreilly.com/library/view/jenkins-the-definitive/9781449311155/</t>
+  </si>
+  <si>
+    <t>Stan Development Team</t>
+  </si>
+  <si>
+    <t>Stan Modeling Language User’s Guide and Reference Manual</t>
+  </si>
+  <si>
+    <t>Stan</t>
+  </si>
+  <si>
+    <t>http://mc-stan.org/</t>
+  </si>
+  <si>
+    <t>Van Heesch D</t>
+  </si>
+  <si>
+    <t>Doxygen: Generate Documentation from Source Code</t>
+  </si>
+  <si>
+    <t>http://www.stack.nl/~dimitri/doxygen/</t>
+  </si>
+  <si>
+    <t>Van Rossum G, et al</t>
+  </si>
+  <si>
+    <t>Python Programming Language</t>
+  </si>
+  <si>
+    <t>http://www.python.org/</t>
   </si>
 </sst>
 </file>
@@ -2804,7 +3779,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2854,33 +3829,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3451,13 +4415,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99048B8C-98B5-C846-BA1E-677FE6633279}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="R18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="Y50" sqref="Y50:Z50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3474,32 +4438,32 @@
     <col min="10" max="12" width="10.83203125" style="1"/>
     <col min="13" max="13" width="10.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="23" width="10.83203125" style="1"/>
-    <col min="24" max="24" width="58" style="1" customWidth="1"/>
+    <col min="24" max="24" width="22.33203125" style="1" customWidth="1"/>
     <col min="25" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="N1" s="17" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="N1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="U1" s="17" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="U1" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="Y1" s="17" t="s">
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="Y1" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="Z1" s="17"/>
+      <c r="Z1" s="20"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -6991,12 +7955,6 @@
       <c r="X50" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="Y50" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z50" s="1" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
@@ -9392,12 +10350,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y87" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z87" s="8" t="s">
-        <v>204</v>
-      </c>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="8"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
@@ -9465,12 +10419,8 @@
       <c r="X88" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="Y88" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z88" s="8" t="s">
-        <v>204</v>
-      </c>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="8"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
@@ -9834,12 +10784,6 @@
       <c r="X94" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="Y94" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z94" s="1" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
@@ -9904,12 +10848,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y95" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z95" s="8" t="s">
-        <v>204</v>
-      </c>
+      <c r="Y95" s="8"/>
+      <c r="Z95" s="8"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
@@ -12188,7 +13128,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>127</v>
       </c>
@@ -12267,7 +13207,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>128</v>
       </c>
@@ -12331,7 +13271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>129</v>
       </c>
@@ -12392,7 +13332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>130</v>
       </c>
@@ -12456,7 +13396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>131</v>
       </c>
@@ -12520,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="15">
         <v>132</v>
       </c>
@@ -12584,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="15">
         <v>133</v>
       </c>
@@ -12624,7 +13564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="15">
         <v>134</v>
       </c>
@@ -12688,7 +13628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="15">
         <v>135</v>
       </c>
@@ -12752,7 +13692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="15">
         <v>136</v>
       </c>
@@ -12816,7 +13756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="15">
         <v>137</v>
       </c>
@@ -12888,8 +13828,20 @@
       <c r="W139" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y139" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z139" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC139" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD139" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="15">
         <v>138</v>
       </c>
@@ -12953,7 +13905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="15">
         <v>139</v>
       </c>
@@ -13025,8 +13977,14 @@
       <c r="W141" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y141" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z141" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="15">
         <v>140</v>
       </c>
@@ -13098,8 +14056,14 @@
       <c r="W142" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y142" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z142" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="15">
         <v>141</v>
       </c>
@@ -13163,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="15">
         <v>142</v>
       </c>
@@ -14254,7 +15218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="15">
         <v>159</v>
       </c>
@@ -14294,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="15">
         <v>160</v>
       </c>
@@ -14366,8 +15330,14 @@
       <c r="W162" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y162" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z162" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="15">
         <v>161</v>
       </c>
@@ -14431,7 +15401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="15">
         <v>162</v>
       </c>
@@ -14471,7 +15441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="15">
         <v>163</v>
       </c>
@@ -14535,7 +15505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="15">
         <v>164</v>
       </c>
@@ -14599,7 +15569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="16">
         <v>165</v>
       </c>
@@ -14663,7 +15633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="16">
         <v>166</v>
       </c>
@@ -14727,7 +15697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="16">
         <v>167</v>
       </c>
@@ -14791,7 +15761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="16">
         <v>168</v>
       </c>
@@ -14855,7 +15825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="16">
         <v>169</v>
       </c>
@@ -14919,7 +15889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="16">
         <v>170</v>
       </c>
@@ -14956,7 +15926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="16">
         <v>171</v>
       </c>
@@ -15020,7 +15990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="16">
         <v>172</v>
       </c>
@@ -15084,7 +16054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="16">
         <v>173</v>
       </c>
@@ -15148,7 +16118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="16">
         <v>174</v>
       </c>
@@ -16197,7 +17167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" s="16">
         <v>191</v>
       </c>
@@ -16231,7 +17201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" s="16">
         <v>192</v>
       </c>
@@ -16265,7 +17235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" s="16">
         <v>193</v>
       </c>
@@ -16329,7 +17299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" s="16">
         <v>194</v>
       </c>
@@ -16390,7 +17360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="16">
         <v>195</v>
       </c>
@@ -16454,7 +17424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" s="16">
         <v>196</v>
       </c>
@@ -16518,7 +17488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" s="16">
         <v>197</v>
       </c>
@@ -16582,7 +17552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" s="16">
         <v>198</v>
       </c>
@@ -16646,7 +17616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="16">
         <v>199</v>
       </c>
@@ -16710,7 +17680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" s="16">
         <v>200</v>
       </c>
@@ -16774,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" s="16">
         <v>201</v>
       </c>
@@ -16838,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>202</v>
       </c>
@@ -16910,8 +17880,14 @@
       <c r="W204" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y204" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z204" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I205" s="1" t="b">
         <v>1</v>
       </c>
@@ -16919,7 +17895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I206" s="1" t="b">
         <v>1</v>
       </c>
@@ -16927,7 +17903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I207" s="1" t="b">
         <v>1</v>
       </c>
@@ -16935,7 +17911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I208" s="1" t="b">
         <v>1</v>
       </c>
@@ -23287,77 +24263,77 @@
     <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:Z1048576">
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T204">
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:S204">
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:L204">
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37:R37">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:L37">
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:R40">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:L40">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43:R43">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43:L43">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:R44">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:L44">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46:R46">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:L46">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D204">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>SUMPRODUCT(--EXACT($D$3:$D$204,$D3))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23561,7 +24537,7 @@
   <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23657,7 +24633,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5 D10:D11">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>NOT(AND($D$5=$D$10,$D$5=$D$11))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23670,10 +24646,10 @@
   <dimension ref="A1:Z245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="S12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="H104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y43" sqref="Y43:Z43"/>
+      <selection pane="bottomRight" activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23693,27 +24669,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="N1" s="18" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="N1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="U1" s="18" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="U1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="Y1" s="18" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="Y1" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="Z1" s="18"/>
+      <c r="Z1" s="21"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -23859,10 +24835,10 @@
         <v>1</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="Z3" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -23876,7 +24852,7 @@
         <v>762</v>
       </c>
       <c r="D4" s="9" t="str">
-        <f t="shared" ref="D4:D43" si="0">TRIM(LOWER(C4))</f>
+        <f t="shared" ref="D4:D67" si="0">TRIM(LOWER(C4))</f>
         <v>openturns: an industrial software for uncertainty quantification in simulation</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -23929,10 +24905,10 @@
         <v>1</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -23999,10 +24975,10 @@
         <v>1</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -24133,10 +25109,10 @@
         <v>1</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -24203,10 +25179,10 @@
         <v>1</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -24337,10 +25313,10 @@
         <v>1</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -24535,10 +25511,10 @@
         <v>1</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="Z13" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -24605,10 +25581,10 @@
         <v>1</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -24675,10 +25651,10 @@
         <v>1</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -24745,10 +25721,10 @@
         <v>1</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
@@ -24815,10 +25791,10 @@
         <v>1</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="Z17" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
@@ -25399,20 +26375,20 @@
         <v>845</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>846</v>
+        <v>944</v>
       </c>
       <c r="D27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>evaluation of measurement data - guide to the ex- pression of uncertainty in measurement</v>
+        <v>evaluation of measurement data - guide to the expression of uncertainty in measurement</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F27" s="9">
         <v>2008</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>17</v>
@@ -25460,23 +26436,23 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>849</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>850</v>
       </c>
       <c r="D28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>introduction to the theory of statistics</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F28" s="9">
         <v>1963</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>17</v>
@@ -25524,23 +26500,23 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>853</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>854</v>
       </c>
       <c r="D29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>the varieties of programming language semantics</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F29" s="9">
         <v>2001</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>17</v>
@@ -25588,10 +26564,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>857</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>858</v>
       </c>
       <c r="D30" s="9" t="str">
         <f t="shared" si="0"/>
@@ -25601,7 +26577,7 @@
         <v>2018</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>17</v>
@@ -25649,23 +26625,23 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>860</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>861</v>
       </c>
       <c r="D31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>adding uncertainty and units to quantity types in software models</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F31" s="9">
         <v>2016</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>17</v>
@@ -25708,10 +26684,10 @@
         <v>1</v>
       </c>
       <c r="Y31" s="9" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="Z31" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
@@ -25719,10 +26695,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>864</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>865</v>
       </c>
       <c r="D32" s="9" t="str">
         <f t="shared" si="0"/>
@@ -25735,7 +26711,7 @@
         <v>2002</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>17</v>
@@ -25783,23 +26759,23 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>867</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>868</v>
       </c>
       <c r="D33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>a mathematical theory of evidence</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F33" s="9">
         <v>1976</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>17</v>
@@ -25847,23 +26823,23 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>872</v>
       </c>
       <c r="D34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>probabilistic programming in python using pymc3</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F34" s="9">
         <v>2016</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>17</v>
@@ -25906,10 +26882,10 @@
         <v>1</v>
       </c>
       <c r="Y34" s="9" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
@@ -25917,23 +26893,23 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>875</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>876</v>
       </c>
       <c r="D35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>fds: fault detection scheme for wireless sensor networks</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F35" s="9">
         <v>2016</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>17</v>
@@ -25981,23 +26957,23 @@
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>879</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>880</v>
       </c>
       <c r="D36" s="9" t="str">
         <f t="shared" si="0"/>
         <v>expressing measurement uncertainty in software models</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F36" s="9">
         <v>2016</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>17</v>
@@ -26040,10 +27016,10 @@
         <v>1</v>
       </c>
       <c r="Y36" s="9" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="Z36" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
@@ -26051,23 +27027,23 @@
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>883</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>884</v>
       </c>
       <c r="D37" s="9" t="str">
         <f t="shared" si="0"/>
         <v>hand-book on statistical distributions for experimentalists</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F37" s="9">
         <v>1996</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>17</v>
@@ -26115,23 +27091,23 @@
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>887</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>888</v>
       </c>
       <c r="D38" s="9" t="str">
         <f t="shared" si="0"/>
         <v>software engineering of self-adaptive systems</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F38" s="9">
         <v>2019</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>17</v>
@@ -26179,14 +27155,14 @@
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="D39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>relax: incorporating uncertainty into the speci- fication of self-adaptive systems</v>
+        <v>relax: incorporating uncertainty into the specification of self-adaptive systems</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>119</v>
@@ -26195,7 +27171,7 @@
         <v>2009</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>17</v>
@@ -26238,10 +27214,10 @@
         <v>1</v>
       </c>
       <c r="Y39" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="Z39" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
@@ -26249,10 +27225,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D40" s="9" t="str">
         <f t="shared" si="0"/>
@@ -26265,7 +27241,7 @@
         <v>2010</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>17</v>
@@ -26308,10 +27284,10 @@
         <v>1</v>
       </c>
       <c r="Y40" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="Z40" s="9" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
@@ -26319,10 +27295,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D41" s="9" t="str">
         <f t="shared" si="0"/>
@@ -26335,7 +27311,7 @@
         <v>1988</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>17</v>
@@ -26383,23 +27359,23 @@
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D42" s="9" t="str">
         <f t="shared" si="0"/>
         <v>fuzzy sets</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F42" s="9">
         <v>1996</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>17</v>
@@ -26447,10 +27423,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D43" s="9" t="str">
         <f t="shared" si="0"/>
@@ -26463,7 +27439,7 @@
         <v>2017</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>17</v>
@@ -26506,785 +27482,5912 @@
         <v>1</v>
       </c>
       <c r="Y43" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z43" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
+        <v>42</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="D44" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>inheritance and subtyping in a parallel object-oriented language</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1987</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="Z43" s="9" t="s">
+      <c r="I44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T44" s="18" t="b">
+        <f t="shared" ref="T44:T139" si="2">AND(AND(I44:L44),NOT(OR(M44:R44)),NOT(S44))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
+        <v>43</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>uncertain ocl datatypes</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="F45" s="9">
+        <v>2018</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="H45" s="18" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="I44" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M44" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C45" s="9">
-        <f>COUNTBLANK(C3:C43)</f>
-        <v>0</v>
-      </c>
       <c r="I45" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M45" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="N45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T45" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
+        <v>44</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="D46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>challenges in modeling cyber-physical systems</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="F46" s="9">
+        <v>2013</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I46" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M46" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="N46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T46" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
+        <v>45</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="D47" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>on ocl-based imperative languages</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="F47" s="9">
+        <v>2014</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I47" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M47" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="N47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T47" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
+        <v>46</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="D48" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>managing uncertainty in bidirectional model transformations</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="F48" s="9">
+        <v>2015</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I48" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M48" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T48" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
+        <v>47</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="D49" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>uncertainty in self-adaptive software systems</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="F49" s="9">
+        <v>2013</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I49" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M49" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T49" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
+        <v>48</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="D50" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>partial models: towards modeling and reasoning with uncertainty</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="9">
+        <v>2012</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I50" s="9" t="b">
         <v>1</v>
       </c>
       <c r="M50" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="S50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T50" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
+        <v>49</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="D51" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>software engineering in an uncertain world</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="F51" s="9">
+        <v>2010</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>931</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I51" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J51" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M51" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T51" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
+        <v>50</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>932</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="D52" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>use: a uml-based specification environment for validating uml and ocl</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="F52" s="9">
+        <v>2007</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I52" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M52" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T52" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
+        <v>51</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>936</v>
+      </c>
+      <c r="D53" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>model validation and verification options in a contemporary uml and ocl analysis tool</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="F53" s="9">
+        <v>2016</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I53" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J53" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M53" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T53" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
+        <v>52</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="D54" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>component interfaces that support measurement uncertainty</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="F54" s="9">
+        <v>2006</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I54" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M54" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R54" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S54" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T54" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
+        <v>53</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>943</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="D55" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>evaluation of measurement data - guide to the expression of uncertainty in measurement</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I55" s="9" t="b">
         <v>1</v>
       </c>
       <c r="M55" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="S55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T55" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
+        <v>54</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="D56" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>evaluation of measurement data – supplement 1 to the “guide to the expression of uncertainty in measurement” – propagation of distributions using a monte carlo method</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="F56" s="9">
+        <v>2008</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I56" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M56" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P56" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R56" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S56" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T56" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
+        <v>55</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="D57" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>generating optimized configurable business process models in scenarios subject to uncertainty</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="F57" s="9">
+        <v>2015</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>952</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I57" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J57" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M57" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O57" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P57" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R57" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S57" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T57" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
+        <v>56</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="D58" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>fuzziness vs. probability</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="F58" s="9">
+        <v>1990</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I58" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J58" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M58" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O58" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P58" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R58" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S58" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T58" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
+        <v>57</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="D59" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>cyber physical systems: design challenges</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="F59" s="9">
+        <v>2008</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I59" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J59" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M59" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O59" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P59" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R59" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S59" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T59" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
+        <v>58</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="D60" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>a behavioral notion of subtyping</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="F60" s="9">
+        <v>1994</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I60" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J60" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M60" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O60" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P60" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R60" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S60" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T60" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
+        <v>59</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>966</v>
+      </c>
+      <c r="D61" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>the role of models in managing the un- certainty of software-intensive systems</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1995</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>968</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I61" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J61" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M61" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T61" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
+        <v>60</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>969</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="D62" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>specifying quantities in software models</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="F62" s="9">
+        <v>2018</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>972</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I62" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="K62" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M62" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="Q62" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S62" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T62" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
+        <v>61</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="D63" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>object constraint language (ocl) specification</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="F63" s="9">
+        <v>2010</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>976</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I63" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J63" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M63" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O63" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P63" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R63" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S63" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T63" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
+        <v>62</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="D64" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>uml profile for marte: modeling and analysis of real-time embedded systems</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="F64" s="9">
+        <v>2011</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I64" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J64" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M64" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O64" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P64" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R64" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S64" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T64" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
+        <v>63</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="D65" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>unified modeling language (uml) specification</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="F65" s="9">
+        <v>2015</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I65" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J65" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M65" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T65" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
+        <v>64</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="D66" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>omg systems modeling language (sysml)</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="F66" s="9">
+        <v>2016</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I66" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J66" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M66" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P66" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R66" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S66" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T66" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
+        <v>65</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="D67" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>structured metrics metamodel (smm) specification</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="F67" s="9">
+        <v>2016</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I67" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J67" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M67" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O67" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P67" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R67" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S67" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T67" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
+        <v>66</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D68" s="9" t="str">
+        <f t="shared" ref="D68:D139" si="3">TRIM(LOWER(C68))</f>
+        <v>managing requirements uncertainty with partial models</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F68" s="9">
+        <v>2013</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I68" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J68" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M68" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O68" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P68" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R68" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S68" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T68" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
+        <v>67</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="D69" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>beyond mere logic – a vision of modeling languages for the 21st century</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="F69" s="9">
+        <v>2015</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I69" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J69" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K69" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M69" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P69" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R69" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S69" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T69" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
+        <v>68</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="D70" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>expressing measurement uncertainty in software models</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I70" s="9" t="b">
         <v>1</v>
       </c>
       <c r="M70" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="S70" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T70" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71" s="9">
+        <v>69</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="D71" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>list of uncertainty propagation software</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="F71" s="9">
+        <v>2018</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I71" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J71" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K71" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M71" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O71" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P71" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R71" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S71" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T71" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72" s="9">
+        <v>70</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="D72" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>a modeling language for measurement uncertainty evaluation</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="F72" s="9">
+        <v>2009</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I72" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J72" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K72" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M72" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O72" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T72" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" s="9">
+        <v>71</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="D73" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>uncertainty-wise cyber-physical system test modeling</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="F73" s="9">
+        <v>2017</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I73" s="9" t="b">
         <v>1</v>
       </c>
       <c r="M73" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="S73" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T73" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74" s="9">
+        <v>72</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D74" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>understanding uncertainty in cyber-physical systems: a conceptual model</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="F74" s="9">
+        <v>2016</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I74" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J74" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K74" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M74" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O74" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P74" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R74" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S74" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T74" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
+        <v>73</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D75" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>international vocabulary of metrology – basic and general con- cepts and associated terms (vim)</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="F75" s="9">
+        <v>2008</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I75" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J75" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M75" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O75" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P75" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R75" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S75" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T75" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A76" s="18">
+        <v>74</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D76" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>the management of probabilistic data</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F76" s="9">
+        <v>1992</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="I76" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J76" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M76" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O76" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P76" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R76" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S76" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T76" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A77" s="18">
+        <v>75</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D77" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>uldbs: databases with uncertainty and lineage</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F77" s="9">
+        <v>2006</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I77" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J77" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M77" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O77" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P77" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R77" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S77" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T77" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A78" s="18">
+        <v>76</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D78" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>winning ways for your mathematical plays</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F78" s="9">
+        <v>2004</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I78" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J78" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M78" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N78" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O78" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P78" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R78" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S78" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T78" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A79" s="18">
+        <v>77</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D79" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>a type theory for probability density functions</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F79" s="9">
+        <v>2012</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I79" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J79" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M79" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N79" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O79" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P79" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R79" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S79" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T79" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A80" s="18">
+        <v>78</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D80" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>pattern recognition and machine learning</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F80" s="9">
+        <v>2006</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I80" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J80" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K80" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M80" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O80" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P80" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R80" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S80" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T80" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A81" s="18">
+        <v>79</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D81" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>measure transformer semantics for bayesian machine learning</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F81" s="9">
+        <v>2011</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I81" s="9" t="b">
         <v>1</v>
       </c>
       <c r="M81" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="S81" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T81" s="19" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A82" s="18">
+        <v>80</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D82" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>abstractions and techniques for programming with uncertain data</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I82" s="9" t="b">
         <v>1</v>
       </c>
       <c r="M82" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="S82" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T82" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A83" s="18">
+        <v>81</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D83" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>a note on the generation of random normal deviates</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F83" s="9">
+        <v>1958</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I83" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J83" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K83" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M83" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O83" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P83" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R83" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S83" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T83" s="19" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A84" s="18">
+        <v>82</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D84" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>verifying quantitative reliability of programs that execute on unreliable hardware</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="F84" s="9">
+        <v>2013</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I84" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J84" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K84" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M84" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O84" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P84" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R84" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S84" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T84" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A85" s="18">
+        <v>83</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D85" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>efficiently sampling probabilistic programs via program analysis</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F85" s="9">
+        <v>2013</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I85" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J85" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M85" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O85" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P85" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R85" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S85" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T85" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A86" s="18">
+        <v>84</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D86" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>management of probabilistic data: foundations and challenges</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F86" s="9">
+        <v>2007</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H86" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I86" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J86" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K86" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M86" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O86" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P86" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R86" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S86" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T86" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A87" s="18">
+        <v>85</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D87" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>neural acceleration for general-purpose approximate programs</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F87" s="9">
+        <v>2012</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H87" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I87" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J87" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K87" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M87" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O87" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P87" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R87" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S87" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T87" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A88" s="18">
+        <v>86</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D88" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>a language and program for complex bayesian modelling</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="F88" s="9">
+        <v>1994</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I88" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J88" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K88" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M88" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O88" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P88" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R88" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S88" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T88" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A89" s="18">
+        <v>87</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D89" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>a categorical approach to probability theory</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F89" s="9">
+        <v>1982</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I89" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J89" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K89" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M89" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O89" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P89" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R89" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S89" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T89" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A90" s="18">
+        <v>88</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D90" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>church: a language for generative models</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F90" s="9">
+        <v>2008</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H90" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I90" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J90" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K90" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M90" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O90" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P90" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R90" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S90" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T90" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A91" s="18">
+        <v>89</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D91" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>arithmetic operations on independent random variables: a numerical approach</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F91" s="9">
+        <v>2012</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H91" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I91" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J91" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K91" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M91" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O91" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P91" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R91" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S91" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T91" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A92" s="18">
+        <v>90</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D92" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>group sequential methods with applications to clinical trials</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F92" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I92" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J92" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K92" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M92" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O92" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P92" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R92" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S92" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T92" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A93" s="18">
+        <v>91</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D93" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>making it easier to build and maintain big-data analytics</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="F93" s="9">
+        <v>2013</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I93" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J93" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K93" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M93" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O93" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P93" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R93" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S93" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T93" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A94" s="18">
+        <v>92</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D94" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>interval analysis</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F94" s="9">
+        <v>1966</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I94" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J94" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K94" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M94" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O94" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P94" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R94" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S94" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T94" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A95" s="18">
+        <v>93</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D95" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>bayesian learning for neural networks</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F95" s="9">
+        <v>1994</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I95" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J95" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K95" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M95" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O95" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P95" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R95" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S95" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T95" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A96" s="18">
+        <v>94</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D96" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>hidden markov map matching through noise and sparseness</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F96" s="9">
+        <v>2009</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H96" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I96" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J96" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K96" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M96" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O96" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P96" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R96" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S96" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T96" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A97" s="18">
+        <v>95</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D97" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>probability, random variables, and stochastic processes</v>
+      </c>
+      <c r="F97" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H97" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I97" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J97" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K97" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M97" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O97" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P97" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R97" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S97" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T97" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A98" s="18">
+        <v>96</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D98" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>a probabilistic language based on sampling functions</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F98" s="9">
+        <v>2005</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H98" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I98" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J98" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K98" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L98" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M98" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O98" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P98" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R98" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S98" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T98" s="19" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A99" s="18">
+        <v>97</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D99" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>ibal: a probabilistic rational programming language</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="F99" s="9">
+        <v>2001</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H99" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I99" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J99" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M99" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O99" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P99" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R99" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S99" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T99" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A100" s="18">
+        <v>98</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D100" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>stochastic lambda calculus and monads of probability distributions</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F100" s="9">
+        <v>2002</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H100" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I100" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J100" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K100" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M100" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O100" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P100" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R100" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S100" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T100" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A101" s="18">
+        <v>99</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D101" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>enerj: approximate data types for safe and general low-power computation</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F101" s="9">
+        <v>2011</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H101" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I101" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J101" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K101" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M101" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O101" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P101" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R101" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S101" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T101" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A102" s="18">
+        <v>100</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D102" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>static analysis for probabilistic programs: inferring whole program properties from finitely many paths</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F102" s="9">
+        <v>2013</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H102" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I102" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J102" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K102" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M102" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N102" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O102" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P102" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R102" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S102" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T102" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A103" s="18">
+        <v>101</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D103" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>monte carlo methods for managing interactive state, action and feedback under uncertainty</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F103" s="9">
+        <v>2011</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H103" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I103" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J103" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K103" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M103" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T103" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A104" s="18">
+        <v>102</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D104" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>global positioning system: the mathematics of gps receivers</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F104" s="9">
+        <v>1998</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I104" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J104" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K104" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M104" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N104" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O104" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P104" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R104" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S104" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T104" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A105" s="18">
+        <v>103</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D105" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>towards programming tools for robots that integrate probabilistic computation and learning</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F105" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H105" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I105" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J105" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K105" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M105" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N105" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O105" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P105" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R105" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S105" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T105" s="19" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A106" s="18">
+        <v>104</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D106" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>on the glivenko-cantelli theorem</v>
+      </c>
+      <c r="F106" s="9">
+        <v>1970</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I106" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J106" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K106" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M106" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N106" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O106" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P106" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R106" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S106" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T106" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A107" s="18">
+        <v>105</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D107" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>sequential tests of statistical hypotheses</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F107" s="9">
+        <v>1945</v>
+      </c>
+      <c r="H107" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="I107" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J107" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K107" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M107" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N107" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O107" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P107" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R107" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S107" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T107" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A108" s="19">
+        <v>106</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D108" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>identifying the optimal integration time in hamiltonian monte carlo</v>
+      </c>
+      <c r="F108" s="9">
+        <v>2016</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="I108" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J108" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K108" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M108" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N108" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O108" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P108" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R108" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S108" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T108" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A109" s="19">
+        <v>107</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D109" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>the stan math library: reverse-mode automatic differentiation in c++</v>
+      </c>
+      <c r="F109" s="9">
+        <v>2015</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H109" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I109" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J109" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K109" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M109" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N109" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O109" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P109" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R109" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S109" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T109" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A110" s="19">
+        <v>108</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D110" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>pro git</v>
+      </c>
+      <c r="F110" s="9">
+        <v>2009</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I110" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J110" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K110" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M110" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N110" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O110" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P110" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R110" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S110" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T110" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A111" s="19">
+        <v>109</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D111" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>cvode, a stiff/nonstiff ode solver in c</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F111" s="9">
+        <v>1996</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H111" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I111" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J111" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K111" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M111" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N111" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O111" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P111" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R111" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S111" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T111" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A112" s="19">
+        <v>110</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D112" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>a successful git branching model</v>
+      </c>
+      <c r="F112" s="9">
+        <v>2010</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H112" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I112" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J112" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K112" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M112" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N112" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O112" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P112" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R112" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S112" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T112" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A113" s="19">
+        <v>111</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D113" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>hybrid monte carlo</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F113" s="9">
+        <v>1987</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H113" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I113" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J113" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K113" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M113" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N113" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O113" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P113" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R113" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S113" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T113" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A114" s="19">
+        <v>112</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D114" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>large-scale inference: empirical bayes methods for estimation, testing, and prediction</v>
+      </c>
+      <c r="F114" s="9">
+        <v>2010</v>
+      </c>
+      <c r="H114" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I114" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J114" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K114" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M114" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N114" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O114" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P114" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R114" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S114" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T114" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A115" s="19">
+        <v>113</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D115" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>bayesian data analysis</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F115" s="9">
+        <v>2013</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H115" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I115" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J115" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K115" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M115" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N115" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O115" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P115" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R115" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S115" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T115" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A116" s="19">
+        <v>114</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D116" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>why we (usually) don’t have to worry about multiple comparisons</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F116" s="9">
+        <v>2012</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H116" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I116" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J116" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K116" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M116" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T116" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A117" s="19">
+        <v>115</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D117" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>inference from iterative simulation using multiple sequences</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F117" s="9">
+        <v>1992</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H117" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I117" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J117" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M117" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N117" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O117" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P117" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R117" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S117" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T117" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A118" s="19">
+        <v>116</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D118" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>introduction to markov chain monte carlo</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F118" s="9">
+        <v>2011</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H118" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I118" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J118" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K118" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M118" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N118" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O118" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P118" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R118" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S118" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T118" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A119" s="19">
+        <v>117</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D119" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>googletest: google c++ testing framework</v>
+      </c>
+      <c r="F119" s="9">
+        <v>2016</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H119" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I119" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J119" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K119" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M119" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N119" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O119" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P119" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R119" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S119" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T119" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A120" s="19">
+        <v>118</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D120" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>eigen, version 3</v>
+      </c>
+      <c r="F120" s="9">
+        <v>2010</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H120" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I120" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J120" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K120" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M120" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N120" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O120" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P120" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R120" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S120" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T120" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A121" s="19">
+        <v>119</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D121" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>sundials: suite of nonlinear and differential/algebraic equation solvers</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F121" s="9">
+        <v>2005</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I121" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J121" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K121" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M121" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N121" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O121" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P121" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R121" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S121" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T121" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A122" s="19">
+        <v>120</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D122" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>the no-u-turn sampler: adaptively setting path lengths in hamiltonian monte carlo</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F122" s="9">
+        <v>2014</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I122" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J122" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K122" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M122" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N122" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O122" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P122" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R122" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S122" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T122" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A123" s="19">
+        <v>121</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D123" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>the bugs book – a practical introduction to bayesian analysis</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F123" s="9">
+        <v>2012</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H123" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I123" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J123" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K123" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M123" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N123" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O123" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P123" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R123" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S123" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T123" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A124" s="19">
+        <v>122</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D124" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>the bugs project: evolution, critique, and future directions</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F124" s="9">
+        <v>2009</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H124" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I124" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J124" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K124" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M124" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O124" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T124" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A125" s="19">
+        <v>123</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D125" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>winbugs – a bayesian modelling framework: concepts, structure, and extensibility</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F125" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H125" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I125" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J125" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M125" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N125" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O125" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P125" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R125" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S125" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T125" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A126" s="19">
+        <v>124</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D126" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>equation of state calculations by fast computing machines</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F126" s="9">
+        <v>1953</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H126" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I126" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J126" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K126" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M126" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N126" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O126" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P126" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R126" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S126" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T126" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A127" s="19">
+        <v>125</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D127" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>the latex companion. tools and techniques for computer typesetting</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F127" s="9">
+        <v>2004</v>
+      </c>
+      <c r="G127" s="13"/>
+      <c r="H127" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I127" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J127" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K127" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M127" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N127" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O127" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P127" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R127" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S127" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T127" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A128" s="19">
+        <v>126</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D128" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>mcmc using hamiltonian dynamics.</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F128" s="9">
+        <v>2011</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H128" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I128" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J128" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K128" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M128" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N128" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O128" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P128" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R128" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S128" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T128" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A129" s="19">
+        <v>127</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D129" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>an improved acceptance procedure for the hybrid monte carlo algo- rithm</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F129" s="9">
+        <v>1994</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H129" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I129" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J129" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K129" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M129" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N129" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O129" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P129" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R129" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S129" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T129" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A130" s="19">
+        <v>128</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D130" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>slice sampling</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F130" s="9">
+        <v>2003</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I130" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J130" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K130" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M130" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N130" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O130" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P130" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R130" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S130" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T130" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A131" s="19">
+        <v>129</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D131" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>numerical optimization</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F131" s="9">
+        <v>2006</v>
+      </c>
+      <c r="H131" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I131" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J131" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M131" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N131" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O131" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P131" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R131" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S131" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T131" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A132" s="19">
+        <v>130</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D132" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>jags: a program for analysis of bayesian graphical models using gibbs sampling</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F132" s="9">
+        <v>2003</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I132" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J132" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M132" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N132" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O132" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P132" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R132" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S132" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T132" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A133" s="19">
+        <v>131</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D133" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>code: convergence diagnosis and out- put analysis for mcmc</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F133" s="9">
+        <v>2006</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H133" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I133" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J133" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M133" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N133" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O133" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P133" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R133" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S133" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T133" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A134" s="19">
+        <v>132</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D134" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>r: a language and environment for statistical computing</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F134" s="9">
+        <v>2016</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H134" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I134" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J134" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K134" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M134" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N134" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O134" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P134" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R134" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S134" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T134" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A135" s="19">
+        <v>133</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D135" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>the boost c++ libraries</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F135" s="9">
+        <v>2011</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H135" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I135" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J135" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K135" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M135" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N135" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O135" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P135" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R135" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S135" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T135" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A136" s="19">
+        <v>134</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D136" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>jenkins: the definitive guide</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F136" s="9">
+        <v>2011</v>
+      </c>
+      <c r="G136" s="13" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H136" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I136" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J136" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K136" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M136" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N136" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O136" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P136" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R136" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S136" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T136" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A137" s="19">
+        <v>135</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D137" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>stan modeling language user’s guide and reference manual</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F137" s="9">
+        <v>2016</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H137" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I137" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J137" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K137" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="M137" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N137" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O137" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P137" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R137" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S137" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T137" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A138" s="19">
+        <v>136</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D138" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>doxygen: generate documentation from source code</v>
+      </c>
+      <c r="F138" s="9">
+        <v>2016</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H138" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I138" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J138" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K138" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M138" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N138" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O138" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P138" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R138" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S138" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T138" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A139" s="19">
+        <v>137</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D139" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>python programming language</v>
+      </c>
+      <c r="F139" s="9">
+        <v>2016</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H139" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="I139" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="J139" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K139" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="M139" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="N139" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O139" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P139" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R139" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S139" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T139" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I140" s="9" t="b">
         <v>1</v>
       </c>
@@ -27292,7 +33395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I141" s="9" t="b">
         <v>1</v>
       </c>
@@ -27300,7 +33403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I142" s="9" t="b">
         <v>1</v>
       </c>
@@ -27308,7 +33411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I143" s="9" t="b">
         <v>1</v>
       </c>
@@ -27316,7 +33419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I144" s="9" t="b">
         <v>1</v>
       </c>
@@ -28139,58 +34242,48 @@
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Y1:Z1"/>
   </mergeCells>
-  <conditionalFormatting sqref="Y1:Z2">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+  <conditionalFormatting sqref="Y1:Z1048576">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D43">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>SUMPRODUCT(--EXACT($D$3:$D$43,$D3))&gt;1</formula>
+  <conditionalFormatting sqref="C3:D107">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>SUMPRODUCT(--EXACT($D$3:$D$107,$D3))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:L14 J18:L43">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+  <conditionalFormatting sqref="J1:L1048576">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:S14 N18:S43">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+  <conditionalFormatting sqref="N1:R1048576">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T43">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="T1:T1048576">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:L15">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N15:S15">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16:L16">
+  <conditionalFormatting sqref="N16:S16">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16:S16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:L17">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>FALSE</formula>
+  <conditionalFormatting sqref="N17:S17">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:S17">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="S1:S1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28235,6 +34328,91 @@
     <hyperlink ref="G41" r:id="rId38" xr:uid="{0C2FA369-4394-3149-9C00-A278006443FA}"/>
     <hyperlink ref="G42" r:id="rId39" xr:uid="{6B333994-4C98-C944-ACBD-C3950019ADD2}"/>
     <hyperlink ref="G43" r:id="rId40" xr:uid="{64407681-0CF8-DC46-A81E-DFF54009181A}"/>
+    <hyperlink ref="G44" r:id="rId41" xr:uid="{1E9295CD-3635-B043-BF37-B4BD6906319E}"/>
+    <hyperlink ref="G45" r:id="rId42" xr:uid="{E79BCBDC-38FF-C34D-BC4D-99E147525F0D}"/>
+    <hyperlink ref="G46" r:id="rId43" xr:uid="{B7CAD868-1655-1E46-9F31-55903E9467E1}"/>
+    <hyperlink ref="G47" r:id="rId44" xr:uid="{61738DE2-191A-874E-9499-D56640FD1FD5}"/>
+    <hyperlink ref="G48" r:id="rId45" xr:uid="{066882AA-447B-2D46-A6FE-6EC272F1F9A1}"/>
+    <hyperlink ref="G49" r:id="rId46" xr:uid="{3B0F16B5-E170-0643-BEE0-B23585AB9BB3}"/>
+    <hyperlink ref="G51" r:id="rId47" xr:uid="{2629BE45-8827-F14A-AA64-9242A9655575}"/>
+    <hyperlink ref="G52" r:id="rId48" xr:uid="{68BA26B6-772B-B44F-830E-0307B1EEDA35}"/>
+    <hyperlink ref="G53" r:id="rId49" xr:uid="{2459E63D-4082-914A-AF9E-8DB867DE7897}"/>
+    <hyperlink ref="G54" r:id="rId50" xr:uid="{CD3EED90-02D1-A649-9A90-96DE2DD547EA}"/>
+    <hyperlink ref="G56" r:id="rId51" xr:uid="{DB7AB711-BD25-1D4A-87E2-465E86C9383C}"/>
+    <hyperlink ref="G57" r:id="rId52" xr:uid="{DCAA1962-79CD-0845-A012-63452E233DEF}"/>
+    <hyperlink ref="G58" r:id="rId53" xr:uid="{D8794AB7-B3A5-1042-84C4-BE6B498FAC11}"/>
+    <hyperlink ref="G59" r:id="rId54" xr:uid="{2DA2603F-ADB8-5E49-85F1-B183D7321294}"/>
+    <hyperlink ref="G60" r:id="rId55" xr:uid="{3A8DF3DC-AC41-2B44-88E1-B8A8417B56A4}"/>
+    <hyperlink ref="G61" r:id="rId56" xr:uid="{874D5829-6036-8942-9988-2E169B98636E}"/>
+    <hyperlink ref="G62" r:id="rId57" xr:uid="{8557A250-27B7-3841-A968-7551A303A865}"/>
+    <hyperlink ref="G63" r:id="rId58" xr:uid="{AF1B5D2B-B734-314E-BF11-FF5F70DF9819}"/>
+    <hyperlink ref="G64" r:id="rId59" xr:uid="{7625DF84-7DC9-454D-A92E-AC98FE71945E}"/>
+    <hyperlink ref="G65" r:id="rId60" xr:uid="{25E596FA-3D1B-1C49-90B9-4F4EB289051A}"/>
+    <hyperlink ref="G66" r:id="rId61" xr:uid="{DFFB2FED-DD72-9F48-B806-3DF5ACB746C8}"/>
+    <hyperlink ref="G67" r:id="rId62" xr:uid="{7D2C4A71-203F-3D41-BA24-4B0B4663EE69}"/>
+    <hyperlink ref="G68" r:id="rId63" xr:uid="{C54D9AE8-B58E-AC49-A72F-9A392F28D653}"/>
+    <hyperlink ref="G69" r:id="rId64" xr:uid="{239BEBF0-9EE5-A24A-B87F-CE9667B6F615}"/>
+    <hyperlink ref="G71" r:id="rId65" xr:uid="{4B06A532-3F7F-0A4F-8ED8-011022732F2F}"/>
+    <hyperlink ref="G72" r:id="rId66" xr:uid="{D02E06F7-CDB0-F544-AC2E-E57089EB0A14}"/>
+    <hyperlink ref="G74" r:id="rId67" xr:uid="{AEEBFEDC-5AB4-F643-B0F4-CE1EAC7FED79}"/>
+    <hyperlink ref="G75" r:id="rId68" xr:uid="{F51B82FE-93E6-2E49-B28A-845B3F7206CF}"/>
+    <hyperlink ref="G76" r:id="rId69" xr:uid="{DB9C5718-1622-A741-A50E-B88C17A9DDB5}"/>
+    <hyperlink ref="G77" r:id="rId70" xr:uid="{D382706A-3B51-834C-98E7-89589AED44CA}"/>
+    <hyperlink ref="G78" r:id="rId71" xr:uid="{AF5B584A-E07A-4045-94D4-5C25E8D7E325}"/>
+    <hyperlink ref="G79" r:id="rId72" xr:uid="{E42305CE-0F9C-F247-8335-85DA5E49E461}"/>
+    <hyperlink ref="G80" r:id="rId73" xr:uid="{98290C72-D31A-9E45-A96B-C0B642D188A5}"/>
+    <hyperlink ref="G83" r:id="rId74" xr:uid="{C7B76CBC-9F98-084B-95C3-3851D57A21AF}"/>
+    <hyperlink ref="G84" r:id="rId75" xr:uid="{DF6D7447-FFCD-E344-98A1-8CBBDD5F2931}"/>
+    <hyperlink ref="G85" r:id="rId76" xr:uid="{3C0DBB9A-739D-7B49-9C67-C3EE69CCA20E}"/>
+    <hyperlink ref="G86" r:id="rId77" xr:uid="{2804AB92-12CA-4641-9881-A1B6545D5555}"/>
+    <hyperlink ref="G87" r:id="rId78" xr:uid="{800875D6-8771-C34C-9CB2-26E3FB6FA5AB}"/>
+    <hyperlink ref="G88" r:id="rId79" xr:uid="{113161FD-05A1-3042-B356-114FDCE54F0B}"/>
+    <hyperlink ref="G89" r:id="rId80" xr:uid="{C45D021A-A18C-DF46-9C66-DDBB611A39CF}"/>
+    <hyperlink ref="G90" r:id="rId81" xr:uid="{9C56A5A9-437E-4C45-85DF-AC1495AA7602}"/>
+    <hyperlink ref="G91" r:id="rId82" xr:uid="{C6693A3C-8920-0047-9D93-26ADF59AD4F8}"/>
+    <hyperlink ref="G92" r:id="rId83" xr:uid="{B7FBE0A0-8DC6-3C43-B458-5F44591A482B}"/>
+    <hyperlink ref="G93" r:id="rId84" xr:uid="{7C92B45C-1092-494A-8E36-C40EA134678F}"/>
+    <hyperlink ref="G94" r:id="rId85" xr:uid="{993B3B5B-2C35-2549-A6A9-C6F2C854E707}"/>
+    <hyperlink ref="G95" r:id="rId86" xr:uid="{EA1A41B3-8662-4D4B-88CC-62A1D36829C9}"/>
+    <hyperlink ref="G96" r:id="rId87" xr:uid="{16B991A0-C059-6845-AA53-658198E4E24B}"/>
+    <hyperlink ref="G98" r:id="rId88" xr:uid="{CC358D62-1C55-BD45-A4FF-28FB9FFA25A1}"/>
+    <hyperlink ref="G99" r:id="rId89" xr:uid="{6DD97172-047F-7E45-810A-3B5EAF15FC22}"/>
+    <hyperlink ref="G100" r:id="rId90" xr:uid="{7131D243-FA4A-8E4C-8E61-DF2BE03339BF}"/>
+    <hyperlink ref="G101" r:id="rId91" xr:uid="{25BE91A2-4E90-A242-862A-7786CE4B76EE}"/>
+    <hyperlink ref="G102" r:id="rId92" xr:uid="{72DAA2BE-97FD-884D-B7E1-CD3904879530}"/>
+    <hyperlink ref="G103" r:id="rId93" xr:uid="{8D78861E-18A3-7B49-BFEA-9E60E7FE0BD4}"/>
+    <hyperlink ref="G104" r:id="rId94" xr:uid="{7E03A471-CBA0-0544-84D1-9C12605FC6BC}"/>
+    <hyperlink ref="G105" r:id="rId95" xr:uid="{FDDCF49F-4157-4B41-ABFF-654A4AD53D96}"/>
+    <hyperlink ref="G106" r:id="rId96" xr:uid="{CA5CBD69-1179-4940-9DDE-28778E0A09CA}"/>
+    <hyperlink ref="G108" r:id="rId97" xr:uid="{B8C9ED28-204B-6540-8A30-61BEF1725B75}"/>
+    <hyperlink ref="G109" r:id="rId98" xr:uid="{F206C3F7-DF62-3344-9667-D6BA96571F5E}"/>
+    <hyperlink ref="G110" r:id="rId99" xr:uid="{984A8874-F9F1-0D41-982A-234C763C6DCC}"/>
+    <hyperlink ref="G111" r:id="rId100" xr:uid="{3D0BE1D0-C06B-914F-B6D1-A5A832A43980}"/>
+    <hyperlink ref="G112" r:id="rId101" xr:uid="{19B34379-6F5C-F94E-97A0-675E016953DA}"/>
+    <hyperlink ref="G113" r:id="rId102" xr:uid="{94F41BE3-587C-E24C-BDB3-17A14EA5ED8B}"/>
+    <hyperlink ref="G115" r:id="rId103" xr:uid="{34AB7AD8-8AC1-6446-A51B-0C64FC8F5933}"/>
+    <hyperlink ref="G116" r:id="rId104" xr:uid="{8EA062E6-84AA-374E-9221-8BF4BA8C02E0}"/>
+    <hyperlink ref="G117" r:id="rId105" xr:uid="{5C5D5860-B042-8E4D-81BB-028DF9E449CB}"/>
+    <hyperlink ref="G118" r:id="rId106" xr:uid="{0D6AA9FF-4E79-3D41-AE61-5C40C417A1F8}"/>
+    <hyperlink ref="G119" r:id="rId107" xr:uid="{90AD4851-D669-2044-952F-98B1B55108F9}"/>
+    <hyperlink ref="G120" r:id="rId108" xr:uid="{5A69BF93-8668-E443-AD75-7A33445087C3}"/>
+    <hyperlink ref="G121" r:id="rId109" xr:uid="{EFE1A2C5-021B-6049-A250-05E6F63C52C3}"/>
+    <hyperlink ref="G122" r:id="rId110" xr:uid="{24C931AF-BAEB-2241-9FA4-17F7B8C9A19F}"/>
+    <hyperlink ref="G123" r:id="rId111" xr:uid="{281E3ACB-E159-3D4F-87AA-8073081834F1}"/>
+    <hyperlink ref="G124" r:id="rId112" xr:uid="{3383DC73-5F38-0E44-88CE-3B57EA537CF6}"/>
+    <hyperlink ref="G125" r:id="rId113" xr:uid="{E422E13D-49A1-3D4C-8C0A-A6F211131D1D}"/>
+    <hyperlink ref="G126" r:id="rId114" xr:uid="{0E447E8F-0BB6-914F-9D76-3AEBE153992B}"/>
+    <hyperlink ref="G128" r:id="rId115" xr:uid="{5F1A6D92-B8FA-AC45-AE59-2C0F0EFC5F02}"/>
+    <hyperlink ref="G129" r:id="rId116" xr:uid="{54A75DB4-D70A-CE41-BB5C-1EA9683BFA6F}"/>
+    <hyperlink ref="G130" r:id="rId117" xr:uid="{6E918693-D0A8-B24E-9F60-43239843904B}"/>
+    <hyperlink ref="G132" r:id="rId118" xr:uid="{B8258140-4780-7648-A456-D1735BD88D4D}"/>
+    <hyperlink ref="G133" r:id="rId119" xr:uid="{BDA8B38F-4D3C-D64A-B340-2904A98CA278}"/>
+    <hyperlink ref="G134" r:id="rId120" xr:uid="{FA6EAFBF-CF11-FA4B-96CF-03C1DCA02114}"/>
+    <hyperlink ref="G135" r:id="rId121" xr:uid="{339F8D5B-251A-E64B-BF8E-A48C4B97A00D}"/>
+    <hyperlink ref="G136" r:id="rId122" xr:uid="{3732CE2F-2143-BF42-8B2F-BCA4182137E1}"/>
+    <hyperlink ref="G137" r:id="rId123" xr:uid="{61A09EA5-8742-5944-9E42-40140FBB034F}"/>
+    <hyperlink ref="G138" r:id="rId124" xr:uid="{0CF359C0-819F-BE41-9687-5225B7BCC5E4}"/>
+    <hyperlink ref="G139" r:id="rId125" xr:uid="{07EEDED8-4863-604E-93D9-772BD2AE3D19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28245,7 +34423,7 @@
   <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28271,12 +34449,12 @@
         <v>440</v>
       </c>
       <c r="C5">
-        <f>COUNTIF(Uncertainty!T3:T43,"TRUE")-COUNTA(Uncertainty!U3:U43)</f>
-        <v>17</v>
+        <f>COUNTIF(Uncertainty!T3:T107,"TRUE")-COUNTA(Uncertainty!U3:U107)</f>
+        <v>39</v>
       </c>
       <c r="D5">
-        <f>COUNTIF(Uncertainty!T3:T43,"TRUE")</f>
-        <v>17</v>
+        <f>COUNTIF(Uncertainty!T3:T107,"TRUE")</f>
+        <v>39</v>
       </c>
       <c r="E5" s="14">
         <f>C5/D5</f>
@@ -28308,7 +34486,7 @@
       </c>
       <c r="C10">
         <f>COUNTIF(Uncertainty!Y:Y,"NO")</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <f>COUNTA(Uncertainty!Y:Y)-2</f>
@@ -28316,7 +34494,7 @@
       </c>
       <c r="E10" s="14">
         <f>C10/D10</f>
-        <v>1</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -28338,7 +34516,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5 D10:D11">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(AND($D$5=$D$10,$D$5=$D$11))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAAD5B2-CDC4-AE41-AFFD-260081CDDAA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEC5FAC-7B21-E640-BFE0-3843F2506040}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" activeTab="3" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="1364">
   <si>
     <t>Author</t>
   </si>
@@ -2712,9 +2712,6 @@
     <t>http://dx.doi.org/10.1109/RE.2009.36</t>
   </si>
   <si>
-    <t>RELAX: a language to address uncertainty in self- adaptive systems requirement</t>
-  </si>
-  <si>
     <t>http://dx.doi.org/10.1007/s00766-010-0101-0</t>
   </si>
   <si>
@@ -2932,9 +2929,6 @@
   </si>
   <si>
     <t>Littlewood, B., Neil, M., Ostrolenk, G.</t>
-  </si>
-  <si>
-    <t>The role of models in managing the un- certainty of software-intensive systems</t>
   </si>
   <si>
     <t>RESS</t>
@@ -4150,6 +4144,9 @@
   </si>
   <si>
     <t>M. Gogolla, F. Büttner, and M. Richters</t>
+  </si>
+  <si>
+    <t>RELAX: a language to address uncertainty in self-adaptive systems requirement</t>
   </si>
 </sst>
 </file>
@@ -25084,10 +25081,10 @@
   <dimension ref="A1:Z245"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="L180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B213" sqref="B213"/>
+      <selection pane="bottomRight" activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26813,7 +26810,7 @@
         <v>845</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D27" s="9" t="str">
         <f t="shared" si="0"/>
@@ -27596,7 +27593,7 @@
         <v>890</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D39" s="9" t="str">
         <f t="shared" si="0"/>
@@ -27666,11 +27663,11 @@
         <v>890</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>892</v>
+        <v>1363</v>
       </c>
       <c r="D40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>relax: a language to address uncertainty in self- adaptive systems requirement</v>
+        <v>relax: a language to address uncertainty in self-adaptive systems requirement</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>119</v>
@@ -27679,7 +27676,7 @@
         <v>2010</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>17</v>
@@ -27733,10 +27730,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>894</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>895</v>
       </c>
       <c r="D41" s="9" t="str">
         <f t="shared" si="0"/>
@@ -27749,7 +27746,7 @@
         <v>1988</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>17</v>
@@ -27797,23 +27794,23 @@
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>897</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>898</v>
       </c>
       <c r="D42" s="9" t="str">
         <f t="shared" si="0"/>
         <v>fuzzy sets</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F42" s="9">
         <v>1996</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>17</v>
@@ -27861,10 +27858,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>901</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>902</v>
       </c>
       <c r="D43" s="9" t="str">
         <f t="shared" si="0"/>
@@ -27877,7 +27874,7 @@
         <v>2017</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>17</v>
@@ -27931,23 +27928,23 @@
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>905</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>906</v>
       </c>
       <c r="D44" s="9" t="str">
         <f t="shared" si="0"/>
         <v>inheritance and subtyping in a parallel object-oriented language</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F44" s="9">
         <v>1987</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>229</v>
@@ -27995,23 +27992,23 @@
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>909</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>910</v>
       </c>
       <c r="D45" s="9" t="str">
         <f t="shared" si="0"/>
         <v>uncertain ocl datatypes</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F45" s="9">
         <v>2018</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>229</v>
@@ -28059,23 +28056,23 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>913</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>914</v>
       </c>
       <c r="D46" s="9" t="str">
         <f t="shared" si="0"/>
         <v>challenges in modeling cyber-physical systems</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F46" s="9">
         <v>2013</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>229</v>
@@ -28123,23 +28120,23 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>917</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>918</v>
       </c>
       <c r="D47" s="9" t="str">
         <f t="shared" si="0"/>
         <v>on ocl-based imperative languages</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F47" s="9">
         <v>2014</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>229</v>
@@ -28187,10 +28184,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>921</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>922</v>
       </c>
       <c r="D48" s="9" t="str">
         <f t="shared" si="0"/>
@@ -28203,7 +28200,7 @@
         <v>2015</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H48" s="18" t="s">
         <v>229</v>
@@ -28257,10 +28254,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>924</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>925</v>
       </c>
       <c r="D49" s="9" t="str">
         <f t="shared" si="0"/>
@@ -28273,7 +28270,7 @@
         <v>2013</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H49" s="18" t="s">
         <v>229</v>
@@ -28327,7 +28324,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>800</v>
@@ -28364,23 +28361,23 @@
         <v>49</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>928</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>929</v>
       </c>
       <c r="D51" s="9" t="str">
         <f t="shared" si="0"/>
         <v>software engineering in an uncertain world</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F51" s="9">
         <v>2010</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H51" s="18" t="s">
         <v>229</v>
@@ -28428,23 +28425,23 @@
         <v>50</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>931</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>932</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>933</v>
       </c>
       <c r="D52" s="9" t="str">
         <f t="shared" si="0"/>
         <v>use: a uml-based specification environment for validating uml and ocl</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F52" s="9">
         <v>2007</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H52" s="18" t="s">
         <v>229</v>
@@ -28492,23 +28489,23 @@
         <v>51</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>935</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>936</v>
       </c>
       <c r="D53" s="9" t="str">
         <f t="shared" si="0"/>
         <v>model validation and verification options in a contemporary uml and ocl analysis tool</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F53" s="9">
         <v>2016</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H53" s="18" t="s">
         <v>229</v>
@@ -28556,23 +28553,23 @@
         <v>52</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>939</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>940</v>
       </c>
       <c r="D54" s="9" t="str">
         <f t="shared" si="0"/>
         <v>component interfaces that support measurement uncertainty</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F54" s="9">
         <v>2006</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H54" s="18" t="s">
         <v>229</v>
@@ -28626,10 +28623,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D55" s="9" t="str">
         <f t="shared" si="0"/>
@@ -28657,10 +28654,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>946</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>947</v>
       </c>
       <c r="D56" s="9" t="str">
         <f t="shared" si="0"/>
@@ -28673,7 +28670,7 @@
         <v>2008</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H56" s="18" t="s">
         <v>229</v>
@@ -28721,23 +28718,23 @@
         <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>949</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>950</v>
       </c>
       <c r="D57" s="9" t="str">
         <f t="shared" si="0"/>
         <v>generating optimized configurable business process models in scenarios subject to uncertainty</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F57" s="9">
         <v>2015</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H57" s="18" t="s">
         <v>229</v>
@@ -28791,23 +28788,23 @@
         <v>56</v>
       </c>
       <c r="B58" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>953</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>954</v>
       </c>
       <c r="D58" s="9" t="str">
         <f t="shared" si="0"/>
         <v>fuzziness vs. probability</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F58" s="9">
         <v>1990</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>229</v>
@@ -28861,23 +28858,23 @@
         <v>57</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>957</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>958</v>
       </c>
       <c r="D59" s="9" t="str">
         <f t="shared" si="0"/>
         <v>cyber physical systems: design challenges</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F59" s="9">
         <v>2008</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H59" s="18" t="s">
         <v>229</v>
@@ -28925,23 +28922,23 @@
         <v>58</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>961</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>962</v>
       </c>
       <c r="D60" s="9" t="str">
         <f t="shared" si="0"/>
         <v>a behavioral notion of subtyping</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F60" s="9">
         <v>1994</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H60" s="18" t="s">
         <v>229</v>
@@ -28989,23 +28986,23 @@
         <v>59</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>966</v>
+        <v>1355</v>
       </c>
       <c r="D61" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>the role of models in managing the un- certainty of software-intensive systems</v>
+        <v>the role of models in managing the uncertainty of software-intensive systems</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F61" s="9">
         <v>1995</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H61" s="18" t="s">
         <v>229</v>
@@ -29059,23 +29056,23 @@
         <v>60</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D62" s="9" t="str">
         <f t="shared" si="0"/>
         <v>specifying quantities in software models</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F62" s="9">
         <v>2018</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H62" s="18" t="s">
         <v>229</v>
@@ -29105,23 +29102,23 @@
         <v>61</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D63" s="9" t="str">
         <f t="shared" si="0"/>
         <v>object constraint language (ocl) specification</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F63" s="9">
         <v>2010</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H63" s="18" t="s">
         <v>229</v>
@@ -29169,23 +29166,23 @@
         <v>62</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D64" s="9" t="str">
         <f t="shared" si="0"/>
         <v>uml profile for marte: modeling and analysis of real-time embedded systems</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F64" s="9">
         <v>2011</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H64" s="18" t="s">
         <v>229</v>
@@ -29233,23 +29230,23 @@
         <v>63</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D65" s="9" t="str">
         <f t="shared" si="0"/>
         <v>unified modeling language (uml) specification</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F65" s="9">
         <v>2015</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>229</v>
@@ -29297,23 +29294,23 @@
         <v>64</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D66" s="9" t="str">
         <f t="shared" si="0"/>
         <v>omg systems modeling language (sysml)</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F66" s="9">
         <v>2016</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>229</v>
@@ -29361,23 +29358,23 @@
         <v>65</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D67" s="9" t="str">
         <f t="shared" si="0"/>
         <v>structured metrics metamodel (smm) specification</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F67" s="9">
         <v>2016</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>229</v>
@@ -29425,10 +29422,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D68" s="9" t="str">
         <f t="shared" ref="D68:D140" si="3">TRIM(LOWER(C68))</f>
@@ -29441,7 +29438,7 @@
         <v>2013</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H68" s="18" t="s">
         <v>229</v>
@@ -29495,23 +29492,23 @@
         <v>67</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D69" s="9" t="str">
         <f t="shared" si="3"/>
         <v>beyond mere logic – a vision of modeling languages for the 21st century</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F69" s="9">
         <v>2015</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H69" s="18" t="s">
         <v>229</v>
@@ -29559,7 +29556,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>879</v>
@@ -29590,23 +29587,23 @@
         <v>69</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D71" s="9" t="str">
         <f t="shared" si="3"/>
         <v>list of uncertainty propagation software</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F71" s="9">
         <v>2018</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H71" s="18" t="s">
         <v>229</v>
@@ -29654,23 +29651,23 @@
         <v>70</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D72" s="9" t="str">
         <f t="shared" si="3"/>
         <v>a modeling language for measurement uncertainty evaluation</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F72" s="9">
         <v>2009</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H72" s="18" t="s">
         <v>229</v>
@@ -29718,10 +29715,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D73" s="9" t="str">
         <f t="shared" si="3"/>
@@ -29755,10 +29752,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D74" s="9" t="str">
         <f t="shared" si="3"/>
@@ -29771,7 +29768,7 @@
         <v>2016</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H74" s="18" t="s">
         <v>229</v>
@@ -29825,10 +29822,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D75" s="9" t="str">
         <f t="shared" si="3"/>
@@ -29841,7 +29838,7 @@
         <v>2008</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H75" s="18" t="s">
         <v>229</v>
@@ -29889,23 +29886,23 @@
         <v>74</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D76" s="18" t="str">
         <f t="shared" si="3"/>
         <v>the management of probabilistic data</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F76" s="9">
         <v>1992</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>229</v>
@@ -29959,23 +29956,23 @@
         <v>75</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D77" s="18" t="str">
         <f t="shared" si="3"/>
         <v>uldbs: databases with uncertainty and lineage</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F77" s="9">
         <v>2006</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="H77" s="18" t="s">
         <v>229</v>
@@ -30029,23 +30026,23 @@
         <v>76</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D78" s="18" t="str">
         <f t="shared" si="3"/>
         <v>winning ways for your mathematical plays</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F78" s="9">
         <v>2004</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="H78" s="18" t="s">
         <v>229</v>
@@ -30093,23 +30090,23 @@
         <v>77</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D79" s="18" t="str">
         <f t="shared" si="3"/>
         <v>a type theory for probability density functions</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F79" s="9">
         <v>2012</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="H79" s="18" t="s">
         <v>229</v>
@@ -30163,10 +30160,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D80" s="18" t="str">
         <f t="shared" si="3"/>
@@ -30179,7 +30176,7 @@
         <v>2006</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="H80" s="18" t="s">
         <v>229</v>
@@ -30227,17 +30224,17 @@
         <v>79</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D81" s="18" t="str">
         <f t="shared" si="3"/>
         <v>measure transformer semantics for bayesian machine learning</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F81" s="9">
         <v>2011</v>
@@ -30264,7 +30261,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>782</v>
@@ -30295,23 +30292,23 @@
         <v>81</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D83" s="18" t="str">
         <f t="shared" si="3"/>
         <v>a note on the generation of random normal deviates</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F83" s="9">
         <v>1958</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H83" s="18" t="s">
         <v>229</v>
@@ -30359,10 +30356,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D84" s="18" t="str">
         <f t="shared" si="3"/>
@@ -30375,7 +30372,7 @@
         <v>2013</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="H84" s="18" t="s">
         <v>229</v>
@@ -30429,23 +30426,23 @@
         <v>83</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D85" s="18" t="str">
         <f t="shared" si="3"/>
         <v>efficiently sampling probabilistic programs via program analysis</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F85" s="9">
         <v>2013</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>229</v>
@@ -30499,23 +30496,23 @@
         <v>84</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D86" s="18" t="str">
         <f t="shared" si="3"/>
         <v>management of probabilistic data: foundations and challenges</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F86" s="9">
         <v>2007</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="H86" s="18" t="s">
         <v>229</v>
@@ -30563,23 +30560,23 @@
         <v>85</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D87" s="18" t="str">
         <f t="shared" si="3"/>
         <v>neural acceleration for general-purpose approximate programs</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F87" s="9">
         <v>2012</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="H87" s="18" t="s">
         <v>229</v>
@@ -30627,10 +30624,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D88" s="18" t="str">
         <f t="shared" si="3"/>
@@ -30643,7 +30640,7 @@
         <v>1994</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="H88" s="18" t="s">
         <v>229</v>
@@ -30697,23 +30694,23 @@
         <v>87</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D89" s="18" t="str">
         <f t="shared" si="3"/>
         <v>a categorical approach to probability theory</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F89" s="9">
         <v>1982</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="H89" s="18" t="s">
         <v>229</v>
@@ -30761,23 +30758,23 @@
         <v>88</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D90" s="18" t="str">
         <f t="shared" si="3"/>
         <v>church: a language for generative models</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F90" s="9">
         <v>2008</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="H90" s="18" t="s">
         <v>229</v>
@@ -30825,23 +30822,23 @@
         <v>89</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D91" s="18" t="str">
         <f t="shared" si="3"/>
         <v>arithmetic operations on independent random variables: a numerical approach</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F91" s="9">
         <v>2012</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H91" s="18" t="s">
         <v>229</v>
@@ -30895,23 +30892,23 @@
         <v>90</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="D92" s="18" t="str">
         <f t="shared" si="3"/>
         <v>group sequential methods with applications to clinical trials</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F92" s="9">
         <v>2000</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H92" s="18" t="s">
         <v>229</v>
@@ -30959,10 +30956,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D93" s="18" t="str">
         <f t="shared" si="3"/>
@@ -30975,7 +30972,7 @@
         <v>2013</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H93" s="18" t="s">
         <v>229</v>
@@ -31023,23 +31020,23 @@
         <v>92</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D94" s="18" t="str">
         <f t="shared" si="3"/>
         <v>interval analysis</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F94" s="9">
         <v>1966</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="H94" s="18" t="s">
         <v>229</v>
@@ -31087,23 +31084,23 @@
         <v>93</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D95" s="18" t="str">
         <f t="shared" si="3"/>
         <v>bayesian learning for neural networks</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F95" s="9">
         <v>1994</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="H95" s="18" t="s">
         <v>229</v>
@@ -31151,23 +31148,23 @@
         <v>94</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D96" s="18" t="str">
         <f t="shared" si="3"/>
         <v>hidden markov map matching through noise and sparseness</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F96" s="9">
         <v>2009</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H96" s="18" t="s">
         <v>229</v>
@@ -31215,10 +31212,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D97" s="18" t="str">
         <f t="shared" si="3"/>
@@ -31273,23 +31270,23 @@
         <v>96</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D98" s="18" t="str">
         <f t="shared" si="3"/>
         <v>a probabilistic language based on sampling functions</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F98" s="9">
         <v>2005</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H98" s="18" t="s">
         <v>229</v>
@@ -31343,10 +31340,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D99" s="18" t="str">
         <f t="shared" si="3"/>
@@ -31359,7 +31356,7 @@
         <v>2001</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="H99" s="18" t="s">
         <v>229</v>
@@ -31413,23 +31410,23 @@
         <v>98</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D100" s="18" t="str">
         <f t="shared" si="3"/>
         <v>stochastic lambda calculus and monads of probability distributions</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F100" s="9">
         <v>2002</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H100" s="18" t="s">
         <v>229</v>
@@ -31483,23 +31480,23 @@
         <v>99</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D101" s="18" t="str">
         <f t="shared" si="3"/>
         <v>enerj: approximate data types for safe and general low-power computation</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F101" s="9">
         <v>2011</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H101" s="18" t="s">
         <v>229</v>
@@ -31553,23 +31550,23 @@
         <v>100</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D102" s="18" t="str">
         <f t="shared" si="3"/>
         <v>static analysis for probabilistic programs: inferring whole program properties from finitely many paths</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F102" s="9">
         <v>2013</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H102" s="18" t="s">
         <v>229</v>
@@ -31623,23 +31620,23 @@
         <v>101</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D103" s="18" t="str">
         <f t="shared" si="3"/>
         <v>monte carlo methods for managing interactive state, action and feedback under uncertainty</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F103" s="9">
         <v>2011</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="H103" s="18" t="s">
         <v>229</v>
@@ -31693,23 +31690,23 @@
         <v>102</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D104" s="18" t="str">
         <f t="shared" si="3"/>
         <v>global positioning system: the mathematics of gps receivers</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F104" s="9">
         <v>1998</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="H104" s="18" t="s">
         <v>229</v>
@@ -31757,23 +31754,23 @@
         <v>103</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D105" s="18" t="str">
         <f t="shared" si="3"/>
         <v>towards programming tools for robots that integrate probabilistic computation and learning</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="F105" s="9">
         <v>2000</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H105" s="18" t="s">
         <v>229</v>
@@ -31827,10 +31824,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D106" s="18" t="str">
         <f t="shared" si="3"/>
@@ -31840,7 +31837,7 @@
         <v>1970</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="H106" s="18" t="s">
         <v>229</v>
@@ -31888,17 +31885,17 @@
         <v>105</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D107" s="18" t="str">
         <f t="shared" si="3"/>
         <v>sequential tests of statistical hypotheses</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F107" s="9">
         <v>1945</v>
@@ -31949,10 +31946,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D108" s="18" t="str">
         <f t="shared" si="3"/>
@@ -31962,7 +31959,7 @@
         <v>2016</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>229</v>
@@ -32010,10 +32007,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D109" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32023,7 +32020,7 @@
         <v>2015</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H109" s="19" t="s">
         <v>229</v>
@@ -32071,10 +32068,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D110" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32084,7 +32081,7 @@
         <v>2009</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="H110" s="19" t="s">
         <v>229</v>
@@ -32132,23 +32129,23 @@
         <v>109</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D111" s="9" t="str">
         <f t="shared" si="3"/>
         <v>cvode, a stiff/nonstiff ode solver in c</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F111" s="9">
         <v>1996</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="H111" s="19" t="s">
         <v>229</v>
@@ -32196,10 +32193,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D112" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32209,7 +32206,7 @@
         <v>2010</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="H112" s="19" t="s">
         <v>229</v>
@@ -32257,23 +32254,23 @@
         <v>111</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D113" s="9" t="str">
         <f t="shared" si="3"/>
         <v>hybrid monte carlo</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="F113" s="9">
         <v>1987</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="H113" s="19" t="s">
         <v>229</v>
@@ -32321,10 +32318,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D114" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32379,23 +32376,23 @@
         <v>113</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D115" s="9" t="str">
         <f t="shared" si="3"/>
         <v>bayesian data analysis</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="F115" s="9">
         <v>2013</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H115" s="19" t="s">
         <v>229</v>
@@ -32443,23 +32440,23 @@
         <v>114</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D116" s="9" t="str">
         <f t="shared" si="3"/>
         <v>why we (usually) don’t have to worry about multiple comparisons</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="F116" s="9">
         <v>2012</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H116" s="19" t="s">
         <v>229</v>
@@ -32507,23 +32504,23 @@
         <v>115</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D117" s="9" t="str">
         <f t="shared" si="3"/>
         <v>inference from iterative simulation using multiple sequences</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F117" s="9">
         <v>1992</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H117" s="19" t="s">
         <v>229</v>
@@ -32571,23 +32568,23 @@
         <v>116</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D118" s="9" t="str">
         <f t="shared" si="3"/>
         <v>introduction to markov chain monte carlo</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="F118" s="9">
         <v>2011</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="H118" s="19" t="s">
         <v>229</v>
@@ -32635,10 +32632,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D119" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32648,7 +32645,7 @@
         <v>2016</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="H119" s="19" t="s">
         <v>229</v>
@@ -32696,10 +32693,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D120" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32709,7 +32706,7 @@
         <v>2010</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="H120" s="19" t="s">
         <v>229</v>
@@ -32757,23 +32754,23 @@
         <v>119</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D121" s="9" t="str">
         <f t="shared" si="3"/>
         <v>sundials: suite of nonlinear and differential/algebraic equation solvers</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F121" s="9">
         <v>2005</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="H121" s="19" t="s">
         <v>229</v>
@@ -32821,23 +32818,23 @@
         <v>120</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D122" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the no-u-turn sampler: adaptively setting path lengths in hamiltonian monte carlo</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="F122" s="9">
         <v>2014</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="H122" s="19" t="s">
         <v>229</v>
@@ -32885,23 +32882,23 @@
         <v>121</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D123" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the bugs book – a practical introduction to bayesian analysis</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="F123" s="9">
         <v>2012</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H123" s="19" t="s">
         <v>229</v>
@@ -32949,23 +32946,23 @@
         <v>122</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D124" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the bugs project: evolution, critique, and future directions</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="F124" s="9">
         <v>2009</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H124" s="19" t="s">
         <v>229</v>
@@ -33013,23 +33010,23 @@
         <v>123</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D125" s="9" t="str">
         <f t="shared" si="3"/>
         <v>winbugs – a bayesian modelling framework: concepts, structure, and extensibility</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F125" s="9">
         <v>2000</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="H125" s="19" t="s">
         <v>229</v>
@@ -33083,23 +33080,23 @@
         <v>124</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D126" s="9" t="str">
         <f t="shared" si="3"/>
         <v>equation of state calculations by fast computing machines</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="F126" s="9">
         <v>1953</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="H126" s="19" t="s">
         <v>229</v>
@@ -33147,17 +33144,17 @@
         <v>125</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D127" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the latex companion. tools and techniques for computer typesetting</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="F127" s="9">
         <v>2004</v>
@@ -33209,23 +33206,23 @@
         <v>126</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D128" s="9" t="str">
         <f t="shared" si="3"/>
         <v>mcmc using hamiltonian dynamics.</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="F128" s="9">
         <v>2011</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="H128" s="19" t="s">
         <v>229</v>
@@ -33273,23 +33270,23 @@
         <v>127</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D129" s="9" t="str">
         <f t="shared" si="3"/>
         <v>an improved acceptance procedure for the hybrid monte carlo algo- rithm</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="F129" s="9">
         <v>1994</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="H129" s="19" t="s">
         <v>229</v>
@@ -33337,23 +33334,23 @@
         <v>128</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D130" s="9" t="str">
         <f t="shared" si="3"/>
         <v>slice sampling</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F130" s="9">
         <v>2003</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H130" s="19" t="s">
         <v>229</v>
@@ -33401,17 +33398,17 @@
         <v>129</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D131" s="9" t="str">
         <f t="shared" si="3"/>
         <v>numerical optimization</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F131" s="9">
         <v>2006</v>
@@ -33462,23 +33459,23 @@
         <v>130</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D132" s="9" t="str">
         <f t="shared" si="3"/>
         <v>jags: a program for analysis of bayesian graphical models using gibbs sampling</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="F132" s="9">
         <v>2003</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="H132" s="19" t="s">
         <v>229</v>
@@ -33532,23 +33529,23 @@
         <v>131</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D133" s="9" t="str">
         <f t="shared" si="3"/>
         <v>code: convergence diagnosis and out- put analysis for mcmc</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F133" s="9">
         <v>2006</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="H133" s="19" t="s">
         <v>229</v>
@@ -33596,23 +33593,23 @@
         <v>132</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D134" s="9" t="str">
         <f t="shared" si="3"/>
         <v>r: a language and environment for statistical computing</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="F134" s="9">
         <v>2016</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H134" s="19" t="s">
         <v>229</v>
@@ -33660,23 +33657,23 @@
         <v>133</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D135" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the boost c++ libraries</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="F135" s="9">
         <v>2011</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="H135" s="19" t="s">
         <v>229</v>
@@ -33724,23 +33721,23 @@
         <v>134</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D136" s="9" t="str">
         <f t="shared" si="3"/>
         <v>jenkins: the definitive guide</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="F136" s="9">
         <v>2011</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="H136" s="19" t="s">
         <v>229</v>
@@ -33788,23 +33785,23 @@
         <v>135</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D137" s="9" t="str">
         <f t="shared" si="3"/>
         <v>stan modeling language user’s guide and reference manual</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="F137" s="9">
         <v>2016</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="H137" s="19" t="s">
         <v>229</v>
@@ -33852,10 +33849,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D138" s="9" t="str">
         <f t="shared" si="3"/>
@@ -33865,7 +33862,7 @@
         <v>2016</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="H138" s="19" t="s">
         <v>229</v>
@@ -33913,10 +33910,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D139" s="9" t="str">
         <f t="shared" si="3"/>
@@ -33926,7 +33923,7 @@
         <v>2016</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="H139" s="19" t="s">
         <v>229</v>
@@ -33974,10 +33971,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D140" s="20" t="str">
         <f t="shared" si="3"/>
@@ -33990,7 +33987,7 @@
         <v>2004</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="H140" s="20" t="s">
         <v>229</v>
@@ -34038,23 +34035,23 @@
         <v>139</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D141" s="20" t="str">
         <f t="shared" ref="D141:D205" si="4">TRIM(LOWER(C141))</f>
         <v>extendable physical unit checking with understandable error reporting</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F141" s="9">
         <v>2009</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="H141" s="20" t="s">
         <v>229</v>
@@ -34102,10 +34099,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D142" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34133,10 +34130,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D143" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34146,7 +34143,7 @@
         <v>2016</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="H143" s="20" t="s">
         <v>229</v>
@@ -34194,23 +34191,23 @@
         <v>142</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D144" s="20" t="str">
         <f t="shared" si="4"/>
         <v>natural unit representation in modelica</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F144" s="9">
         <v>2012</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H144" s="20" t="s">
         <v>229</v>
@@ -34258,10 +34255,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D145" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34274,7 +34271,7 @@
         <v>2009</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H145" s="20" t="s">
         <v>229</v>
@@ -34325,14 +34322,14 @@
         <v>687</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D146" s="20" t="str">
         <f t="shared" si="4"/>
         <v>quantity: represent dimensioned values with both their amount and their unit</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="H146" s="20" t="s">
         <v>229</v>
@@ -34362,7 +34359,7 @@
         <v>687</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D147" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34372,7 +34369,7 @@
         <v>1997</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="H147" s="20" t="s">
         <v>229</v>
@@ -34420,23 +34417,23 @@
         <v>146</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D148" s="20" t="str">
         <f t="shared" si="4"/>
         <v>modelica – a unified object-oriented language for system modeling and simulation</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F148" s="9">
         <v>1998</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="H148" s="20" t="s">
         <v>229</v>
@@ -34484,10 +34481,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D149" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34515,10 +34512,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D150" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34528,7 +34525,7 @@
         <v>2016</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H150" s="20" t="s">
         <v>229</v>
@@ -34576,10 +34573,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D151" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34589,7 +34586,7 @@
         <v>2014</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="H151" s="20" t="s">
         <v>229</v>
@@ -34637,23 +34634,23 @@
         <v>150</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D152" s="20" t="str">
         <f t="shared" si="4"/>
         <v>the systems biology markup language (sbml): a medium for representation and exchange of bio- chemical network models</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="F152" s="9">
         <v>2003</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="H152" s="20" t="s">
         <v>229</v>
@@ -34701,23 +34698,23 @@
         <v>151</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D153" s="20" t="str">
         <f t="shared" si="4"/>
         <v>mars climate orbiter fail- ure board releases report, numerous nasa actions un- derway in response</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="F153" s="9">
         <v>1999</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="H153" s="20" t="s">
         <v>229</v>
@@ -34765,10 +34762,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D154" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34799,10 +34796,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="C155" s="20" t="s">
         <v>946</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>947</v>
       </c>
       <c r="D155" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34833,10 +34830,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D156" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34867,17 +34864,17 @@
         <v>155</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D157" s="20" t="str">
         <f t="shared" si="4"/>
         <v>generating optimized configurable business process models in scenarios subject to uncertainty</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="H157" s="20" t="s">
         <v>229</v>
@@ -34901,10 +34898,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D158" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34914,7 +34911,7 @@
         <v>2002</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H158" s="20" t="s">
         <v>229</v>
@@ -34962,23 +34959,23 @@
         <v>157</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D159" s="20" t="str">
         <f t="shared" si="4"/>
         <v>relational parametricity and units of measure</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F159" s="9">
         <v>1997</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="H159" s="20" t="s">
         <v>229</v>
@@ -35026,23 +35023,23 @@
         <v>158</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D160" s="20" t="str">
         <f t="shared" si="4"/>
         <v>types for units-of-measure: theory and practice</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="F160" s="9">
         <v>2009</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="H160" s="20" t="s">
         <v>229</v>
@@ -35090,10 +35087,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D161" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35103,7 +35100,7 @@
         <v>2016</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="H161" s="20" t="s">
         <v>229</v>
@@ -35151,17 +35148,17 @@
         <v>160</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D162" s="20" t="str">
         <f t="shared" si="4"/>
         <v>cyber physical systems: design challenges</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H162" s="20" t="s">
         <v>229</v>
@@ -35185,10 +35182,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D163" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35198,7 +35195,7 @@
         <v>2016</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="H163" s="20" t="s">
         <v>229</v>
@@ -35246,23 +35243,23 @@
         <v>162</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D164" s="20" t="str">
         <f t="shared" si="4"/>
         <v>unit checking and quantity conservation</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F164" s="9">
         <v>2008</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H164" s="20" t="s">
         <v>229</v>
@@ -35310,10 +35307,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D165" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35326,7 +35323,7 @@
         <v>2013</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="H165" s="20" t="s">
         <v>229</v>
@@ -35374,10 +35371,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="D166" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35387,7 +35384,7 @@
         <v>2016</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="H166" s="20" t="s">
         <v>229</v>
@@ -35435,10 +35432,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D167" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35451,7 +35448,7 @@
         <v>2016</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="H167" s="20" t="s">
         <v>229</v>
@@ -35499,10 +35496,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D168" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35530,10 +35527,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D169" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35561,10 +35558,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D170" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35592,10 +35589,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D171" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35623,23 +35620,23 @@
         <v>170</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D172" s="20" t="str">
         <f t="shared" si="4"/>
         <v>semantics of a foundational subset for executable uml models (fuml)</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F172" s="9">
         <v>2016</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="H172" s="20" t="s">
         <v>229</v>
@@ -35687,10 +35684,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D173" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35700,7 +35697,7 @@
         <v>2016</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="H173" s="20" t="s">
         <v>229</v>
@@ -35748,23 +35745,23 @@
         <v>172</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D174" s="20" t="str">
         <f t="shared" si="4"/>
         <v>cyber- physical systems: the next computing revolution</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F174" s="9">
         <v>2010</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="H174" s="20" t="s">
         <v>229</v>
@@ -35812,10 +35809,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="D175" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35825,7 +35822,7 @@
         <v>2007</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="H175" s="20" t="s">
         <v>229</v>
@@ -35873,10 +35870,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D176" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35904,23 +35901,23 @@
         <v>175</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="D177" s="20" t="str">
         <f t="shared" si="4"/>
         <v>the international system of units (si)</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="F177" s="9">
         <v>2008</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="H177" s="20" t="s">
         <v>229</v>
@@ -35968,7 +35965,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C178" s="24" t="s">
         <v>879</v>
@@ -35999,10 +35996,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D179" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36030,10 +36027,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D180" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36043,7 +36040,7 @@
         <v>2016</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="H180" s="20" t="s">
         <v>229</v>
@@ -36091,10 +36088,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D181" s="9" t="str">
         <f t="shared" si="4"/>
@@ -36122,10 +36119,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D182" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36153,10 +36150,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D183" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36184,10 +36181,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D184" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36200,7 +36197,7 @@
         <v>2016</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="H184" s="21" t="s">
         <v>229</v>
@@ -36248,10 +36245,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D185" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36282,10 +36279,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="C186" s="9" t="s">
         <v>946</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>947</v>
       </c>
       <c r="D186" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36316,10 +36313,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D187" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36350,17 +36347,17 @@
         <v>186</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D188" s="21" t="str">
         <f t="shared" si="4"/>
         <v>uml profile for marte: modeling and analysis of real-time embedded systems</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H188" s="21" t="s">
         <v>229</v>
@@ -36384,17 +36381,17 @@
         <v>187</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D189" s="21" t="str">
         <f t="shared" si="4"/>
         <v>omg systems modeling language (sysml)</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H189" s="21" t="s">
         <v>229</v>
@@ -36418,17 +36415,17 @@
         <v>188</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D190" s="21" t="str">
         <f t="shared" si="4"/>
         <v>generating optimized configurable business process models in scenarios subject to uncertainty</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="H190" s="21" t="s">
         <v>229</v>
@@ -36452,10 +36449,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D191" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36483,10 +36480,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D192" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36509,15 +36506,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:20">
       <c r="A193" s="21">
         <v>191</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D193" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36540,28 +36537,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:20">
       <c r="A194" s="21">
         <v>192</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D194" s="21" t="str">
         <f t="shared" si="4"/>
         <v>atl: a model transformation tool</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F194" s="9">
         <v>2008</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="H194" s="21" t="s">
         <v>229</v>
@@ -36604,28 +36601,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:20">
       <c r="A195" s="21">
         <v>193</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D195" s="21" t="str">
         <f t="shared" si="4"/>
         <v>specifying aggregation functions in multidimensional models with ocl</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="F195" s="9">
         <v>2010</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="H195" s="21" t="s">
         <v>229</v>
@@ -36668,28 +36665,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:20">
       <c r="A196" s="21">
         <v>194</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D196" s="21" t="str">
         <f t="shared" si="4"/>
         <v>benefits and problems of formal methods</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="F196" s="9">
         <v>2004</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="H196" s="21" t="s">
         <v>229</v>
@@ -36732,28 +36729,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:20">
       <c r="A197" s="21">
         <v>195</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="D197" s="21" t="str">
         <f t="shared" si="4"/>
         <v>a summary of error propagation</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="F197" s="9">
         <v>2014</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="H197" s="21" t="s">
         <v>229</v>
@@ -36796,15 +36793,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:20">
       <c r="A198" s="21">
         <v>196</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D198" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36814,7 +36811,7 @@
         <v>2015</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="H198" s="21" t="s">
         <v>229</v>
@@ -36857,15 +36854,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:26">
+    <row r="199" spans="1:20">
       <c r="A199" s="21">
         <v>197</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D199" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36888,28 +36885,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:26">
+    <row r="200" spans="1:20">
       <c r="A200" s="21">
         <v>198</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="D200" s="21" t="str">
         <f t="shared" si="4"/>
         <v>accuracy and stability of numerical algorithms</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="F200" s="9">
         <v>1996</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H200" s="21" t="s">
         <v>229</v>
@@ -36952,28 +36949,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:26" ht="17">
+    <row r="201" spans="1:20" ht="17">
       <c r="A201" s="21">
         <v>199</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C201" s="24" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="D201" s="21" t="str">
         <f t="shared" si="4"/>
         <v>handbook of floating-point arithmetic</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="F201" s="9">
         <v>2010</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="H201" s="21" t="s">
         <v>229</v>
@@ -37016,28 +37013,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:26">
+    <row r="202" spans="1:20">
       <c r="A202" s="21">
         <v>200</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D202" s="21" t="str">
         <f t="shared" si="4"/>
         <v>the guesstimate blog</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="F202" s="9">
         <v>2015</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="H202" s="21" t="s">
         <v>229</v>
@@ -37080,28 +37077,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:26">
+    <row r="203" spans="1:20">
       <c r="A203" s="21">
         <v>201</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="D203" s="21" t="str">
         <f t="shared" si="4"/>
         <v>the role of models in managing the uncertainty of software-intensive systems</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F203" s="9">
         <v>1995</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H203" s="21" t="s">
         <v>229</v>
@@ -37137,28 +37134,22 @@
         <v>0</v>
       </c>
       <c r="S203" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T203" s="21" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y203" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z203" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="204" spans="1:26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20">
       <c r="A204" s="21">
         <v>202</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D204" s="21" t="str">
         <f t="shared" si="4"/>
@@ -37181,12 +37172,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:26">
+    <row r="205" spans="1:20">
       <c r="A205" s="21">
         <v>203</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C205" s="9" t="s">
         <v>800</v>
@@ -37212,15 +37203,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:26">
+    <row r="206" spans="1:20">
       <c r="A206" s="21">
         <v>204</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D206" s="21" t="str">
         <f t="shared" ref="D206:D212" si="6">TRIM(LOWER(C206))</f>
@@ -37243,15 +37234,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:26">
+    <row r="207" spans="1:20">
       <c r="A207" s="21">
         <v>205</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D207" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37274,15 +37265,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:26">
+    <row r="208" spans="1:20">
       <c r="A208" s="21">
         <v>206</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="D208" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37310,10 +37301,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D209" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37341,10 +37332,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D210" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37372,10 +37363,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D211" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37403,10 +37394,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D212" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37922,7 +37913,7 @@
   <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -37949,11 +37940,11 @@
       </c>
       <c r="C5">
         <f>COUNTIF(Uncertainty!T3:T212,"TRUE")-COUNTA(Uncertainty!U3:U212)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <f>COUNTIF(Uncertainty!T3:T212,"TRUE")</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="14">
         <f>C5/D5</f>
@@ -37985,15 +37976,15 @@
       </c>
       <c r="C10">
         <f>COUNTIF(Uncertainty!Y:Y,"NO")</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <f>COUNTA(Uncertainty!Y:Y)-2</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="14">
         <f>C10/D10</f>
-        <v>0.88095238095238093</v>
+        <v>0.87804878048780488</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -38002,11 +37993,11 @@
       </c>
       <c r="C11">
         <f>COUNTIF(Uncertainty!Z:Z,"NO")</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <f>COUNTA(Uncertainty!Y:Y)-2</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="14">
         <f>C11/D11</f>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEC5FAC-7B21-E640-BFE0-3843F2506040}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D7BC2D-2587-794C-81D2-C23361024FF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" activeTab="3" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
+    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
   <sheets>
     <sheet name="DelayedActions" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="1364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="1367">
   <si>
     <t>Author</t>
   </si>
@@ -4147,6 +4147,15 @@
   </si>
   <si>
     <t>RELAX: a language to address uncertainty in self-adaptive systems requirement</t>
+  </si>
+  <si>
+    <t>RQ2.1</t>
+  </si>
+  <si>
+    <t>RQ2.2</t>
+  </si>
+  <si>
+    <t>RQ2.3</t>
   </si>
 </sst>
 </file>
@@ -25080,11 +25089,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7501BA-1B5B-254E-92CB-F30CCA26173E}">
   <dimension ref="A1:Z245"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="S30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C132" sqref="C132"/>
+      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25188,13 +25197,13 @@
         <v>11</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>226</v>
+        <v>1364</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>227</v>
+        <v>1365</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>228</v>
+        <v>1366</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>12</v>
@@ -28242,6 +28251,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V48" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="W48" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="Y48" s="9" t="s">
         <v>204</v>
       </c>
@@ -28611,6 +28629,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W54" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="Y54" s="9" t="s">
         <v>204</v>
       </c>
@@ -28776,6 +28803,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V57" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="W57" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="Y57" s="9" t="s">
         <v>204</v>
       </c>
@@ -29480,6 +29516,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V68" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="W68" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="Y68" s="9" t="s">
         <v>204</v>
       </c>
@@ -29754,7 +29799,7 @@
       <c r="B74" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="21" t="s">
         <v>1000</v>
       </c>
       <c r="D74" s="9" t="str">
@@ -29810,6 +29855,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W74" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="Y74" s="9" t="s">
         <v>204</v>
       </c>
@@ -29944,6 +29998,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W76" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="Y76" s="9" t="s">
         <v>204</v>
       </c>
@@ -30014,6 +30077,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W77" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="Y77" s="9" t="s">
         <v>204</v>
       </c>
@@ -30148,6 +30220,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W79" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="Y79" s="9" t="s">
         <v>204</v>
       </c>
@@ -30414,6 +30495,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U84" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="V84" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="W84" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="Y84" s="9" t="s">
         <v>204</v>
       </c>
@@ -30484,6 +30574,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U85" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V85" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W85" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="Y85" s="9" t="s">
         <v>204</v>
       </c>
@@ -30655,7 +30754,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M88" s="9" t="b">
         <v>0</v>
@@ -30680,13 +30779,7 @@
       </c>
       <c r="T88" s="9" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y88" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z88" s="9" t="s">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:26">
@@ -30880,6 +30973,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U91" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="V91" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="W91" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="Y91" s="9" t="s">
         <v>204</v>
       </c>
@@ -31328,6 +31430,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U98" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="V98" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="W98" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="Y98" s="9" t="s">
         <v>204</v>
       </c>
@@ -31398,6 +31509,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U99" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="V99" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="W99" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="Y99" s="9" t="s">
         <v>204</v>
       </c>
@@ -31468,6 +31588,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W100" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="Y100" s="9" t="s">
         <v>204</v>
       </c>
@@ -31511,7 +31640,7 @@
         <v>1</v>
       </c>
       <c r="L101" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101" s="9" t="b">
         <v>0</v>
@@ -31536,13 +31665,7 @@
       </c>
       <c r="T101" s="9" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y101" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z101" s="9" t="s">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:26">
@@ -31608,6 +31731,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W102" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="Y102" s="9" t="s">
         <v>204</v>
       </c>
@@ -31678,6 +31810,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W103" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="Y103" s="9" t="s">
         <v>204</v>
       </c>
@@ -31811,6 +31952,15 @@
       <c r="T105" s="19" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+      <c r="U105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W105" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="Y105" s="9" t="s">
         <v>204</v>
@@ -37910,20 +38060,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0618E008-3FD7-DF4B-B9A4-14231511785C}">
-  <dimension ref="B3:E11"/>
+  <dimension ref="B3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:7">
       <c r="C3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:7">
       <c r="C4" t="s">
         <v>441</v>
       </c>
@@ -37934,32 +38084,36 @@
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>440</v>
       </c>
       <c r="C5">
         <f>COUNTIF(Uncertainty!T3:T212,"TRUE")-COUNTA(Uncertainty!U3:U212)</f>
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <f>COUNTIF(Uncertainty!T3:T212,"TRUE")</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" s="14">
         <f>C5/D5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="G5">
+        <f>C5-20</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="E6" s="14"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:7">
       <c r="C8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:7">
       <c r="C9" t="s">
         <v>437</v>
       </c>
@@ -37970,34 +38124,34 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:7">
       <c r="B10" t="s">
         <v>202</v>
       </c>
       <c r="C10">
         <f>COUNTIF(Uncertainty!Y:Y,"NO")</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <f>COUNTA(Uncertainty!Y:Y)-2</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="14">
         <f>C10/D10</f>
-        <v>0.87804878048780488</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>0.87179487179487181</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
         <v>436</v>
       </c>
       <c r="C11">
         <f>COUNTIF(Uncertainty!Z:Z,"NO")</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <f>COUNTA(Uncertainty!Y:Y)-2</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="14">
         <f>C11/D11</f>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D7BC2D-2587-794C-81D2-C23361024FF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD366B6-747F-B341-A889-81A1207EBA1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="1367">
   <si>
     <t>Author</t>
   </si>
@@ -25090,10 +25090,10 @@
   <dimension ref="A1:Z245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="S30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="T100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomRight" activeCell="W117" sqref="W117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25278,6 +25278,15 @@
         <f>AND(AND(I3:L3),NOT(OR(M3:R3)),NOT(S3))</f>
         <v>1</v>
       </c>
+      <c r="U3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="Y3" s="9" t="s">
         <v>204</v>
       </c>
@@ -25348,6 +25357,15 @@
         <f t="shared" ref="T4:T42" si="1">AND(AND(I4:L4),NOT(OR(M4:R4)),NOT(S4))</f>
         <v>1</v>
       </c>
+      <c r="U4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="Y4" s="9" t="s">
         <v>204</v>
       </c>
@@ -25418,6 +25436,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="U5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="Y5" s="9" t="s">
         <v>204</v>
       </c>
@@ -25552,6 +25579,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="U7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="Y7" s="9" t="s">
         <v>304</v>
       </c>
@@ -25622,6 +25658,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="U8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="Y8" s="9" t="s">
         <v>304</v>
       </c>
@@ -25756,6 +25801,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="U10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="Y10" s="9" t="s">
         <v>304</v>
       </c>
@@ -25954,6 +26008,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="U13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="Y13" s="9" t="s">
         <v>204</v>
       </c>
@@ -26024,6 +26087,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="U14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="Y14" s="9" t="s">
         <v>204</v>
       </c>
@@ -26094,6 +26166,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="U15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="Y15" s="9" t="s">
         <v>204</v>
       </c>
@@ -26164,6 +26245,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="U16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="Y16" s="9" t="s">
         <v>204</v>
       </c>
@@ -26207,7 +26297,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="9" t="b">
         <v>0</v>
@@ -26219,7 +26309,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="9" t="b">
         <v>0</v>
@@ -26232,7 +26322,7 @@
       </c>
       <c r="T17" s="9" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="9" t="s">
         <v>204</v>
@@ -27127,6 +27217,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="U31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W31" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="Y31" s="9" t="s">
         <v>304</v>
       </c>
@@ -27325,6 +27424,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="U34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W34" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="Y34" s="9" t="s">
         <v>204</v>
       </c>
@@ -27459,6 +27567,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="U36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W36" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="Y36" s="9" t="s">
         <v>304</v>
       </c>
@@ -27657,6 +27774,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="U39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W39" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="Y39" s="9" t="s">
         <v>204</v>
       </c>
@@ -27727,6 +27853,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="U40" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V40" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W40" s="21" t="s">
+        <v>229</v>
+      </c>
       <c r="Y40" s="9" t="s">
         <v>204</v>
       </c>
@@ -27925,6 +28060,15 @@
         <f>AND(AND(I43:L43),NOT(OR(M43:R43)),NOT(S43))</f>
         <v>1</v>
       </c>
+      <c r="U43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W43" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="Y43" s="9" t="s">
         <v>204</v>
       </c>
@@ -28255,7 +28399,7 @@
         <v>17</v>
       </c>
       <c r="V48" s="9" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="W48" s="9" t="s">
         <v>229</v>
@@ -28330,6 +28474,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V49" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="W49" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="Y49" s="9" t="s">
         <v>204</v>
       </c>
@@ -28855,7 +29008,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" s="9" t="b">
         <v>0</v>
@@ -28880,13 +29033,7 @@
       </c>
       <c r="T58" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y58" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z58" s="9" t="s">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:26">
@@ -29053,16 +29200,16 @@
         <v>1</v>
       </c>
       <c r="L61" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="9" t="b">
         <v>0</v>
       </c>
       <c r="N61" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="9" t="b">
         <v>0</v>
@@ -29078,13 +29225,7 @@
       </c>
       <c r="T61" s="18" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y61" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z61" s="9" t="s">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:26">
@@ -33218,6 +33359,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="U125" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="V125" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="W125" s="21" t="s">
+        <v>225</v>
+      </c>
       <c r="Y125" s="9" t="s">
         <v>204</v>
       </c>
@@ -33666,6 +33816,15 @@
       <c r="T132" s="9" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+      <c r="U132" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="V132" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="W132" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="Y132" s="9" t="s">
         <v>204</v>
@@ -37846,12 +38005,12 @@
     <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:Z1048576">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D212">
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>SUMPRODUCT(--EXACT($D$3:$D$212,$D3))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38060,20 +38219,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0618E008-3FD7-DF4B-B9A4-14231511785C}">
-  <dimension ref="B3:G11"/>
+  <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:5">
       <c r="C3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:5">
       <c r="C4" t="s">
         <v>441</v>
       </c>
@@ -38084,36 +38243,32 @@
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>440</v>
       </c>
       <c r="C5">
         <f>COUNTIF(Uncertainty!T3:T212,"TRUE")-COUNTA(Uncertainty!U3:U212)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f>COUNTIF(Uncertainty!T3:T212,"TRUE")</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E5" s="14">
         <f>C5/D5</f>
-        <v>0.5641025641025641</v>
-      </c>
-      <c r="G5">
-        <f>C5-20</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="E6" s="14"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:5">
       <c r="C8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:5">
       <c r="C9" t="s">
         <v>437</v>
       </c>
@@ -38124,34 +38279,34 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
         <v>202</v>
       </c>
       <c r="C10">
         <f>COUNTIF(Uncertainty!Y:Y,"NO")</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <f>COUNTA(Uncertainty!Y:Y)-2</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="14">
         <f>C10/D10</f>
-        <v>0.87179487179487181</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>0.86486486486486491</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
         <v>436</v>
       </c>
       <c r="C11">
         <f>COUNTIF(Uncertainty!Z:Z,"NO")</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <f>COUNTA(Uncertainty!Y:Y)-2</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="14">
         <f>C11/D11</f>
@@ -38160,7 +38315,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5 D10:D11">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(AND($D$5=$D$10,$D$5=$D$11))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD366B6-747F-B341-A889-81A1207EBA1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4EF7EB46-BB4A-0147-BF37-E2C285C63519}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
+    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
   <sheets>
-    <sheet name="DelayedActions" sheetId="1" r:id="rId1"/>
-    <sheet name="ProgressDA" sheetId="3" r:id="rId2"/>
-    <sheet name="Uncertainty" sheetId="2" r:id="rId3"/>
-    <sheet name="ProgressDuC" sheetId="4" r:id="rId4"/>
+    <sheet name="RQ1 - LongTermAction" sheetId="1" r:id="rId1"/>
+    <sheet name="Progress - RQ1" sheetId="3" r:id="rId2"/>
+    <sheet name="RQ2 - Data Uncertainty" sheetId="2" r:id="rId3"/>
+    <sheet name="Progress - RQ2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4274,13 +4274,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4861,11 +4861,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99048B8C-98B5-C846-BA1E-677FE6633279}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="R182" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="V192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y50" sqref="Y50:Z50"/>
+      <selection pane="bottomRight" activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4887,27 +4887,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="N1" s="22" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="N1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="U1" s="22" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="U1" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="Y1" s="22" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="Y1" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="Z1" s="22"/>
+      <c r="Z1" s="23"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
@@ -25010,11 +25010,11 @@
         <v>440</v>
       </c>
       <c r="C5">
-        <f>COUNTIF(DelayedActions!T3:T204,"TRUE")-COUNTA(DelayedActions!U3:U204)</f>
+        <f>COUNTIF('RQ1 - LongTermAction'!T3:T204,"TRUE")-COUNTA('RQ1 - LongTermAction'!U3:U204)</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>COUNTIF(DelayedActions!T3:T204,"TRUE")</f>
+        <f>COUNTIF('RQ1 - LongTermAction'!T3:T204,"TRUE")</f>
         <v>48</v>
       </c>
       <c r="E5" s="14">
@@ -25046,11 +25046,11 @@
         <v>202</v>
       </c>
       <c r="C10">
-        <f>COUNTIF(DelayedActions!Y:Y,"NO")</f>
+        <f>COUNTIF('RQ1 - LongTermAction'!Y:Y,"NO")</f>
         <v>45</v>
       </c>
       <c r="D10">
-        <f>COUNTA(DelayedActions!Y:Y)-2</f>
+        <f>COUNTA('RQ1 - LongTermAction'!Y:Y)-2</f>
         <v>48</v>
       </c>
       <c r="E10" s="14">
@@ -25063,11 +25063,11 @@
         <v>436</v>
       </c>
       <c r="C11">
-        <f>COUNTIF(DelayedActions!Z:Z,"NO")</f>
+        <f>COUNTIF('RQ1 - LongTermAction'!Z:Z,"NO")</f>
         <v>46</v>
       </c>
       <c r="D11">
-        <f>COUNTA(DelayedActions!Y:Y)-2</f>
+        <f>COUNTA('RQ1 - LongTermAction'!Y:Y)-2</f>
         <v>48</v>
       </c>
       <c r="E11" s="14">
@@ -25089,8 +25089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7501BA-1B5B-254E-92CB-F30CCA26173E}">
   <dimension ref="A1:Z245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="T100" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="T201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="W117" sqref="W117"/>
@@ -25113,27 +25113,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="N1" s="23" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="N1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="U1" s="23" t="s">
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="U1" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="Y1" s="23" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="Y1" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="Z1" s="23"/>
+      <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="9" t="s">
@@ -36276,7 +36276,7 @@
       <c r="B178" s="9" t="s">
         <v>1316</v>
       </c>
-      <c r="C178" s="24" t="s">
+      <c r="C178" s="22" t="s">
         <v>879</v>
       </c>
       <c r="D178" s="20" t="str">
@@ -37265,7 +37265,7 @@
       <c r="B201" s="9" t="s">
         <v>1346</v>
       </c>
-      <c r="C201" s="24" t="s">
+      <c r="C201" s="22" t="s">
         <v>1347</v>
       </c>
       <c r="D201" s="21" t="str">
@@ -38222,7 +38222,7 @@
   <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -38248,11 +38248,11 @@
         <v>440</v>
       </c>
       <c r="C5">
-        <f>COUNTIF(Uncertainty!T3:T212,"TRUE")-COUNTA(Uncertainty!U3:U212)</f>
+        <f>COUNTIF('RQ2 - Data Uncertainty'!T3:T212,"TRUE")-COUNTA('RQ2 - Data Uncertainty'!U3:U212)</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>COUNTIF(Uncertainty!T3:T212,"TRUE")</f>
+        <f>COUNTIF('RQ2 - Data Uncertainty'!T3:T212,"TRUE")</f>
         <v>36</v>
       </c>
       <c r="E5" s="14">
@@ -38284,11 +38284,11 @@
         <v>202</v>
       </c>
       <c r="C10">
-        <f>COUNTIF(Uncertainty!Y:Y,"NO")</f>
+        <f>COUNTIF('RQ2 - Data Uncertainty'!Y:Y,"NO")</f>
         <v>32</v>
       </c>
       <c r="D10">
-        <f>COUNTA(Uncertainty!Y:Y)-2</f>
+        <f>COUNTA('RQ2 - Data Uncertainty'!Y:Y)-2</f>
         <v>37</v>
       </c>
       <c r="E10" s="14">
@@ -38301,11 +38301,11 @@
         <v>436</v>
       </c>
       <c r="C11">
-        <f>COUNTIF(Uncertainty!Z:Z,"NO")</f>
+        <f>COUNTIF('RQ2 - Data Uncertainty'!Z:Z,"NO")</f>
         <v>37</v>
       </c>
       <c r="D11">
-        <f>COUNTA(Uncertainty!Y:Y)-2</f>
+        <f>COUNTA('RQ2 - Data Uncertainty'!Y:Y)-2</f>
         <v>37</v>
       </c>
       <c r="E11" s="14">

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4EF7EB46-BB4A-0147-BF37-E2C285C63519}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2862E349-CB54-F447-A81C-4180E9F8B9C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
@@ -4214,7 +4214,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4275,6 +4275,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4862,10 +4865,10 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="V192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B229" sqref="B229"/>
+      <selection pane="bottomRight" activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4887,27 +4890,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="N1" s="23" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="N1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="U1" s="23" t="s">
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="U1" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="Y1" s="23" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="Y1" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="Z1" s="23"/>
+      <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
@@ -5260,7 +5263,7 @@
         <v>225</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>304</v>
@@ -6964,7 +6967,7 @@
         <v>1</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>17</v>
@@ -7183,7 +7186,7 @@
         <v>225</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>204</v>
@@ -7825,7 +7828,7 @@
         <v>1</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>225</v>
@@ -18353,6 +18356,18 @@
       </c>
       <c r="M207" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="U207" s="1">
+        <f>COUNTIF(U3:U204,"=yes") + COUNTIF(U3:U204,"=(yes)")</f>
+        <v>37</v>
+      </c>
+      <c r="V207" s="23">
+        <f>COUNTIF(V3:V204,"=yes") + COUNTIF(V3:V204,"=(yes)")</f>
+        <v>32</v>
+      </c>
+      <c r="W207" s="23">
+        <f>COUNTIF(W3:W204,"=yes") + COUNTIF(W3:W204,"=(yes)")</f>
+        <v>41</v>
       </c>
     </row>
     <row r="208" spans="1:26">
@@ -25090,7 +25105,7 @@
   <dimension ref="A1:Z245"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="T201" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="T154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="W117" sqref="W117"/>
@@ -25113,27 +25128,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="N1" s="24" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="N1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="U1" s="24" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="U1" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="Y1" s="24" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="Y1" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="Z1" s="24"/>
+      <c r="Z1" s="25"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="9" t="s">
@@ -38222,7 +38237,7 @@
   <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2862E349-CB54-F447-A81C-4180E9F8B9C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769F42EE-D51F-224A-8E89-6BC2EB56AB9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
@@ -4865,10 +4865,10 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="O107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W34" sqref="W34"/>
+      <selection pane="bottomRight" activeCell="U109" sqref="U109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6133,7 +6133,7 @@
         <v>229</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>204</v>
@@ -7344,7 +7344,7 @@
         <v>229</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>204</v>
@@ -7758,7 +7758,7 @@
         <v>17</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="W41" s="1" t="s">
         <v>229</v>
@@ -11441,10 +11441,10 @@
         <v>1</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>225</v>
+        <v>17</v>
       </c>
       <c r="W97" s="1" t="s">
         <v>17</v>
@@ -12142,10 +12142,10 @@
         <v>1</v>
       </c>
       <c r="U108" s="1" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="W108" s="1" t="s">
         <v>17</v>
@@ -18359,11 +18359,11 @@
       </c>
       <c r="U207" s="1">
         <f>COUNTIF(U3:U204,"=yes") + COUNTIF(U3:U204,"=(yes)")</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V207" s="23">
         <f>COUNTIF(V3:V204,"=yes") + COUNTIF(V3:V204,"=(yes)")</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="W207" s="23">
         <f>COUNTIF(W3:W204,"=yes") + COUNTIF(W3:W204,"=(yes)")</f>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769F42EE-D51F-224A-8E89-6BC2EB56AB9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EAABD7-8E38-8D4B-9901-EAEFF9E775D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
@@ -1287,9 +1287,6 @@
     <t>C. Ghezzi and A. M. Sharifloo,</t>
   </si>
   <si>
-    <t>Dealing with non-functional re-quirements for adaptive systems via dynamic software product-lines</t>
-  </si>
-  <si>
     <t>C. Ghezzi, L. S. Pinto, P. Spoletini, and G. Tamburrelli</t>
   </si>
   <si>
@@ -1297,9 +1294,6 @@
   </si>
   <si>
     <t>H. Tajalli, J. Garcia, G. Edwards, and N. Medvidovic</t>
-  </si>
-  <si>
-    <t>PLASMA: Aplan-based layered architecture for software model-driven adaptation</t>
   </si>
   <si>
     <t>A. Filieri and G. Tamburrelli</t>
@@ -4156,6 +4150,12 @@
   </si>
   <si>
     <t>RQ2.3</t>
+  </si>
+  <si>
+    <t>Dealing with non-functional requirements for adaptive systems via dynamic software product-lines</t>
+  </si>
+  <si>
+    <t>PLASMA: A plan-based layered architecture for software model-driven adaptation</t>
   </si>
 </sst>
 </file>
@@ -4865,10 +4865,10 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="O107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="S191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U109" sqref="U109"/>
+      <selection pane="bottomRight" activeCell="T207" sqref="T207:W207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8704,7 +8704,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>307</v>
@@ -8997,7 +8997,7 @@
         <v>245</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D61" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9396,7 +9396,7 @@
         <v>259</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D67" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9524,7 +9524,7 @@
         <v>262</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D69" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9778,7 +9778,7 @@
         <v>229</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="Y72" s="1" t="s">
         <v>204</v>
@@ -9795,7 +9795,7 @@
         <v>269</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D73" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9938,7 +9938,7 @@
         <v>272</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D75" s="8" t="str">
         <f t="shared" si="3"/>
@@ -10259,10 +10259,10 @@
         <v>1</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="W79" s="1" t="s">
         <v>225</v>
@@ -10664,7 +10664,7 @@
         <v>229</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="Y85" s="8" t="s">
         <v>204</v>
@@ -10864,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
@@ -10890,7 +10890,7 @@
         <v>2005</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>229</v>
@@ -10941,7 +10941,7 @@
         <v>351</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D90" s="8" t="str">
         <f t="shared" si="3"/>
@@ -10954,7 +10954,7 @@
         <v>2009</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H90" s="8" t="s">
         <v>229</v>
@@ -11005,7 +11005,7 @@
         <v>352</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D91" s="8" t="str">
         <f t="shared" si="3"/>
@@ -11018,7 +11018,7 @@
         <v>2009</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H91" s="8" t="s">
         <v>229</v>
@@ -11082,7 +11082,7 @@
         <v>2012</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>229</v>
@@ -11133,7 +11133,7 @@
         <v>355</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D93" s="8" t="str">
         <f t="shared" si="3"/>
@@ -11186,7 +11186,7 @@
         <v>2004</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>229</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="95" spans="1:26">
@@ -11240,7 +11240,7 @@
         <v>359</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D95" s="8" t="str">
         <f t="shared" si="3"/>
@@ -11253,7 +11253,7 @@
         <v>2001</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H95" s="8" t="s">
         <v>229</v>
@@ -11306,7 +11306,7 @@
         <v>361</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D96" s="8" t="str">
         <f t="shared" si="3"/>
@@ -11319,7 +11319,7 @@
         <v>2006</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H96" s="8" t="s">
         <v>229</v>
@@ -11398,7 +11398,7 @@
         <v>2006</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H97" s="8" t="s">
         <v>229</v>
@@ -11464,7 +11464,7 @@
         <v>366</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D98" s="8" t="str">
         <f t="shared" si="3"/>
@@ -11477,7 +11477,7 @@
         <v>2009</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H98" s="8" t="s">
         <v>229</v>
@@ -11543,7 +11543,7 @@
         <v>368</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D99" s="8" t="str">
         <f t="shared" si="3"/>
@@ -11556,7 +11556,7 @@
         <v>2010</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>229</v>
@@ -11620,7 +11620,7 @@
         <v>2013</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H100" s="8" t="s">
         <v>229</v>
@@ -11684,7 +11684,7 @@
         <v>2016</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H101" s="8" t="s">
         <v>229</v>
@@ -11741,7 +11741,7 @@
         <v>374</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D102" s="8" t="str">
         <f t="shared" si="3"/>
@@ -11791,7 +11791,7 @@
         <v>2009</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H103" s="8" t="s">
         <v>229</v>
@@ -11842,7 +11842,7 @@
         <v>378</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D104" s="8" t="str">
         <f t="shared" si="3"/>
@@ -11879,7 +11879,7 @@
         <v>379</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D105" s="8" t="str">
         <f t="shared" si="3"/>
@@ -11892,7 +11892,7 @@
         <v>1990</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H105" s="8" t="s">
         <v>229</v>
@@ -11971,7 +11971,7 @@
         <v>2007</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H106" s="8" t="s">
         <v>229</v>
@@ -12035,7 +12035,7 @@
         <v>2002</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H107" s="8" t="s">
         <v>229</v>
@@ -12099,7 +12099,7 @@
         <v>2015</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H108" s="8" t="s">
         <v>229</v>
@@ -12178,7 +12178,7 @@
         <v>2014</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H109" s="8" t="s">
         <v>229</v>
@@ -12244,7 +12244,7 @@
         <v>392</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D110" s="8" t="str">
         <f t="shared" si="3"/>
@@ -12257,7 +12257,7 @@
         <v>2010</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H110" s="8" t="s">
         <v>229</v>
@@ -12308,7 +12308,7 @@
         <v>394</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D111" s="8" t="str">
         <f t="shared" si="3"/>
@@ -12321,7 +12321,7 @@
         <v>2003</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H111" s="8" t="s">
         <v>229</v>
@@ -12385,7 +12385,7 @@
         <v>2007</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H112" s="8" t="s">
         <v>229</v>
@@ -12443,13 +12443,13 @@
         <v>unifying design and runtime software adaptation using aspect models</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F113" s="1">
         <v>2011</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H113" s="8" t="s">
         <v>229</v>
@@ -12512,23 +12512,23 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D114" s="8" t="str">
         <f t="shared" si="3"/>
         <v>daop-adl: an architecture description language for dynamic component and aspect-based development</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F114" s="1">
         <v>2005</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H114" s="8" t="s">
         <v>229</v>
@@ -12571,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="U114" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="V114" s="1" t="s">
         <v>225</v>
@@ -12594,7 +12594,7 @@
         <v>400</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D115" s="8" t="str">
         <f t="shared" si="3"/>
@@ -12607,7 +12607,7 @@
         <v>2004</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H115" s="8" t="s">
         <v>229</v>
@@ -12673,7 +12673,7 @@
         <v>402</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D116" s="8" t="str">
         <f t="shared" si="3"/>
@@ -12686,7 +12686,7 @@
         <v>1998</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H116" s="8" t="s">
         <v>229</v>
@@ -12734,7 +12734,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>404</v>
@@ -12750,7 +12750,7 @@
         <v>1999</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H117" s="8" t="s">
         <v>229</v>
@@ -12808,13 +12808,13 @@
         <v>the rewriting logic semantics project: a progress report</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F118" s="1">
         <v>2011</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H118" s="8" t="s">
         <v>229</v>
@@ -12878,7 +12878,7 @@
         <v>2009</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H119" s="8" t="s">
         <v>229</v>
@@ -12957,7 +12957,7 @@
         <v>2015</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H120" s="8" t="s">
         <v>229</v>
@@ -13021,7 +13021,7 @@
         <v>2010</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H121" s="8" t="s">
         <v>229</v>
@@ -13124,11 +13124,11 @@
         <v>416</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>417</v>
+        <v>1365</v>
       </c>
       <c r="D123" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>dealing with non-functional re-quirements for adaptive systems via dynamic software product-lines</v>
+        <v>dealing with non-functional requirements for adaptive systems via dynamic software product-lines</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>16</v>
@@ -13137,7 +13137,7 @@
         <v>2013</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H123" s="8" t="s">
         <v>229</v>
@@ -13200,10 +13200,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D124" s="8" t="str">
         <f t="shared" si="5"/>
@@ -13216,7 +13216,7 @@
         <v>2013</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H124" s="8" t="s">
         <v>229</v>
@@ -13279,14 +13279,14 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>421</v>
+        <v>1366</v>
       </c>
       <c r="D125" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>plasma: aplan-based layered architecture for software model-driven adaptation</v>
+        <v>plasma: a plan-based layered architecture for software model-driven adaptation</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>249</v>
@@ -13295,7 +13295,7 @@
         <v>2010</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H125" s="8" t="s">
         <v>229</v>
@@ -13358,23 +13358,23 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D126" s="8" t="str">
         <f t="shared" si="5"/>
         <v>probabilistic verification at runtime for self-adaptive systems</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F126" s="1">
         <v>2013</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H126" s="8" t="s">
         <v>229</v>
@@ -13422,10 +13422,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D127" s="8" t="str">
         <f t="shared" si="5"/>
@@ -13438,7 +13438,7 @@
         <v>2011</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H127" s="8" t="s">
         <v>229</v>
@@ -13501,23 +13501,23 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D128" s="8" t="str">
         <f t="shared" si="5"/>
         <v>model checking adaptive software with featured transition systems</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F128" s="1">
         <v>2013</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>229</v>
@@ -13580,10 +13580,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D129" s="8" t="str">
         <f t="shared" si="5"/>
@@ -13596,7 +13596,7 @@
         <v>2009</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H129" s="8" t="s">
         <v>229</v>
@@ -13659,10 +13659,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D130" s="8" t="str">
         <f t="shared" si="5"/>
@@ -13675,7 +13675,7 @@
         <v>2012</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H130" s="8" t="s">
         <v>229</v>
@@ -13723,7 +13723,7 @@
         <v>129</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D131" s="8" t="str">
         <f t="shared" si="5"/>
@@ -13736,7 +13736,7 @@
         <v>2013</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>229</v>
@@ -13784,23 +13784,23 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D132" s="8" t="str">
         <f t="shared" si="5"/>
         <v>counter example-guided abstraction refinement for symbolic model checking</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F132" s="1">
         <v>2003</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H132" s="8" t="s">
         <v>229</v>
@@ -13848,10 +13848,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D133" s="8" t="str">
         <f t="shared" si="5"/>
@@ -13864,7 +13864,7 @@
         <v>2012</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H133" s="8" t="s">
         <v>229</v>
@@ -13912,23 +13912,23 @@
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D134" s="1" t="str">
         <f t="shared" si="5"/>
         <v>trust in automation: part i. theoretical issues in the study of trust and human intervention in automated systems</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F134" s="1">
         <v>2007</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>229</v>
@@ -13976,17 +13976,17 @@
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D135" s="15" t="str">
         <f t="shared" si="5"/>
         <v>using kbs ideas in image processing - a casestudy in human computer interaction</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F135" s="1">
         <v>1988</v>
@@ -14016,10 +14016,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D136" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14032,7 +14032,7 @@
         <v>2010</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>229</v>
@@ -14080,10 +14080,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D137" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14096,7 +14096,7 @@
         <v>2006</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>229</v>
@@ -14144,10 +14144,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D138" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14160,7 +14160,7 @@
         <v>1995</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>229</v>
@@ -14208,23 +14208,23 @@
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D139" s="15" t="str">
         <f t="shared" si="5"/>
         <v>experiences with open overlays: a middleware approach to network heterogeneity</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F139" s="1">
         <v>2008</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>229</v>
@@ -14293,23 +14293,23 @@
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D140" s="15" t="str">
         <f t="shared" si="5"/>
         <v>a generic component model for building systems soft-ware</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F140" s="1">
         <v>2008</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>229</v>
@@ -14357,10 +14357,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D141" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14373,7 +14373,7 @@
         <v>2004</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>229</v>
@@ -14436,10 +14436,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D142" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14452,7 +14452,7 @@
         <v>2009</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>229</v>
@@ -14515,10 +14515,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D143" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14531,7 +14531,7 @@
         <v>2010</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>229</v>
@@ -14579,10 +14579,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D144" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14595,7 +14595,7 @@
         <v>2011</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>229</v>
@@ -14643,10 +14643,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D145" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14659,7 +14659,7 @@
         <v>2011</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>229</v>
@@ -14707,23 +14707,23 @@
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D146" s="15" t="str">
         <f t="shared" si="5"/>
         <v>requirements tracing to support change in dynamically adaptive systems</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F146" s="1">
         <v>2009</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>229</v>
@@ -14771,23 +14771,23 @@
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D147" s="15" t="str">
         <f t="shared" si="5"/>
         <v>non-functional requirements in software engineering</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F147" s="1">
         <v>1999</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>229</v>
@@ -14835,10 +14835,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D148" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14851,7 +14851,7 @@
         <v>1997</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>229</v>
@@ -14899,23 +14899,23 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D149" s="15" t="str">
         <f t="shared" si="5"/>
         <v>understanding the scope of uncertainty in dynamically adaptive systems</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F149" s="1">
         <v>2010</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>229</v>
@@ -14958,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="X149" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -14966,10 +14966,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D150" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14982,7 +14982,7 @@
         <v>2010</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>229</v>
@@ -15030,23 +15030,23 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D151" s="15" t="str">
         <f t="shared" si="5"/>
         <v>modeling dimensions of self-adaptive software systems</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F151" s="1">
         <v>2009</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>229</v>
@@ -15094,23 +15094,23 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D152" s="15" t="str">
         <f t="shared" si="5"/>
         <v>goal-based modeling of dynamically adaptive system requirements</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F152" s="1">
         <v>2008</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>229</v>
@@ -15158,23 +15158,23 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D153" s="15" t="str">
         <f t="shared" si="5"/>
         <v>why and why not explanations improve the intelligibility of context-aware intelligent systems</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F153" s="1">
         <v>2009</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>229</v>
@@ -15222,23 +15222,23 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D154" s="15" t="str">
         <f t="shared" si="5"/>
         <v>gridstix: supporting flood prediction using embedded hardware and next generation grid middleware</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F154" s="1">
         <v>2006</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>229</v>
@@ -15286,23 +15286,23 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D155" s="15" t="str">
         <f t="shared" si="5"/>
         <v>explaining type inference</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F155" s="1">
         <v>1995</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>229</v>
@@ -15350,10 +15350,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D156" s="15" t="str">
         <f t="shared" si="5"/>
@@ -15366,7 +15366,7 @@
         <v>1998</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>229</v>
@@ -15414,23 +15414,23 @@
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D157" s="15" t="str">
         <f t="shared" si="5"/>
         <v>proof verbalization as an application of nlg</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F157" s="1">
         <v>1997</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>229</v>
@@ -15478,23 +15478,23 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D158" s="15" t="str">
         <f t="shared" si="5"/>
         <v>automated theorem provers: a practical tool for theworking mathematician?</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F158" s="1">
         <v>2011</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>229</v>
@@ -15542,23 +15542,23 @@
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D159" s="15" t="str">
         <f t="shared" si="5"/>
         <v>duel - a very high-level debugging language</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F159" s="1">
         <v>1993</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>229</v>
@@ -15606,23 +15606,23 @@
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D160" s="15" t="str">
         <f t="shared" si="5"/>
         <v>clairvoyant: a comprehensive source-level debugger for wirelesssensor networks</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F160" s="1">
         <v>2007</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>229</v>
@@ -15670,10 +15670,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D161" s="15" t="str">
         <f t="shared" si="5"/>
@@ -15686,7 +15686,7 @@
         <v>2011</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>229</v>
@@ -15710,10 +15710,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D162" s="15" t="str">
         <f t="shared" si="5"/>
@@ -15726,7 +15726,7 @@
         <v>2010</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>229</v>
@@ -15789,23 +15789,23 @@
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D163" s="15" t="str">
         <f t="shared" si="5"/>
         <v>constructing self-adaptive systems using a kaos model</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F163" s="1">
         <v>2008</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>229</v>
@@ -15853,10 +15853,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D164" s="15" t="str">
         <f t="shared" si="5"/>
@@ -15893,23 +15893,23 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D165" s="15" t="str">
         <f t="shared" si="5"/>
         <v>software evolution background, theory, practice</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F165" s="1">
         <v>2003</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>229</v>
@@ -15957,23 +15957,23 @@
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D166" s="15" t="str">
         <f t="shared" si="5"/>
         <v>traceability for model driven, software product line engineering</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F166" s="1">
         <v>2008</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>229</v>
@@ -16021,23 +16021,23 @@
         <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D167" s="16" t="str">
         <f t="shared" si="5"/>
         <v>toward a smart grid: power delivery for the 21st century</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F167" s="1">
         <v>2005</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>229</v>
@@ -16085,23 +16085,23 @@
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D168" s="16" t="str">
         <f t="shared" si="5"/>
         <v>a learning-based approach to reactive security</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F168" s="1">
         <v>2012</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H168" s="16" t="s">
         <v>229</v>
@@ -16149,23 +16149,23 @@
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D169" s="16" t="str">
         <f t="shared" si="5"/>
         <v>literature review on smart grid cyber security</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F169" s="1">
         <v>2010</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H169" s="16" t="s">
         <v>229</v>
@@ -16213,23 +16213,23 @@
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D170" s="16" t="str">
         <f t="shared" si="5"/>
         <v>intrusion detection for advanced metering infrastructures: requirements and architectural directions</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F170" s="1">
         <v>2010</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H170" s="16" t="s">
         <v>229</v>
@@ -16277,23 +16277,23 @@
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D171" s="16" t="str">
         <f t="shared" si="5"/>
         <v>specification-based intrusion detection for advanced metering infrastructure</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F171" s="1">
         <v>2011</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H171" s="16" t="s">
         <v>229</v>
@@ -16341,7 +16341,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>55</v>
@@ -16378,23 +16378,23 @@
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D173" s="16" t="str">
         <f t="shared" si="5"/>
         <v>load control through smart-metering on distribution networks</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F173" s="1">
         <v>2009</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H173" s="16" t="s">
         <v>229</v>
@@ -16442,23 +16442,23 @@
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D174" s="16" t="str">
         <f t="shared" si="5"/>
         <v>probabilistic-based overload estimation for real-time smart grid vulnerability assessment</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F174" s="1">
         <v>2012</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H174" s="16" t="s">
         <v>229</v>
@@ -16506,23 +16506,23 @@
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D175" s="16" t="str">
         <f t="shared" si="5"/>
         <v>finite state automata and simple recurrent networks</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F175" s="1">
         <v>1989</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H175" s="16" t="s">
         <v>229</v>
@@ -16570,23 +16570,23 @@
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D176" s="16" t="str">
         <f t="shared" si="5"/>
         <v>real-time coordination of plug-in electric vehicle charging in smart grids to minimize power losses and improve voltage profile</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F176" s="1">
         <v>2011</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H176" s="16" t="s">
         <v>229</v>
@@ -16634,20 +16634,20 @@
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D177" s="16" t="str">
         <f t="shared" si="5"/>
         <v>standard ecma-262 - ecmascript language specification</v>
       </c>
       <c r="E177" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G177" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>668</v>
       </c>
       <c r="H177" s="16" t="s">
         <v>229</v>
@@ -16695,10 +16695,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D178" s="16" t="str">
         <f t="shared" si="5"/>
@@ -16711,7 +16711,7 @@
         <v>2010</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H178" s="16" t="s">
         <v>229</v>
@@ -16759,23 +16759,23 @@
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D179" s="16" t="str">
         <f t="shared" si="5"/>
         <v>cyber security and power system communication–essential parts of a smart grid infrastructure</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F179" s="1">
         <v>2010</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H179" s="16" t="s">
         <v>229</v>
@@ -16823,23 +16823,23 @@
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D180" s="16" t="str">
         <f t="shared" si="5"/>
         <v>smart grid—the new and improved power grid: a survey</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F180" s="1">
         <v>2011</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H180" s="16" t="s">
         <v>229</v>
@@ -16887,23 +16887,23 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D181" s="16" t="str">
         <f t="shared" si="5"/>
         <v>the path of the smart grid</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F181" s="1">
         <v>2009</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H181" s="16" t="s">
         <v>229</v>
@@ -16951,10 +16951,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D182" s="16" t="str">
         <f t="shared" si="5"/>
@@ -16967,7 +16967,7 @@
         <v>2012</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H182" s="16" t="s">
         <v>229</v>
@@ -17015,23 +17015,23 @@
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D183" s="16" t="str">
         <f t="shared" si="5"/>
         <v>domain specific languages</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F183" s="1">
         <v>2010</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H183" s="16" t="s">
         <v>229</v>
@@ -17079,10 +17079,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D184" s="16" t="str">
         <f t="shared" si="5"/>
@@ -17095,7 +17095,7 @@
         <v>2010</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H184" s="16" t="s">
         <v>229</v>
@@ -17143,10 +17143,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D185" s="16" t="str">
         <f t="shared" ref="D185:D204" si="7">TRIM(LOWER(C185))</f>
@@ -17201,10 +17201,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D186" s="16" t="str">
         <f t="shared" si="7"/>
@@ -17238,23 +17238,23 @@
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D187" s="16" t="str">
         <f t="shared" si="7"/>
         <v>a conceptual framework for the vehicle-to-grid (v2g) implementation</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F187" s="1">
         <v>2009</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H187" s="16" t="s">
         <v>229</v>
@@ -17302,23 +17302,23 @@
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D188" s="16" t="str">
         <f t="shared" si="7"/>
         <v>model driven engineering</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F188" s="1">
         <v>2002</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H188" s="16" t="s">
         <v>229</v>
@@ -17366,23 +17366,23 @@
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D189" s="16" t="str">
         <f t="shared" si="7"/>
         <v>smart-grid security issues</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F189" s="1">
         <v>2010</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H189" s="16" t="s">
         <v>229</v>
@@ -17430,10 +17430,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D190" s="16" t="str">
         <f t="shared" si="7"/>
@@ -17446,7 +17446,7 @@
         <v>2010</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H190" s="16" t="s">
         <v>229</v>
@@ -17494,10 +17494,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D191" s="16" t="str">
         <f t="shared" si="7"/>
@@ -17510,7 +17510,7 @@
         <v>2010</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H191" s="16" t="s">
         <v>229</v>
@@ -17558,23 +17558,23 @@
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D192" s="16" t="str">
         <f t="shared" si="7"/>
         <v>security and privacy challenges in the smart grid</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F192" s="1">
         <v>2009</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H192" s="16" t="s">
         <v>229</v>
@@ -17619,10 +17619,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D193" s="16" t="str">
         <f t="shared" si="7"/>
@@ -17653,10 +17653,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D194" s="16" t="str">
         <f t="shared" si="7"/>
@@ -17687,10 +17687,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D195" s="16" t="str">
         <f t="shared" si="7"/>
@@ -17703,7 +17703,7 @@
         <v>2005</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H195" s="16" t="s">
         <v>229</v>
@@ -17751,10 +17751,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D196" s="16" t="str">
         <f t="shared" si="7"/>
@@ -17764,7 +17764,7 @@
         <v>1989</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H196" s="16" t="s">
         <v>229</v>
@@ -17812,23 +17812,23 @@
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D197" s="16" t="str">
         <f t="shared" si="7"/>
         <v>private sector cyber security investment:an empirical analysis</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F197" s="1">
         <v>2006</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H197" s="16" t="s">
         <v>229</v>
@@ -17876,10 +17876,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D198" s="16" t="str">
         <f t="shared" si="7"/>
@@ -17892,7 +17892,7 @@
         <v>1990</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H198" s="16" t="s">
         <v>229</v>
@@ -17940,23 +17940,23 @@
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D199" s="16" t="str">
         <f t="shared" si="7"/>
         <v>feature selection methods: genetic algorithms vs greedy-like search</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F199" s="1">
         <v>1994</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H199" s="16" t="s">
         <v>229</v>
@@ -18004,10 +18004,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D200" s="16" t="str">
         <f t="shared" si="7"/>
@@ -18020,7 +18020,7 @@
         <v>2010</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H200" s="16" t="s">
         <v>229</v>
@@ -18068,23 +18068,23 @@
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D201" s="16" t="str">
         <f t="shared" si="7"/>
         <v>eventually consistent</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F201" s="1">
         <v>2008</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H201" s="16" t="s">
         <v>229</v>
@@ -18132,23 +18132,23 @@
         <v>200</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D202" s="16" t="str">
         <f t="shared" si="7"/>
         <v>stochastic modeling and the theory of queues</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F202" s="1">
         <v>1989</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="H202" s="16" t="s">
         <v>229</v>
@@ -18196,23 +18196,23 @@
         <v>201</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D203" s="16" t="str">
         <f t="shared" si="7"/>
         <v>secure authenticated key exchange with revocation for smartgrid</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F203" s="1">
         <v>2012</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H203" s="16" t="s">
         <v>229</v>
@@ -18260,23 +18260,23 @@
         <v>202</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D204" s="1" t="str">
         <f t="shared" si="7"/>
         <v>a dynamic component model for cyber physical systems</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F204" s="1">
         <v>2012</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>17</v>
@@ -18357,18 +18357,9 @@
       <c r="M207" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="U207" s="1">
-        <f>COUNTIF(U3:U204,"=yes") + COUNTIF(U3:U204,"=(yes)")</f>
-        <v>39</v>
-      </c>
-      <c r="V207" s="23">
-        <f>COUNTIF(V3:V204,"=yes") + COUNTIF(V3:V204,"=(yes)")</f>
-        <v>34</v>
-      </c>
-      <c r="W207" s="23">
-        <f>COUNTIF(W3:W204,"=yes") + COUNTIF(W3:W204,"=(yes)")</f>
-        <v>41</v>
-      </c>
+      <c r="T207" s="23"/>
+      <c r="V207" s="23"/>
+      <c r="W207" s="23"/>
     </row>
     <row r="208" spans="1:26">
       <c r="I208" s="1" t="b">
@@ -24996,7 +24987,7 @@
   <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25006,23 +24997,23 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="C3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="C4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D4" t="s">
         <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C5">
         <f>COUNTIF('RQ1 - LongTermAction'!T3:T204,"TRUE")-COUNTA('RQ1 - LongTermAction'!U3:U204)</f>
@@ -25042,18 +25033,18 @@
     </row>
     <row r="8" spans="2:5">
       <c r="C8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="C9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D9" t="s">
         <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -25075,7 +25066,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C11">
         <f>COUNTIF('RQ1 - LongTermAction'!Z:Z,"NO")</f>
@@ -25212,13 +25203,13 @@
         <v>11</v>
       </c>
       <c r="U2" s="9" t="s">
+        <v>1362</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>1363</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>1364</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>1365</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>1366</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>12</v>
@@ -25235,10 +25226,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D3" s="9" t="str">
         <f>TRIM(LOWER(C3))</f>
@@ -25251,7 +25242,7 @@
         <v>2013</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>17</v>
@@ -25314,23 +25305,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D4" s="9" t="str">
         <f t="shared" ref="D4:D67" si="0">TRIM(LOWER(C4))</f>
         <v>openturns: an industrial software for uncertainty quantification in simulation</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F4" s="9">
         <v>2017</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>17</v>
@@ -25393,23 +25384,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>measure transformer semantics for bayesian machine learning</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F5" s="9">
         <v>2013</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>17</v>
@@ -25472,23 +25463,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>statistics for experiments: design, innovation, and discovery</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F6" s="9">
         <v>2005</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>17</v>
@@ -25536,23 +25527,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>expressing measurement uncertainty in ocl/uml datatypes</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F7" s="9">
         <v>2018</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>17</v>
@@ -25615,23 +25606,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>uncertain&lt;t&gt;: a first-order type for uncertain data</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F8" s="9">
         <v>2014</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>17</v>
@@ -25694,23 +25685,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>abstractions and techniques for programming with uncertain data</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F9" s="9">
         <v>2013</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>17</v>
@@ -25758,10 +25749,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -25774,7 +25765,7 @@
         <v>2017</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>17</v>
@@ -25837,23 +25828,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>composition and interoperability for external domain-specific language engineering</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F11" s="9">
         <v>2016</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>17</v>
@@ -25901,23 +25892,23 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>a generalization of bayesian inference</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F12" s="9">
         <v>1968</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>17</v>
@@ -25965,10 +25956,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D13" s="9" t="str">
         <f t="shared" si="0"/>
@@ -25981,7 +25972,7 @@
         <v>2014</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>17</v>
@@ -26044,10 +26035,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -26060,7 +26051,7 @@
         <v>2012</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>17</v>
@@ -26123,23 +26114,23 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>managing design-time uncertainty</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F15" s="9">
         <v>2017</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>17</v>
@@ -26202,23 +26193,23 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>traffic-aware stress testing of distributed real-time systems based on uml models in the presence of time uncertainty</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F16" s="9">
         <v>2008</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>17</v>
@@ -26281,23 +26272,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>probabilistic programming</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F17" s="9">
         <v>2014</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>17</v>
@@ -26351,23 +26342,23 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>generalized functions</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F18" s="9">
         <v>1964</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>17</v>
@@ -26415,23 +26406,23 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>near real-time electric load approximation in low voltage cables of smart grids with models@run.time</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F19" s="9">
         <v>2016</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>17</v>
@@ -26479,10 +26470,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D20" s="9" t="str">
         <f t="shared" si="0"/>
@@ -26495,7 +26486,7 @@
         <v>2004</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>17</v>
@@ -26543,23 +26534,23 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>mashup of metalanguages and its implementation in the kermeta language workbench</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F21" s="9">
         <v>2015</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>17</v>
@@ -26607,10 +26598,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D22" s="9" t="str">
         <f t="shared" si="0"/>
@@ -26620,7 +26611,7 @@
         <v>2018</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>17</v>
@@ -26668,10 +26659,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D23" s="9" t="str">
         <f t="shared" si="0"/>
@@ -26684,7 +26675,7 @@
         <v>2017</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>17</v>
@@ -26732,23 +26723,23 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>industry 4.0</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F24" s="9">
         <v>2014</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>17</v>
@@ -26796,23 +26787,23 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>the 2015 ukraine blackout: implications for false data injection attacks</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F25" s="9">
         <v>2017</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>17</v>
@@ -26860,17 +26851,17 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>static typing where possible , dynamic typing when needed : the end of the cold war between programming languages</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F26" s="9">
         <v>2004</v>
@@ -26921,23 +26912,23 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>evaluation of measurement data - guide to the expression of uncertainty in measurement</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F27" s="9">
         <v>2008</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>17</v>
@@ -26985,23 +26976,23 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>introduction to the theory of statistics</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F28" s="9">
         <v>1963</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>17</v>
@@ -27049,23 +27040,23 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>the varieties of programming language semantics</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F29" s="9">
         <v>2001</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>17</v>
@@ -27113,10 +27104,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D30" s="9" t="str">
         <f t="shared" si="0"/>
@@ -27126,7 +27117,7 @@
         <v>2018</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>17</v>
@@ -27174,23 +27165,23 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>adding uncertainty and units to quantity types in software models</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F31" s="9">
         <v>2016</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>17</v>
@@ -27253,10 +27244,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D32" s="9" t="str">
         <f t="shared" si="0"/>
@@ -27269,7 +27260,7 @@
         <v>2002</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>17</v>
@@ -27317,23 +27308,23 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>a mathematical theory of evidence</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F33" s="9">
         <v>1976</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>17</v>
@@ -27381,23 +27372,23 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>probabilistic programming in python using pymc3</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F34" s="9">
         <v>2016</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>17</v>
@@ -27460,23 +27451,23 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>fds: fault detection scheme for wireless sensor networks</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F35" s="9">
         <v>2016</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>17</v>
@@ -27524,23 +27515,23 @@
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D36" s="9" t="str">
         <f t="shared" si="0"/>
         <v>expressing measurement uncertainty in software models</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F36" s="9">
         <v>2016</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>17</v>
@@ -27603,23 +27594,23 @@
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D37" s="9" t="str">
         <f t="shared" si="0"/>
         <v>hand-book on statistical distributions for experimentalists</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F37" s="9">
         <v>1996</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>17</v>
@@ -27667,23 +27658,23 @@
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D38" s="9" t="str">
         <f t="shared" si="0"/>
         <v>software engineering of self-adaptive systems</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F38" s="9">
         <v>2019</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>17</v>
@@ -27731,10 +27722,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D39" s="9" t="str">
         <f t="shared" si="0"/>
@@ -27747,7 +27738,7 @@
         <v>2009</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>17</v>
@@ -27810,10 +27801,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="D40" s="9" t="str">
         <f t="shared" si="0"/>
@@ -27826,7 +27817,7 @@
         <v>2010</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>17</v>
@@ -27889,10 +27880,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D41" s="9" t="str">
         <f t="shared" si="0"/>
@@ -27905,7 +27896,7 @@
         <v>1988</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>17</v>
@@ -27953,23 +27944,23 @@
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D42" s="9" t="str">
         <f t="shared" si="0"/>
         <v>fuzzy sets</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F42" s="9">
         <v>1996</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>17</v>
@@ -28017,23 +28008,23 @@
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D43" s="9" t="str">
         <f t="shared" si="0"/>
         <v>uncertainty-wise cyber-physical system test modeling</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F43" s="9">
         <v>2017</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>17</v>
@@ -28096,23 +28087,23 @@
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D44" s="9" t="str">
         <f t="shared" si="0"/>
         <v>inheritance and subtyping in a parallel object-oriented language</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F44" s="9">
         <v>1987</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>229</v>
@@ -28160,23 +28151,23 @@
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D45" s="9" t="str">
         <f t="shared" si="0"/>
         <v>uncertain ocl datatypes</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F45" s="9">
         <v>2018</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>229</v>
@@ -28224,23 +28215,23 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D46" s="9" t="str">
         <f t="shared" si="0"/>
         <v>challenges in modeling cyber-physical systems</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F46" s="9">
         <v>2013</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>229</v>
@@ -28288,23 +28279,23 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D47" s="9" t="str">
         <f t="shared" si="0"/>
         <v>on ocl-based imperative languages</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F47" s="9">
         <v>2014</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>229</v>
@@ -28352,23 +28343,23 @@
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D48" s="9" t="str">
         <f t="shared" si="0"/>
         <v>managing uncertainty in bidirectional model transformations</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F48" s="9">
         <v>2015</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H48" s="18" t="s">
         <v>229</v>
@@ -28431,23 +28422,23 @@
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D49" s="9" t="str">
         <f t="shared" si="0"/>
         <v>uncertainty in self-adaptive software systems</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F49" s="9">
         <v>2013</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H49" s="18" t="s">
         <v>229</v>
@@ -28510,10 +28501,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D50" s="9" t="str">
         <f t="shared" si="0"/>
@@ -28547,23 +28538,23 @@
         <v>49</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D51" s="9" t="str">
         <f t="shared" si="0"/>
         <v>software engineering in an uncertain world</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F51" s="9">
         <v>2010</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H51" s="18" t="s">
         <v>229</v>
@@ -28611,23 +28602,23 @@
         <v>50</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D52" s="9" t="str">
         <f t="shared" si="0"/>
         <v>use: a uml-based specification environment for validating uml and ocl</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F52" s="9">
         <v>2007</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H52" s="18" t="s">
         <v>229</v>
@@ -28675,23 +28666,23 @@
         <v>51</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D53" s="9" t="str">
         <f t="shared" si="0"/>
         <v>model validation and verification options in a contemporary uml and ocl analysis tool</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F53" s="9">
         <v>2016</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H53" s="18" t="s">
         <v>229</v>
@@ -28739,23 +28730,23 @@
         <v>52</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D54" s="9" t="str">
         <f t="shared" si="0"/>
         <v>component interfaces that support measurement uncertainty</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F54" s="9">
         <v>2006</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H54" s="18" t="s">
         <v>229</v>
@@ -28818,10 +28809,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>942</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>944</v>
       </c>
       <c r="D55" s="9" t="str">
         <f t="shared" si="0"/>
@@ -28849,23 +28840,23 @@
         <v>54</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D56" s="9" t="str">
         <f t="shared" si="0"/>
         <v>evaluation of measurement data – supplement 1 to the “guide to the expression of uncertainty in measurement” – propagation of distributions using a monte carlo method</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F56" s="9">
         <v>2008</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H56" s="18" t="s">
         <v>229</v>
@@ -28913,23 +28904,23 @@
         <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D57" s="9" t="str">
         <f t="shared" si="0"/>
         <v>generating optimized configurable business process models in scenarios subject to uncertainty</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F57" s="9">
         <v>2015</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H57" s="18" t="s">
         <v>229</v>
@@ -28992,23 +28983,23 @@
         <v>56</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D58" s="9" t="str">
         <f t="shared" si="0"/>
         <v>fuzziness vs. probability</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F58" s="9">
         <v>1990</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>229</v>
@@ -29056,23 +29047,23 @@
         <v>57</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D59" s="9" t="str">
         <f t="shared" si="0"/>
         <v>cyber physical systems: design challenges</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F59" s="9">
         <v>2008</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H59" s="18" t="s">
         <v>229</v>
@@ -29120,23 +29111,23 @@
         <v>58</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D60" s="9" t="str">
         <f t="shared" si="0"/>
         <v>a behavioral notion of subtyping</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F60" s="9">
         <v>1994</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H60" s="18" t="s">
         <v>229</v>
@@ -29184,23 +29175,23 @@
         <v>59</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D61" s="9" t="str">
         <f t="shared" si="0"/>
         <v>the role of models in managing the uncertainty of software-intensive systems</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F61" s="9">
         <v>1995</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H61" s="18" t="s">
         <v>229</v>
@@ -29248,23 +29239,23 @@
         <v>60</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D62" s="9" t="str">
         <f t="shared" si="0"/>
         <v>specifying quantities in software models</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F62" s="9">
         <v>2018</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H62" s="18" t="s">
         <v>229</v>
@@ -29294,23 +29285,23 @@
         <v>61</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D63" s="9" t="str">
         <f t="shared" si="0"/>
         <v>object constraint language (ocl) specification</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F63" s="9">
         <v>2010</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H63" s="18" t="s">
         <v>229</v>
@@ -29358,23 +29349,23 @@
         <v>62</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D64" s="9" t="str">
         <f t="shared" si="0"/>
         <v>uml profile for marte: modeling and analysis of real-time embedded systems</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F64" s="9">
         <v>2011</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H64" s="18" t="s">
         <v>229</v>
@@ -29422,23 +29413,23 @@
         <v>63</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D65" s="9" t="str">
         <f t="shared" si="0"/>
         <v>unified modeling language (uml) specification</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F65" s="9">
         <v>2015</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>229</v>
@@ -29486,23 +29477,23 @@
         <v>64</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D66" s="9" t="str">
         <f t="shared" si="0"/>
         <v>omg systems modeling language (sysml)</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F66" s="9">
         <v>2016</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>229</v>
@@ -29550,23 +29541,23 @@
         <v>65</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D67" s="9" t="str">
         <f t="shared" si="0"/>
         <v>structured metrics metamodel (smm) specification</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F67" s="9">
         <v>2016</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>229</v>
@@ -29614,10 +29605,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D68" s="9" t="str">
         <f t="shared" ref="D68:D140" si="3">TRIM(LOWER(C68))</f>
@@ -29630,7 +29621,7 @@
         <v>2013</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H68" s="18" t="s">
         <v>229</v>
@@ -29693,23 +29684,23 @@
         <v>67</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D69" s="9" t="str">
         <f t="shared" si="3"/>
         <v>beyond mere logic – a vision of modeling languages for the 21st century</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F69" s="9">
         <v>2015</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H69" s="18" t="s">
         <v>229</v>
@@ -29757,10 +29748,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D70" s="9" t="str">
         <f t="shared" si="3"/>
@@ -29788,23 +29779,23 @@
         <v>69</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D71" s="9" t="str">
         <f t="shared" si="3"/>
         <v>list of uncertainty propagation software</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F71" s="9">
         <v>2018</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H71" s="18" t="s">
         <v>229</v>
@@ -29852,23 +29843,23 @@
         <v>70</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D72" s="9" t="str">
         <f t="shared" si="3"/>
         <v>a modeling language for measurement uncertainty evaluation</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F72" s="9">
         <v>2009</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H72" s="18" t="s">
         <v>229</v>
@@ -29916,17 +29907,17 @@
         <v>71</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D73" s="9" t="str">
         <f t="shared" si="3"/>
         <v>uncertainty-wise cyber-physical system test modeling</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F73" s="9">
         <v>2017</v>
@@ -29953,23 +29944,23 @@
         <v>72</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D74" s="9" t="str">
         <f t="shared" si="3"/>
         <v>understanding uncertainty in cyber-physical systems: a conceptual model</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F74" s="9">
         <v>2016</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H74" s="18" t="s">
         <v>229</v>
@@ -30032,23 +30023,23 @@
         <v>73</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D75" s="9" t="str">
         <f t="shared" si="3"/>
         <v>international vocabulary of metrology – basic and general concepts and associated terms (vim)</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F75" s="9">
         <v>2008</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H75" s="18" t="s">
         <v>229</v>
@@ -30096,23 +30087,23 @@
         <v>74</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D76" s="18" t="str">
         <f t="shared" si="3"/>
         <v>the management of probabilistic data</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F76" s="9">
         <v>1992</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>229</v>
@@ -30175,23 +30166,23 @@
         <v>75</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D77" s="18" t="str">
         <f t="shared" si="3"/>
         <v>uldbs: databases with uncertainty and lineage</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F77" s="9">
         <v>2006</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H77" s="18" t="s">
         <v>229</v>
@@ -30254,23 +30245,23 @@
         <v>76</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D78" s="18" t="str">
         <f t="shared" si="3"/>
         <v>winning ways for your mathematical plays</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F78" s="9">
         <v>2004</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H78" s="18" t="s">
         <v>229</v>
@@ -30318,23 +30309,23 @@
         <v>77</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D79" s="18" t="str">
         <f t="shared" si="3"/>
         <v>a type theory for probability density functions</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F79" s="9">
         <v>2012</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H79" s="18" t="s">
         <v>229</v>
@@ -30397,23 +30388,23 @@
         <v>78</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D80" s="18" t="str">
         <f t="shared" si="3"/>
         <v>pattern recognition and machine learning</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F80" s="9">
         <v>2006</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="H80" s="18" t="s">
         <v>229</v>
@@ -30461,17 +30452,17 @@
         <v>79</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D81" s="18" t="str">
         <f t="shared" si="3"/>
         <v>measure transformer semantics for bayesian machine learning</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F81" s="9">
         <v>2011</v>
@@ -30498,10 +30489,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D82" s="18" t="str">
         <f t="shared" si="3"/>
@@ -30529,23 +30520,23 @@
         <v>81</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D83" s="18" t="str">
         <f t="shared" si="3"/>
         <v>a note on the generation of random normal deviates</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F83" s="9">
         <v>1958</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="H83" s="18" t="s">
         <v>229</v>
@@ -30593,23 +30584,23 @@
         <v>82</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D84" s="18" t="str">
         <f t="shared" si="3"/>
         <v>verifying quantitative reliability of programs that execute on unreliable hardware</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F84" s="9">
         <v>2013</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="H84" s="18" t="s">
         <v>229</v>
@@ -30672,23 +30663,23 @@
         <v>83</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D85" s="18" t="str">
         <f t="shared" si="3"/>
         <v>efficiently sampling probabilistic programs via program analysis</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F85" s="9">
         <v>2013</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>229</v>
@@ -30751,23 +30742,23 @@
         <v>84</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D86" s="18" t="str">
         <f t="shared" si="3"/>
         <v>management of probabilistic data: foundations and challenges</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F86" s="9">
         <v>2007</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="H86" s="18" t="s">
         <v>229</v>
@@ -30815,23 +30806,23 @@
         <v>85</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D87" s="18" t="str">
         <f t="shared" si="3"/>
         <v>neural acceleration for general-purpose approximate programs</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F87" s="9">
         <v>2012</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="H87" s="18" t="s">
         <v>229</v>
@@ -30879,23 +30870,23 @@
         <v>86</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D88" s="18" t="str">
         <f t="shared" si="3"/>
         <v>a language and program for complex bayesian modelling</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F88" s="9">
         <v>1994</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H88" s="18" t="s">
         <v>229</v>
@@ -30943,23 +30934,23 @@
         <v>87</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D89" s="18" t="str">
         <f t="shared" si="3"/>
         <v>a categorical approach to probability theory</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F89" s="9">
         <v>1982</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H89" s="18" t="s">
         <v>229</v>
@@ -31007,23 +30998,23 @@
         <v>88</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D90" s="18" t="str">
         <f t="shared" si="3"/>
         <v>church: a language for generative models</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F90" s="9">
         <v>2008</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="H90" s="18" t="s">
         <v>229</v>
@@ -31071,23 +31062,23 @@
         <v>89</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D91" s="18" t="str">
         <f t="shared" si="3"/>
         <v>arithmetic operations on independent random variables: a numerical approach</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F91" s="9">
         <v>2012</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="H91" s="18" t="s">
         <v>229</v>
@@ -31150,23 +31141,23 @@
         <v>90</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D92" s="18" t="str">
         <f t="shared" si="3"/>
         <v>group sequential methods with applications to clinical trials</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F92" s="9">
         <v>2000</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H92" s="18" t="s">
         <v>229</v>
@@ -31214,23 +31205,23 @@
         <v>91</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D93" s="18" t="str">
         <f t="shared" si="3"/>
         <v>making it easier to build and maintain big-data analytics</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F93" s="9">
         <v>2013</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H93" s="18" t="s">
         <v>229</v>
@@ -31278,23 +31269,23 @@
         <v>92</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D94" s="18" t="str">
         <f t="shared" si="3"/>
         <v>interval analysis</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F94" s="9">
         <v>1966</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="H94" s="18" t="s">
         <v>229</v>
@@ -31342,23 +31333,23 @@
         <v>93</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D95" s="18" t="str">
         <f t="shared" si="3"/>
         <v>bayesian learning for neural networks</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F95" s="9">
         <v>1994</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="H95" s="18" t="s">
         <v>229</v>
@@ -31406,23 +31397,23 @@
         <v>94</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D96" s="18" t="str">
         <f t="shared" si="3"/>
         <v>hidden markov map matching through noise and sparseness</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F96" s="9">
         <v>2009</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="H96" s="18" t="s">
         <v>229</v>
@@ -31470,10 +31461,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D97" s="18" t="str">
         <f t="shared" si="3"/>
@@ -31528,23 +31519,23 @@
         <v>96</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D98" s="18" t="str">
         <f t="shared" si="3"/>
         <v>a probabilistic language based on sampling functions</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F98" s="9">
         <v>2005</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H98" s="18" t="s">
         <v>229</v>
@@ -31607,23 +31598,23 @@
         <v>97</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D99" s="18" t="str">
         <f t="shared" si="3"/>
         <v>ibal: a probabilistic rational programming language</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F99" s="9">
         <v>2001</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H99" s="18" t="s">
         <v>229</v>
@@ -31686,23 +31677,23 @@
         <v>98</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D100" s="18" t="str">
         <f t="shared" si="3"/>
         <v>stochastic lambda calculus and monads of probability distributions</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F100" s="9">
         <v>2002</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H100" s="18" t="s">
         <v>229</v>
@@ -31765,23 +31756,23 @@
         <v>99</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D101" s="18" t="str">
         <f t="shared" si="3"/>
         <v>enerj: approximate data types for safe and general low-power computation</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F101" s="9">
         <v>2011</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="H101" s="18" t="s">
         <v>229</v>
@@ -31829,23 +31820,23 @@
         <v>100</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D102" s="18" t="str">
         <f t="shared" si="3"/>
         <v>static analysis for probabilistic programs: inferring whole program properties from finitely many paths</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F102" s="9">
         <v>2013</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="H102" s="18" t="s">
         <v>229</v>
@@ -31908,23 +31899,23 @@
         <v>101</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D103" s="18" t="str">
         <f t="shared" si="3"/>
         <v>monte carlo methods for managing interactive state, action and feedback under uncertainty</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F103" s="9">
         <v>2011</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="H103" s="18" t="s">
         <v>229</v>
@@ -31987,23 +31978,23 @@
         <v>102</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D104" s="18" t="str">
         <f t="shared" si="3"/>
         <v>global positioning system: the mathematics of gps receivers</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F104" s="9">
         <v>1998</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H104" s="18" t="s">
         <v>229</v>
@@ -32051,23 +32042,23 @@
         <v>103</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D105" s="18" t="str">
         <f t="shared" si="3"/>
         <v>towards programming tools for robots that integrate probabilistic computation and learning</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F105" s="9">
         <v>2000</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="H105" s="18" t="s">
         <v>229</v>
@@ -32130,10 +32121,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D106" s="18" t="str">
         <f t="shared" si="3"/>
@@ -32143,7 +32134,7 @@
         <v>1970</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="H106" s="18" t="s">
         <v>229</v>
@@ -32191,17 +32182,17 @@
         <v>105</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D107" s="18" t="str">
         <f t="shared" si="3"/>
         <v>sequential tests of statistical hypotheses</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F107" s="9">
         <v>1945</v>
@@ -32252,10 +32243,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D108" s="18" t="str">
         <f t="shared" si="3"/>
@@ -32265,7 +32256,7 @@
         <v>2016</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>229</v>
@@ -32313,10 +32304,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D109" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32326,7 +32317,7 @@
         <v>2015</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H109" s="19" t="s">
         <v>229</v>
@@ -32374,10 +32365,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D110" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32387,7 +32378,7 @@
         <v>2009</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="H110" s="19" t="s">
         <v>229</v>
@@ -32435,23 +32426,23 @@
         <v>109</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D111" s="9" t="str">
         <f t="shared" si="3"/>
         <v>cvode, a stiff/nonstiff ode solver in c</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F111" s="9">
         <v>1996</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H111" s="19" t="s">
         <v>229</v>
@@ -32499,10 +32490,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D112" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32512,7 +32503,7 @@
         <v>2010</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="H112" s="19" t="s">
         <v>229</v>
@@ -32560,23 +32551,23 @@
         <v>111</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D113" s="9" t="str">
         <f t="shared" si="3"/>
         <v>hybrid monte carlo</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="F113" s="9">
         <v>1987</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H113" s="19" t="s">
         <v>229</v>
@@ -32624,10 +32615,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D114" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32682,23 +32673,23 @@
         <v>113</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D115" s="9" t="str">
         <f t="shared" si="3"/>
         <v>bayesian data analysis</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F115" s="9">
         <v>2013</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="H115" s="19" t="s">
         <v>229</v>
@@ -32746,23 +32737,23 @@
         <v>114</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D116" s="9" t="str">
         <f t="shared" si="3"/>
         <v>why we (usually) don’t have to worry about multiple comparisons</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="F116" s="9">
         <v>2012</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="H116" s="19" t="s">
         <v>229</v>
@@ -32810,23 +32801,23 @@
         <v>115</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D117" s="9" t="str">
         <f t="shared" si="3"/>
         <v>inference from iterative simulation using multiple sequences</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="F117" s="9">
         <v>1992</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="H117" s="19" t="s">
         <v>229</v>
@@ -32874,23 +32865,23 @@
         <v>116</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D118" s="9" t="str">
         <f t="shared" si="3"/>
         <v>introduction to markov chain monte carlo</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F118" s="9">
         <v>2011</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H118" s="19" t="s">
         <v>229</v>
@@ -32938,10 +32929,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D119" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32951,7 +32942,7 @@
         <v>2016</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="H119" s="19" t="s">
         <v>229</v>
@@ -32999,10 +32990,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D120" s="9" t="str">
         <f t="shared" si="3"/>
@@ -33012,7 +33003,7 @@
         <v>2010</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="H120" s="19" t="s">
         <v>229</v>
@@ -33060,23 +33051,23 @@
         <v>119</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D121" s="9" t="str">
         <f t="shared" si="3"/>
         <v>sundials: suite of nonlinear and differential/algebraic equation solvers</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F121" s="9">
         <v>2005</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="H121" s="19" t="s">
         <v>229</v>
@@ -33124,23 +33115,23 @@
         <v>120</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D122" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the no-u-turn sampler: adaptively setting path lengths in hamiltonian monte carlo</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F122" s="9">
         <v>2014</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="H122" s="19" t="s">
         <v>229</v>
@@ -33188,23 +33179,23 @@
         <v>121</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D123" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the bugs book – a practical introduction to bayesian analysis</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F123" s="9">
         <v>2012</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H123" s="19" t="s">
         <v>229</v>
@@ -33252,23 +33243,23 @@
         <v>122</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D124" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the bugs project: evolution, critique, and future directions</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F124" s="9">
         <v>2009</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="H124" s="19" t="s">
         <v>229</v>
@@ -33316,23 +33307,23 @@
         <v>123</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D125" s="9" t="str">
         <f t="shared" si="3"/>
         <v>winbugs – a bayesian modelling framework: concepts, structure, and extensibility</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="F125" s="9">
         <v>2000</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="H125" s="19" t="s">
         <v>229</v>
@@ -33395,23 +33386,23 @@
         <v>124</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D126" s="9" t="str">
         <f t="shared" si="3"/>
         <v>equation of state calculations by fast computing machines</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F126" s="9">
         <v>1953</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="H126" s="19" t="s">
         <v>229</v>
@@ -33459,17 +33450,17 @@
         <v>125</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D127" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the latex companion. tools and techniques for computer typesetting</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="F127" s="9">
         <v>2004</v>
@@ -33521,23 +33512,23 @@
         <v>126</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D128" s="9" t="str">
         <f t="shared" si="3"/>
         <v>mcmc using hamiltonian dynamics.</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F128" s="9">
         <v>2011</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="H128" s="19" t="s">
         <v>229</v>
@@ -33585,23 +33576,23 @@
         <v>127</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D129" s="9" t="str">
         <f t="shared" si="3"/>
         <v>an improved acceptance procedure for the hybrid monte carlo algo- rithm</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F129" s="9">
         <v>1994</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="H129" s="19" t="s">
         <v>229</v>
@@ -33649,23 +33640,23 @@
         <v>128</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D130" s="9" t="str">
         <f t="shared" si="3"/>
         <v>slice sampling</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="F130" s="9">
         <v>2003</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="H130" s="19" t="s">
         <v>229</v>
@@ -33713,17 +33704,17 @@
         <v>129</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="D131" s="9" t="str">
         <f t="shared" si="3"/>
         <v>numerical optimization</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F131" s="9">
         <v>2006</v>
@@ -33774,23 +33765,23 @@
         <v>130</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D132" s="9" t="str">
         <f t="shared" si="3"/>
         <v>jags: a program for analysis of bayesian graphical models using gibbs sampling</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F132" s="9">
         <v>2003</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="H132" s="19" t="s">
         <v>229</v>
@@ -33853,23 +33844,23 @@
         <v>131</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D133" s="9" t="str">
         <f t="shared" si="3"/>
         <v>code: convergence diagnosis and out- put analysis for mcmc</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F133" s="9">
         <v>2006</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="H133" s="19" t="s">
         <v>229</v>
@@ -33917,23 +33908,23 @@
         <v>132</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D134" s="9" t="str">
         <f t="shared" si="3"/>
         <v>r: a language and environment for statistical computing</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F134" s="9">
         <v>2016</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="H134" s="19" t="s">
         <v>229</v>
@@ -33981,23 +33972,23 @@
         <v>133</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D135" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the boost c++ libraries</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="F135" s="9">
         <v>2011</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="H135" s="19" t="s">
         <v>229</v>
@@ -34045,23 +34036,23 @@
         <v>134</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D136" s="9" t="str">
         <f t="shared" si="3"/>
         <v>jenkins: the definitive guide</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F136" s="9">
         <v>2011</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="H136" s="19" t="s">
         <v>229</v>
@@ -34109,23 +34100,23 @@
         <v>135</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D137" s="9" t="str">
         <f t="shared" si="3"/>
         <v>stan modeling language user’s guide and reference manual</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="F137" s="9">
         <v>2016</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="H137" s="19" t="s">
         <v>229</v>
@@ -34173,10 +34164,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D138" s="9" t="str">
         <f t="shared" si="3"/>
@@ -34186,7 +34177,7 @@
         <v>2016</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="H138" s="19" t="s">
         <v>229</v>
@@ -34234,10 +34225,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D139" s="9" t="str">
         <f t="shared" si="3"/>
@@ -34247,7 +34238,7 @@
         <v>2016</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="H139" s="19" t="s">
         <v>229</v>
@@ -34295,23 +34286,23 @@
         <v>138</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D140" s="20" t="str">
         <f t="shared" si="3"/>
         <v>object-oriented units of measurement</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F140" s="9">
         <v>2004</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="H140" s="20" t="s">
         <v>229</v>
@@ -34359,23 +34350,23 @@
         <v>139</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D141" s="20" t="str">
         <f t="shared" ref="D141:D205" si="4">TRIM(LOWER(C141))</f>
         <v>extendable physical unit checking with understandable error reporting</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F141" s="9">
         <v>2009</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="H141" s="20" t="s">
         <v>229</v>
@@ -34423,10 +34414,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D142" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34454,10 +34445,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="D143" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34467,7 +34458,7 @@
         <v>2016</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="H143" s="20" t="s">
         <v>229</v>
@@ -34515,23 +34506,23 @@
         <v>142</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D144" s="20" t="str">
         <f t="shared" si="4"/>
         <v>natural unit representation in modelica</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F144" s="9">
         <v>2012</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="H144" s="20" t="s">
         <v>229</v>
@@ -34579,23 +34570,23 @@
         <v>143</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D145" s="20" t="str">
         <f t="shared" si="4"/>
         <v>challenges in combining sysml and marte for model-based design of embedded systems</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F145" s="9">
         <v>2009</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="H145" s="20" t="s">
         <v>229</v>
@@ -34643,17 +34634,17 @@
         <v>144</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D146" s="20" t="str">
         <f t="shared" si="4"/>
         <v>quantity: represent dimensioned values with both their amount and their unit</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H146" s="20" t="s">
         <v>229</v>
@@ -34680,10 +34671,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D147" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34693,7 +34684,7 @@
         <v>1997</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="H147" s="20" t="s">
         <v>229</v>
@@ -34741,23 +34732,23 @@
         <v>146</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D148" s="20" t="str">
         <f t="shared" si="4"/>
         <v>modelica – a unified object-oriented language for system modeling and simulation</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F148" s="9">
         <v>1998</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="H148" s="20" t="s">
         <v>229</v>
@@ -34805,10 +34796,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D149" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34836,10 +34827,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D150" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34849,7 +34840,7 @@
         <v>2016</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="H150" s="20" t="s">
         <v>229</v>
@@ -34897,10 +34888,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D151" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34910,7 +34901,7 @@
         <v>2014</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="H151" s="20" t="s">
         <v>229</v>
@@ -34958,23 +34949,23 @@
         <v>150</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D152" s="20" t="str">
         <f t="shared" si="4"/>
         <v>the systems biology markup language (sbml): a medium for representation and exchange of bio- chemical network models</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="F152" s="9">
         <v>2003</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="H152" s="20" t="s">
         <v>229</v>
@@ -35022,23 +35013,23 @@
         <v>151</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D153" s="20" t="str">
         <f t="shared" si="4"/>
         <v>mars climate orbiter fail- ure board releases report, numerous nasa actions un- derway in response</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="F153" s="9">
         <v>1999</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="H153" s="20" t="s">
         <v>229</v>
@@ -35086,17 +35077,17 @@
         <v>152</v>
       </c>
       <c r="B154" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="C154" s="9" t="s">
         <v>942</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>944</v>
       </c>
       <c r="D154" s="20" t="str">
         <f t="shared" si="4"/>
         <v>evaluation of measurement data - guide to the expression of uncertainty in measurement</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H154" s="20" t="s">
         <v>229</v>
@@ -35120,17 +35111,17 @@
         <v>153</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D155" s="20" t="str">
         <f t="shared" si="4"/>
         <v>evaluation of measurement data – supplement 1 to the “guide to the expression of uncertainty in measurement” – propagation of distributions using a monte carlo method</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H155" s="20" t="s">
         <v>229</v>
@@ -35154,17 +35145,17 @@
         <v>154</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D156" s="20" t="str">
         <f t="shared" si="4"/>
         <v>international vocabulary of metrology – basic and general concepts and associated terms (vim)</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H156" s="20" t="s">
         <v>229</v>
@@ -35188,17 +35179,17 @@
         <v>155</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D157" s="20" t="str">
         <f t="shared" si="4"/>
         <v>generating optimized configurable business process models in scenarios subject to uncertainty</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H157" s="20" t="s">
         <v>229</v>
@@ -35222,10 +35213,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D158" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35235,7 +35226,7 @@
         <v>2002</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="H158" s="20" t="s">
         <v>229</v>
@@ -35283,23 +35274,23 @@
         <v>157</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D159" s="20" t="str">
         <f t="shared" si="4"/>
         <v>relational parametricity and units of measure</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F159" s="9">
         <v>1997</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="H159" s="20" t="s">
         <v>229</v>
@@ -35347,23 +35338,23 @@
         <v>158</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D160" s="20" t="str">
         <f t="shared" si="4"/>
         <v>types for units-of-measure: theory and practice</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F160" s="9">
         <v>2009</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="H160" s="20" t="s">
         <v>229</v>
@@ -35411,10 +35402,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D161" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35424,7 +35415,7 @@
         <v>2016</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="H161" s="20" t="s">
         <v>229</v>
@@ -35472,17 +35463,17 @@
         <v>160</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D162" s="20" t="str">
         <f t="shared" si="4"/>
         <v>cyber physical systems: design challenges</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H162" s="20" t="s">
         <v>229</v>
@@ -35506,10 +35497,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D163" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35519,7 +35510,7 @@
         <v>2016</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="H163" s="20" t="s">
         <v>229</v>
@@ -35567,23 +35558,23 @@
         <v>162</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D164" s="20" t="str">
         <f t="shared" si="4"/>
         <v>unit checking and quantity conservation</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F164" s="9">
         <v>2008</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="H164" s="20" t="s">
         <v>229</v>
@@ -35631,23 +35622,23 @@
         <v>163</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="D165" s="20" t="str">
         <f t="shared" si="4"/>
         <v>xmof: executable dsmls based on fuml</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F165" s="9">
         <v>2013</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="H165" s="20" t="s">
         <v>229</v>
@@ -35695,10 +35686,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="D166" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35708,7 +35699,7 @@
         <v>2016</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="H166" s="20" t="s">
         <v>229</v>
@@ -35756,23 +35747,23 @@
         <v>165</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D167" s="20" t="str">
         <f t="shared" si="4"/>
         <v>industry 4.0 as a cyber-physical system study</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F167" s="9">
         <v>2016</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H167" s="20" t="s">
         <v>229</v>
@@ -35820,10 +35811,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D168" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35851,10 +35842,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D169" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35882,10 +35873,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D170" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35913,10 +35904,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D171" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35944,23 +35935,23 @@
         <v>170</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D172" s="20" t="str">
         <f t="shared" si="4"/>
         <v>semantics of a foundational subset for executable uml models (fuml)</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F172" s="9">
         <v>2016</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="H172" s="20" t="s">
         <v>229</v>
@@ -36008,10 +35999,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="D173" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36021,7 +36012,7 @@
         <v>2016</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="H173" s="20" t="s">
         <v>229</v>
@@ -36069,23 +36060,23 @@
         <v>172</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D174" s="20" t="str">
         <f t="shared" si="4"/>
         <v>cyber- physical systems: the next computing revolution</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F174" s="9">
         <v>2010</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="H174" s="20" t="s">
         <v>229</v>
@@ -36133,10 +36124,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="D175" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36146,7 +36137,7 @@
         <v>2007</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H175" s="20" t="s">
         <v>229</v>
@@ -36194,10 +36185,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D176" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36225,23 +36216,23 @@
         <v>175</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D177" s="20" t="str">
         <f t="shared" si="4"/>
         <v>the international system of units (si)</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F177" s="9">
         <v>2008</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H177" s="20" t="s">
         <v>229</v>
@@ -36289,10 +36280,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D178" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36320,10 +36311,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D179" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36351,10 +36342,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="D180" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36364,7 +36355,7 @@
         <v>2016</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H180" s="20" t="s">
         <v>229</v>
@@ -36412,10 +36403,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D181" s="9" t="str">
         <f t="shared" si="4"/>
@@ -36443,10 +36434,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D182" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36474,10 +36465,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D183" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36505,23 +36496,23 @@
         <v>182</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="D184" s="21" t="str">
         <f t="shared" si="4"/>
         <v>cyber-physical systems challenges: a needs analysis for collaborating embedded software systems</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F184" s="9">
         <v>2016</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="H184" s="21" t="s">
         <v>229</v>
@@ -36569,17 +36560,17 @@
         <v>183</v>
       </c>
       <c r="B185" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="C185" s="9" t="s">
         <v>942</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>944</v>
       </c>
       <c r="D185" s="21" t="str">
         <f t="shared" si="4"/>
         <v>evaluation of measurement data - guide to the expression of uncertainty in measurement</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H185" s="21" t="s">
         <v>229</v>
@@ -36603,17 +36594,17 @@
         <v>184</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D186" s="21" t="str">
         <f t="shared" si="4"/>
         <v>evaluation of measurement data – supplement 1 to the “guide to the expression of uncertainty in measurement” – propagation of distributions using a monte carlo method</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H186" s="21" t="s">
         <v>229</v>
@@ -36637,17 +36628,17 @@
         <v>185</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D187" s="21" t="str">
         <f t="shared" si="4"/>
         <v>international vocabulary of metrology – basic and general concepts and associated terms (vim)</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H187" s="21" t="s">
         <v>229</v>
@@ -36671,17 +36662,17 @@
         <v>186</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D188" s="21" t="str">
         <f t="shared" si="4"/>
         <v>uml profile for marte: modeling and analysis of real-time embedded systems</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H188" s="21" t="s">
         <v>229</v>
@@ -36705,17 +36696,17 @@
         <v>187</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D189" s="21" t="str">
         <f t="shared" si="4"/>
         <v>omg systems modeling language (sysml)</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H189" s="21" t="s">
         <v>229</v>
@@ -36739,17 +36730,17 @@
         <v>188</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D190" s="21" t="str">
         <f t="shared" si="4"/>
         <v>generating optimized configurable business process models in scenarios subject to uncertainty</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H190" s="21" t="s">
         <v>229</v>
@@ -36773,10 +36764,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D191" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36804,10 +36795,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D192" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36835,10 +36826,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D193" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36866,23 +36857,23 @@
         <v>192</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="D194" s="21" t="str">
         <f t="shared" si="4"/>
         <v>atl: a model transformation tool</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F194" s="9">
         <v>2008</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H194" s="21" t="s">
         <v>229</v>
@@ -36930,23 +36921,23 @@
         <v>193</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D195" s="21" t="str">
         <f t="shared" si="4"/>
         <v>specifying aggregation functions in multidimensional models with ocl</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F195" s="9">
         <v>2010</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="H195" s="21" t="s">
         <v>229</v>
@@ -36994,23 +36985,23 @@
         <v>194</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D196" s="21" t="str">
         <f t="shared" si="4"/>
         <v>benefits and problems of formal methods</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F196" s="9">
         <v>2004</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="H196" s="21" t="s">
         <v>229</v>
@@ -37058,23 +37049,23 @@
         <v>195</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="D197" s="21" t="str">
         <f t="shared" si="4"/>
         <v>a summary of error propagation</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="F197" s="9">
         <v>2014</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="H197" s="21" t="s">
         <v>229</v>
@@ -37122,10 +37113,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="D198" s="21" t="str">
         <f t="shared" si="4"/>
@@ -37135,7 +37126,7 @@
         <v>2015</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="H198" s="21" t="s">
         <v>229</v>
@@ -37183,10 +37174,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D199" s="21" t="str">
         <f t="shared" si="4"/>
@@ -37214,23 +37205,23 @@
         <v>198</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D200" s="21" t="str">
         <f t="shared" si="4"/>
         <v>accuracy and stability of numerical algorithms</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="F200" s="9">
         <v>1996</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="H200" s="21" t="s">
         <v>229</v>
@@ -37278,23 +37269,23 @@
         <v>199</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C201" s="22" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="D201" s="21" t="str">
         <f t="shared" si="4"/>
         <v>handbook of floating-point arithmetic</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="F201" s="9">
         <v>2010</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H201" s="21" t="s">
         <v>229</v>
@@ -37342,23 +37333,23 @@
         <v>200</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="D202" s="21" t="str">
         <f t="shared" si="4"/>
         <v>the guesstimate blog</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F202" s="9">
         <v>2015</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="H202" s="21" t="s">
         <v>229</v>
@@ -37406,23 +37397,23 @@
         <v>201</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D203" s="21" t="str">
         <f t="shared" si="4"/>
         <v>the role of models in managing the uncertainty of software-intensive systems</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F203" s="9">
         <v>1995</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H203" s="21" t="s">
         <v>229</v>
@@ -37470,10 +37461,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D204" s="21" t="str">
         <f t="shared" si="4"/>
@@ -37501,10 +37492,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D205" s="21" t="str">
         <f t="shared" si="4"/>
@@ -37532,10 +37523,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D206" s="21" t="str">
         <f t="shared" ref="D206:D212" si="6">TRIM(LOWER(C206))</f>
@@ -37563,10 +37554,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D207" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37594,10 +37585,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="D208" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37625,10 +37616,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D209" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37656,10 +37647,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D210" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37687,10 +37678,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D211" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37718,10 +37709,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="D212" s="21" t="str">
         <f t="shared" si="6"/>
@@ -38244,23 +38235,23 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="C3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="C4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D4" t="s">
         <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C5">
         <f>COUNTIF('RQ2 - Data Uncertainty'!T3:T212,"TRUE")-COUNTA('RQ2 - Data Uncertainty'!U3:U212)</f>
@@ -38280,18 +38271,18 @@
     </row>
     <row r="8" spans="2:5">
       <c r="C8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="C9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D9" t="s">
         <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -38313,7 +38304,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C11">
         <f>COUNTIF('RQ2 - Data Uncertainty'!Z:Z,"NO")</f>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EAABD7-8E38-8D4B-9901-EAEFF9E775D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D1A873-8785-A048-8CAC-E217C0C39E1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
@@ -4865,10 +4865,10 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="S191" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="T117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T207" sqref="T207:W207"/>
+      <selection pane="bottomRight" activeCell="V129" sqref="V129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="U128" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="V128" s="1" t="s">
         <v>225</v>
@@ -13639,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="V129" s="1" t="s">
         <v>229</v>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D1A873-8785-A048-8CAC-E217C0C39E1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3315ED-A169-B149-8DDE-AF18F22FB58F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
@@ -1647,9 +1647,6 @@
     <t>.  Garlan,  S.-W.  Cheng,  A.-C.  Huang,  B.  Schmerl,  and  P.  Steenkiste</t>
   </si>
   <si>
-    <t>Rainbow:  Architecture-based  self-adaptation  with  reusable  infrastruc-ture</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1109/MC.2004.175</t>
   </si>
   <si>
@@ -4156,6 +4153,9 @@
   </si>
   <si>
     <t>PLASMA: A plan-based layered architecture for software model-driven adaptation</t>
+  </si>
+  <si>
+    <t>Rainbow:  Architecture-based  self-adaptation  with  reusable  infrastructure</t>
   </si>
 </sst>
 </file>
@@ -4865,10 +4865,10 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="T117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="S41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V129" sqref="V129"/>
+      <selection pane="bottomRight" activeCell="W48" sqref="W48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8242,10 +8242,10 @@
         <v>1</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="W48" s="1" t="s">
         <v>17</v>
@@ -13124,7 +13124,7 @@
         <v>416</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D123" s="8" t="str">
         <f t="shared" si="5"/>
@@ -13282,7 +13282,7 @@
         <v>419</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D125" s="8" t="str">
         <f t="shared" si="5"/>
@@ -14360,11 +14360,11 @@
         <v>536</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>537</v>
+        <v>1366</v>
       </c>
       <c r="D141" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>rainbow: architecture-based self-adaptation with reusable infrastruc-ture</v>
+        <v>rainbow: architecture-based self-adaptation with reusable infrastructure</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>56</v>
@@ -14373,7 +14373,7 @@
         <v>2004</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>229</v>
@@ -14436,10 +14436,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D142" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14452,7 +14452,7 @@
         <v>2009</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>229</v>
@@ -14515,10 +14515,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="D143" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14531,7 +14531,7 @@
         <v>2010</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>229</v>
@@ -14579,10 +14579,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="D144" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14595,7 +14595,7 @@
         <v>2011</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>229</v>
@@ -14643,10 +14643,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="D145" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14659,7 +14659,7 @@
         <v>2011</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>229</v>
@@ -14707,23 +14707,23 @@
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="D146" s="15" t="str">
         <f t="shared" si="5"/>
         <v>requirements tracing to support change in dynamically adaptive systems</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F146" s="1">
         <v>2009</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>229</v>
@@ -14771,23 +14771,23 @@
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="D147" s="15" t="str">
         <f t="shared" si="5"/>
         <v>non-functional requirements in software engineering</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F147" s="1">
         <v>1999</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>229</v>
@@ -14835,10 +14835,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D148" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14851,7 +14851,7 @@
         <v>1997</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>229</v>
@@ -14899,23 +14899,23 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="D149" s="15" t="str">
         <f t="shared" si="5"/>
         <v>understanding the scope of uncertainty in dynamically adaptive systems</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F149" s="1">
         <v>2010</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>229</v>
@@ -14958,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="X149" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -14966,10 +14966,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="D150" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14982,7 +14982,7 @@
         <v>2010</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>229</v>
@@ -15030,23 +15030,23 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="D151" s="15" t="str">
         <f t="shared" si="5"/>
         <v>modeling dimensions of self-adaptive software systems</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F151" s="1">
         <v>2009</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>229</v>
@@ -15094,23 +15094,23 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="D152" s="15" t="str">
         <f t="shared" si="5"/>
         <v>goal-based modeling of dynamically adaptive system requirements</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F152" s="1">
         <v>2008</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>229</v>
@@ -15158,23 +15158,23 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="D153" s="15" t="str">
         <f t="shared" si="5"/>
         <v>why and why not explanations improve the intelligibility of context-aware intelligent systems</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F153" s="1">
         <v>2009</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>229</v>
@@ -15222,23 +15222,23 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D154" s="15" t="str">
         <f t="shared" si="5"/>
         <v>gridstix: supporting flood prediction using embedded hardware and next generation grid middleware</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F154" s="1">
         <v>2006</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>229</v>
@@ -15286,23 +15286,23 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="D155" s="15" t="str">
         <f t="shared" si="5"/>
         <v>explaining type inference</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F155" s="1">
         <v>1995</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>229</v>
@@ -15350,10 +15350,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="D156" s="15" t="str">
         <f t="shared" si="5"/>
@@ -15366,7 +15366,7 @@
         <v>1998</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>229</v>
@@ -15414,23 +15414,23 @@
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="D157" s="15" t="str">
         <f t="shared" si="5"/>
         <v>proof verbalization as an application of nlg</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F157" s="1">
         <v>1997</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>229</v>
@@ -15478,23 +15478,23 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="D158" s="15" t="str">
         <f t="shared" si="5"/>
         <v>automated theorem provers: a practical tool for theworking mathematician?</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F158" s="1">
         <v>2011</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>229</v>
@@ -15542,23 +15542,23 @@
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>599</v>
       </c>
       <c r="D159" s="15" t="str">
         <f t="shared" si="5"/>
         <v>duel - a very high-level debugging language</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F159" s="1">
         <v>1993</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>229</v>
@@ -15606,23 +15606,23 @@
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>603</v>
       </c>
       <c r="D160" s="15" t="str">
         <f t="shared" si="5"/>
         <v>clairvoyant: a comprehensive source-level debugger for wirelesssensor networks</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F160" s="1">
         <v>2007</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>229</v>
@@ -15670,10 +15670,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="D161" s="15" t="str">
         <f t="shared" si="5"/>
@@ -15686,7 +15686,7 @@
         <v>2011</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>229</v>
@@ -15710,10 +15710,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="D162" s="15" t="str">
         <f t="shared" si="5"/>
@@ -15726,7 +15726,7 @@
         <v>2010</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>229</v>
@@ -15789,23 +15789,23 @@
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="D163" s="15" t="str">
         <f t="shared" si="5"/>
         <v>constructing self-adaptive systems using a kaos model</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F163" s="1">
         <v>2008</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>229</v>
@@ -15853,10 +15853,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="D164" s="15" t="str">
         <f t="shared" si="5"/>
@@ -15893,23 +15893,23 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="D165" s="15" t="str">
         <f t="shared" si="5"/>
         <v>software evolution background, theory, practice</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F165" s="1">
         <v>2003</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>229</v>
@@ -15957,23 +15957,23 @@
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="D166" s="15" t="str">
         <f t="shared" si="5"/>
         <v>traceability for model driven, software product line engineering</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F166" s="1">
         <v>2008</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>229</v>
@@ -16021,23 +16021,23 @@
         <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>628</v>
       </c>
       <c r="D167" s="16" t="str">
         <f t="shared" si="5"/>
         <v>toward a smart grid: power delivery for the 21st century</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F167" s="1">
         <v>2005</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>229</v>
@@ -16085,23 +16085,23 @@
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="D168" s="16" t="str">
         <f t="shared" si="5"/>
         <v>a learning-based approach to reactive security</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F168" s="1">
         <v>2012</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H168" s="16" t="s">
         <v>229</v>
@@ -16149,23 +16149,23 @@
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C169" s="16" t="s">
         <v>635</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>636</v>
       </c>
       <c r="D169" s="16" t="str">
         <f t="shared" si="5"/>
         <v>literature review on smart grid cyber security</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F169" s="1">
         <v>2010</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H169" s="16" t="s">
         <v>229</v>
@@ -16213,23 +16213,23 @@
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>640</v>
       </c>
       <c r="D170" s="16" t="str">
         <f t="shared" si="5"/>
         <v>intrusion detection for advanced metering infrastructures: requirements and architectural directions</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F170" s="1">
         <v>2010</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H170" s="16" t="s">
         <v>229</v>
@@ -16277,23 +16277,23 @@
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="D171" s="16" t="str">
         <f t="shared" si="5"/>
         <v>specification-based intrusion detection for advanced metering infrastructure</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F171" s="1">
         <v>2011</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H171" s="16" t="s">
         <v>229</v>
@@ -16341,7 +16341,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>55</v>
@@ -16378,23 +16378,23 @@
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="D173" s="16" t="str">
         <f t="shared" si="5"/>
         <v>load control through smart-metering on distribution networks</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F173" s="1">
         <v>2009</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H173" s="16" t="s">
         <v>229</v>
@@ -16442,23 +16442,23 @@
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="D174" s="16" t="str">
         <f t="shared" si="5"/>
         <v>probabilistic-based overload estimation for real-time smart grid vulnerability assessment</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F174" s="1">
         <v>2012</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H174" s="16" t="s">
         <v>229</v>
@@ -16506,23 +16506,23 @@
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>657</v>
       </c>
       <c r="D175" s="16" t="str">
         <f t="shared" si="5"/>
         <v>finite state automata and simple recurrent networks</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F175" s="1">
         <v>1989</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H175" s="16" t="s">
         <v>229</v>
@@ -16570,23 +16570,23 @@
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="D176" s="16" t="str">
         <f t="shared" si="5"/>
         <v>real-time coordination of plug-in electric vehicle charging in smart grids to minimize power losses and improve voltage profile</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F176" s="1">
         <v>2011</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H176" s="16" t="s">
         <v>229</v>
@@ -16634,20 +16634,20 @@
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="D177" s="16" t="str">
         <f t="shared" si="5"/>
         <v>standard ecma-262 - ecmascript language specification</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H177" s="16" t="s">
         <v>229</v>
@@ -16695,10 +16695,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="D178" s="16" t="str">
         <f t="shared" si="5"/>
@@ -16711,7 +16711,7 @@
         <v>2010</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H178" s="16" t="s">
         <v>229</v>
@@ -16759,23 +16759,23 @@
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="D179" s="16" t="str">
         <f t="shared" si="5"/>
         <v>cyber security and power system communication–essential parts of a smart grid infrastructure</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F179" s="1">
         <v>2010</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H179" s="16" t="s">
         <v>229</v>
@@ -16823,23 +16823,23 @@
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="D180" s="16" t="str">
         <f t="shared" si="5"/>
         <v>smart grid—the new and improved power grid: a survey</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F180" s="1">
         <v>2011</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H180" s="16" t="s">
         <v>229</v>
@@ -16887,23 +16887,23 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="D181" s="16" t="str">
         <f t="shared" si="5"/>
         <v>the path of the smart grid</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F181" s="1">
         <v>2009</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H181" s="16" t="s">
         <v>229</v>
@@ -16951,10 +16951,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>683</v>
       </c>
       <c r="D182" s="16" t="str">
         <f t="shared" si="5"/>
@@ -16967,7 +16967,7 @@
         <v>2012</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H182" s="16" t="s">
         <v>229</v>
@@ -17015,23 +17015,23 @@
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="D183" s="16" t="str">
         <f t="shared" si="5"/>
         <v>domain specific languages</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F183" s="1">
         <v>2010</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H183" s="16" t="s">
         <v>229</v>
@@ -17079,10 +17079,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>690</v>
       </c>
       <c r="D184" s="16" t="str">
         <f t="shared" si="5"/>
@@ -17095,7 +17095,7 @@
         <v>2010</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H184" s="16" t="s">
         <v>229</v>
@@ -17143,10 +17143,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="D185" s="16" t="str">
         <f t="shared" ref="D185:D204" si="7">TRIM(LOWER(C185))</f>
@@ -17201,10 +17201,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="D186" s="16" t="str">
         <f t="shared" si="7"/>
@@ -17238,23 +17238,23 @@
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="D187" s="16" t="str">
         <f t="shared" si="7"/>
         <v>a conceptual framework for the vehicle-to-grid (v2g) implementation</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F187" s="1">
         <v>2009</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H187" s="16" t="s">
         <v>229</v>
@@ -17302,23 +17302,23 @@
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>701</v>
       </c>
       <c r="D188" s="16" t="str">
         <f t="shared" si="7"/>
         <v>model driven engineering</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F188" s="1">
         <v>2002</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H188" s="16" t="s">
         <v>229</v>
@@ -17366,23 +17366,23 @@
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="D189" s="16" t="str">
         <f t="shared" si="7"/>
         <v>smart-grid security issues</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F189" s="1">
         <v>2010</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H189" s="16" t="s">
         <v>229</v>
@@ -17430,10 +17430,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="D190" s="16" t="str">
         <f t="shared" si="7"/>
@@ -17446,7 +17446,7 @@
         <v>2010</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H190" s="16" t="s">
         <v>229</v>
@@ -17494,10 +17494,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>712</v>
       </c>
       <c r="D191" s="16" t="str">
         <f t="shared" si="7"/>
@@ -17510,7 +17510,7 @@
         <v>2010</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H191" s="16" t="s">
         <v>229</v>
@@ -17558,23 +17558,23 @@
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>715</v>
       </c>
       <c r="D192" s="16" t="str">
         <f t="shared" si="7"/>
         <v>security and privacy challenges in the smart grid</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F192" s="1">
         <v>2009</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H192" s="16" t="s">
         <v>229</v>
@@ -17619,10 +17619,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C193" s="11" t="s">
         <v>717</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>718</v>
       </c>
       <c r="D193" s="16" t="str">
         <f t="shared" si="7"/>
@@ -17653,7 +17653,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>507</v>
@@ -17687,10 +17687,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>721</v>
       </c>
       <c r="D195" s="16" t="str">
         <f t="shared" si="7"/>
@@ -17703,7 +17703,7 @@
         <v>2005</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H195" s="16" t="s">
         <v>229</v>
@@ -17751,10 +17751,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>724</v>
       </c>
       <c r="D196" s="16" t="str">
         <f t="shared" si="7"/>
@@ -17764,7 +17764,7 @@
         <v>1989</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H196" s="16" t="s">
         <v>229</v>
@@ -17812,23 +17812,23 @@
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>727</v>
       </c>
       <c r="D197" s="16" t="str">
         <f t="shared" si="7"/>
         <v>private sector cyber security investment:an empirical analysis</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F197" s="1">
         <v>2006</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H197" s="16" t="s">
         <v>229</v>
@@ -17876,10 +17876,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>731</v>
       </c>
       <c r="D198" s="16" t="str">
         <f t="shared" si="7"/>
@@ -17892,7 +17892,7 @@
         <v>1990</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H198" s="16" t="s">
         <v>229</v>
@@ -17940,23 +17940,23 @@
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="D199" s="16" t="str">
         <f t="shared" si="7"/>
         <v>feature selection methods: genetic algorithms vs greedy-like search</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F199" s="1">
         <v>1994</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H199" s="16" t="s">
         <v>229</v>
@@ -18004,10 +18004,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>738</v>
       </c>
       <c r="D200" s="16" t="str">
         <f t="shared" si="7"/>
@@ -18020,7 +18020,7 @@
         <v>2010</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H200" s="16" t="s">
         <v>229</v>
@@ -18068,23 +18068,23 @@
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>741</v>
       </c>
       <c r="D201" s="16" t="str">
         <f t="shared" si="7"/>
         <v>eventually consistent</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F201" s="1">
         <v>2008</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H201" s="16" t="s">
         <v>229</v>
@@ -18132,23 +18132,23 @@
         <v>200</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>745</v>
       </c>
       <c r="D202" s="16" t="str">
         <f t="shared" si="7"/>
         <v>stochastic modeling and the theory of queues</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F202" s="1">
         <v>1989</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H202" s="16" t="s">
         <v>229</v>
@@ -18196,23 +18196,23 @@
         <v>201</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>749</v>
       </c>
       <c r="D203" s="16" t="str">
         <f t="shared" si="7"/>
         <v>secure authenticated key exchange with revocation for smartgrid</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F203" s="1">
         <v>2012</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H203" s="16" t="s">
         <v>229</v>
@@ -18260,23 +18260,23 @@
         <v>202</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="D204" s="1" t="str">
         <f t="shared" si="7"/>
         <v>a dynamic component model for cyber physical systems</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F204" s="1">
         <v>2012</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>17</v>
@@ -25203,13 +25203,13 @@
         <v>11</v>
       </c>
       <c r="U2" s="9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>1362</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>1363</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>1364</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>12</v>
@@ -25226,10 +25226,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>756</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>757</v>
       </c>
       <c r="D3" s="9" t="str">
         <f>TRIM(LOWER(C3))</f>
@@ -25242,7 +25242,7 @@
         <v>2013</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>17</v>
@@ -25305,23 +25305,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>759</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>760</v>
       </c>
       <c r="D4" s="9" t="str">
         <f t="shared" ref="D4:D67" si="0">TRIM(LOWER(C4))</f>
         <v>openturns: an industrial software for uncertainty quantification in simulation</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F4" s="9">
         <v>2017</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>17</v>
@@ -25384,23 +25384,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>763</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>764</v>
       </c>
       <c r="D5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>measure transformer semantics for bayesian machine learning</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F5" s="9">
         <v>2013</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>17</v>
@@ -25463,23 +25463,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>767</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>768</v>
       </c>
       <c r="D6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>statistics for experiments: design, innovation, and discovery</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F6" s="9">
         <v>2005</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>17</v>
@@ -25527,23 +25527,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>771</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>772</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>expressing measurement uncertainty in ocl/uml datatypes</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F7" s="9">
         <v>2018</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>17</v>
@@ -25606,23 +25606,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>uncertain&lt;t&gt;: a first-order type for uncertain data</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F8" s="9">
         <v>2014</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>17</v>
@@ -25685,23 +25685,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>779</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>780</v>
       </c>
       <c r="D9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>abstractions and techniques for programming with uncertain data</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F9" s="9">
         <v>2013</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>17</v>
@@ -25749,10 +25749,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>783</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>784</v>
       </c>
       <c r="D10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -25765,7 +25765,7 @@
         <v>2017</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>17</v>
@@ -25828,23 +25828,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>786</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>787</v>
       </c>
       <c r="D11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>composition and interoperability for external domain-specific language engineering</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F11" s="9">
         <v>2016</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>17</v>
@@ -25892,23 +25892,23 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>790</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>791</v>
       </c>
       <c r="D12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>a generalization of bayesian inference</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F12" s="9">
         <v>1968</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>17</v>
@@ -25956,10 +25956,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>794</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>795</v>
       </c>
       <c r="D13" s="9" t="str">
         <f t="shared" si="0"/>
@@ -25972,7 +25972,7 @@
         <v>2014</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>17</v>
@@ -26035,10 +26035,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>797</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>798</v>
       </c>
       <c r="D14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -26051,7 +26051,7 @@
         <v>2012</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>17</v>
@@ -26114,23 +26114,23 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>800</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>801</v>
       </c>
       <c r="D15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>managing design-time uncertainty</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F15" s="9">
         <v>2017</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>17</v>
@@ -26193,23 +26193,23 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>804</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>805</v>
       </c>
       <c r="D16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>traffic-aware stress testing of distributed real-time systems based on uml models in the presence of time uncertainty</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F16" s="9">
         <v>2008</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>17</v>
@@ -26272,23 +26272,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>808</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>809</v>
       </c>
       <c r="D17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>probabilistic programming</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F17" s="9">
         <v>2014</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>17</v>
@@ -26342,23 +26342,23 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>812</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>813</v>
       </c>
       <c r="D18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>generalized functions</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F18" s="9">
         <v>1964</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>17</v>
@@ -26406,23 +26406,23 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>816</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>817</v>
       </c>
       <c r="D19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>near real-time electric load approximation in low voltage cables of smart grids with models@run.time</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F19" s="9">
         <v>2016</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>17</v>
@@ -26470,10 +26470,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>820</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>821</v>
       </c>
       <c r="D20" s="9" t="str">
         <f t="shared" si="0"/>
@@ -26486,7 +26486,7 @@
         <v>2004</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>17</v>
@@ -26534,23 +26534,23 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>823</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>824</v>
       </c>
       <c r="D21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>mashup of metalanguages and its implementation in the kermeta language workbench</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F21" s="9">
         <v>2015</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>17</v>
@@ -26598,10 +26598,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>826</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>827</v>
       </c>
       <c r="D22" s="9" t="str">
         <f t="shared" si="0"/>
@@ -26611,7 +26611,7 @@
         <v>2018</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>17</v>
@@ -26659,10 +26659,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>829</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>830</v>
       </c>
       <c r="D23" s="9" t="str">
         <f t="shared" si="0"/>
@@ -26675,7 +26675,7 @@
         <v>2017</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>17</v>
@@ -26723,23 +26723,23 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>832</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>833</v>
       </c>
       <c r="D24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>industry 4.0</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F24" s="9">
         <v>2014</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>17</v>
@@ -26787,23 +26787,23 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>836</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>837</v>
       </c>
       <c r="D25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>the 2015 ukraine blackout: implications for false data injection attacks</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F25" s="9">
         <v>2017</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>17</v>
@@ -26851,17 +26851,17 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>840</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>841</v>
       </c>
       <c r="D26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>static typing where possible , dynamic typing when needed : the end of the cold war between programming languages</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F26" s="9">
         <v>2004</v>
@@ -26912,23 +26912,23 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>evaluation of measurement data - guide to the expression of uncertainty in measurement</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F27" s="9">
         <v>2008</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>17</v>
@@ -26976,23 +26976,23 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>846</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>847</v>
       </c>
       <c r="D28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>introduction to the theory of statistics</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F28" s="9">
         <v>1963</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>17</v>
@@ -27040,23 +27040,23 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>850</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>851</v>
       </c>
       <c r="D29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>the varieties of programming language semantics</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F29" s="9">
         <v>2001</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>17</v>
@@ -27104,10 +27104,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>854</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>855</v>
       </c>
       <c r="D30" s="9" t="str">
         <f t="shared" si="0"/>
@@ -27117,7 +27117,7 @@
         <v>2018</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>17</v>
@@ -27165,23 +27165,23 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>857</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>858</v>
       </c>
       <c r="D31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>adding uncertainty and units to quantity types in software models</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F31" s="9">
         <v>2016</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>17</v>
@@ -27244,10 +27244,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>861</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>862</v>
       </c>
       <c r="D32" s="9" t="str">
         <f t="shared" si="0"/>
@@ -27260,7 +27260,7 @@
         <v>2002</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>17</v>
@@ -27308,23 +27308,23 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>864</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>865</v>
       </c>
       <c r="D33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>a mathematical theory of evidence</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F33" s="9">
         <v>1976</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>17</v>
@@ -27372,23 +27372,23 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>868</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>869</v>
       </c>
       <c r="D34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>probabilistic programming in python using pymc3</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F34" s="9">
         <v>2016</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>17</v>
@@ -27451,23 +27451,23 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>872</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>873</v>
       </c>
       <c r="D35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>fds: fault detection scheme for wireless sensor networks</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F35" s="9">
         <v>2016</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>17</v>
@@ -27515,23 +27515,23 @@
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>876</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>877</v>
       </c>
       <c r="D36" s="9" t="str">
         <f t="shared" si="0"/>
         <v>expressing measurement uncertainty in software models</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F36" s="9">
         <v>2016</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>17</v>
@@ -27594,23 +27594,23 @@
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>880</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>881</v>
       </c>
       <c r="D37" s="9" t="str">
         <f t="shared" si="0"/>
         <v>hand-book on statistical distributions for experimentalists</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F37" s="9">
         <v>1996</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>17</v>
@@ -27658,23 +27658,23 @@
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>884</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>885</v>
       </c>
       <c r="D38" s="9" t="str">
         <f t="shared" si="0"/>
         <v>software engineering of self-adaptive systems</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F38" s="9">
         <v>2019</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>17</v>
@@ -27722,10 +27722,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D39" s="9" t="str">
         <f t="shared" si="0"/>
@@ -27738,7 +27738,7 @@
         <v>2009</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>17</v>
@@ -27801,10 +27801,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D40" s="9" t="str">
         <f t="shared" si="0"/>
@@ -27817,7 +27817,7 @@
         <v>2010</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>17</v>
@@ -27880,10 +27880,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>891</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>892</v>
       </c>
       <c r="D41" s="9" t="str">
         <f t="shared" si="0"/>
@@ -27896,7 +27896,7 @@
         <v>1988</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>17</v>
@@ -27944,23 +27944,23 @@
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>894</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>895</v>
       </c>
       <c r="D42" s="9" t="str">
         <f t="shared" si="0"/>
         <v>fuzzy sets</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F42" s="9">
         <v>1996</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>17</v>
@@ -28008,23 +28008,23 @@
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>898</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>899</v>
       </c>
       <c r="D43" s="9" t="str">
         <f t="shared" si="0"/>
         <v>uncertainty-wise cyber-physical system test modeling</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F43" s="9">
         <v>2017</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>17</v>
@@ -28087,23 +28087,23 @@
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>902</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>903</v>
       </c>
       <c r="D44" s="9" t="str">
         <f t="shared" si="0"/>
         <v>inheritance and subtyping in a parallel object-oriented language</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F44" s="9">
         <v>1987</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>229</v>
@@ -28151,23 +28151,23 @@
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>906</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>907</v>
       </c>
       <c r="D45" s="9" t="str">
         <f t="shared" si="0"/>
         <v>uncertain ocl datatypes</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F45" s="9">
         <v>2018</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>229</v>
@@ -28215,23 +28215,23 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>910</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>911</v>
       </c>
       <c r="D46" s="9" t="str">
         <f t="shared" si="0"/>
         <v>challenges in modeling cyber-physical systems</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F46" s="9">
         <v>2013</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>229</v>
@@ -28279,23 +28279,23 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>914</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>915</v>
       </c>
       <c r="D47" s="9" t="str">
         <f t="shared" si="0"/>
         <v>on ocl-based imperative languages</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F47" s="9">
         <v>2014</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>229</v>
@@ -28343,23 +28343,23 @@
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>918</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>919</v>
       </c>
       <c r="D48" s="9" t="str">
         <f t="shared" si="0"/>
         <v>managing uncertainty in bidirectional model transformations</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F48" s="9">
         <v>2015</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H48" s="18" t="s">
         <v>229</v>
@@ -28422,23 +28422,23 @@
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>921</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>922</v>
       </c>
       <c r="D49" s="9" t="str">
         <f t="shared" si="0"/>
         <v>uncertainty in self-adaptive software systems</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F49" s="9">
         <v>2013</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H49" s="18" t="s">
         <v>229</v>
@@ -28501,10 +28501,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D50" s="9" t="str">
         <f t="shared" si="0"/>
@@ -28538,23 +28538,23 @@
         <v>49</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>925</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>926</v>
       </c>
       <c r="D51" s="9" t="str">
         <f t="shared" si="0"/>
         <v>software engineering in an uncertain world</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F51" s="9">
         <v>2010</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H51" s="18" t="s">
         <v>229</v>
@@ -28602,23 +28602,23 @@
         <v>50</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>929</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>930</v>
       </c>
       <c r="D52" s="9" t="str">
         <f t="shared" si="0"/>
         <v>use: a uml-based specification environment for validating uml and ocl</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F52" s="9">
         <v>2007</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H52" s="18" t="s">
         <v>229</v>
@@ -28666,23 +28666,23 @@
         <v>51</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>931</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>932</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>933</v>
       </c>
       <c r="D53" s="9" t="str">
         <f t="shared" si="0"/>
         <v>model validation and verification options in a contemporary uml and ocl analysis tool</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F53" s="9">
         <v>2016</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H53" s="18" t="s">
         <v>229</v>
@@ -28730,23 +28730,23 @@
         <v>52</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>936</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>937</v>
       </c>
       <c r="D54" s="9" t="str">
         <f t="shared" si="0"/>
         <v>component interfaces that support measurement uncertainty</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F54" s="9">
         <v>2006</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H54" s="18" t="s">
         <v>229</v>
@@ -28809,10 +28809,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D55" s="9" t="str">
         <f t="shared" si="0"/>
@@ -28840,23 +28840,23 @@
         <v>54</v>
       </c>
       <c r="B56" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>943</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>944</v>
       </c>
       <c r="D56" s="9" t="str">
         <f t="shared" si="0"/>
         <v>evaluation of measurement data – supplement 1 to the “guide to the expression of uncertainty in measurement” – propagation of distributions using a monte carlo method</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F56" s="9">
         <v>2008</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H56" s="18" t="s">
         <v>229</v>
@@ -28904,23 +28904,23 @@
         <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>946</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>947</v>
       </c>
       <c r="D57" s="9" t="str">
         <f t="shared" si="0"/>
         <v>generating optimized configurable business process models in scenarios subject to uncertainty</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F57" s="9">
         <v>2015</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H57" s="18" t="s">
         <v>229</v>
@@ -28983,23 +28983,23 @@
         <v>56</v>
       </c>
       <c r="B58" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>950</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>951</v>
       </c>
       <c r="D58" s="9" t="str">
         <f t="shared" si="0"/>
         <v>fuzziness vs. probability</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F58" s="9">
         <v>1990</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>229</v>
@@ -29047,23 +29047,23 @@
         <v>57</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>954</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>955</v>
       </c>
       <c r="D59" s="9" t="str">
         <f t="shared" si="0"/>
         <v>cyber physical systems: design challenges</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F59" s="9">
         <v>2008</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H59" s="18" t="s">
         <v>229</v>
@@ -29111,23 +29111,23 @@
         <v>58</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>958</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>959</v>
       </c>
       <c r="D60" s="9" t="str">
         <f t="shared" si="0"/>
         <v>a behavioral notion of subtyping</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F60" s="9">
         <v>1994</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H60" s="18" t="s">
         <v>229</v>
@@ -29175,23 +29175,23 @@
         <v>59</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D61" s="9" t="str">
         <f t="shared" si="0"/>
         <v>the role of models in managing the uncertainty of software-intensive systems</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F61" s="9">
         <v>1995</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H61" s="18" t="s">
         <v>229</v>
@@ -29239,23 +29239,23 @@
         <v>60</v>
       </c>
       <c r="B62" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>965</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>966</v>
       </c>
       <c r="D62" s="9" t="str">
         <f t="shared" si="0"/>
         <v>specifying quantities in software models</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F62" s="9">
         <v>2018</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H62" s="18" t="s">
         <v>229</v>
@@ -29285,23 +29285,23 @@
         <v>61</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>969</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>970</v>
       </c>
       <c r="D63" s="9" t="str">
         <f t="shared" si="0"/>
         <v>object constraint language (ocl) specification</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F63" s="9">
         <v>2010</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H63" s="18" t="s">
         <v>229</v>
@@ -29349,23 +29349,23 @@
         <v>62</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D64" s="9" t="str">
         <f t="shared" si="0"/>
         <v>uml profile for marte: modeling and analysis of real-time embedded systems</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F64" s="9">
         <v>2011</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H64" s="18" t="s">
         <v>229</v>
@@ -29413,23 +29413,23 @@
         <v>63</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D65" s="9" t="str">
         <f t="shared" si="0"/>
         <v>unified modeling language (uml) specification</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F65" s="9">
         <v>2015</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>229</v>
@@ -29477,23 +29477,23 @@
         <v>64</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D66" s="9" t="str">
         <f t="shared" si="0"/>
         <v>omg systems modeling language (sysml)</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F66" s="9">
         <v>2016</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>229</v>
@@ -29541,23 +29541,23 @@
         <v>65</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D67" s="9" t="str">
         <f t="shared" si="0"/>
         <v>structured metrics metamodel (smm) specification</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F67" s="9">
         <v>2016</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>229</v>
@@ -29605,10 +29605,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>981</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>982</v>
       </c>
       <c r="D68" s="9" t="str">
         <f t="shared" ref="D68:D140" si="3">TRIM(LOWER(C68))</f>
@@ -29621,7 +29621,7 @@
         <v>2013</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H68" s="18" t="s">
         <v>229</v>
@@ -29684,23 +29684,23 @@
         <v>67</v>
       </c>
       <c r="B69" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>984</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>985</v>
       </c>
       <c r="D69" s="9" t="str">
         <f t="shared" si="3"/>
         <v>beyond mere logic – a vision of modeling languages for the 21st century</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F69" s="9">
         <v>2015</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H69" s="18" t="s">
         <v>229</v>
@@ -29748,10 +29748,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D70" s="9" t="str">
         <f t="shared" si="3"/>
@@ -29779,23 +29779,23 @@
         <v>69</v>
       </c>
       <c r="B71" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>989</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>990</v>
       </c>
       <c r="D71" s="9" t="str">
         <f t="shared" si="3"/>
         <v>list of uncertainty propagation software</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F71" s="9">
         <v>2018</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H71" s="18" t="s">
         <v>229</v>
@@ -29843,23 +29843,23 @@
         <v>70</v>
       </c>
       <c r="B72" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>992</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>993</v>
       </c>
       <c r="D72" s="9" t="str">
         <f t="shared" si="3"/>
         <v>a modeling language for measurement uncertainty evaluation</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F72" s="9">
         <v>2009</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H72" s="18" t="s">
         <v>229</v>
@@ -29907,17 +29907,17 @@
         <v>71</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D73" s="9" t="str">
         <f t="shared" si="3"/>
         <v>uncertainty-wise cyber-physical system test modeling</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F73" s="9">
         <v>2017</v>
@@ -29944,23 +29944,23 @@
         <v>72</v>
       </c>
       <c r="B74" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="C74" s="21" t="s">
         <v>997</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>998</v>
       </c>
       <c r="D74" s="9" t="str">
         <f t="shared" si="3"/>
         <v>understanding uncertainty in cyber-physical systems: a conceptual model</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F74" s="9">
         <v>2016</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H74" s="18" t="s">
         <v>229</v>
@@ -30023,23 +30023,23 @@
         <v>73</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D75" s="9" t="str">
         <f t="shared" si="3"/>
         <v>international vocabulary of metrology – basic and general concepts and associated terms (vim)</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F75" s="9">
         <v>2008</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H75" s="18" t="s">
         <v>229</v>
@@ -30087,23 +30087,23 @@
         <v>74</v>
       </c>
       <c r="B76" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>1002</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>1003</v>
       </c>
       <c r="D76" s="18" t="str">
         <f t="shared" si="3"/>
         <v>the management of probabilistic data</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F76" s="9">
         <v>1992</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>229</v>
@@ -30166,23 +30166,23 @@
         <v>75</v>
       </c>
       <c r="B77" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>1006</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>1007</v>
       </c>
       <c r="D77" s="18" t="str">
         <f t="shared" si="3"/>
         <v>uldbs: databases with uncertainty and lineage</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F77" s="9">
         <v>2006</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H77" s="18" t="s">
         <v>229</v>
@@ -30245,23 +30245,23 @@
         <v>76</v>
       </c>
       <c r="B78" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>1010</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>1011</v>
       </c>
       <c r="D78" s="18" t="str">
         <f t="shared" si="3"/>
         <v>winning ways for your mathematical plays</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F78" s="9">
         <v>2004</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H78" s="18" t="s">
         <v>229</v>
@@ -30309,23 +30309,23 @@
         <v>77</v>
       </c>
       <c r="B79" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>1014</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>1015</v>
       </c>
       <c r="D79" s="18" t="str">
         <f t="shared" si="3"/>
         <v>a type theory for probability density functions</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F79" s="9">
         <v>2012</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H79" s="18" t="s">
         <v>229</v>
@@ -30388,23 +30388,23 @@
         <v>78</v>
       </c>
       <c r="B80" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>1018</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>1019</v>
       </c>
       <c r="D80" s="18" t="str">
         <f t="shared" si="3"/>
         <v>pattern recognition and machine learning</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F80" s="9">
         <v>2006</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H80" s="18" t="s">
         <v>229</v>
@@ -30452,17 +30452,17 @@
         <v>79</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>1021</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>1022</v>
       </c>
       <c r="D81" s="18" t="str">
         <f t="shared" si="3"/>
         <v>measure transformer semantics for bayesian machine learning</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F81" s="9">
         <v>2011</v>
@@ -30489,10 +30489,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D82" s="18" t="str">
         <f t="shared" si="3"/>
@@ -30520,23 +30520,23 @@
         <v>81</v>
       </c>
       <c r="B83" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>1025</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>1026</v>
       </c>
       <c r="D83" s="18" t="str">
         <f t="shared" si="3"/>
         <v>a note on the generation of random normal deviates</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F83" s="9">
         <v>1958</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H83" s="18" t="s">
         <v>229</v>
@@ -30584,23 +30584,23 @@
         <v>82</v>
       </c>
       <c r="B84" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>1029</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>1030</v>
       </c>
       <c r="D84" s="18" t="str">
         <f t="shared" si="3"/>
         <v>verifying quantitative reliability of programs that execute on unreliable hardware</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F84" s="9">
         <v>2013</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H84" s="18" t="s">
         <v>229</v>
@@ -30663,23 +30663,23 @@
         <v>83</v>
       </c>
       <c r="B85" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>1032</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>1033</v>
       </c>
       <c r="D85" s="18" t="str">
         <f t="shared" si="3"/>
         <v>efficiently sampling probabilistic programs via program analysis</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F85" s="9">
         <v>2013</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>229</v>
@@ -30742,23 +30742,23 @@
         <v>84</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>1036</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>1037</v>
       </c>
       <c r="D86" s="18" t="str">
         <f t="shared" si="3"/>
         <v>management of probabilistic data: foundations and challenges</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F86" s="9">
         <v>2007</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H86" s="18" t="s">
         <v>229</v>
@@ -30806,23 +30806,23 @@
         <v>85</v>
       </c>
       <c r="B87" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>1040</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>1041</v>
       </c>
       <c r="D87" s="18" t="str">
         <f t="shared" si="3"/>
         <v>neural acceleration for general-purpose approximate programs</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F87" s="9">
         <v>2012</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H87" s="18" t="s">
         <v>229</v>
@@ -30870,23 +30870,23 @@
         <v>86</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>1044</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>1045</v>
       </c>
       <c r="D88" s="18" t="str">
         <f t="shared" si="3"/>
         <v>a language and program for complex bayesian modelling</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F88" s="9">
         <v>1994</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H88" s="18" t="s">
         <v>229</v>
@@ -30934,23 +30934,23 @@
         <v>87</v>
       </c>
       <c r="B89" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>1047</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>1048</v>
       </c>
       <c r="D89" s="18" t="str">
         <f t="shared" si="3"/>
         <v>a categorical approach to probability theory</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F89" s="9">
         <v>1982</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H89" s="18" t="s">
         <v>229</v>
@@ -30998,23 +30998,23 @@
         <v>88</v>
       </c>
       <c r="B90" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>1051</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>1052</v>
       </c>
       <c r="D90" s="18" t="str">
         <f t="shared" si="3"/>
         <v>church: a language for generative models</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F90" s="9">
         <v>2008</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H90" s="18" t="s">
         <v>229</v>
@@ -31062,23 +31062,23 @@
         <v>89</v>
       </c>
       <c r="B91" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>1055</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>1056</v>
       </c>
       <c r="D91" s="18" t="str">
         <f t="shared" si="3"/>
         <v>arithmetic operations on independent random variables: a numerical approach</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F91" s="9">
         <v>2012</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H91" s="18" t="s">
         <v>229</v>
@@ -31141,23 +31141,23 @@
         <v>90</v>
       </c>
       <c r="B92" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>1059</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>1060</v>
       </c>
       <c r="D92" s="18" t="str">
         <f t="shared" si="3"/>
         <v>group sequential methods with applications to clinical trials</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F92" s="9">
         <v>2000</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H92" s="18" t="s">
         <v>229</v>
@@ -31205,23 +31205,23 @@
         <v>91</v>
       </c>
       <c r="B93" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>1063</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>1064</v>
       </c>
       <c r="D93" s="18" t="str">
         <f t="shared" si="3"/>
         <v>making it easier to build and maintain big-data analytics</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F93" s="9">
         <v>2013</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H93" s="18" t="s">
         <v>229</v>
@@ -31269,23 +31269,23 @@
         <v>92</v>
       </c>
       <c r="B94" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>1066</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>1067</v>
       </c>
       <c r="D94" s="18" t="str">
         <f t="shared" si="3"/>
         <v>interval analysis</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F94" s="9">
         <v>1966</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H94" s="18" t="s">
         <v>229</v>
@@ -31333,23 +31333,23 @@
         <v>93</v>
       </c>
       <c r="B95" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>1070</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>1071</v>
       </c>
       <c r="D95" s="18" t="str">
         <f t="shared" si="3"/>
         <v>bayesian learning for neural networks</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F95" s="9">
         <v>1994</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H95" s="18" t="s">
         <v>229</v>
@@ -31397,23 +31397,23 @@
         <v>94</v>
       </c>
       <c r="B96" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>1074</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>1075</v>
       </c>
       <c r="D96" s="18" t="str">
         <f t="shared" si="3"/>
         <v>hidden markov map matching through noise and sparseness</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F96" s="9">
         <v>2009</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H96" s="18" t="s">
         <v>229</v>
@@ -31461,10 +31461,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>1078</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>1079</v>
       </c>
       <c r="D97" s="18" t="str">
         <f t="shared" si="3"/>
@@ -31519,23 +31519,23 @@
         <v>96</v>
       </c>
       <c r="B98" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>1080</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>1081</v>
       </c>
       <c r="D98" s="18" t="str">
         <f t="shared" si="3"/>
         <v>a probabilistic language based on sampling functions</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F98" s="9">
         <v>2005</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H98" s="18" t="s">
         <v>229</v>
@@ -31598,23 +31598,23 @@
         <v>97</v>
       </c>
       <c r="B99" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>1083</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>1084</v>
       </c>
       <c r="D99" s="18" t="str">
         <f t="shared" si="3"/>
         <v>ibal: a probabilistic rational programming language</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F99" s="9">
         <v>2001</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H99" s="18" t="s">
         <v>229</v>
@@ -31677,23 +31677,23 @@
         <v>98</v>
       </c>
       <c r="B100" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>1086</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>1087</v>
       </c>
       <c r="D100" s="18" t="str">
         <f t="shared" si="3"/>
         <v>stochastic lambda calculus and monads of probability distributions</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F100" s="9">
         <v>2002</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H100" s="18" t="s">
         <v>229</v>
@@ -31756,23 +31756,23 @@
         <v>99</v>
       </c>
       <c r="B101" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C101" s="9" t="s">
         <v>1089</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>1090</v>
       </c>
       <c r="D101" s="18" t="str">
         <f t="shared" si="3"/>
         <v>enerj: approximate data types for safe and general low-power computation</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F101" s="9">
         <v>2011</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H101" s="18" t="s">
         <v>229</v>
@@ -31820,23 +31820,23 @@
         <v>100</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>1093</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>1094</v>
       </c>
       <c r="D102" s="18" t="str">
         <f t="shared" si="3"/>
         <v>static analysis for probabilistic programs: inferring whole program properties from finitely many paths</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F102" s="9">
         <v>2013</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H102" s="18" t="s">
         <v>229</v>
@@ -31899,23 +31899,23 @@
         <v>101</v>
       </c>
       <c r="B103" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>1096</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>1097</v>
       </c>
       <c r="D103" s="18" t="str">
         <f t="shared" si="3"/>
         <v>monte carlo methods for managing interactive state, action and feedback under uncertainty</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F103" s="9">
         <v>2011</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H103" s="18" t="s">
         <v>229</v>
@@ -31978,23 +31978,23 @@
         <v>102</v>
       </c>
       <c r="B104" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>1100</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>1101</v>
       </c>
       <c r="D104" s="18" t="str">
         <f t="shared" si="3"/>
         <v>global positioning system: the mathematics of gps receivers</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F104" s="9">
         <v>1998</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H104" s="18" t="s">
         <v>229</v>
@@ -32042,23 +32042,23 @@
         <v>103</v>
       </c>
       <c r="B105" s="9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C105" s="9" t="s">
         <v>1104</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>1105</v>
       </c>
       <c r="D105" s="18" t="str">
         <f t="shared" si="3"/>
         <v>towards programming tools for robots that integrate probabilistic computation and learning</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F105" s="9">
         <v>2000</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H105" s="18" t="s">
         <v>229</v>
@@ -32121,10 +32121,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C106" s="9" t="s">
         <v>1108</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>1109</v>
       </c>
       <c r="D106" s="18" t="str">
         <f t="shared" si="3"/>
@@ -32134,7 +32134,7 @@
         <v>1970</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H106" s="18" t="s">
         <v>229</v>
@@ -32182,17 +32182,17 @@
         <v>105</v>
       </c>
       <c r="B107" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C107" s="9" t="s">
         <v>1111</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>1112</v>
       </c>
       <c r="D107" s="18" t="str">
         <f t="shared" si="3"/>
         <v>sequential tests of statistical hypotheses</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F107" s="9">
         <v>1945</v>
@@ -32243,10 +32243,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C108" s="9" t="s">
         <v>1114</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>1115</v>
       </c>
       <c r="D108" s="18" t="str">
         <f t="shared" si="3"/>
@@ -32256,7 +32256,7 @@
         <v>2016</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>229</v>
@@ -32304,10 +32304,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C109" s="9" t="s">
         <v>1117</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>1118</v>
       </c>
       <c r="D109" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32317,7 +32317,7 @@
         <v>2015</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H109" s="19" t="s">
         <v>229</v>
@@ -32365,10 +32365,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C110" s="9" t="s">
         <v>1120</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>1121</v>
       </c>
       <c r="D110" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32378,7 +32378,7 @@
         <v>2009</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H110" s="19" t="s">
         <v>229</v>
@@ -32426,23 +32426,23 @@
         <v>109</v>
       </c>
       <c r="B111" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>1123</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>1124</v>
       </c>
       <c r="D111" s="9" t="str">
         <f t="shared" si="3"/>
         <v>cvode, a stiff/nonstiff ode solver in c</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F111" s="9">
         <v>1996</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H111" s="19" t="s">
         <v>229</v>
@@ -32490,10 +32490,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>1127</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>1128</v>
       </c>
       <c r="D112" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32503,7 +32503,7 @@
         <v>2010</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H112" s="19" t="s">
         <v>229</v>
@@ -32551,23 +32551,23 @@
         <v>111</v>
       </c>
       <c r="B113" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C113" s="9" t="s">
         <v>1130</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>1131</v>
       </c>
       <c r="D113" s="9" t="str">
         <f t="shared" si="3"/>
         <v>hybrid monte carlo</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F113" s="9">
         <v>1987</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H113" s="19" t="s">
         <v>229</v>
@@ -32615,10 +32615,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C114" s="9" t="s">
         <v>1134</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>1135</v>
       </c>
       <c r="D114" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32673,23 +32673,23 @@
         <v>113</v>
       </c>
       <c r="B115" s="9" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C115" s="9" t="s">
         <v>1136</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>1137</v>
       </c>
       <c r="D115" s="9" t="str">
         <f t="shared" si="3"/>
         <v>bayesian data analysis</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F115" s="9">
         <v>2013</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H115" s="19" t="s">
         <v>229</v>
@@ -32737,23 +32737,23 @@
         <v>114</v>
       </c>
       <c r="B116" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C116" s="9" t="s">
         <v>1140</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>1141</v>
       </c>
       <c r="D116" s="9" t="str">
         <f t="shared" si="3"/>
         <v>why we (usually) don’t have to worry about multiple comparisons</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F116" s="9">
         <v>2012</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H116" s="19" t="s">
         <v>229</v>
@@ -32801,23 +32801,23 @@
         <v>115</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C117" s="9" t="s">
         <v>1144</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>1145</v>
       </c>
       <c r="D117" s="9" t="str">
         <f t="shared" si="3"/>
         <v>inference from iterative simulation using multiple sequences</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F117" s="9">
         <v>1992</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H117" s="19" t="s">
         <v>229</v>
@@ -32865,23 +32865,23 @@
         <v>116</v>
       </c>
       <c r="B118" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C118" s="9" t="s">
         <v>1148</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>1149</v>
       </c>
       <c r="D118" s="9" t="str">
         <f t="shared" si="3"/>
         <v>introduction to markov chain monte carlo</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F118" s="9">
         <v>2011</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H118" s="19" t="s">
         <v>229</v>
@@ -32929,10 +32929,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C119" s="9" t="s">
         <v>1152</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>1153</v>
       </c>
       <c r="D119" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32942,7 +32942,7 @@
         <v>2016</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H119" s="19" t="s">
         <v>229</v>
@@ -32990,10 +32990,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D120" s="9" t="str">
         <f t="shared" si="3"/>
@@ -33003,7 +33003,7 @@
         <v>2010</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H120" s="19" t="s">
         <v>229</v>
@@ -33051,23 +33051,23 @@
         <v>119</v>
       </c>
       <c r="B121" s="9" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C121" s="9" t="s">
         <v>1158</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>1159</v>
       </c>
       <c r="D121" s="9" t="str">
         <f t="shared" si="3"/>
         <v>sundials: suite of nonlinear and differential/algebraic equation solvers</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F121" s="9">
         <v>2005</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H121" s="19" t="s">
         <v>229</v>
@@ -33115,23 +33115,23 @@
         <v>120</v>
       </c>
       <c r="B122" s="9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C122" s="9" t="s">
         <v>1162</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>1163</v>
       </c>
       <c r="D122" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the no-u-turn sampler: adaptively setting path lengths in hamiltonian monte carlo</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F122" s="9">
         <v>2014</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H122" s="19" t="s">
         <v>229</v>
@@ -33179,23 +33179,23 @@
         <v>121</v>
       </c>
       <c r="B123" s="9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C123" s="9" t="s">
         <v>1166</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>1167</v>
       </c>
       <c r="D123" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the bugs book – a practical introduction to bayesian analysis</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F123" s="9">
         <v>2012</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H123" s="19" t="s">
         <v>229</v>
@@ -33243,23 +33243,23 @@
         <v>122</v>
       </c>
       <c r="B124" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>1169</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>1170</v>
       </c>
       <c r="D124" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the bugs project: evolution, critique, and future directions</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F124" s="9">
         <v>2009</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H124" s="19" t="s">
         <v>229</v>
@@ -33307,23 +33307,23 @@
         <v>123</v>
       </c>
       <c r="B125" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>1173</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>1174</v>
       </c>
       <c r="D125" s="9" t="str">
         <f t="shared" si="3"/>
         <v>winbugs – a bayesian modelling framework: concepts, structure, and extensibility</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F125" s="9">
         <v>2000</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H125" s="19" t="s">
         <v>229</v>
@@ -33386,23 +33386,23 @@
         <v>124</v>
       </c>
       <c r="B126" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C126" s="9" t="s">
         <v>1177</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>1178</v>
       </c>
       <c r="D126" s="9" t="str">
         <f t="shared" si="3"/>
         <v>equation of state calculations by fast computing machines</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F126" s="9">
         <v>1953</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H126" s="19" t="s">
         <v>229</v>
@@ -33450,17 +33450,17 @@
         <v>125</v>
       </c>
       <c r="B127" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>1181</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>1182</v>
       </c>
       <c r="D127" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the latex companion. tools and techniques for computer typesetting</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F127" s="9">
         <v>2004</v>
@@ -33512,23 +33512,23 @@
         <v>126</v>
       </c>
       <c r="B128" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C128" s="9" t="s">
         <v>1184</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>1185</v>
       </c>
       <c r="D128" s="9" t="str">
         <f t="shared" si="3"/>
         <v>mcmc using hamiltonian dynamics.</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F128" s="9">
         <v>2011</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H128" s="19" t="s">
         <v>229</v>
@@ -33576,23 +33576,23 @@
         <v>127</v>
       </c>
       <c r="B129" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>1187</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>1188</v>
       </c>
       <c r="D129" s="9" t="str">
         <f t="shared" si="3"/>
         <v>an improved acceptance procedure for the hybrid monte carlo algo- rithm</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F129" s="9">
         <v>1994</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H129" s="19" t="s">
         <v>229</v>
@@ -33640,23 +33640,23 @@
         <v>128</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D130" s="9" t="str">
         <f t="shared" si="3"/>
         <v>slice sampling</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F130" s="9">
         <v>2003</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H130" s="19" t="s">
         <v>229</v>
@@ -33704,17 +33704,17 @@
         <v>129</v>
       </c>
       <c r="B131" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C131" s="9" t="s">
         <v>1193</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>1194</v>
       </c>
       <c r="D131" s="9" t="str">
         <f t="shared" si="3"/>
         <v>numerical optimization</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F131" s="9">
         <v>2006</v>
@@ -33765,23 +33765,23 @@
         <v>130</v>
       </c>
       <c r="B132" s="9" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C132" s="9" t="s">
         <v>1196</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>1197</v>
       </c>
       <c r="D132" s="9" t="str">
         <f t="shared" si="3"/>
         <v>jags: a program for analysis of bayesian graphical models using gibbs sampling</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F132" s="9">
         <v>2003</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H132" s="19" t="s">
         <v>229</v>
@@ -33844,23 +33844,23 @@
         <v>131</v>
       </c>
       <c r="B133" s="9" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C133" s="9" t="s">
         <v>1200</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>1201</v>
       </c>
       <c r="D133" s="9" t="str">
         <f t="shared" si="3"/>
         <v>code: convergence diagnosis and out- put analysis for mcmc</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F133" s="9">
         <v>2006</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H133" s="19" t="s">
         <v>229</v>
@@ -33908,23 +33908,23 @@
         <v>132</v>
       </c>
       <c r="B134" s="9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C134" s="9" t="s">
         <v>1204</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>1205</v>
       </c>
       <c r="D134" s="9" t="str">
         <f t="shared" si="3"/>
         <v>r: a language and environment for statistical computing</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F134" s="9">
         <v>2016</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H134" s="19" t="s">
         <v>229</v>
@@ -33972,23 +33972,23 @@
         <v>133</v>
       </c>
       <c r="B135" s="9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C135" s="9" t="s">
         <v>1208</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>1209</v>
       </c>
       <c r="D135" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the boost c++ libraries</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F135" s="9">
         <v>2011</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H135" s="19" t="s">
         <v>229</v>
@@ -34036,23 +34036,23 @@
         <v>134</v>
       </c>
       <c r="B136" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C136" s="9" t="s">
         <v>1212</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>1213</v>
       </c>
       <c r="D136" s="9" t="str">
         <f t="shared" si="3"/>
         <v>jenkins: the definitive guide</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F136" s="9">
         <v>2011</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H136" s="19" t="s">
         <v>229</v>
@@ -34100,23 +34100,23 @@
         <v>135</v>
       </c>
       <c r="B137" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C137" s="9" t="s">
         <v>1216</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>1217</v>
       </c>
       <c r="D137" s="9" t="str">
         <f t="shared" si="3"/>
         <v>stan modeling language user’s guide and reference manual</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F137" s="9">
         <v>2016</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H137" s="19" t="s">
         <v>229</v>
@@ -34164,10 +34164,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="9" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C138" s="9" t="s">
         <v>1220</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>1221</v>
       </c>
       <c r="D138" s="9" t="str">
         <f t="shared" si="3"/>
@@ -34177,7 +34177,7 @@
         <v>2016</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H138" s="19" t="s">
         <v>229</v>
@@ -34225,10 +34225,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C139" s="9" t="s">
         <v>1223</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>1224</v>
       </c>
       <c r="D139" s="9" t="str">
         <f t="shared" si="3"/>
@@ -34238,7 +34238,7 @@
         <v>2016</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H139" s="19" t="s">
         <v>229</v>
@@ -34286,23 +34286,23 @@
         <v>138</v>
       </c>
       <c r="B140" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C140" s="9" t="s">
         <v>1226</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>1227</v>
       </c>
       <c r="D140" s="20" t="str">
         <f t="shared" si="3"/>
         <v>object-oriented units of measurement</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F140" s="9">
         <v>2004</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H140" s="20" t="s">
         <v>229</v>
@@ -34350,23 +34350,23 @@
         <v>139</v>
       </c>
       <c r="B141" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C141" s="20" t="s">
         <v>1229</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>1230</v>
       </c>
       <c r="D141" s="20" t="str">
         <f t="shared" ref="D141:D205" si="4">TRIM(LOWER(C141))</f>
         <v>extendable physical unit checking with understandable error reporting</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F141" s="9">
         <v>2009</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H141" s="20" t="s">
         <v>229</v>
@@ -34414,10 +34414,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D142" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34445,10 +34445,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C143" s="9" t="s">
         <v>1234</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>1235</v>
       </c>
       <c r="D143" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34458,7 +34458,7 @@
         <v>2016</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H143" s="20" t="s">
         <v>229</v>
@@ -34506,23 +34506,23 @@
         <v>142</v>
       </c>
       <c r="B144" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C144" s="9" t="s">
         <v>1237</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>1238</v>
       </c>
       <c r="D144" s="20" t="str">
         <f t="shared" si="4"/>
         <v>natural unit representation in modelica</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F144" s="9">
         <v>2012</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H144" s="20" t="s">
         <v>229</v>
@@ -34570,23 +34570,23 @@
         <v>143</v>
       </c>
       <c r="B145" s="9" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C145" s="9" t="s">
         <v>1240</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>1241</v>
       </c>
       <c r="D145" s="20" t="str">
         <f t="shared" si="4"/>
         <v>challenges in combining sysml and marte for model-based design of embedded systems</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F145" s="9">
         <v>2009</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H145" s="20" t="s">
         <v>229</v>
@@ -34634,17 +34634,17 @@
         <v>144</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D146" s="20" t="str">
         <f t="shared" si="4"/>
         <v>quantity: represent dimensioned values with both their amount and their unit</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H146" s="20" t="s">
         <v>229</v>
@@ -34671,10 +34671,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D147" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34684,7 +34684,7 @@
         <v>1997</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H147" s="20" t="s">
         <v>229</v>
@@ -34732,23 +34732,23 @@
         <v>146</v>
       </c>
       <c r="B148" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C148" s="9" t="s">
         <v>1247</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>1248</v>
       </c>
       <c r="D148" s="20" t="str">
         <f t="shared" si="4"/>
         <v>modelica – a unified object-oriented language for system modeling and simulation</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F148" s="9">
         <v>1998</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H148" s="20" t="s">
         <v>229</v>
@@ -34796,10 +34796,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D149" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34827,10 +34827,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>1251</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>1252</v>
       </c>
       <c r="D150" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34840,7 +34840,7 @@
         <v>2016</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H150" s="20" t="s">
         <v>229</v>
@@ -34888,10 +34888,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C151" s="9" t="s">
         <v>1254</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>1255</v>
       </c>
       <c r="D151" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34901,7 +34901,7 @@
         <v>2014</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H151" s="20" t="s">
         <v>229</v>
@@ -34949,23 +34949,23 @@
         <v>150</v>
       </c>
       <c r="B152" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C152" s="9" t="s">
         <v>1257</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>1258</v>
       </c>
       <c r="D152" s="20" t="str">
         <f t="shared" si="4"/>
         <v>the systems biology markup language (sbml): a medium for representation and exchange of bio- chemical network models</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F152" s="9">
         <v>2003</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H152" s="20" t="s">
         <v>229</v>
@@ -35013,23 +35013,23 @@
         <v>151</v>
       </c>
       <c r="B153" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C153" s="9" t="s">
         <v>1261</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>1262</v>
       </c>
       <c r="D153" s="20" t="str">
         <f t="shared" si="4"/>
         <v>mars climate orbiter fail- ure board releases report, numerous nasa actions un- derway in response</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F153" s="9">
         <v>1999</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H153" s="20" t="s">
         <v>229</v>
@@ -35077,17 +35077,17 @@
         <v>152</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D154" s="20" t="str">
         <f t="shared" si="4"/>
         <v>evaluation of measurement data - guide to the expression of uncertainty in measurement</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H154" s="20" t="s">
         <v>229</v>
@@ -35111,17 +35111,17 @@
         <v>153</v>
       </c>
       <c r="B155" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="C155" s="20" t="s">
         <v>943</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>944</v>
       </c>
       <c r="D155" s="20" t="str">
         <f t="shared" si="4"/>
         <v>evaluation of measurement data – supplement 1 to the “guide to the expression of uncertainty in measurement” – propagation of distributions using a monte carlo method</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H155" s="20" t="s">
         <v>229</v>
@@ -35145,17 +35145,17 @@
         <v>154</v>
       </c>
       <c r="B156" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C156" s="9" t="s">
         <v>1265</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>1266</v>
       </c>
       <c r="D156" s="20" t="str">
         <f t="shared" si="4"/>
         <v>international vocabulary of metrology – basic and general concepts and associated terms (vim)</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H156" s="20" t="s">
         <v>229</v>
@@ -35179,17 +35179,17 @@
         <v>155</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D157" s="20" t="str">
         <f t="shared" si="4"/>
         <v>generating optimized configurable business process models in scenarios subject to uncertainty</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H157" s="20" t="s">
         <v>229</v>
@@ -35213,10 +35213,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C158" s="9" t="s">
         <v>1269</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>1270</v>
       </c>
       <c r="D158" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35226,7 +35226,7 @@
         <v>2002</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H158" s="20" t="s">
         <v>229</v>
@@ -35274,23 +35274,23 @@
         <v>157</v>
       </c>
       <c r="B159" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C159" s="9" t="s">
         <v>1272</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>1273</v>
       </c>
       <c r="D159" s="20" t="str">
         <f t="shared" si="4"/>
         <v>relational parametricity and units of measure</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F159" s="9">
         <v>1997</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H159" s="20" t="s">
         <v>229</v>
@@ -35338,23 +35338,23 @@
         <v>158</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D160" s="20" t="str">
         <f t="shared" si="4"/>
         <v>types for units-of-measure: theory and practice</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F160" s="9">
         <v>2009</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H160" s="20" t="s">
         <v>229</v>
@@ -35402,10 +35402,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C161" s="9" t="s">
         <v>1278</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>1279</v>
       </c>
       <c r="D161" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35415,7 +35415,7 @@
         <v>2016</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H161" s="20" t="s">
         <v>229</v>
@@ -35463,17 +35463,17 @@
         <v>160</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D162" s="20" t="str">
         <f t="shared" si="4"/>
         <v>cyber physical systems: design challenges</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H162" s="20" t="s">
         <v>229</v>
@@ -35497,10 +35497,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C163" s="9" t="s">
         <v>1282</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>1283</v>
       </c>
       <c r="D163" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35510,7 +35510,7 @@
         <v>2016</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H163" s="20" t="s">
         <v>229</v>
@@ -35558,23 +35558,23 @@
         <v>162</v>
       </c>
       <c r="B164" s="9" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C164" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="D164" s="20" t="str">
         <f t="shared" si="4"/>
         <v>unit checking and quantity conservation</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F164" s="9">
         <v>2008</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H164" s="20" t="s">
         <v>229</v>
@@ -35622,23 +35622,23 @@
         <v>163</v>
       </c>
       <c r="B165" s="9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C165" s="9" t="s">
         <v>1288</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>1289</v>
       </c>
       <c r="D165" s="20" t="str">
         <f t="shared" si="4"/>
         <v>xmof: executable dsmls based on fuml</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F165" s="9">
         <v>2013</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H165" s="20" t="s">
         <v>229</v>
@@ -35686,10 +35686,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="9" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C166" s="9" t="s">
         <v>1291</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>1292</v>
       </c>
       <c r="D166" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35699,7 +35699,7 @@
         <v>2016</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H166" s="20" t="s">
         <v>229</v>
@@ -35747,23 +35747,23 @@
         <v>165</v>
       </c>
       <c r="B167" s="9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C167" s="9" t="s">
         <v>1294</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>1295</v>
       </c>
       <c r="D167" s="20" t="str">
         <f t="shared" si="4"/>
         <v>industry 4.0 as a cyber-physical system study</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F167" s="9">
         <v>2016</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H167" s="20" t="s">
         <v>229</v>
@@ -35811,10 +35811,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D168" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35842,10 +35842,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="C169" s="9" t="s">
         <v>969</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>970</v>
       </c>
       <c r="D169" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35873,10 +35873,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D170" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35904,10 +35904,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D171" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35935,23 +35935,23 @@
         <v>170</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D172" s="20" t="str">
         <f t="shared" si="4"/>
         <v>semantics of a foundational subset for executable uml models (fuml)</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F172" s="9">
         <v>2016</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H172" s="20" t="s">
         <v>229</v>
@@ -35999,10 +35999,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="9" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C173" s="9" t="s">
         <v>1299</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>1300</v>
       </c>
       <c r="D173" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36012,7 +36012,7 @@
         <v>2016</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H173" s="20" t="s">
         <v>229</v>
@@ -36060,23 +36060,23 @@
         <v>172</v>
       </c>
       <c r="B174" s="9" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C174" s="9" t="s">
         <v>1302</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>1303</v>
       </c>
       <c r="D174" s="20" t="str">
         <f t="shared" si="4"/>
         <v>cyber- physical systems: the next computing revolution</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F174" s="9">
         <v>2010</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H174" s="20" t="s">
         <v>229</v>
@@ -36124,10 +36124,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="9" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C175" s="9" t="s">
         <v>1306</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>1307</v>
       </c>
       <c r="D175" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36137,7 +36137,7 @@
         <v>2007</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H175" s="20" t="s">
         <v>229</v>
@@ -36185,10 +36185,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D176" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36216,23 +36216,23 @@
         <v>175</v>
       </c>
       <c r="B177" s="9" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C177" s="9" t="s">
         <v>1310</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>1311</v>
       </c>
       <c r="D177" s="20" t="str">
         <f t="shared" si="4"/>
         <v>the international system of units (si)</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F177" s="9">
         <v>2008</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H177" s="20" t="s">
         <v>229</v>
@@ -36280,10 +36280,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D178" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36311,10 +36311,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D179" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36342,10 +36342,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C180" s="20" t="s">
         <v>1316</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>1317</v>
       </c>
       <c r="D180" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36355,7 +36355,7 @@
         <v>2016</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H180" s="20" t="s">
         <v>229</v>
@@ -36403,10 +36403,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D181" s="9" t="str">
         <f t="shared" si="4"/>
@@ -36434,10 +36434,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D182" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36465,10 +36465,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D183" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36496,23 +36496,23 @@
         <v>182</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D184" s="21" t="str">
         <f t="shared" si="4"/>
         <v>cyber-physical systems challenges: a needs analysis for collaborating embedded software systems</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F184" s="9">
         <v>2016</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H184" s="21" t="s">
         <v>229</v>
@@ -36560,17 +36560,17 @@
         <v>183</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D185" s="21" t="str">
         <f t="shared" si="4"/>
         <v>evaluation of measurement data - guide to the expression of uncertainty in measurement</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H185" s="21" t="s">
         <v>229</v>
@@ -36594,17 +36594,17 @@
         <v>184</v>
       </c>
       <c r="B186" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="C186" s="9" t="s">
         <v>943</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>944</v>
       </c>
       <c r="D186" s="21" t="str">
         <f t="shared" si="4"/>
         <v>evaluation of measurement data – supplement 1 to the “guide to the expression of uncertainty in measurement” – propagation of distributions using a monte carlo method</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H186" s="21" t="s">
         <v>229</v>
@@ -36628,17 +36628,17 @@
         <v>185</v>
       </c>
       <c r="B187" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C187" s="9" t="s">
         <v>1265</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>1266</v>
       </c>
       <c r="D187" s="21" t="str">
         <f t="shared" si="4"/>
         <v>international vocabulary of metrology – basic and general concepts and associated terms (vim)</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H187" s="21" t="s">
         <v>229</v>
@@ -36662,17 +36662,17 @@
         <v>186</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D188" s="21" t="str">
         <f t="shared" si="4"/>
         <v>uml profile for marte: modeling and analysis of real-time embedded systems</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H188" s="21" t="s">
         <v>229</v>
@@ -36696,17 +36696,17 @@
         <v>187</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D189" s="21" t="str">
         <f t="shared" si="4"/>
         <v>omg systems modeling language (sysml)</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H189" s="21" t="s">
         <v>229</v>
@@ -36730,17 +36730,17 @@
         <v>188</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D190" s="21" t="str">
         <f t="shared" si="4"/>
         <v>generating optimized configurable business process models in scenarios subject to uncertainty</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H190" s="21" t="s">
         <v>229</v>
@@ -36764,10 +36764,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="C191" s="9" t="s">
         <v>989</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>990</v>
       </c>
       <c r="D191" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36795,10 +36795,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D192" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36826,10 +36826,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="21" t="s">
+        <v>968</v>
+      </c>
+      <c r="C193" s="9" t="s">
         <v>969</v>
-      </c>
-      <c r="C193" s="9" t="s">
-        <v>970</v>
       </c>
       <c r="D193" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36857,23 +36857,23 @@
         <v>192</v>
       </c>
       <c r="B194" s="9" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C194" s="9" t="s">
         <v>1323</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>1324</v>
       </c>
       <c r="D194" s="21" t="str">
         <f t="shared" si="4"/>
         <v>atl: a model transformation tool</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F194" s="9">
         <v>2008</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H194" s="21" t="s">
         <v>229</v>
@@ -36921,23 +36921,23 @@
         <v>193</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D195" s="21" t="str">
         <f t="shared" si="4"/>
         <v>specifying aggregation functions in multidimensional models with ocl</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F195" s="9">
         <v>2010</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H195" s="21" t="s">
         <v>229</v>
@@ -36985,23 +36985,23 @@
         <v>194</v>
       </c>
       <c r="B196" s="9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C196" s="9" t="s">
         <v>1330</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>1331</v>
       </c>
       <c r="D196" s="21" t="str">
         <f t="shared" si="4"/>
         <v>benefits and problems of formal methods</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F196" s="9">
         <v>2004</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H196" s="21" t="s">
         <v>229</v>
@@ -37049,23 +37049,23 @@
         <v>195</v>
       </c>
       <c r="B197" s="9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C197" s="9" t="s">
         <v>1333</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>1334</v>
       </c>
       <c r="D197" s="21" t="str">
         <f t="shared" si="4"/>
         <v>a summary of error propagation</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F197" s="9">
         <v>2014</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H197" s="21" t="s">
         <v>229</v>
@@ -37113,10 +37113,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="9" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C198" s="9" t="s">
         <v>1337</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>1338</v>
       </c>
       <c r="D198" s="21" t="str">
         <f t="shared" si="4"/>
@@ -37126,7 +37126,7 @@
         <v>2015</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H198" s="21" t="s">
         <v>229</v>
@@ -37174,10 +37174,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C199" s="9" t="s">
         <v>1294</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>1295</v>
       </c>
       <c r="D199" s="21" t="str">
         <f t="shared" si="4"/>
@@ -37205,23 +37205,23 @@
         <v>198</v>
       </c>
       <c r="B200" s="9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C200" s="9" t="s">
         <v>1340</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>1341</v>
       </c>
       <c r="D200" s="21" t="str">
         <f t="shared" si="4"/>
         <v>accuracy and stability of numerical algorithms</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F200" s="9">
         <v>1996</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H200" s="21" t="s">
         <v>229</v>
@@ -37269,23 +37269,23 @@
         <v>199</v>
       </c>
       <c r="B201" s="9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C201" s="22" t="s">
         <v>1344</v>
-      </c>
-      <c r="C201" s="22" t="s">
-        <v>1345</v>
       </c>
       <c r="D201" s="21" t="str">
         <f t="shared" si="4"/>
         <v>handbook of floating-point arithmetic</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F201" s="9">
         <v>2010</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H201" s="21" t="s">
         <v>229</v>
@@ -37333,23 +37333,23 @@
         <v>200</v>
       </c>
       <c r="B202" s="9" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C202" s="9" t="s">
         <v>1348</v>
-      </c>
-      <c r="C202" s="9" t="s">
-        <v>1349</v>
       </c>
       <c r="D202" s="21" t="str">
         <f t="shared" si="4"/>
         <v>the guesstimate blog</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="F202" s="9">
         <v>2015</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H202" s="21" t="s">
         <v>229</v>
@@ -37397,23 +37397,23 @@
         <v>201</v>
       </c>
       <c r="B203" s="9" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C203" s="9" t="s">
         <v>1352</v>
-      </c>
-      <c r="C203" s="9" t="s">
-        <v>1353</v>
       </c>
       <c r="D203" s="21" t="str">
         <f t="shared" si="4"/>
         <v>the role of models in managing the uncertainty of software-intensive systems</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F203" s="9">
         <v>1995</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H203" s="21" t="s">
         <v>229</v>
@@ -37461,10 +37461,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D204" s="21" t="str">
         <f t="shared" si="4"/>
@@ -37492,10 +37492,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D205" s="21" t="str">
         <f t="shared" si="4"/>
@@ -37523,10 +37523,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D206" s="21" t="str">
         <f t="shared" ref="D206:D212" si="6">TRIM(LOWER(C206))</f>
@@ -37554,10 +37554,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D207" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37585,10 +37585,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D208" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37616,10 +37616,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D209" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37647,10 +37647,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D210" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37678,10 +37678,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D211" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37709,10 +37709,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C212" s="9" t="s">
         <v>1288</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>1289</v>
       </c>
       <c r="D212" s="21" t="str">
         <f t="shared" si="6"/>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3315ED-A169-B149-8DDE-AF18F22FB58F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1984CA5B-1ED2-714B-9376-5804923BB0BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
+    <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1 - LongTermAction" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="1367">
   <si>
     <t>Author</t>
   </si>
@@ -4864,7 +4864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99048B8C-98B5-C846-BA1E-677FE6633279}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="S41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -24987,7 +24987,7 @@
   <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25095,11 +25095,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7501BA-1B5B-254E-92CB-F30CCA26173E}">
   <dimension ref="A1:Z245"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="T154" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="S37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W117" sqref="W117"/>
+      <selection pane="bottomRight" activeCell="V69" sqref="V69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26127,7 +26127,7 @@
         <v>801</v>
       </c>
       <c r="F15" s="9">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>802</v>
@@ -26330,12 +26330,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z17" s="9" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="9">
@@ -28795,7 +28789,7 @@
         <v>17</v>
       </c>
       <c r="W54" s="9" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="Y54" s="9" t="s">
         <v>204</v>
@@ -29667,7 +29661,7 @@
         <v>17</v>
       </c>
       <c r="V68" s="9" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="W68" s="9" t="s">
         <v>229</v>
@@ -37744,10 +37738,6 @@
       </c>
     </row>
     <row r="214" spans="1:20">
-      <c r="C214" s="9">
-        <f>COUNTBLANK(C181:C212)</f>
-        <v>0</v>
-      </c>
       <c r="I214" s="9" t="b">
         <v>1</v>
       </c>
@@ -38011,47 +38001,47 @@
     <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:Z1048576">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D212">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>SUMPRODUCT(--EXACT($D$3:$D$212,$D3))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:L1048576">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:R1048576">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:S15">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:S16">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:S17">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38291,15 +38281,15 @@
       </c>
       <c r="C10">
         <f>COUNTIF('RQ2 - Data Uncertainty'!Y:Y,"NO")</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <f>COUNTA('RQ2 - Data Uncertainty'!Y:Y)-2</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="14">
         <f>C10/D10</f>
-        <v>0.86486486486486491</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -38308,11 +38298,11 @@
       </c>
       <c r="C11">
         <f>COUNTIF('RQ2 - Data Uncertainty'!Z:Z,"NO")</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <f>COUNTA('RQ2 - Data Uncertainty'!Y:Y)-2</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="14">
         <f>C11/D11</f>

--- a/sota/src/data.xlsx
+++ b/sota/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludovic/Documents/thesis/sota/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1984CA5B-1ED2-714B-9376-5804923BB0BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9EF826-B5A4-284F-982C-CCAA88DDEAB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-10340" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{A557A50A-5DDC-A947-B4B9-80A2CEF9B354}"/>
   </bookViews>
@@ -3123,9 +3123,6 @@
     <t>M. Carbin, S. Misailovic, and M. C. Rinard</t>
   </si>
   <si>
-    <t>Verifying quantitative reliability of programs that execute on unreliable hardware</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1145/2509136.2509546</t>
   </si>
   <si>
@@ -4156,6 +4153,9 @@
   </si>
   <si>
     <t>Rainbow:  Architecture-based  self-adaptation  with  reusable  infrastructure</t>
+  </si>
+  <si>
+    <t>Verifying quantitative reliability for programs that execute on unreliable hardware</t>
   </si>
 </sst>
 </file>
@@ -4214,7 +4214,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4278,6 +4278,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4890,27 +4893,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="N1" s="24" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="N1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="U1" s="24" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="U1" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="Y1" s="24" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="Y1" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="Z1" s="24"/>
+      <c r="Z1" s="25"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
@@ -13124,7 +13127,7 @@
         <v>416</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D123" s="8" t="str">
         <f t="shared" si="5"/>
@@ -13282,7 +13285,7 @@
         <v>419</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D125" s="8" t="str">
         <f t="shared" si="5"/>
@@ -14360,7 +14363,7 @@
         <v>536</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D141" s="15" t="str">
         <f t="shared" si="5"/>
@@ -25096,10 +25099,10 @@
   <dimension ref="A1:Z245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="S37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="R101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V69" sqref="V69"/>
+      <selection pane="bottomRight" activeCell="U125" sqref="U125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25119,27 +25122,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="N1" s="25" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="N1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="U1" s="25" t="s">
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="U1" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="Y1" s="25" t="s">
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="Y1" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="Z1" s="25"/>
+      <c r="Z1" s="26"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="9" t="s">
@@ -25203,13 +25206,13 @@
         <v>11</v>
       </c>
       <c r="U2" s="9" t="s">
+        <v>1360</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>1361</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>1362</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>1363</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>12</v>
@@ -27798,7 +27801,7 @@
         <v>887</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D40" s="9" t="str">
         <f t="shared" si="0"/>
@@ -29172,7 +29175,7 @@
         <v>961</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D61" s="9" t="str">
         <f t="shared" si="0"/>
@@ -30020,7 +30023,7 @@
         <v>999</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D75" s="9" t="str">
         <f t="shared" si="3"/>
@@ -30580,12 +30583,12 @@
       <c r="B84" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>1029</v>
+      <c r="C84" s="24" t="s">
+        <v>1366</v>
       </c>
       <c r="D84" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>verifying quantitative reliability of programs that execute on unreliable hardware</v>
+        <v>verifying quantitative reliability for programs that execute on unreliable hardware</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>841</v>
@@ -30594,7 +30597,7 @@
         <v>2013</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H84" s="18" t="s">
         <v>229</v>
@@ -30657,23 +30660,23 @@
         <v>83</v>
       </c>
       <c r="B85" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>1031</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>1032</v>
       </c>
       <c r="D85" s="18" t="str">
         <f t="shared" si="3"/>
         <v>efficiently sampling probabilistic programs via program analysis</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F85" s="9">
         <v>2013</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>229</v>
@@ -30736,23 +30739,23 @@
         <v>84</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>1035</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>1036</v>
       </c>
       <c r="D86" s="18" t="str">
         <f t="shared" si="3"/>
         <v>management of probabilistic data: foundations and challenges</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F86" s="9">
         <v>2007</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H86" s="18" t="s">
         <v>229</v>
@@ -30800,23 +30803,23 @@
         <v>85</v>
       </c>
       <c r="B87" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>1039</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>1040</v>
       </c>
       <c r="D87" s="18" t="str">
         <f t="shared" si="3"/>
         <v>neural acceleration for general-purpose approximate programs</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F87" s="9">
         <v>2012</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H87" s="18" t="s">
         <v>229</v>
@@ -30864,10 +30867,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>1043</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>1044</v>
       </c>
       <c r="D88" s="18" t="str">
         <f t="shared" si="3"/>
@@ -30880,7 +30883,7 @@
         <v>1994</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H88" s="18" t="s">
         <v>229</v>
@@ -30928,23 +30931,23 @@
         <v>87</v>
       </c>
       <c r="B89" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>1046</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>1047</v>
       </c>
       <c r="D89" s="18" t="str">
         <f t="shared" si="3"/>
         <v>a categorical approach to probability theory</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F89" s="9">
         <v>1982</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H89" s="18" t="s">
         <v>229</v>
@@ -30992,23 +30995,23 @@
         <v>88</v>
       </c>
       <c r="B90" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>1050</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>1051</v>
       </c>
       <c r="D90" s="18" t="str">
         <f t="shared" si="3"/>
         <v>church: a language for generative models</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F90" s="9">
         <v>2008</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H90" s="18" t="s">
         <v>229</v>
@@ -31056,23 +31059,23 @@
         <v>89</v>
       </c>
       <c r="B91" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>1054</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>1055</v>
       </c>
       <c r="D91" s="18" t="str">
         <f t="shared" si="3"/>
         <v>arithmetic operations on independent random variables: a numerical approach</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F91" s="9">
         <v>2012</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H91" s="18" t="s">
         <v>229</v>
@@ -31115,10 +31118,10 @@
         <v>1</v>
       </c>
       <c r="U91" s="9" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="V91" s="9" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="W91" s="9" t="s">
         <v>225</v>
@@ -31135,23 +31138,23 @@
         <v>90</v>
       </c>
       <c r="B92" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>1058</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>1059</v>
       </c>
       <c r="D92" s="18" t="str">
         <f t="shared" si="3"/>
         <v>group sequential methods with applications to clinical trials</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F92" s="9">
         <v>2000</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H92" s="18" t="s">
         <v>229</v>
@@ -31199,10 +31202,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>1062</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>1063</v>
       </c>
       <c r="D93" s="18" t="str">
         <f t="shared" si="3"/>
@@ -31215,7 +31218,7 @@
         <v>2013</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H93" s="18" t="s">
         <v>229</v>
@@ -31263,23 +31266,23 @@
         <v>92</v>
       </c>
       <c r="B94" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>1065</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>1066</v>
       </c>
       <c r="D94" s="18" t="str">
         <f t="shared" si="3"/>
         <v>interval analysis</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F94" s="9">
         <v>1966</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H94" s="18" t="s">
         <v>229</v>
@@ -31327,23 +31330,23 @@
         <v>93</v>
       </c>
       <c r="B95" s="9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>1069</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>1070</v>
       </c>
       <c r="D95" s="18" t="str">
         <f t="shared" si="3"/>
         <v>bayesian learning for neural networks</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F95" s="9">
         <v>1994</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H95" s="18" t="s">
         <v>229</v>
@@ -31391,23 +31394,23 @@
         <v>94</v>
       </c>
       <c r="B96" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>1073</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>1074</v>
       </c>
       <c r="D96" s="18" t="str">
         <f t="shared" si="3"/>
         <v>hidden markov map matching through noise and sparseness</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F96" s="9">
         <v>2009</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H96" s="18" t="s">
         <v>229</v>
@@ -31455,10 +31458,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>1077</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>1078</v>
       </c>
       <c r="D97" s="18" t="str">
         <f t="shared" si="3"/>
@@ -31513,10 +31516,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>1079</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>1080</v>
       </c>
       <c r="D98" s="18" t="str">
         <f t="shared" si="3"/>
@@ -31529,7 +31532,7 @@
         <v>2005</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H98" s="18" t="s">
         <v>229</v>
@@ -31592,10 +31595,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>1082</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>1083</v>
       </c>
       <c r="D99" s="18" t="str">
         <f t="shared" si="3"/>
@@ -31608,7 +31611,7 @@
         <v>2001</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H99" s="18" t="s">
         <v>229</v>
@@ -31671,10 +31674,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>1085</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>1086</v>
       </c>
       <c r="D100" s="18" t="str">
         <f t="shared" si="3"/>
@@ -31687,7 +31690,7 @@
         <v>2002</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H100" s="18" t="s">
         <v>229</v>
@@ -31750,23 +31753,23 @@
         <v>99</v>
       </c>
       <c r="B101" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C101" s="9" t="s">
         <v>1088</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>1089</v>
       </c>
       <c r="D101" s="18" t="str">
         <f t="shared" si="3"/>
         <v>enerj: approximate data types for safe and general low-power computation</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F101" s="9">
         <v>2011</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H101" s="18" t="s">
         <v>229</v>
@@ -31814,23 +31817,23 @@
         <v>100</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>1092</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>1093</v>
       </c>
       <c r="D102" s="18" t="str">
         <f t="shared" si="3"/>
         <v>static analysis for probabilistic programs: inferring whole program properties from finitely many paths</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F102" s="9">
         <v>2013</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H102" s="18" t="s">
         <v>229</v>
@@ -31893,23 +31896,23 @@
         <v>101</v>
       </c>
       <c r="B103" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>1095</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>1096</v>
       </c>
       <c r="D103" s="18" t="str">
         <f t="shared" si="3"/>
         <v>monte carlo methods for managing interactive state, action and feedback under uncertainty</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F103" s="9">
         <v>2011</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H103" s="18" t="s">
         <v>229</v>
@@ -31972,23 +31975,23 @@
         <v>102</v>
       </c>
       <c r="B104" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>1099</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>1100</v>
       </c>
       <c r="D104" s="18" t="str">
         <f t="shared" si="3"/>
         <v>global positioning system: the mathematics of gps receivers</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F104" s="9">
         <v>1998</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H104" s="18" t="s">
         <v>229</v>
@@ -32036,23 +32039,23 @@
         <v>103</v>
       </c>
       <c r="B105" s="9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C105" s="9" t="s">
         <v>1103</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>1104</v>
       </c>
       <c r="D105" s="18" t="str">
         <f t="shared" si="3"/>
         <v>towards programming tools for robots that integrate probabilistic computation and learning</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F105" s="9">
         <v>2000</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H105" s="18" t="s">
         <v>229</v>
@@ -32115,10 +32118,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C106" s="9" t="s">
         <v>1107</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>1108</v>
       </c>
       <c r="D106" s="18" t="str">
         <f t="shared" si="3"/>
@@ -32128,7 +32131,7 @@
         <v>1970</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H106" s="18" t="s">
         <v>229</v>
@@ -32176,17 +32179,17 @@
         <v>105</v>
       </c>
       <c r="B107" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C107" s="9" t="s">
         <v>1110</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>1111</v>
       </c>
       <c r="D107" s="18" t="str">
         <f t="shared" si="3"/>
         <v>sequential tests of statistical hypotheses</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F107" s="9">
         <v>1945</v>
@@ -32237,10 +32240,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C108" s="9" t="s">
         <v>1113</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>1114</v>
       </c>
       <c r="D108" s="18" t="str">
         <f t="shared" si="3"/>
@@ -32250,7 +32253,7 @@
         <v>2016</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>229</v>
@@ -32298,10 +32301,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C109" s="9" t="s">
         <v>1116</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>1117</v>
       </c>
       <c r="D109" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32311,7 +32314,7 @@
         <v>2015</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H109" s="19" t="s">
         <v>229</v>
@@ -32359,10 +32362,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C110" s="9" t="s">
         <v>1119</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>1120</v>
       </c>
       <c r="D110" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32372,7 +32375,7 @@
         <v>2009</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H110" s="19" t="s">
         <v>229</v>
@@ -32420,23 +32423,23 @@
         <v>109</v>
       </c>
       <c r="B111" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>1122</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>1123</v>
       </c>
       <c r="D111" s="9" t="str">
         <f t="shared" si="3"/>
         <v>cvode, a stiff/nonstiff ode solver in c</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F111" s="9">
         <v>1996</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H111" s="19" t="s">
         <v>229</v>
@@ -32484,10 +32487,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>1126</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>1127</v>
       </c>
       <c r="D112" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32497,7 +32500,7 @@
         <v>2010</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H112" s="19" t="s">
         <v>229</v>
@@ -32545,23 +32548,23 @@
         <v>111</v>
       </c>
       <c r="B113" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C113" s="9" t="s">
         <v>1129</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>1130</v>
       </c>
       <c r="D113" s="9" t="str">
         <f t="shared" si="3"/>
         <v>hybrid monte carlo</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F113" s="9">
         <v>1987</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H113" s="19" t="s">
         <v>229</v>
@@ -32609,10 +32612,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C114" s="9" t="s">
         <v>1133</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>1134</v>
       </c>
       <c r="D114" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32667,23 +32670,23 @@
         <v>113</v>
       </c>
       <c r="B115" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C115" s="9" t="s">
         <v>1135</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>1136</v>
       </c>
       <c r="D115" s="9" t="str">
         <f t="shared" si="3"/>
         <v>bayesian data analysis</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F115" s="9">
         <v>2013</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H115" s="19" t="s">
         <v>229</v>
@@ -32731,23 +32734,23 @@
         <v>114</v>
       </c>
       <c r="B116" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C116" s="9" t="s">
         <v>1139</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>1140</v>
       </c>
       <c r="D116" s="9" t="str">
         <f t="shared" si="3"/>
         <v>why we (usually) don’t have to worry about multiple comparisons</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F116" s="9">
         <v>2012</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H116" s="19" t="s">
         <v>229</v>
@@ -32795,23 +32798,23 @@
         <v>115</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C117" s="9" t="s">
         <v>1143</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>1144</v>
       </c>
       <c r="D117" s="9" t="str">
         <f t="shared" si="3"/>
         <v>inference from iterative simulation using multiple sequences</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F117" s="9">
         <v>1992</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H117" s="19" t="s">
         <v>229</v>
@@ -32859,23 +32862,23 @@
         <v>116</v>
       </c>
       <c r="B118" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C118" s="9" t="s">
         <v>1147</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>1148</v>
       </c>
       <c r="D118" s="9" t="str">
         <f t="shared" si="3"/>
         <v>introduction to markov chain monte carlo</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F118" s="9">
         <v>2011</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H118" s="19" t="s">
         <v>229</v>
@@ -32923,10 +32926,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C119" s="9" t="s">
         <v>1151</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>1152</v>
       </c>
       <c r="D119" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32936,7 +32939,7 @@
         <v>2016</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H119" s="19" t="s">
         <v>229</v>
@@ -32984,10 +32987,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D120" s="9" t="str">
         <f t="shared" si="3"/>
@@ -32997,7 +33000,7 @@
         <v>2010</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H120" s="19" t="s">
         <v>229</v>
@@ -33045,23 +33048,23 @@
         <v>119</v>
       </c>
       <c r="B121" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C121" s="9" t="s">
         <v>1157</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>1158</v>
       </c>
       <c r="D121" s="9" t="str">
         <f t="shared" si="3"/>
         <v>sundials: suite of nonlinear and differential/algebraic equation solvers</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F121" s="9">
         <v>2005</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H121" s="19" t="s">
         <v>229</v>
@@ -33109,23 +33112,23 @@
         <v>120</v>
       </c>
       <c r="B122" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C122" s="9" t="s">
         <v>1161</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>1162</v>
       </c>
       <c r="D122" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the no-u-turn sampler: adaptively setting path lengths in hamiltonian monte carlo</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F122" s="9">
         <v>2014</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H122" s="19" t="s">
         <v>229</v>
@@ -33173,23 +33176,23 @@
         <v>121</v>
       </c>
       <c r="B123" s="9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C123" s="9" t="s">
         <v>1165</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>1166</v>
       </c>
       <c r="D123" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the bugs book – a practical introduction to bayesian analysis</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F123" s="9">
         <v>2012</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H123" s="19" t="s">
         <v>229</v>
@@ -33237,23 +33240,23 @@
         <v>122</v>
       </c>
       <c r="B124" s="9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>1168</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>1169</v>
       </c>
       <c r="D124" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the bugs project: evolution, critique, and future directions</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F124" s="9">
         <v>2009</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H124" s="19" t="s">
         <v>229</v>
@@ -33301,23 +33304,23 @@
         <v>123</v>
       </c>
       <c r="B125" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>1172</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>1173</v>
       </c>
       <c r="D125" s="9" t="str">
         <f t="shared" si="3"/>
         <v>winbugs – a bayesian modelling framework: concepts, structure, and extensibility</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F125" s="9">
         <v>2000</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H125" s="19" t="s">
         <v>229</v>
@@ -33360,7 +33363,7 @@
         <v>1</v>
       </c>
       <c r="U125" s="21" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="V125" s="21" t="s">
         <v>225</v>
@@ -33380,23 +33383,23 @@
         <v>124</v>
       </c>
       <c r="B126" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C126" s="9" t="s">
         <v>1176</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>1177</v>
       </c>
       <c r="D126" s="9" t="str">
         <f t="shared" si="3"/>
         <v>equation of state calculations by fast computing machines</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F126" s="9">
         <v>1953</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H126" s="19" t="s">
         <v>229</v>
@@ -33444,17 +33447,17 @@
         <v>125</v>
       </c>
       <c r="B127" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>1180</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>1181</v>
       </c>
       <c r="D127" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the latex companion. tools and techniques for computer typesetting</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F127" s="9">
         <v>2004</v>
@@ -33506,23 +33509,23 @@
         <v>126</v>
       </c>
       <c r="B128" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C128" s="9" t="s">
         <v>1183</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>1184</v>
       </c>
       <c r="D128" s="9" t="str">
         <f t="shared" si="3"/>
         <v>mcmc using hamiltonian dynamics.</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F128" s="9">
         <v>2011</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H128" s="19" t="s">
         <v>229</v>
@@ -33570,23 +33573,23 @@
         <v>127</v>
       </c>
       <c r="B129" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>1186</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>1187</v>
       </c>
       <c r="D129" s="9" t="str">
         <f t="shared" si="3"/>
         <v>an improved acceptance procedure for the hybrid monte carlo algo- rithm</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F129" s="9">
         <v>1994</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H129" s="19" t="s">
         <v>229</v>
@@ -33634,23 +33637,23 @@
         <v>128</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D130" s="9" t="str">
         <f t="shared" si="3"/>
         <v>slice sampling</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F130" s="9">
         <v>2003</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H130" s="19" t="s">
         <v>229</v>
@@ -33698,17 +33701,17 @@
         <v>129</v>
       </c>
       <c r="B131" s="9" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C131" s="9" t="s">
         <v>1192</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>1193</v>
       </c>
       <c r="D131" s="9" t="str">
         <f t="shared" si="3"/>
         <v>numerical optimization</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F131" s="9">
         <v>2006</v>
@@ -33759,23 +33762,23 @@
         <v>130</v>
       </c>
       <c r="B132" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C132" s="9" t="s">
         <v>1195</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>1196</v>
       </c>
       <c r="D132" s="9" t="str">
         <f t="shared" si="3"/>
         <v>jags: a program for analysis of bayesian graphical models using gibbs sampling</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F132" s="9">
         <v>2003</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H132" s="19" t="s">
         <v>229</v>
@@ -33818,7 +33821,7 @@
         <v>1</v>
       </c>
       <c r="U132" s="9" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="V132" s="9" t="s">
         <v>225</v>
@@ -33838,23 +33841,23 @@
         <v>131</v>
       </c>
       <c r="B133" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C133" s="9" t="s">
         <v>1199</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>1200</v>
       </c>
       <c r="D133" s="9" t="str">
         <f t="shared" si="3"/>
         <v>code: convergence diagnosis and out- put analysis for mcmc</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F133" s="9">
         <v>2006</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H133" s="19" t="s">
         <v>229</v>
@@ -33902,23 +33905,23 @@
         <v>132</v>
       </c>
       <c r="B134" s="9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C134" s="9" t="s">
         <v>1203</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>1204</v>
       </c>
       <c r="D134" s="9" t="str">
         <f t="shared" si="3"/>
         <v>r: a language and environment for statistical computing</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F134" s="9">
         <v>2016</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H134" s="19" t="s">
         <v>229</v>
@@ -33966,23 +33969,23 @@
         <v>133</v>
       </c>
       <c r="B135" s="9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C135" s="9" t="s">
         <v>1207</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>1208</v>
       </c>
       <c r="D135" s="9" t="str">
         <f t="shared" si="3"/>
         <v>the boost c++ libraries</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F135" s="9">
         <v>2011</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H135" s="19" t="s">
         <v>229</v>
@@ -34030,23 +34033,23 @@
         <v>134</v>
       </c>
       <c r="B136" s="9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C136" s="9" t="s">
         <v>1211</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>1212</v>
       </c>
       <c r="D136" s="9" t="str">
         <f t="shared" si="3"/>
         <v>jenkins: the definitive guide</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F136" s="9">
         <v>2011</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H136" s="19" t="s">
         <v>229</v>
@@ -34094,23 +34097,23 @@
         <v>135</v>
       </c>
       <c r="B137" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C137" s="9" t="s">
         <v>1215</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>1216</v>
       </c>
       <c r="D137" s="9" t="str">
         <f t="shared" si="3"/>
         <v>stan modeling language user’s guide and reference manual</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F137" s="9">
         <v>2016</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H137" s="19" t="s">
         <v>229</v>
@@ -34158,10 +34161,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C138" s="9" t="s">
         <v>1219</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>1220</v>
       </c>
       <c r="D138" s="9" t="str">
         <f t="shared" si="3"/>
@@ -34171,7 +34174,7 @@
         <v>2016</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H138" s="19" t="s">
         <v>229</v>
@@ -34219,10 +34222,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C139" s="9" t="s">
         <v>1222</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>1223</v>
       </c>
       <c r="D139" s="9" t="str">
         <f t="shared" si="3"/>
@@ -34232,7 +34235,7 @@
         <v>2016</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H139" s="19" t="s">
         <v>229</v>
@@ -34280,10 +34283,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C140" s="9" t="s">
         <v>1225</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>1226</v>
       </c>
       <c r="D140" s="20" t="str">
         <f t="shared" si="3"/>
@@ -34296,7 +34299,7 @@
         <v>2004</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H140" s="20" t="s">
         <v>229</v>
@@ -34344,23 +34347,23 @@
         <v>139</v>
       </c>
       <c r="B141" s="9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C141" s="20" t="s">
         <v>1228</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>1229</v>
       </c>
       <c r="D141" s="20" t="str">
         <f t="shared" ref="D141:D205" si="4">TRIM(LOWER(C141))</f>
         <v>extendable physical unit checking with understandable error reporting</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F141" s="9">
         <v>2009</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H141" s="20" t="s">
         <v>229</v>
@@ -34408,7 +34411,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>914</v>
@@ -34439,10 +34442,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C143" s="9" t="s">
         <v>1233</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>1234</v>
       </c>
       <c r="D143" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34452,7 +34455,7 @@
         <v>2016</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H143" s="20" t="s">
         <v>229</v>
@@ -34500,23 +34503,23 @@
         <v>142</v>
       </c>
       <c r="B144" s="9" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C144" s="9" t="s">
         <v>1236</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>1237</v>
       </c>
       <c r="D144" s="20" t="str">
         <f t="shared" si="4"/>
         <v>natural unit representation in modelica</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F144" s="9">
         <v>2012</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H144" s="20" t="s">
         <v>229</v>
@@ -34564,10 +34567,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C145" s="9" t="s">
         <v>1239</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>1240</v>
       </c>
       <c r="D145" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34580,7 +34583,7 @@
         <v>2009</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H145" s="20" t="s">
         <v>229</v>
@@ -34631,14 +34634,14 @@
         <v>684</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D146" s="20" t="str">
         <f t="shared" si="4"/>
         <v>quantity: represent dimensioned values with both their amount and their unit</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H146" s="20" t="s">
         <v>229</v>
@@ -34668,7 +34671,7 @@
         <v>684</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D147" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34678,7 +34681,7 @@
         <v>1997</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H147" s="20" t="s">
         <v>229</v>
@@ -34726,10 +34729,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C148" s="9" t="s">
         <v>1246</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>1247</v>
       </c>
       <c r="D148" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34742,7 +34745,7 @@
         <v>1998</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H148" s="20" t="s">
         <v>229</v>
@@ -34790,7 +34793,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>929</v>
@@ -34821,10 +34824,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>1250</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>1251</v>
       </c>
       <c r="D150" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34834,7 +34837,7 @@
         <v>2016</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H150" s="20" t="s">
         <v>229</v>
@@ -34882,10 +34885,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C151" s="9" t="s">
         <v>1253</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>1254</v>
       </c>
       <c r="D151" s="20" t="str">
         <f t="shared" si="4"/>
@@ -34895,7 +34898,7 @@
         <v>2014</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H151" s="20" t="s">
         <v>229</v>
@@ -34943,23 +34946,23 @@
         <v>150</v>
       </c>
       <c r="B152" s="9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C152" s="9" t="s">
         <v>1256</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>1257</v>
       </c>
       <c r="D152" s="20" t="str">
         <f t="shared" si="4"/>
         <v>the systems biology markup language (sbml): a medium for representation and exchange of bio- chemical network models</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F152" s="9">
         <v>2003</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H152" s="20" t="s">
         <v>229</v>
@@ -35007,23 +35010,23 @@
         <v>151</v>
       </c>
       <c r="B153" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C153" s="9" t="s">
         <v>1260</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>1261</v>
       </c>
       <c r="D153" s="20" t="str">
         <f t="shared" si="4"/>
         <v>mars climate orbiter fail- ure board releases report, numerous nasa actions un- derway in response</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F153" s="9">
         <v>1999</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H153" s="20" t="s">
         <v>229</v>
@@ -35139,10 +35142,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C156" s="9" t="s">
         <v>1264</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>1265</v>
       </c>
       <c r="D156" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35173,7 +35176,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C157" s="9" t="s">
         <v>946</v>
@@ -35183,7 +35186,7 @@
         <v>generating optimized configurable business process models in scenarios subject to uncertainty</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H157" s="20" t="s">
         <v>229</v>
@@ -35207,10 +35210,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C158" s="9" t="s">
         <v>1268</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>1269</v>
       </c>
       <c r="D158" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35220,7 +35223,7 @@
         <v>2002</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H158" s="20" t="s">
         <v>229</v>
@@ -35268,10 +35271,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C159" s="9" t="s">
         <v>1271</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>1272</v>
       </c>
       <c r="D159" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35284,7 +35287,7 @@
         <v>1997</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H159" s="20" t="s">
         <v>229</v>
@@ -35332,23 +35335,23 @@
         <v>158</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D160" s="20" t="str">
         <f t="shared" si="4"/>
         <v>types for units-of-measure: theory and practice</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F160" s="9">
         <v>2009</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H160" s="20" t="s">
         <v>229</v>
@@ -35396,10 +35399,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C161" s="9" t="s">
         <v>1277</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>1278</v>
       </c>
       <c r="D161" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35409,7 +35412,7 @@
         <v>2016</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H161" s="20" t="s">
         <v>229</v>
@@ -35457,7 +35460,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C162" s="9" t="s">
         <v>954</v>
@@ -35491,10 +35494,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C163" s="9" t="s">
         <v>1281</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>1282</v>
       </c>
       <c r="D163" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35504,7 +35507,7 @@
         <v>2016</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H163" s="20" t="s">
         <v>229</v>
@@ -35552,23 +35555,23 @@
         <v>162</v>
       </c>
       <c r="B164" s="9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C164" s="9" t="s">
         <v>1284</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>1285</v>
       </c>
       <c r="D164" s="20" t="str">
         <f t="shared" si="4"/>
         <v>unit checking and quantity conservation</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F164" s="9">
         <v>2008</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H164" s="20" t="s">
         <v>229</v>
@@ -35616,10 +35619,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C165" s="9" t="s">
         <v>1287</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>1288</v>
       </c>
       <c r="D165" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35632,7 +35635,7 @@
         <v>2013</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H165" s="20" t="s">
         <v>229</v>
@@ -35680,10 +35683,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="9" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C166" s="9" t="s">
         <v>1290</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>1291</v>
       </c>
       <c r="D166" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35693,7 +35696,7 @@
         <v>2016</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H166" s="20" t="s">
         <v>229</v>
@@ -35741,10 +35744,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="9" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C167" s="9" t="s">
         <v>1293</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>1294</v>
       </c>
       <c r="D167" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35757,7 +35760,7 @@
         <v>2016</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H167" s="20" t="s">
         <v>229</v>
@@ -35932,7 +35935,7 @@
         <v>968</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D172" s="20" t="str">
         <f t="shared" si="4"/>
@@ -35945,7 +35948,7 @@
         <v>2016</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H172" s="20" t="s">
         <v>229</v>
@@ -35993,10 +35996,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C173" s="9" t="s">
         <v>1298</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>1299</v>
       </c>
       <c r="D173" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36006,7 +36009,7 @@
         <v>2016</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H173" s="20" t="s">
         <v>229</v>
@@ -36054,23 +36057,23 @@
         <v>172</v>
       </c>
       <c r="B174" s="9" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C174" s="9" t="s">
         <v>1301</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>1302</v>
       </c>
       <c r="D174" s="20" t="str">
         <f t="shared" si="4"/>
         <v>cyber- physical systems: the next computing revolution</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F174" s="9">
         <v>2010</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H174" s="20" t="s">
         <v>229</v>
@@ -36118,10 +36121,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="9" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C175" s="9" t="s">
         <v>1305</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>1306</v>
       </c>
       <c r="D175" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36131,7 +36134,7 @@
         <v>2007</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H175" s="20" t="s">
         <v>229</v>
@@ -36179,7 +36182,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C176" s="9" t="s">
         <v>984</v>
@@ -36210,23 +36213,23 @@
         <v>175</v>
       </c>
       <c r="B177" s="9" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C177" s="9" t="s">
         <v>1309</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>1310</v>
       </c>
       <c r="D177" s="20" t="str">
         <f t="shared" si="4"/>
         <v>the international system of units (si)</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F177" s="9">
         <v>2008</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H177" s="20" t="s">
         <v>229</v>
@@ -36274,7 +36277,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C178" s="22" t="s">
         <v>876</v>
@@ -36305,7 +36308,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>992</v>
@@ -36336,10 +36339,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="9" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C180" s="20" t="s">
         <v>1315</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>1316</v>
       </c>
       <c r="D180" s="20" t="str">
         <f t="shared" si="4"/>
@@ -36349,7 +36352,7 @@
         <v>2016</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H180" s="20" t="s">
         <v>229</v>
@@ -36397,7 +36400,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>954</v>
@@ -36428,7 +36431,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>910</v>
@@ -36459,7 +36462,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>984</v>
@@ -36490,10 +36493,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D184" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36506,7 +36509,7 @@
         <v>2016</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H184" s="21" t="s">
         <v>229</v>
@@ -36622,10 +36625,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C187" s="9" t="s">
         <v>1264</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>1265</v>
       </c>
       <c r="D187" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36724,7 +36727,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C190" s="9" t="s">
         <v>946</v>
@@ -36734,7 +36737,7 @@
         <v>generating optimized configurable business process models in scenarios subject to uncertainty</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H190" s="21" t="s">
         <v>229</v>
@@ -36851,10 +36854,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="9" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C194" s="9" t="s">
         <v>1322</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>1323</v>
       </c>
       <c r="D194" s="21" t="str">
         <f t="shared" si="4"/>
@@ -36867,7 +36870,7 @@
         <v>2008</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H194" s="21" t="s">
         <v>229</v>
@@ -36915,23 +36918,23 @@
         <v>193</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D195" s="21" t="str">
         <f t="shared" si="4"/>
         <v>specifying aggregation functions in multidimensional models with ocl</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F195" s="9">
         <v>2010</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H195" s="21" t="s">
         <v>229</v>
@@ -36979,23 +36982,23 @@
         <v>194</v>
       </c>
       <c r="B196" s="9" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C196" s="9" t="s">
         <v>1329</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>1330</v>
       </c>
       <c r="D196" s="21" t="str">
         <f t="shared" si="4"/>
         <v>benefits and problems of formal methods</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F196" s="9">
         <v>2004</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H196" s="21" t="s">
         <v>229</v>
@@ -37043,23 +37046,23 @@
         <v>195</v>
       </c>
       <c r="B197" s="9" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C197" s="9" t="s">
         <v>1332</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>1333</v>
       </c>
       <c r="D197" s="21" t="str">
         <f t="shared" si="4"/>
         <v>a summary of error propagation</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F197" s="9">
         <v>2014</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H197" s="21" t="s">
         <v>229</v>
@@ -37107,10 +37110,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="9" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C198" s="9" t="s">
         <v>1336</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>1337</v>
       </c>
       <c r="D198" s="21" t="str">
         <f t="shared" si="4"/>
@@ -37120,7 +37123,7 @@
         <v>2015</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H198" s="21" t="s">
         <v>229</v>
@@ -37168,10 +37171,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="9" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C199" s="9" t="s">
         <v>1293</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>1294</v>
       </c>
       <c r="D199" s="21" t="str">
         <f t="shared" si="4"/>
@@ -37199,23 +37202,23 @@
         <v>198</v>
       </c>
       <c r="B200" s="9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C200" s="9" t="s">
         <v>1339</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>1340</v>
       </c>
       <c r="D200" s="21" t="str">
         <f t="shared" si="4"/>
         <v>accuracy and stability of numerical algorithms</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F200" s="9">
         <v>1996</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H200" s="21" t="s">
         <v>229</v>
@@ -37263,23 +37266,23 @@
         <v>199</v>
       </c>
       <c r="B201" s="9" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C201" s="22" t="s">
         <v>1343</v>
-      </c>
-      <c r="C201" s="22" t="s">
-        <v>1344</v>
       </c>
       <c r="D201" s="21" t="str">
         <f t="shared" si="4"/>
         <v>handbook of floating-point arithmetic</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F201" s="9">
         <v>2010</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H201" s="21" t="s">
         <v>229</v>
@@ -37327,23 +37330,23 @@
         <v>200</v>
       </c>
       <c r="B202" s="9" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C202" s="9" t="s">
         <v>1347</v>
-      </c>
-      <c r="C202" s="9" t="s">
-        <v>1348</v>
       </c>
       <c r="D202" s="21" t="str">
         <f t="shared" si="4"/>
         <v>the guesstimate blog</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F202" s="9">
         <v>2015</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H202" s="21" t="s">
         <v>229</v>
@@ -37391,10 +37394,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C203" s="9" t="s">
         <v>1351</v>
-      </c>
-      <c r="C203" s="9" t="s">
-        <v>1352</v>
       </c>
       <c r="D203" s="21" t="str">
         <f t="shared" si="4"/>
@@ -37455,7 +37458,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C204" s="9" t="s">
         <v>925</v>
@@ -37486,7 +37489,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C205" s="9" t="s">
         <v>797</v>
@@ -37517,7 +37520,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>921</v>
@@ -37548,7 +37551,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C207" s="9" t="s">
         <v>981</v>
@@ -37579,10 +37582,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D208" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37610,7 +37613,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C209" s="9" t="s">
         <v>936</v>
@@ -37641,7 +37644,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C210" s="9" t="s">
         <v>929</v>
@@ -37675,7 +37678,7 @@
         <v>968</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D211" s="21" t="str">
         <f t="shared" si="6"/>
@@ -37703,10 +37706,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C212" s="9" t="s">
         <v>1287</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>1288</v>
       </c>
       <c r="D212" s="21" t="str">
         <f t="shared" si="6"/>
